--- a/Batch File/File - Tab - Cell - (start of recursive resolver) - New.xlsx
+++ b/Batch File/File - Tab - Cell - (start of recursive resolver) - New.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mordrel-my.sharepoint.com/personal/matthieu_mordrel_pro/Documents/Work/Projects/Kovera/Project 2/Scripts/Project/Batch File/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="294" documentId="8_{9249E20C-2A1A-4D5B-AF97-066FDAA15AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B2E2025-2907-4C1A-9D8A-0B029CE4F1F6}"/>
+  <xr:revisionPtr revIDLastSave="306" documentId="8_{9249E20C-2A1A-4D5B-AF97-066FDAA15AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3D1D7F1-038E-43ED-86A0-6C68EDE580B2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FB1F73C2-3A7C-4D28-BF2A-BCBC768C2592}"/>
+    <workbookView xWindow="38280" yWindow="3510" windowWidth="29040" windowHeight="15840" xr2:uid="{FB1F73C2-3A7C-4D28-BF2A-BCBC768C2592}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10324" uniqueCount="1997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10274" uniqueCount="1997">
   <si>
     <t>2022 - P1 berekening kolomkast 2137.xlsx</t>
   </si>
@@ -6168,23 +6168,25 @@
       <sheetName val="E_R (surface)"/>
       <sheetName val="E_R (LM)"/>
       <sheetName val="E_AFVAL"/>
+      <sheetName val="12. Grouped Data"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6195,8 +6197,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}" name="Table2" displayName="Table2" ref="A1:D31" totalsRowShown="0">
-  <autoFilter ref="A1:D31" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}" name="Table2" displayName="Table2" ref="A1:D21" totalsRowShown="0">
+  <autoFilter ref="A1:D21" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{EAD2BB95-0271-4DE1-860E-94A419353B53}" name="Product_Id"/>
     <tableColumn id="2" xr3:uid="{42247E71-8EC0-4CEB-B24A-D3FBFE9449A8}" name="File"/>
@@ -6547,7 +6549,7 @@
   <dimension ref="A1:O313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6559,9 +6561,10 @@
     <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="77.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1993</v>
       </c>
@@ -6580,16 +6583,16 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1531</v>
+        <v>1580</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G2" t="str" cm="1">
         <f t="array" ref="G2:G313">_xlfn._xlws.FILTER([1]!Products_Table[Product_ID],([1]!Products_Table[Price check]=FALSE)*([1]!Products_Table[Composition]&lt;&gt;"Element(s)"))</f>
@@ -6613,16 +6616,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1532</v>
+        <v>1570</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G3" t="str">
         <v>CO2PBL120_10</v>
@@ -6642,16 +6645,16 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1533</v>
+        <v>1579</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G4" t="str">
         <v>CO2PBL110_10</v>
@@ -6666,11 +6669,11 @@
         <v>O11</v>
       </c>
       <c r="L4" t="s">
-        <v>1531</v>
+        <v>1580</v>
       </c>
       <c r="M4" t="str" cm="1">
         <f t="array" ref="M4:M33">_xlfn.BYROW(L4:L33,_xlfn.LAMBDA(_xlpm.id,_xlfn.XLOOKUP(_xlpm.id,Table3[Product_ID],Table3[File],"",0,1)))</f>
-        <v>2022 - P1 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P10 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
       </c>
       <c r="N4" t="str" cm="1">
         <f t="array" ref="N4:N33">_xlfn.BYROW(L4:L33,_xlfn.LAMBDA(_xlpm.id,_xlfn.XLOOKUP(_xlpm.id,Table3[Product_ID],Table3[Tab],"",0,1)))</f>
@@ -6678,21 +6681,21 @@
       </c>
       <c r="O4" t="str" cm="1">
         <f t="array" ref="O4:O33">_xlfn.BYROW(L4:L33,_xlfn.LAMBDA(_xlpm.id,_xlfn.XLOOKUP(_xlpm.id,Table3[Product_ID],Table3[Cell],"",0,1)))</f>
-        <v>L11</v>
+        <v>P11</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1534</v>
+        <v>1569</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
         <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G5" t="str">
         <v>CO2PBL120_9</v>
@@ -6707,30 +6710,30 @@
         <v>P11</v>
       </c>
       <c r="L5" t="s">
-        <v>1532</v>
+        <v>1570</v>
       </c>
       <c r="M5" t="str">
-        <v>2022 -P2 Berekening 2b Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P10 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
       </c>
       <c r="N5" t="str">
         <v>OVERZICHT COP</v>
       </c>
       <c r="O5" t="str">
-        <v>L11</v>
+        <v>O11</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1535</v>
+        <v>1578</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
         <v>126</v>
       </c>
       <c r="D6" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G6" t="str">
         <v>CO2PBL110_9</v>
@@ -6745,30 +6748,30 @@
         <v>O11</v>
       </c>
       <c r="L6" t="s">
-        <v>1533</v>
+        <v>1579</v>
       </c>
       <c r="M6" t="str">
-        <v>2022 -P3 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P9 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
       </c>
       <c r="N6" t="str">
         <v>OVERZICHT COP</v>
       </c>
       <c r="O6" t="str">
-        <v>L11</v>
+        <v>P11</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1536</v>
+        <v>1577</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
         <v>126</v>
       </c>
       <c r="D7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G7" t="str">
         <v>CO2PBL120_8</v>
@@ -6783,30 +6786,30 @@
         <v>P11</v>
       </c>
       <c r="L7" t="s">
-        <v>1534</v>
+        <v>1569</v>
       </c>
       <c r="M7" t="str">
-        <v>2022 -P4 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P9 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
       </c>
       <c r="N7" t="str">
         <v>OVERZICHT COP</v>
       </c>
       <c r="O7" t="str">
-        <v>L11</v>
+        <v>O11</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1537</v>
+        <v>1568</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
         <v>126</v>
       </c>
       <c r="D8" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G8" t="str">
         <v>CO2PBL120_7</v>
@@ -6821,30 +6824,30 @@
         <v>P11</v>
       </c>
       <c r="L8" t="s">
-        <v>1535</v>
+        <v>1578</v>
       </c>
       <c r="M8" t="str">
-        <v>2022 -P5 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P8 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
       </c>
       <c r="N8" t="str">
         <v>OVERZICHT COP</v>
       </c>
       <c r="O8" t="str">
-        <v>L11</v>
+        <v>P11</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1538</v>
+        <v>1576</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
         <v>126</v>
       </c>
       <c r="D9" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G9" t="str">
         <v>CO2PBL110_8</v>
@@ -6859,30 +6862,30 @@
         <v>O11</v>
       </c>
       <c r="L9" t="s">
-        <v>1536</v>
+        <v>1577</v>
       </c>
       <c r="M9" t="str">
-        <v>2022 -P6 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P7 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
       </c>
       <c r="N9" t="str">
         <v>OVERZICHT COP</v>
       </c>
       <c r="O9" t="str">
-        <v>L11</v>
+        <v>P11</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1539</v>
+        <v>1567</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
         <v>126</v>
       </c>
       <c r="D10" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G10" t="str">
         <v>CO2PBL120_6</v>
@@ -6897,30 +6900,30 @@
         <v>P11</v>
       </c>
       <c r="L10" t="s">
-        <v>1537</v>
+        <v>1568</v>
       </c>
       <c r="M10" t="str">
-        <v>2022 -P7 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P8 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
       </c>
       <c r="N10" t="str">
         <v>OVERZICHT COP</v>
       </c>
       <c r="O10" t="str">
-        <v>L11</v>
+        <v>O11</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1540</v>
+        <v>1566</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s">
         <v>126</v>
       </c>
       <c r="D11" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G11" t="str">
         <v>CO2PBL110_7</v>
@@ -6935,30 +6938,30 @@
         <v>O11</v>
       </c>
       <c r="L11" t="s">
-        <v>1538</v>
+        <v>1576</v>
       </c>
       <c r="M11" t="str">
-        <v>2022 -P8 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P6 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
       </c>
       <c r="N11" t="str">
         <v>OVERZICHT COP</v>
       </c>
       <c r="O11" t="str">
-        <v>L11</v>
+        <v>P11</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1541</v>
+        <v>1575</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
         <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G12" t="str">
         <v>CO2PBL110_6</v>
@@ -6973,30 +6976,30 @@
         <v>O11</v>
       </c>
       <c r="L12" t="s">
-        <v>1539</v>
+        <v>1567</v>
       </c>
       <c r="M12" t="str">
-        <v>2022 -P9 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P7 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
       </c>
       <c r="N12" t="str">
         <v>OVERZICHT COP</v>
       </c>
       <c r="O12" t="str">
-        <v>L11</v>
+        <v>O11</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1542</v>
+        <v>1565</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
         <v>126</v>
       </c>
       <c r="D13" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G13" t="str">
         <v>CO2PBL120_5</v>
@@ -7011,30 +7014,30 @@
         <v>P11</v>
       </c>
       <c r="L13" t="s">
-        <v>1540</v>
+        <v>1566</v>
       </c>
       <c r="M13" t="str">
-        <v>2022 -P10 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P6 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
       </c>
       <c r="N13" t="str">
         <v>OVERZICHT COP</v>
       </c>
       <c r="O13" t="str">
-        <v>L11</v>
+        <v>O11</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1543</v>
+        <v>1574</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
         <v>126</v>
       </c>
       <c r="D14" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G14" t="str">
         <v>CO2PBL110_5</v>
@@ -7049,21 +7052,21 @@
         <v>O11</v>
       </c>
       <c r="L14" t="s">
-        <v>1541</v>
+        <v>1575</v>
       </c>
       <c r="M14" t="str">
-        <v>2022 - P1 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P5 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
       </c>
       <c r="N14" t="str">
         <v>OVERZICHT COP</v>
       </c>
       <c r="O14" t="str">
-        <v>M11</v>
+        <v>P11</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1544</v>
+        <v>1564</v>
       </c>
       <c r="B15" t="s">
         <v>129</v>
@@ -7072,7 +7075,7 @@
         <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G15" t="str">
         <v>CO2PBL120_4</v>
@@ -7087,30 +7090,30 @@
         <v>P11</v>
       </c>
       <c r="L15" t="s">
-        <v>1542</v>
+        <v>1565</v>
       </c>
       <c r="M15" t="str">
-        <v>2022 -P2 Berekening 2b Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P5 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
       </c>
       <c r="N15" t="str">
         <v>OVERZICHT COP</v>
       </c>
       <c r="O15" t="str">
-        <v>M11</v>
+        <v>O11</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1545</v>
+        <v>1573</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C16" t="s">
         <v>126</v>
       </c>
       <c r="D16" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G16" t="str">
         <v>CO2PBL110_4</v>
@@ -7125,30 +7128,30 @@
         <v>O11</v>
       </c>
       <c r="L16" t="s">
-        <v>1543</v>
+        <v>1574</v>
       </c>
       <c r="M16" t="str">
-        <v>2022 -P3 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P4 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
       </c>
       <c r="N16" t="str">
         <v>OVERZICHT COP</v>
       </c>
       <c r="O16" t="str">
-        <v>M11</v>
+        <v>P11</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1546</v>
+        <v>1563</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s">
         <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G17" t="str">
         <v>CO2PBL120_3</v>
@@ -7163,7 +7166,7 @@
         <v>P11</v>
       </c>
       <c r="L17" t="s">
-        <v>1544</v>
+        <v>1564</v>
       </c>
       <c r="M17" t="str">
         <v>2022 -P4 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
@@ -7172,21 +7175,21 @@
         <v>OVERZICHT COP</v>
       </c>
       <c r="O17" t="str">
-        <v>M11</v>
+        <v>O11</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1547</v>
+        <v>1572</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s">
         <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G18" t="str">
         <v>CO2PBL110_3</v>
@@ -7201,30 +7204,30 @@
         <v>O11</v>
       </c>
       <c r="L18" t="s">
-        <v>1545</v>
+        <v>1573</v>
       </c>
       <c r="M18" t="str">
-        <v>2022 -P5 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P3 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
       </c>
       <c r="N18" t="str">
         <v>OVERZICHT COP</v>
       </c>
       <c r="O18" t="str">
-        <v>M11</v>
+        <v>P11</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1548</v>
+        <v>1562</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C19" t="s">
         <v>126</v>
       </c>
       <c r="D19" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G19" t="str">
         <v>CO2PBL120_2</v>
@@ -7239,30 +7242,30 @@
         <v>P11</v>
       </c>
       <c r="L19" t="s">
-        <v>1546</v>
+        <v>1563</v>
       </c>
       <c r="M19" t="str">
-        <v>2022 -P6 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P3 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
       </c>
       <c r="N19" t="str">
         <v>OVERZICHT COP</v>
       </c>
       <c r="O19" t="str">
-        <v>M11</v>
+        <v>O11</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1549</v>
+        <v>1561</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
         <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G20" t="str">
         <v>CO2PBL110_2</v>
@@ -7277,30 +7280,30 @@
         <v>O11</v>
       </c>
       <c r="L20" t="s">
-        <v>1547</v>
+        <v>1572</v>
       </c>
       <c r="M20" t="str">
-        <v>2022 -P7 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P2 Berekening 2b Ladenkasten 794-KLEUR.xlsx</v>
       </c>
       <c r="N20" t="str">
         <v>OVERZICHT COP</v>
       </c>
       <c r="O20" t="str">
-        <v>M11</v>
+        <v>P11</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1550</v>
+        <v>1571</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C21" t="s">
         <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G21" t="str">
         <v>CO2PBL110_1</v>
@@ -7315,31 +7318,19 @@
         <v>O11</v>
       </c>
       <c r="L21" t="s">
-        <v>1548</v>
+        <v>1562</v>
       </c>
       <c r="M21" t="str">
-        <v>2022 -P8 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P2 Berekening 2b Ladenkasten 794-KLEUR.xlsx</v>
       </c>
       <c r="N21" t="str">
         <v>OVERZICHT COP</v>
       </c>
       <c r="O21" t="str">
-        <v>M11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>1551</v>
-      </c>
-      <c r="B22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" t="s">
-        <v>247</v>
-      </c>
+        <v>O11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G22" t="str">
         <v>CO2PBL120_1</v>
       </c>
@@ -7353,31 +7344,19 @@
         <v>P11</v>
       </c>
       <c r="L22" t="s">
-        <v>1549</v>
+        <v>1561</v>
       </c>
       <c r="M22" t="str">
-        <v>2022 -P9 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 - P1 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
       </c>
       <c r="N22" t="str">
         <v>OVERZICHT COP</v>
       </c>
       <c r="O22" t="str">
-        <v>M11</v>
+        <v>O11</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1552</v>
-      </c>
-      <c r="B23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" t="s">
-        <v>247</v>
-      </c>
       <c r="G23" t="str">
         <v>CK222B50PB4_10</v>
       </c>
@@ -7391,31 +7370,19 @@
         <v>H44</v>
       </c>
       <c r="L23" t="s">
-        <v>1550</v>
+        <v>1571</v>
       </c>
       <c r="M23" t="str">
-        <v>2022 -P10 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 - P1 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
       </c>
       <c r="N23" t="str">
         <v>OVERZICHT COP</v>
       </c>
       <c r="O23" t="str">
-        <v>M11</v>
+        <v>P11</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>1553</v>
-      </c>
-      <c r="B24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" t="s">
-        <v>247</v>
-      </c>
       <c r="G24" t="str">
         <v>CK222C50PB4_10</v>
       </c>
@@ -7428,32 +7395,17 @@
       <c r="J24" t="str">
         <v>H44</v>
       </c>
-      <c r="L24" t="s">
-        <v>1551</v>
-      </c>
       <c r="M24" t="str">
-        <v>2022 - P1 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v/>
       </c>
       <c r="N24" t="str">
-        <v>OVERZICHT COP</v>
+        <v/>
       </c>
       <c r="O24" t="str">
-        <v>N11</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>1554</v>
-      </c>
-      <c r="B25" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" t="s">
-        <v>247</v>
-      </c>
       <c r="G25" t="str">
         <v>C132B60-G_6</v>
       </c>
@@ -7466,32 +7418,17 @@
       <c r="J25" t="str">
         <v>J3</v>
       </c>
-      <c r="L25" t="s">
-        <v>1552</v>
-      </c>
       <c r="M25" t="str">
-        <v>2022 -P2 Berekening 2b Ladenkasten 794-KLEUR.xlsx</v>
+        <v/>
       </c>
       <c r="N25" t="str">
-        <v>OVERZICHT COP</v>
+        <v/>
       </c>
       <c r="O25" t="str">
-        <v>N11</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>1555</v>
-      </c>
-      <c r="B26" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26" t="s">
-        <v>247</v>
-      </c>
       <c r="G26" t="str">
         <v>C141B60-G_9</v>
       </c>
@@ -7504,32 +7441,17 @@
       <c r="J26" t="str">
         <v>J3</v>
       </c>
-      <c r="L26" t="s">
-        <v>1553</v>
-      </c>
       <c r="M26" t="str">
-        <v>2022 -P3 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v/>
       </c>
       <c r="N26" t="str">
-        <v>OVERZICHT COP</v>
+        <v/>
       </c>
       <c r="O26" t="str">
-        <v>N11</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>1556</v>
-      </c>
-      <c r="B27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" t="s">
-        <v>247</v>
-      </c>
       <c r="G27" t="str">
         <v>C132B45-G_6</v>
       </c>
@@ -7542,32 +7464,17 @@
       <c r="J27" t="str">
         <v>G3</v>
       </c>
-      <c r="L27" t="s">
-        <v>1554</v>
-      </c>
       <c r="M27" t="str">
-        <v>2022 -P4 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v/>
       </c>
       <c r="N27" t="str">
-        <v>OVERZICHT COP</v>
+        <v/>
       </c>
       <c r="O27" t="str">
-        <v>N11</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B28" t="s">
-        <v>132</v>
-      </c>
-      <c r="C28" t="s">
-        <v>126</v>
-      </c>
-      <c r="D28" t="s">
-        <v>247</v>
-      </c>
       <c r="G28" t="str">
         <v>C132B60-G_9</v>
       </c>
@@ -7580,32 +7487,17 @@
       <c r="J28" t="str">
         <v>J3</v>
       </c>
-      <c r="L28" t="s">
-        <v>1555</v>
-      </c>
       <c r="M28" t="str">
-        <v>2022 -P5 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v/>
       </c>
       <c r="N28" t="str">
-        <v>OVERZICHT COP</v>
+        <v/>
       </c>
       <c r="O28" t="str">
-        <v>N11</v>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>1558</v>
-      </c>
-      <c r="B29" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" t="s">
-        <v>247</v>
-      </c>
       <c r="G29" t="str">
         <v>C141B55-G_9</v>
       </c>
@@ -7618,32 +7510,17 @@
       <c r="J29" t="str">
         <v>I3</v>
       </c>
-      <c r="L29" t="s">
-        <v>1556</v>
-      </c>
       <c r="M29" t="str">
-        <v>2022 -P6 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v/>
       </c>
       <c r="N29" t="str">
-        <v>OVERZICHT COP</v>
+        <v/>
       </c>
       <c r="O29" t="str">
-        <v>N11</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>1559</v>
-      </c>
-      <c r="B30" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" t="s">
-        <v>247</v>
-      </c>
       <c r="G30" t="str">
         <v>C141BL60-G_9</v>
       </c>
@@ -7656,32 +7533,17 @@
       <c r="J30" t="str">
         <v>J3</v>
       </c>
-      <c r="L30" t="s">
-        <v>1557</v>
-      </c>
       <c r="M30" t="str">
-        <v>2022 -P7 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v/>
       </c>
       <c r="N30" t="str">
-        <v>OVERZICHT COP</v>
+        <v/>
       </c>
       <c r="O30" t="str">
-        <v>N11</v>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>1560</v>
-      </c>
-      <c r="B31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" t="s">
-        <v>247</v>
-      </c>
       <c r="G31" t="str">
         <v>C132B55-G_9</v>
       </c>
@@ -7694,17 +7556,14 @@
       <c r="J31" t="str">
         <v>I3</v>
       </c>
-      <c r="L31" t="s">
-        <v>1558</v>
-      </c>
       <c r="M31" t="str">
-        <v>2022 -P8 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v/>
       </c>
       <c r="N31" t="str">
-        <v>OVERZICHT COP</v>
+        <v/>
       </c>
       <c r="O31" t="str">
-        <v>N11</v>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -7720,17 +7579,14 @@
       <c r="J32" t="str">
         <v>H3</v>
       </c>
-      <c r="L32" t="s">
-        <v>1559</v>
-      </c>
       <c r="M32" t="str">
-        <v>2022 -P9 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v/>
       </c>
       <c r="N32" t="str">
-        <v>OVERZICHT COP</v>
+        <v/>
       </c>
       <c r="O32" t="str">
-        <v>N11</v>
+        <v/>
       </c>
     </row>
     <row r="33" spans="7:15" x14ac:dyDescent="0.25">
@@ -7746,17 +7602,14 @@
       <c r="J33" t="str">
         <v>G3</v>
       </c>
-      <c r="L33" t="s">
-        <v>1560</v>
-      </c>
       <c r="M33" t="str">
-        <v>2022 -P10 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v/>
       </c>
       <c r="N33" t="str">
-        <v>OVERZICHT COP</v>
+        <v/>
       </c>
       <c r="O33" t="str">
-        <v>N11</v>
+        <v/>
       </c>
     </row>
     <row r="34" spans="7:15" x14ac:dyDescent="0.25">

--- a/Batch File/File - Tab - Cell - (start of recursive resolver) - New.xlsx
+++ b/Batch File/File - Tab - Cell - (start of recursive resolver) - New.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mordrel-my.sharepoint.com/personal/matthieu_mordrel_pro/Documents/Work/Projects/Kovera/Project 2/Scripts/Project/Batch File/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="306" documentId="8_{9249E20C-2A1A-4D5B-AF97-066FDAA15AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3D1D7F1-038E-43ED-86A0-6C68EDE580B2}"/>
+  <xr:revisionPtr revIDLastSave="316" documentId="8_{9249E20C-2A1A-4D5B-AF97-066FDAA15AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF122BDB-8F0A-4B75-BC5C-122F244061BF}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3510" windowWidth="29040" windowHeight="15840" xr2:uid="{FB1F73C2-3A7C-4D28-BF2A-BCBC768C2592}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FB1F73C2-3A7C-4D28-BF2A-BCBC768C2592}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10274" uniqueCount="1997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10419" uniqueCount="1997">
   <si>
     <t>2022 - P1 berekening kolomkast 2137.xlsx</t>
   </si>
@@ -6159,10 +6159,9 @@
       <sheetName val="Elements"/>
       <sheetName val="P_P"/>
       <sheetName val="P_E"/>
-      <sheetName val="P-LADE"/>
+      <sheetName val="P_LADE"/>
       <sheetName val="P_BM"/>
       <sheetName val="Resources"/>
-      <sheetName val="P_E (check)"/>
       <sheetName val="E_R (Time)"/>
       <sheetName val="E_R (Stuk)"/>
       <sheetName val="E_R (surface)"/>
@@ -6185,8 +6184,7 @@
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6197,8 +6195,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}" name="Table2" displayName="Table2" ref="A1:D21" totalsRowShown="0">
-  <autoFilter ref="A1:D21" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}" name="Table2" displayName="Table2" ref="A1:D50" totalsRowShown="0">
+  <autoFilter ref="A1:D50" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{EAD2BB95-0271-4DE1-860E-94A419353B53}" name="Product_Id"/>
     <tableColumn id="2" xr3:uid="{42247E71-8EC0-4CEB-B24A-D3FBFE9449A8}" name="File"/>
@@ -6546,10 +6544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535C4B85-08F9-4009-85A5-566FB6CE48DF}">
-  <dimension ref="A1:O313"/>
+  <dimension ref="A1:O321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6561,7 +6559,10 @@
     <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="77.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="76.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6583,31 +6584,31 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1580</v>
+        <v>1743</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="G2" t="str" cm="1">
-        <f t="array" ref="G2:G313">_xlfn._xlws.FILTER([1]!Products_Table[Product_ID],([1]!Products_Table[Price check]=FALSE)*([1]!Products_Table[Composition]&lt;&gt;"Element(s)"))</f>
+        <f t="array" ref="G2:G321">_xlfn._xlws.FILTER([1]!Products_Table[Product_ID],([1]!Products_Table[Price check]=FALSE)*([1]!Products_Table[Composition]&lt;&gt;"Element(s)"))</f>
         <v>C141BL45-G_5</v>
       </c>
       <c r="H2" t="str" cm="1">
-        <f t="array" ref="H2:H313">_xlfn.BYROW(_xlfn.ANCHORARRAY(G2),_xlfn.LAMBDA(_xlpm.id,_xlfn.XLOOKUP(_xlpm.id,Table3[Product_ID],Table3[File],"",0,1)))</f>
+        <f t="array" ref="H2:H321">_xlfn.BYROW(_xlfn.ANCHORARRAY(G2),_xlfn.LAMBDA(_xlpm.id,_xlfn.XLOOKUP(_xlpm.id,Table3[Product_ID],Table3[File],"",0,1)))</f>
         <v>2022 - P5 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I2" t="str" cm="1">
-        <f t="array" ref="I2:I313">_xlfn.BYROW(_xlfn.ANCHORARRAY(G2),_xlfn.LAMBDA(_xlpm.id,_xlfn.XLOOKUP(_xlpm.id,Table3[Product_ID],Table3[Tab],"",0,1)))</f>
+        <f t="array" ref="I2:I321">_xlfn.BYROW(_xlfn.ANCHORARRAY(G2),_xlfn.LAMBDA(_xlpm.id,_xlfn.XLOOKUP(_xlpm.id,Table3[Product_ID],Table3[Tab],"",0,1)))</f>
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J2" t="str" cm="1">
-        <f t="array" ref="J2:J313">_xlfn.BYROW(_xlfn.ANCHORARRAY(G2),_xlfn.LAMBDA(_xlpm.id,_xlfn.XLOOKUP(_xlpm.id,Table3[Product_ID],Table3[Cell],"",0,1)))</f>
+        <f t="array" ref="J2:J321">_xlfn.BYROW(_xlfn.ANCHORARRAY(G2),_xlfn.LAMBDA(_xlpm.id,_xlfn.XLOOKUP(_xlpm.id,Table3[Product_ID],Table3[Cell],"",0,1)))</f>
         <v>G3</v>
       </c>
       <c r="L2" t="s">
@@ -6616,28 +6617,28 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1570</v>
+        <v>1752</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="G3" t="str">
-        <v>CO2PBL120_10</v>
+        <v>CK222B50PB4_10</v>
       </c>
       <c r="H3" t="str">
-        <v>2022 -P10 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 - P10 berekening kolomkast 2227.xlsx</v>
       </c>
       <c r="I3" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT CK222</v>
       </c>
       <c r="J3" t="str">
-        <v>P11</v>
+        <v>H44</v>
       </c>
       <c r="L3" t="s">
         <v>1996</v>
@@ -6645,1430 +6646,2036 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1579</v>
+        <v>1761</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="G4" t="str">
-        <v>CO2PBL110_10</v>
+        <v>CK222C50PB4_10</v>
       </c>
       <c r="H4" t="str">
-        <v>2022 -P10 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 - P10 berekening kolomkast 2227.xlsx</v>
       </c>
       <c r="I4" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT CK222</v>
       </c>
       <c r="J4" t="str">
-        <v>O11</v>
+        <v>H44</v>
       </c>
       <c r="L4" t="s">
-        <v>1580</v>
+        <v>1743</v>
       </c>
       <c r="M4" t="str" cm="1">
-        <f t="array" ref="M4:M33">_xlfn.BYROW(L4:L33,_xlfn.LAMBDA(_xlpm.id,_xlfn.XLOOKUP(_xlpm.id,Table3[Product_ID],Table3[File],"",0,1)))</f>
-        <v>2022 -P10 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <f t="array" ref="M4:M52">_xlfn.BYROW(L4:L52,_xlfn.LAMBDA(_xlpm.id,_xlfn.XLOOKUP(_xlpm.id,Table3[Product_ID],Table3[File],"",0,1)))</f>
+        <v>2022 -P2 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="N4" t="str" cm="1">
-        <f t="array" ref="N4:N33">_xlfn.BYROW(L4:L33,_xlfn.LAMBDA(_xlpm.id,_xlfn.XLOOKUP(_xlpm.id,Table3[Product_ID],Table3[Tab],"",0,1)))</f>
-        <v>OVERZICHT COP</v>
+        <f t="array" ref="N4:N52">_xlfn.BYROW(L4:L52,_xlfn.LAMBDA(_xlpm.id,_xlfn.XLOOKUP(_xlpm.id,Table3[Product_ID],Table3[Tab],"",0,1)))</f>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="O4" t="str" cm="1">
-        <f t="array" ref="O4:O33">_xlfn.BYROW(L4:L33,_xlfn.LAMBDA(_xlpm.id,_xlfn.XLOOKUP(_xlpm.id,Table3[Product_ID],Table3[Cell],"",0,1)))</f>
-        <v>P11</v>
+        <f t="array" ref="O4:O52">_xlfn.BYROW(L4:L52,_xlfn.LAMBDA(_xlpm.id,_xlfn.XLOOKUP(_xlpm.id,Table3[Product_ID],Table3[Cell],"",0,1)))</f>
+        <v>E11</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1569</v>
+        <v>1744</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="G5" t="str">
-        <v>CO2PBL120_9</v>
+        <v>C132B60-G_6</v>
       </c>
       <c r="H5" t="str">
-        <v>2022 -P9 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 - P6 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I5" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J5" t="str">
-        <v>P11</v>
+        <v>J3</v>
       </c>
       <c r="L5" t="s">
-        <v>1570</v>
+        <v>1752</v>
       </c>
       <c r="M5" t="str">
-        <v>2022 -P10 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P2 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="N5" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="O5" t="str">
-        <v>O11</v>
+        <v>F11</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1578</v>
+        <v>1745</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="G6" t="str">
-        <v>CO2PBL110_9</v>
+        <v>C132B45-G_6</v>
       </c>
       <c r="H6" t="str">
-        <v>2022 -P9 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 - P6 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I6" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J6" t="str">
-        <v>O11</v>
+        <v>G3</v>
       </c>
       <c r="L6" t="s">
-        <v>1579</v>
+        <v>1761</v>
       </c>
       <c r="M6" t="str">
-        <v>2022 -P9 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P2 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="N6" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="O6" t="str">
-        <v>P11</v>
+        <v>G11</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1577</v>
+        <v>1753</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D7" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="G7" t="str">
-        <v>CO2PBL120_8</v>
+        <v>CK213M45PB3_6</v>
       </c>
       <c r="H7" t="str">
-        <v>2022 -P8 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 - P6 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2137-KLEUR.xlsx</v>
       </c>
       <c r="I7" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT CKP213</v>
       </c>
       <c r="J7" t="str">
-        <v>P11</v>
+        <v>H3</v>
       </c>
       <c r="L7" t="s">
-        <v>1569</v>
+        <v>1744</v>
       </c>
       <c r="M7" t="str">
-        <v>2022 -P9 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P3 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="N7" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="O7" t="str">
-        <v>O11</v>
+        <v>E11</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1568</v>
+        <v>1746</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="G8" t="str">
-        <v>CO2PBL120_7</v>
+        <v>CK213M45PB3_4</v>
       </c>
       <c r="H8" t="str">
-        <v>2022 -P7 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 - P4 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2137-KLEUR.xlsx</v>
       </c>
       <c r="I8" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT CKP213</v>
       </c>
       <c r="J8" t="str">
-        <v>P11</v>
+        <v>H3</v>
       </c>
       <c r="L8" t="s">
-        <v>1578</v>
+        <v>1745</v>
       </c>
       <c r="M8" t="str">
-        <v>2022 -P8 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P4 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="N8" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="O8" t="str">
-        <v>P11</v>
+        <v>E11</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1576</v>
+        <v>1754</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D9" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="G9" t="str">
-        <v>CO2PBL110_8</v>
+        <v>CK213M45PB3_5</v>
       </c>
       <c r="H9" t="str">
-        <v>2022 -P8 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 - P5 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2317-KLEUR.xlsx</v>
       </c>
       <c r="I9" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT CKP231</v>
       </c>
       <c r="J9" t="str">
-        <v>O11</v>
+        <v>H3</v>
       </c>
       <c r="L9" t="s">
-        <v>1577</v>
+        <v>1753</v>
       </c>
       <c r="M9" t="str">
-        <v>2022 -P7 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P3 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="N9" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="O9" t="str">
-        <v>P11</v>
+        <v>F11</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1567</v>
+        <v>1762</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="G10" t="str">
-        <v>CO2PBL120_6</v>
+        <v>CK213M45PB3_7</v>
       </c>
       <c r="H10" t="str">
-        <v>2022 -P6 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 - P7 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2137-KLEUR.xlsx</v>
       </c>
       <c r="I10" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT CKP213</v>
       </c>
       <c r="J10" t="str">
-        <v>P11</v>
+        <v>H3</v>
       </c>
       <c r="L10" t="s">
-        <v>1568</v>
+        <v>1746</v>
       </c>
       <c r="M10" t="str">
-        <v>2022 -P8 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P5 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="N10" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="O10" t="str">
-        <v>O11</v>
+        <v>E11</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1566</v>
+        <v>1755</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="G11" t="str">
-        <v>CO2PBL110_7</v>
+        <v>CK213M45PB3_8</v>
       </c>
       <c r="H11" t="str">
-        <v>2022 -P7 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 - P8 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2137-KLEUR.xlsx</v>
       </c>
       <c r="I11" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT CKP213</v>
       </c>
       <c r="J11" t="str">
-        <v>O11</v>
+        <v>H3</v>
       </c>
       <c r="L11" t="s">
-        <v>1576</v>
+        <v>1754</v>
       </c>
       <c r="M11" t="str">
-        <v>2022 -P6 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P4 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="N11" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="O11" t="str">
-        <v>P11</v>
+        <v>F11</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1575</v>
+        <v>1747</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D12" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="G12" t="str">
-        <v>CO2PBL110_6</v>
+        <v>CK213M45PB3_9</v>
       </c>
       <c r="H12" t="str">
-        <v>2022 -P6 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 - P9 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2137-KLEUR.xlsx</v>
       </c>
       <c r="I12" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT CKP213</v>
       </c>
       <c r="J12" t="str">
-        <v>O11</v>
+        <v>H3</v>
       </c>
       <c r="L12" t="s">
-        <v>1567</v>
+        <v>1762</v>
       </c>
       <c r="M12" t="str">
-        <v>2022 -P7 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P3 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="N12" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="O12" t="str">
-        <v>O11</v>
+        <v>G11</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1565</v>
+        <v>1763</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D13" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="G13" t="str">
-        <v>CO2PBL120_5</v>
+        <v>CK213M45PB3_10</v>
       </c>
       <c r="H13" t="str">
-        <v>2022 -P5 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 - P10 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2137-KLEUR.xlsx</v>
       </c>
       <c r="I13" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT CKP213</v>
       </c>
       <c r="J13" t="str">
-        <v>P11</v>
+        <v>H3</v>
       </c>
       <c r="L13" t="s">
-        <v>1566</v>
+        <v>1755</v>
       </c>
       <c r="M13" t="str">
-        <v>2022 -P6 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P5 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="N13" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="O13" t="str">
-        <v>O11</v>
+        <v>F11</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1574</v>
+        <v>1748</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D14" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="G14" t="str">
-        <v>CO2PBL110_5</v>
+        <v>CK231M45PB3_2</v>
       </c>
       <c r="H14" t="str">
-        <v>2022 -P5 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 - P2 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2317-KLEUR.xlsx</v>
       </c>
       <c r="I14" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT CKP231</v>
       </c>
       <c r="J14" t="str">
-        <v>O11</v>
+        <v>H3</v>
       </c>
       <c r="L14" t="s">
-        <v>1575</v>
+        <v>1747</v>
       </c>
       <c r="M14" t="str">
-        <v>2022 -P5 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P6 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="N14" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="O14" t="str">
-        <v>P11</v>
+        <v>E11</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1564</v>
+        <v>1764</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="G15" t="str">
-        <v>CO2PBL120_4</v>
+        <v>CK231M45PB3_5</v>
       </c>
       <c r="H15" t="str">
-        <v>2022 -P4 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 - P5 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2317-KLEUR.xlsx</v>
       </c>
       <c r="I15" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT CKP231</v>
       </c>
       <c r="J15" t="str">
-        <v>P11</v>
+        <v>H3</v>
       </c>
       <c r="L15" t="s">
-        <v>1565</v>
+        <v>1763</v>
       </c>
       <c r="M15" t="str">
-        <v>2022 -P5 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P4 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="N15" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="O15" t="str">
-        <v>O11</v>
+        <v>G11</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1573</v>
+        <v>1756</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="G16" t="str">
-        <v>CO2PBL110_4</v>
+        <v>CK231M45PB3_6</v>
       </c>
       <c r="H16" t="str">
-        <v>2022 -P4 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 - P6 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2317-KLEUR.xlsx</v>
       </c>
       <c r="I16" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT CKP231</v>
       </c>
       <c r="J16" t="str">
-        <v>O11</v>
+        <v>H3</v>
       </c>
       <c r="L16" t="s">
-        <v>1574</v>
+        <v>1748</v>
       </c>
       <c r="M16" t="str">
-        <v>2022 -P4 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P7 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="N16" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="O16" t="str">
-        <v>P11</v>
+        <v>E11</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1563</v>
+        <v>1749</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="G17" t="str">
-        <v>CO2PBL120_3</v>
+        <v>CK231M45PB3_7</v>
       </c>
       <c r="H17" t="str">
-        <v>2022 -P3 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 - P7 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2317-KLEUR.xlsx</v>
       </c>
       <c r="I17" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT CKP231</v>
       </c>
       <c r="J17" t="str">
-        <v>P11</v>
+        <v>H3</v>
       </c>
       <c r="L17" t="s">
-        <v>1564</v>
+        <v>1764</v>
       </c>
       <c r="M17" t="str">
-        <v>2022 -P4 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P5 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="N17" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="O17" t="str">
-        <v>O11</v>
+        <v>G11</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1572</v>
+        <v>1693</v>
       </c>
       <c r="B18" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="G18" t="str">
-        <v>CO2PBL110_3</v>
+        <v>CK231M45PB3_9</v>
       </c>
       <c r="H18" t="str">
-        <v>2022 -P3 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 - P9 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2317-KLEUR.xlsx</v>
       </c>
       <c r="I18" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT CKP231</v>
       </c>
       <c r="J18" t="str">
-        <v>O11</v>
+        <v>H3</v>
       </c>
       <c r="L18" t="s">
-        <v>1573</v>
+        <v>1756</v>
       </c>
       <c r="M18" t="str">
-        <v>2022 -P3 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P6 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="N18" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="O18" t="str">
-        <v>P11</v>
+        <v>F11</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1562</v>
+        <v>1757</v>
       </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="G19" t="str">
-        <v>CO2PBL120_2</v>
+        <v>CK231M45PB3_10</v>
       </c>
       <c r="H19" t="str">
-        <v>2022 -P2 Berekening 2b Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 - P10 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2317-KLEUR.xlsx</v>
       </c>
       <c r="I19" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT CKP231</v>
       </c>
       <c r="J19" t="str">
-        <v>P11</v>
+        <v>H3</v>
       </c>
       <c r="L19" t="s">
-        <v>1563</v>
+        <v>1749</v>
       </c>
       <c r="M19" t="str">
-        <v>2022 -P3 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P8 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="N19" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="O19" t="str">
-        <v>O11</v>
+        <v>E11</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1561</v>
+        <v>1694</v>
       </c>
       <c r="B20" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D20" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="G20" t="str">
-        <v>CO2PBL110_2</v>
+        <v>CK231M45PB3_3</v>
       </c>
       <c r="H20" t="str">
-        <v>2022 -P2 Berekening 2b Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 - P3 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2317-KLEUR.xlsx</v>
       </c>
       <c r="I20" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT CKP231</v>
       </c>
       <c r="J20" t="str">
-        <v>O11</v>
+        <v>H3</v>
       </c>
       <c r="L20" t="s">
-        <v>1572</v>
+        <v>1693</v>
       </c>
       <c r="M20" t="str">
-        <v>2022 -P2 Berekening 2b Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P1 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="N20" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="O20" t="str">
-        <v>P11</v>
+        <v>E3</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1571</v>
+        <v>1765</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D21" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="G21" t="str">
-        <v>CO2PBL110_1</v>
+        <v>CK231M45PB3_4</v>
       </c>
       <c r="H21" t="str">
-        <v>2022 - P1 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 - P4 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2317-KLEUR.xlsx</v>
       </c>
       <c r="I21" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT CKP231</v>
       </c>
       <c r="J21" t="str">
-        <v>O11</v>
+        <v>H3</v>
       </c>
       <c r="L21" t="s">
-        <v>1562</v>
+        <v>1757</v>
       </c>
       <c r="M21" t="str">
-        <v>2022 -P2 Berekening 2b Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P7 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="N21" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="O21" t="str">
-        <v>O11</v>
+        <v>F11</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" t="s">
+        <v>220</v>
+      </c>
       <c r="G22" t="str">
-        <v>CO2PBL120_1</v>
+        <v>CK231M45PB3_1</v>
       </c>
       <c r="H22" t="str">
-        <v>2022 - P1 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 - P1 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2317-KLEUR.xlsx</v>
       </c>
       <c r="I22" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT CKP231</v>
       </c>
       <c r="J22" t="str">
-        <v>P11</v>
+        <v>H3</v>
       </c>
       <c r="L22" t="s">
-        <v>1561</v>
+        <v>1694</v>
       </c>
       <c r="M22" t="str">
-        <v>2022 - P1 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P2 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="N22" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="O22" t="str">
-        <v>O11</v>
+        <v>E3</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" t="s">
+        <v>221</v>
+      </c>
       <c r="G23" t="str">
-        <v>CK222B50PB4_10</v>
+        <v>CK231M45PB3_8</v>
       </c>
       <c r="H23" t="str">
-        <v>2022 - P10 berekening kolomkast 2227.xlsx</v>
+        <v>2022 - P8 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2317-KLEUR.xlsx</v>
       </c>
       <c r="I23" t="str">
-        <v>OVERZICHT CK222</v>
+        <v>OVERZICHT CKP231</v>
       </c>
       <c r="J23" t="str">
-        <v>H44</v>
+        <v>H3</v>
       </c>
       <c r="L23" t="s">
-        <v>1571</v>
+        <v>1765</v>
       </c>
       <c r="M23" t="str">
-        <v>2022 - P1 Berekening  Ladenkasten 794-KLEUR.xlsx</v>
+        <v>2022 -P6 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="N23" t="str">
-        <v>OVERZICHT COP</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="O23" t="str">
-        <v>P11</v>
+        <v>G11</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" t="s">
+        <v>146</v>
+      </c>
       <c r="G24" t="str">
-        <v>CK222C50PB4_10</v>
+        <v>CK213M45PB3_1</v>
       </c>
       <c r="H24" t="str">
-        <v>2022 - P10 berekening kolomkast 2227.xlsx</v>
+        <v>2022 - P1 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2137-KLEUR.xlsx</v>
       </c>
       <c r="I24" t="str">
-        <v>OVERZICHT CK222</v>
+        <v>OVERZICHT CKP213</v>
       </c>
       <c r="J24" t="str">
-        <v>H44</v>
+        <v>H3</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1758</v>
       </c>
       <c r="M24" t="str">
-        <v/>
+        <v>2022 -P8 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="N24" t="str">
-        <v/>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="O24" t="str">
-        <v/>
+        <v>F11</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" t="s">
+        <v>219</v>
+      </c>
       <c r="G25" t="str">
-        <v>C132B60-G_6</v>
+        <v>CK213M45PB3_3</v>
       </c>
       <c r="H25" t="str">
-        <v>2022 - P6 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P3 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2137-KLEUR.xlsx</v>
       </c>
       <c r="I25" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP213</v>
       </c>
       <c r="J25" t="str">
-        <v>J3</v>
+        <v>H3</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1766</v>
       </c>
       <c r="M25" t="str">
-        <v/>
+        <v>2022 -P7 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="N25" t="str">
-        <v/>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="O25" t="str">
-        <v/>
+        <v>G11</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" t="s">
+        <v>221</v>
+      </c>
       <c r="G26" t="str">
-        <v>C141B60-G_9</v>
+        <v>CK213M45PB3_2</v>
       </c>
       <c r="H26" t="str">
-        <v>2022 - P9 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P2 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2137-KLEUR.xlsx</v>
       </c>
       <c r="I26" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP213</v>
       </c>
       <c r="J26" t="str">
-        <v>J3</v>
+        <v>H3</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1703</v>
       </c>
       <c r="M26" t="str">
-        <v/>
+        <v>2022 -P2 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="N26" t="str">
-        <v/>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="O26" t="str">
-        <v/>
+        <v>F3</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" t="s">
+        <v>208</v>
+      </c>
       <c r="G27" t="str">
-        <v>C132B45-G_6</v>
+        <v>CKPL231F88_2</v>
       </c>
       <c r="H27" t="str">
-        <v>2022 - P6 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 -P2 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
       </c>
       <c r="I27" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP231</v>
       </c>
       <c r="J27" t="str">
+        <v>H3</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M27" t="str">
+        <v>2022 -P9 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
+      </c>
+      <c r="N27" t="str">
+        <v>OVERZICHT PO</v>
+      </c>
+      <c r="O27" t="str">
+        <v>E11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" t="s">
+        <v>208</v>
+      </c>
+      <c r="G28" t="str">
+        <v>CKPL231F88_1</v>
+      </c>
+      <c r="H28" t="str">
+        <v>2022 -P1 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
+      </c>
+      <c r="I28" t="str">
+        <v>OVERZICHT CKP231</v>
+      </c>
+      <c r="J28" t="str">
+        <v>H3</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1767</v>
+      </c>
+      <c r="M28" t="str">
+        <v>2022 -P8 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
+      </c>
+      <c r="N28" t="str">
+        <v>OVERZICHT PO</v>
+      </c>
+      <c r="O28" t="str">
+        <v>G11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" t="s">
+        <v>146</v>
+      </c>
+      <c r="G29" t="str">
+        <v>CKP231F102_1</v>
+      </c>
+      <c r="H29" t="str">
+        <v>2022 -P1 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
+      </c>
+      <c r="I29" t="str">
+        <v>OVERZICHT CKP231</v>
+      </c>
+      <c r="J29" t="str">
         <v>G3</v>
       </c>
-      <c r="M27" t="str">
-        <v/>
-      </c>
-      <c r="N27" t="str">
-        <v/>
-      </c>
-      <c r="O27" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G28" t="str">
-        <v>C132B60-G_9</v>
-      </c>
-      <c r="H28" t="str">
-        <v>2022 - P9 Berekening opzetkast 1323-KLEUR.xlsx</v>
-      </c>
-      <c r="I28" t="str">
-        <v>OVERZICHT COZ1323</v>
-      </c>
-      <c r="J28" t="str">
-        <v>J3</v>
-      </c>
-      <c r="M28" t="str">
-        <v/>
-      </c>
-      <c r="N28" t="str">
-        <v/>
-      </c>
-      <c r="O28" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G29" t="str">
-        <v>C141B55-G_9</v>
-      </c>
-      <c r="H29" t="str">
-        <v>2022 - P9 Berekening opzetkast 1413-KLEUR.xlsx</v>
-      </c>
-      <c r="I29" t="str">
-        <v>OVERZICHT COZ1323</v>
-      </c>
-      <c r="J29" t="str">
-        <v>I3</v>
+      <c r="L29" t="s">
+        <v>1695</v>
       </c>
       <c r="M29" t="str">
-        <v/>
+        <v>2022 -P3 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="N29" t="str">
-        <v/>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="O29" t="str">
-        <v/>
+        <v>E3</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" t="s">
+        <v>208</v>
+      </c>
       <c r="G30" t="str">
-        <v>C141BL60-G_9</v>
+        <v>CKP231F102_2</v>
       </c>
       <c r="H30" t="str">
-        <v>2022 - P9 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 -P2 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
       </c>
       <c r="I30" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP231</v>
       </c>
       <c r="J30" t="str">
-        <v>J3</v>
+        <v>G3</v>
+      </c>
+      <c r="L30" t="s">
+        <v>1696</v>
       </c>
       <c r="M30" t="str">
-        <v/>
+        <v>2022 -P4 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="N30" t="str">
-        <v/>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="O30" t="str">
-        <v/>
+        <v>E3</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" t="s">
+        <v>220</v>
+      </c>
       <c r="G31" t="str">
-        <v>C132B55-G_9</v>
+        <v>CKPL231F88_10</v>
       </c>
       <c r="H31" t="str">
-        <v>2022 - P9 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 -P10 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
       </c>
       <c r="I31" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP231</v>
       </c>
       <c r="J31" t="str">
-        <v>I3</v>
+        <v>H3</v>
+      </c>
+      <c r="L31" t="s">
+        <v>1704</v>
       </c>
       <c r="M31" t="str">
-        <v/>
+        <v>2022 -P3 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="N31" t="str">
-        <v/>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="O31" t="str">
-        <v/>
+        <v>F3</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" t="s">
+        <v>219</v>
+      </c>
       <c r="G32" t="str">
-        <v>C141B50-G_9</v>
+        <v>CKPL231F88_9</v>
       </c>
       <c r="H32" t="str">
-        <v>2022 - P9 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 -P9 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
       </c>
       <c r="I32" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP231</v>
       </c>
       <c r="J32" t="str">
         <v>H3</v>
       </c>
+      <c r="L32" t="s">
+        <v>1697</v>
+      </c>
       <c r="M32" t="str">
-        <v/>
+        <v>2022 -P5 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="N32" t="str">
-        <v/>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="O32" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="7:15" x14ac:dyDescent="0.25">
+        <v>E3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" t="s">
+        <v>146</v>
+      </c>
       <c r="G33" t="str">
-        <v>C132B45-G_9</v>
+        <v>CKP231F102_3</v>
       </c>
       <c r="H33" t="str">
-        <v>2022 - P9 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 -P3 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
       </c>
       <c r="I33" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP231</v>
       </c>
       <c r="J33" t="str">
         <v>G3</v>
       </c>
+      <c r="L33" t="s">
+        <v>1759</v>
+      </c>
       <c r="M33" t="str">
-        <v/>
+        <v>2022 -P9 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="N33" t="str">
-        <v/>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="O33" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="7:15" x14ac:dyDescent="0.25">
+        <v>F11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" t="s">
+        <v>208</v>
+      </c>
       <c r="G34" t="str">
-        <v>C132B50-G_9</v>
+        <v>CKP231F102_9</v>
       </c>
       <c r="H34" t="str">
-        <v>2022 - P9 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 -P9 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
       </c>
       <c r="I34" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP231</v>
       </c>
       <c r="J34" t="str">
+        <v>G3</v>
+      </c>
+      <c r="L34" t="s">
+        <v>1751</v>
+      </c>
+      <c r="M34" t="str">
+        <v>2022 -P10 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
+      </c>
+      <c r="N34" t="str">
+        <v>OVERZICHT PO</v>
+      </c>
+      <c r="O34" t="str">
+        <v>E11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" t="s">
+        <v>146</v>
+      </c>
+      <c r="G35" t="str">
+        <v>CKP231F102_10</v>
+      </c>
+      <c r="H35" t="str">
+        <v>2022 -P10 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
+      </c>
+      <c r="I35" t="str">
+        <v>OVERZICHT CKP231</v>
+      </c>
+      <c r="J35" t="str">
+        <v>G3</v>
+      </c>
+      <c r="L35" t="s">
+        <v>1705</v>
+      </c>
+      <c r="M35" t="str">
+        <v>2022 -P4 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
+      </c>
+      <c r="N35" t="str">
+        <v>OVERZICHT PO</v>
+      </c>
+      <c r="O35" t="str">
+        <v>F3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G36" t="str">
+        <v>CKPL231F88_6</v>
+      </c>
+      <c r="H36" t="str">
+        <v>2022 -P6 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
+      </c>
+      <c r="I36" t="str">
+        <v>OVERZICHT CKP231</v>
+      </c>
+      <c r="J36" t="str">
         <v>H3</v>
       </c>
-    </row>
-    <row r="35" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G35" t="str">
-        <v>C141B60-G_8</v>
-      </c>
-      <c r="H35" t="str">
-        <v>2022 - P8 Berekening opzetkast 1413-KLEUR.xlsx</v>
-      </c>
-      <c r="I35" t="str">
-        <v>OVERZICHT COZ1323</v>
-      </c>
-      <c r="J35" t="str">
-        <v>J3</v>
-      </c>
-    </row>
-    <row r="36" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G36" t="str">
-        <v>C132B60-G_8</v>
-      </c>
-      <c r="H36" t="str">
-        <v>2022 - P8 Berekening opzetkast 1323-KLEUR.xlsx</v>
-      </c>
-      <c r="I36" t="str">
-        <v>OVERZICHT COZ1323</v>
-      </c>
-      <c r="J36" t="str">
-        <v>J3</v>
-      </c>
-    </row>
-    <row r="37" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>1698</v>
+      </c>
+      <c r="M36" t="str">
+        <v>2022 -P6 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
+      </c>
+      <c r="N36" t="str">
+        <v>OVERZICHT PO</v>
+      </c>
+      <c r="O36" t="str">
+        <v>E3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" t="s">
+        <v>208</v>
+      </c>
       <c r="G37" t="str">
-        <v>C141B55-G_8</v>
+        <v>CKPL231F88_7</v>
       </c>
       <c r="H37" t="str">
-        <v>2022 - P8 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 -P7 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
       </c>
       <c r="I37" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP231</v>
       </c>
       <c r="J37" t="str">
-        <v>I3</v>
-      </c>
-    </row>
-    <row r="38" spans="7:15" x14ac:dyDescent="0.25">
+        <v>H3</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1706</v>
+      </c>
+      <c r="M37" t="str">
+        <v>2022 -P5 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
+      </c>
+      <c r="N37" t="str">
+        <v>OVERZICHT PO</v>
+      </c>
+      <c r="O37" t="str">
+        <v>F3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" t="s">
+        <v>220</v>
+      </c>
       <c r="G38" t="str">
-        <v>C141B60-G_7</v>
+        <v>CKPL213F88_5</v>
       </c>
       <c r="H38" t="str">
-        <v>2022 - P7 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 -P5 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
       </c>
       <c r="I38" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP231</v>
       </c>
       <c r="J38" t="str">
-        <v>J3</v>
-      </c>
-    </row>
-    <row r="39" spans="7:15" x14ac:dyDescent="0.25">
+        <v>H3</v>
+      </c>
+      <c r="L38" t="s">
+        <v>1768</v>
+      </c>
+      <c r="M38" t="str">
+        <v>2022 -P9 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
+      </c>
+      <c r="N38" t="str">
+        <v>OVERZICHT PO</v>
+      </c>
+      <c r="O38" t="str">
+        <v>G11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" t="s">
+        <v>208</v>
+      </c>
       <c r="G39" t="str">
-        <v>C141BL60-G_8</v>
+        <v>CKPL231F88_5</v>
       </c>
       <c r="H39" t="str">
-        <v>2022 - P8 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 -P5 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
       </c>
       <c r="I39" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP231</v>
       </c>
       <c r="J39" t="str">
-        <v>J3</v>
-      </c>
-    </row>
-    <row r="40" spans="7:15" x14ac:dyDescent="0.25">
+        <v>H3</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1699</v>
+      </c>
+      <c r="M39" t="str">
+        <v>2022 -P7 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
+      </c>
+      <c r="N39" t="str">
+        <v>OVERZICHT PO</v>
+      </c>
+      <c r="O39" t="str">
+        <v>E3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" t="s">
+        <v>146</v>
+      </c>
       <c r="G40" t="str">
-        <v>C132B55-G_8</v>
+        <v>CKPL231F88_4</v>
       </c>
       <c r="H40" t="str">
-        <v>2022 - P8 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 -P4 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
       </c>
       <c r="I40" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP231</v>
       </c>
       <c r="J40" t="str">
-        <v>I3</v>
-      </c>
-    </row>
-    <row r="41" spans="7:15" x14ac:dyDescent="0.25">
+        <v>H3</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1760</v>
+      </c>
+      <c r="M40" t="str">
+        <v>2022 -P10 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
+      </c>
+      <c r="N40" t="str">
+        <v>OVERZICHT PO</v>
+      </c>
+      <c r="O40" t="str">
+        <v>F11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" t="s">
+        <v>146</v>
+      </c>
       <c r="G41" t="str">
-        <v>C132B60-G_7</v>
+        <v>CKPL231F88_3</v>
       </c>
       <c r="H41" t="str">
-        <v>2022 - P7 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 -P3 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
       </c>
       <c r="I41" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP231</v>
       </c>
       <c r="J41" t="str">
-        <v>J3</v>
-      </c>
-    </row>
-    <row r="42" spans="7:15" x14ac:dyDescent="0.25">
+        <v>H3</v>
+      </c>
+      <c r="L41" t="s">
+        <v>1700</v>
+      </c>
+      <c r="M41" t="str">
+        <v>2022 -P8 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
+      </c>
+      <c r="N41" t="str">
+        <v>OVERZICHT PO</v>
+      </c>
+      <c r="O41" t="str">
+        <v>E3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" t="s">
+        <v>146</v>
+      </c>
       <c r="G42" t="str">
-        <v>C141B55-G_7</v>
+        <v>CKP213F102_5</v>
       </c>
       <c r="H42" t="str">
-        <v>2022 - P7 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 -P5 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
       </c>
       <c r="I42" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP231</v>
       </c>
       <c r="J42" t="str">
-        <v>I3</v>
-      </c>
-    </row>
-    <row r="43" spans="7:15" x14ac:dyDescent="0.25">
+        <v>G3</v>
+      </c>
+      <c r="L42" t="s">
+        <v>1707</v>
+      </c>
+      <c r="M42" t="str">
+        <v>2022 -P6 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
+      </c>
+      <c r="N42" t="str">
+        <v>OVERZICHT PO</v>
+      </c>
+      <c r="O42" t="str">
+        <v>F3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" t="s">
+        <v>221</v>
+      </c>
       <c r="G43" t="str">
-        <v>C141B50-G_8</v>
+        <v>CKP231F102_4</v>
       </c>
       <c r="H43" t="str">
-        <v>2022 - P8 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 -P4 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
       </c>
       <c r="I43" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP231</v>
       </c>
       <c r="J43" t="str">
-        <v>H3</v>
-      </c>
-    </row>
-    <row r="44" spans="7:15" x14ac:dyDescent="0.25">
+        <v>G3</v>
+      </c>
+      <c r="L43" t="s">
+        <v>1708</v>
+      </c>
+      <c r="M43" t="str">
+        <v>2022 -P7 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
+      </c>
+      <c r="N43" t="str">
+        <v>OVERZICHT PO</v>
+      </c>
+      <c r="O43" t="str">
+        <v>F3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B44" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" t="s">
+        <v>208</v>
+      </c>
       <c r="G44" t="str">
-        <v>C141B60D140_10</v>
+        <v>CKP231F102_5</v>
       </c>
       <c r="H44" t="str">
-        <v>2022 - P10 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 -P5 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
       </c>
       <c r="I44" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP231</v>
       </c>
       <c r="J44" t="str">
-        <v>O15</v>
-      </c>
-    </row>
-    <row r="45" spans="7:15" x14ac:dyDescent="0.25">
+        <v>G3</v>
+      </c>
+      <c r="L44" t="s">
+        <v>1709</v>
+      </c>
+      <c r="M44" t="str">
+        <v>2022 -P8 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
+      </c>
+      <c r="N44" t="str">
+        <v>OVERZICHT PO</v>
+      </c>
+      <c r="O44" t="str">
+        <v>F3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B45" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" t="s">
+        <v>208</v>
+      </c>
       <c r="G45" t="str">
-        <v>C141B60-G_6</v>
+        <v>CKP231F102_6</v>
       </c>
       <c r="H45" t="str">
-        <v>2022 - P6 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 -P6 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
       </c>
       <c r="I45" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP231</v>
       </c>
       <c r="J45" t="str">
-        <v>J3</v>
-      </c>
-    </row>
-    <row r="46" spans="7:15" x14ac:dyDescent="0.25">
+        <v>G3</v>
+      </c>
+      <c r="L45" t="s">
+        <v>1769</v>
+      </c>
+      <c r="M45" t="str">
+        <v>2022 -P10 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
+      </c>
+      <c r="N45" t="str">
+        <v>OVERZICHT PO</v>
+      </c>
+      <c r="O45" t="str">
+        <v>G11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" t="s">
+        <v>146</v>
+      </c>
       <c r="G46" t="str">
-        <v>C132BL45-G_9</v>
+        <v>CKP231F102_7</v>
       </c>
       <c r="H46" t="str">
-        <v>2022 - P9 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 -P7 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
       </c>
       <c r="I46" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP231</v>
       </c>
       <c r="J46" t="str">
         <v>G3</v>
       </c>
-    </row>
-    <row r="47" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="L46" t="s">
+        <v>1701</v>
+      </c>
+      <c r="M46" t="str">
+        <v>2022 -P9 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
+      </c>
+      <c r="N46" t="str">
+        <v>OVERZICHT PO</v>
+      </c>
+      <c r="O46" t="str">
+        <v>E3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B47" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" t="s">
+        <v>146</v>
+      </c>
       <c r="G47" t="str">
-        <v>C141BL60-G_7</v>
+        <v>CKP231F102_8</v>
       </c>
       <c r="H47" t="str">
-        <v>2022 - P7 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 -P8 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
       </c>
       <c r="I47" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP231</v>
       </c>
       <c r="J47" t="str">
-        <v>J3</v>
-      </c>
-    </row>
-    <row r="48" spans="7:15" x14ac:dyDescent="0.25">
+        <v>G3</v>
+      </c>
+      <c r="L47" t="s">
+        <v>1702</v>
+      </c>
+      <c r="M47" t="str">
+        <v>2022 -P10 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
+      </c>
+      <c r="N47" t="str">
+        <v>OVERZICHT PO</v>
+      </c>
+      <c r="O47" t="str">
+        <v>E3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" t="s">
+        <v>210</v>
+      </c>
       <c r="G48" t="str">
-        <v>C132B55-G_7</v>
+        <v>CKPL231F88_8</v>
       </c>
       <c r="H48" t="str">
-        <v>2022 - P7 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 -P8 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
       </c>
       <c r="I48" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP231</v>
       </c>
       <c r="J48" t="str">
-        <v>I3</v>
-      </c>
-    </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+        <v>H3</v>
+      </c>
+      <c r="L48" t="s">
+        <v>1710</v>
+      </c>
+      <c r="M48" t="str">
+        <v>2022 -P9 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
+      </c>
+      <c r="N48" t="str">
+        <v>OVERZICHT PO</v>
+      </c>
+      <c r="O48" t="str">
+        <v>F3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>698</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" t="s">
+        <v>210</v>
+      </c>
       <c r="G49" t="str">
-        <v>C132B50-G_8</v>
+        <v>CKPL222F88_4</v>
       </c>
       <c r="H49" t="str">
-        <v>2022 - P8 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 -P4 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
       </c>
       <c r="I49" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP222</v>
       </c>
       <c r="J49" t="str">
         <v>H3</v>
       </c>
-    </row>
-    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="L49" t="s">
+        <v>1711</v>
+      </c>
+      <c r="M49" t="str">
+        <v>2022 -P10 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
+      </c>
+      <c r="N49" t="str">
+        <v>OVERZICHT PO</v>
+      </c>
+      <c r="O49" t="str">
+        <v>F3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" t="s">
+        <v>255</v>
+      </c>
       <c r="G50" t="str">
-        <v>C132B45-G_8</v>
+        <v>CKPL222F88_3</v>
       </c>
       <c r="H50" t="str">
-        <v>2022 - P8 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 -P3 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
       </c>
       <c r="I50" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP222</v>
       </c>
       <c r="J50" t="str">
-        <v>G3</v>
-      </c>
-    </row>
-    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+        <v>H3</v>
+      </c>
+      <c r="L50" t="s">
+        <v>1449</v>
+      </c>
+      <c r="M50" t="str">
+        <v>2022 -P6 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
+      </c>
+      <c r="N50" t="str">
+        <v>OVERZICHT CKP231</v>
+      </c>
+      <c r="O50" t="str">
+        <v>I3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G51" t="str">
-        <v>C132B60D131_10</v>
+        <v>CKPL213F88_1</v>
       </c>
       <c r="H51" t="str">
-        <v>2022 - P10 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 -P1 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
       </c>
       <c r="I51" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP222</v>
       </c>
       <c r="J51" t="str">
-        <v>O15</v>
-      </c>
-    </row>
-    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+        <v>H3</v>
+      </c>
+      <c r="L51" t="s">
+        <v>698</v>
+      </c>
+      <c r="M51" t="str">
+        <v>2022 -P7 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
+      </c>
+      <c r="N51" t="str">
+        <v>OVERZICHT CKP213</v>
+      </c>
+      <c r="O51" t="str">
+        <v>I3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G52" t="str">
-        <v>C141B50-G_7</v>
+        <v>CKPL222F88_1</v>
       </c>
       <c r="H52" t="str">
-        <v>2022 - P7 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 -P1 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
       </c>
       <c r="I52" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP222</v>
       </c>
       <c r="J52" t="str">
         <v>H3</v>
       </c>
-    </row>
-    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="L52" t="s">
+        <v>1633</v>
+      </c>
+      <c r="M52" t="str">
+        <v>2022 -P2 Berekening 2b Ladenkasten 794-KLEUR.xlsx</v>
+      </c>
+      <c r="N52" t="str">
+        <v>OVERZICHT COP</v>
+      </c>
+      <c r="O52" t="str">
+        <v>F65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G53" t="str">
-        <v>C141B55-G_6</v>
+        <v>CKP213F102_1</v>
       </c>
       <c r="H53" t="str">
-        <v>2022 - P6 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 -P1 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
       </c>
       <c r="I53" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP222</v>
       </c>
       <c r="J53" t="str">
-        <v>I3</v>
-      </c>
-    </row>
-    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+        <v>G3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G54" t="str">
-        <v>C141B55D140_10</v>
+        <v>CKP213F102_10</v>
       </c>
       <c r="H54" t="str">
-        <v>2022 - P10 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 -P10 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
       </c>
       <c r="I54" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP213</v>
       </c>
       <c r="J54" t="str">
-        <v>N15</v>
-      </c>
-    </row>
-    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
+        <v>G3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G55" t="str">
-        <v>C132B45-G_7</v>
+        <v>CKP222F102_1</v>
       </c>
       <c r="H55" t="str">
-        <v>2022 - P7 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 -P1 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
       </c>
       <c r="I55" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP222</v>
       </c>
       <c r="J55" t="str">
         <v>G3</v>
       </c>
     </row>
-    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G56" t="str">
-        <v>C132B50-G_7</v>
+        <v>CKP222F102_3</v>
       </c>
       <c r="H56" t="str">
-        <v>2022 - P7 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 -P3 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
       </c>
       <c r="I56" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP222</v>
       </c>
       <c r="J56" t="str">
+        <v>G3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G57" t="str">
+        <v>CKP222F102_7</v>
+      </c>
+      <c r="H57" t="str">
+        <v>2022 -P7 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
+      </c>
+      <c r="I57" t="str">
+        <v>OVERZICHT CKP222</v>
+      </c>
+      <c r="J57" t="str">
+        <v>G3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G58" t="str">
+        <v>CKP222F102_9</v>
+      </c>
+      <c r="H58" t="str">
+        <v>2022 -P9 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
+      </c>
+      <c r="I58" t="str">
+        <v>OVERZICHT CKP222</v>
+      </c>
+      <c r="J58" t="str">
+        <v>G3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G59" t="str">
+        <v>CKP222F102_10</v>
+      </c>
+      <c r="H59" t="str">
+        <v>2022 -P10 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
+      </c>
+      <c r="I59" t="str">
+        <v>OVERZICHT CKP222</v>
+      </c>
+      <c r="J59" t="str">
+        <v>G3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G60" t="str">
+        <v>CKPL213F88_2</v>
+      </c>
+      <c r="H60" t="str">
+        <v>2022 -P2 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
+      </c>
+      <c r="I60" t="str">
+        <v>OVERZICHT CKP213</v>
+      </c>
+      <c r="J60" t="str">
         <v>H3</v>
       </c>
     </row>
-    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G57" t="str">
-        <v>C132B55D131_10</v>
-      </c>
-      <c r="H57" t="str">
-        <v>2022 - P10 Berekening opzetkast 1323-KLEUR.xlsx</v>
-      </c>
-      <c r="I57" t="str">
-        <v>OVERZICHT COZ1323</v>
-      </c>
-      <c r="J57" t="str">
-        <v>N15</v>
-      </c>
-    </row>
-    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G58" t="str">
-        <v>C132B55-G_6</v>
-      </c>
-      <c r="H58" t="str">
-        <v>2022 - P6 Berekening opzetkast 1323-KLEUR.xlsx</v>
-      </c>
-      <c r="I58" t="str">
-        <v>OVERZICHT COZ1323</v>
-      </c>
-      <c r="J58" t="str">
-        <v>I3</v>
-      </c>
-    </row>
-    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G59" t="str">
-        <v>C141B60D140_9</v>
-      </c>
-      <c r="H59" t="str">
-        <v>2022 - P9 Berekening opzetkast 1413-KLEUR.xlsx</v>
-      </c>
-      <c r="I59" t="str">
-        <v>OVERZICHT COZ1323</v>
-      </c>
-      <c r="J59" t="str">
-        <v>O15</v>
-      </c>
-    </row>
-    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G60" t="str">
-        <v>C141B50D140_10</v>
-      </c>
-      <c r="H60" t="str">
-        <v>2022 - P10 Berekening opzetkast 1413-KLEUR.xlsx</v>
-      </c>
-      <c r="I60" t="str">
-        <v>OVERZICHT COZ1323</v>
-      </c>
-      <c r="J60" t="str">
-        <v>M15</v>
-      </c>
-    </row>
-    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G61" t="str">
-        <v>C141B50-G_6</v>
+        <v>CKP213F102_2</v>
       </c>
       <c r="H61" t="str">
-        <v>2022 - P6 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 -P2 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
       </c>
       <c r="I61" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP213</v>
       </c>
       <c r="J61" t="str">
+        <v>G3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G62" t="str">
+        <v>CKPL222F88_10</v>
+      </c>
+      <c r="H62" t="str">
+        <v>2022 -P10 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
+      </c>
+      <c r="I62" t="str">
+        <v>OVERZICHT CKP222</v>
+      </c>
+      <c r="J62" t="str">
         <v>H3</v>
       </c>
     </row>
-    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G62" t="str">
-        <v>C132BL60D131_10</v>
-      </c>
-      <c r="H62" t="str">
-        <v>2022 - P10 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
-      </c>
-      <c r="I62" t="str">
-        <v>OVERZICHT COZ1323</v>
-      </c>
-      <c r="J62" t="str">
-        <v>O15</v>
-      </c>
-    </row>
-    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G63" t="str">
-        <v>C132B60D131_9</v>
+        <v>CKPL213F88_10</v>
       </c>
       <c r="H63" t="str">
-        <v>2022 - P9 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 -P10 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
       </c>
       <c r="I63" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP213</v>
       </c>
       <c r="J63" t="str">
-        <v>O15</v>
-      </c>
-    </row>
-    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
+        <v>H3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G64" t="str">
-        <v>C141B60-G_5</v>
+        <v>CKPL222F88_9</v>
       </c>
       <c r="H64" t="str">
-        <v>2022 - P5 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 -P9 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
       </c>
       <c r="I64" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP222</v>
       </c>
       <c r="J64" t="str">
-        <v>J3</v>
+        <v>H3</v>
       </c>
     </row>
     <row r="65" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G65" t="str">
-        <v>C132B50D131_10</v>
+        <v>CKPL213F88_9</v>
       </c>
       <c r="H65" t="str">
-        <v>2022 - P10 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 -P9 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
       </c>
       <c r="I65" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP213</v>
       </c>
       <c r="J65" t="str">
-        <v>M15</v>
+        <v>H3</v>
       </c>
     </row>
     <row r="66" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G66" t="str">
-        <v>C132B50-G_6</v>
+        <v>CKPL222F88_7</v>
       </c>
       <c r="H66" t="str">
-        <v>2022 - P6 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 -P7 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
       </c>
       <c r="I66" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP222</v>
       </c>
       <c r="J66" t="str">
         <v>H3</v>
@@ -8076,329 +8683,329 @@
     </row>
     <row r="67" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G67" t="str">
-        <v>C141B55D140_9</v>
+        <v>CKPL213F88_7</v>
       </c>
       <c r="H67" t="str">
-        <v>2022 - P9 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 -P7 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
       </c>
       <c r="I67" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP213</v>
       </c>
       <c r="J67" t="str">
-        <v>N15</v>
+        <v>H3</v>
       </c>
     </row>
     <row r="68" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G68" t="str">
-        <v>C141B45D140_10</v>
+        <v>CKPL222F88_6</v>
       </c>
       <c r="H68" t="str">
-        <v>2022 - P10 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 -P6 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
       </c>
       <c r="I68" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP222</v>
       </c>
       <c r="J68" t="str">
-        <v>L15</v>
+        <v>H3</v>
       </c>
     </row>
     <row r="69" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G69" t="str">
-        <v>C132BL55D131_10</v>
+        <v>CKPL213F88_4</v>
       </c>
       <c r="H69" t="str">
-        <v>2022 - P10 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 -P4 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
       </c>
       <c r="I69" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP213</v>
       </c>
       <c r="J69" t="str">
-        <v>N15</v>
+        <v>H3</v>
       </c>
     </row>
     <row r="70" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G70" t="str">
-        <v>C132B60-G_5</v>
+        <v>CKPL222F88_2</v>
       </c>
       <c r="H70" t="str">
-        <v>2022 - P5 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 -P2 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
       </c>
       <c r="I70" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP222</v>
       </c>
       <c r="J70" t="str">
-        <v>J3</v>
+        <v>H3</v>
       </c>
     </row>
     <row r="71" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G71" t="str">
-        <v>C141BL60D141_9</v>
+        <v>CKP213F102_3</v>
       </c>
       <c r="H71" t="str">
-        <v>2022 - P9 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 -P3 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
       </c>
       <c r="I71" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP213</v>
       </c>
       <c r="J71" t="str">
-        <v>O15</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="72" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G72" t="str">
-        <v>C141BL60D141_10</v>
+        <v>CKP213F102_4</v>
       </c>
       <c r="H72" t="str">
-        <v>2022 - P10 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 -P4 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
       </c>
       <c r="I72" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP213</v>
       </c>
       <c r="J72" t="str">
-        <v>O15</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="73" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G73" t="str">
-        <v>C132B55D131_9</v>
+        <v>CKP213F102_7</v>
       </c>
       <c r="H73" t="str">
-        <v>2022 - P9 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 -P7 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
       </c>
       <c r="I73" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP213</v>
       </c>
       <c r="J73" t="str">
-        <v>N15</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="74" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G74" t="str">
-        <v>C141B55-G_5</v>
+        <v>CKP213F102_9</v>
       </c>
       <c r="H74" t="str">
-        <v>2022 - P5 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 -P9 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
       </c>
       <c r="I74" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP213</v>
       </c>
       <c r="J74" t="str">
-        <v>I3</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="75" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G75" t="str">
-        <v>C132B45D131_10</v>
+        <v>CKP222F102_2</v>
       </c>
       <c r="H75" t="str">
-        <v>2022 - P10 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 -P2 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
       </c>
       <c r="I75" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP222</v>
       </c>
       <c r="J75" t="str">
-        <v>L15</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="76" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G76" t="str">
-        <v>C141B50D140_9</v>
+        <v>CKP222F102_4</v>
       </c>
       <c r="H76" t="str">
-        <v>2022 - P9 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 -P4 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
       </c>
       <c r="I76" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP222</v>
       </c>
       <c r="J76" t="str">
-        <v>M15</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="77" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G77" t="str">
-        <v>C132B55-G_5</v>
+        <v>CKP222F102_6</v>
       </c>
       <c r="H77" t="str">
-        <v>2022 - P5 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 -P6 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
       </c>
       <c r="I77" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP222</v>
       </c>
       <c r="J77" t="str">
-        <v>I3</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="78" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G78" t="str">
-        <v>C132BL60D131_9</v>
+        <v>CKPL222F88_8</v>
       </c>
       <c r="H78" t="str">
-        <v>2022 - P9 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 -P8 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
       </c>
       <c r="I78" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP222</v>
       </c>
       <c r="J78" t="str">
-        <v>O15</v>
+        <v>H3</v>
       </c>
     </row>
     <row r="79" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G79" t="str">
-        <v>C132BL50D131_10</v>
+        <v>CKPL213F88_8</v>
       </c>
       <c r="H79" t="str">
-        <v>2022 - P10 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 -P8 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
       </c>
       <c r="I79" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP213</v>
       </c>
       <c r="J79" t="str">
-        <v>M15</v>
+        <v>H3</v>
       </c>
     </row>
     <row r="80" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G80" t="str">
-        <v>C132BL45-G_7</v>
+        <v>CKPL213F88_6</v>
       </c>
       <c r="H80" t="str">
-        <v>2022 - P7 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 -P6 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
       </c>
       <c r="I80" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP213</v>
       </c>
       <c r="J80" t="str">
-        <v>G3</v>
+        <v>H3</v>
       </c>
     </row>
     <row r="81" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G81" t="str">
-        <v>C141BL55D141_9</v>
+        <v>CKPL222F88_5</v>
       </c>
       <c r="H81" t="str">
-        <v>2022 - P9 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 -P5 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
       </c>
       <c r="I81" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP222</v>
       </c>
       <c r="J81" t="str">
-        <v>N15</v>
+        <v>H3</v>
       </c>
     </row>
     <row r="82" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G82" t="str">
-        <v>C141BL55D141_10</v>
+        <v>CKPL213F88_3</v>
       </c>
       <c r="H82" t="str">
-        <v>2022 - P10 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 -P3 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
       </c>
       <c r="I82" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP213</v>
       </c>
       <c r="J82" t="str">
-        <v>N15</v>
+        <v>H3</v>
       </c>
     </row>
     <row r="83" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G83" t="str">
-        <v>C132B50D131_9</v>
+        <v>CKP213F102_6</v>
       </c>
       <c r="H83" t="str">
-        <v>2022 - P9 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 -P6 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
       </c>
       <c r="I83" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP213</v>
       </c>
       <c r="J83" t="str">
-        <v>M15</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="84" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G84" t="str">
-        <v>C141B50-G_5</v>
+        <v>CKP213F102_8</v>
       </c>
       <c r="H84" t="str">
-        <v>2022 - P5 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 -P8 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
       </c>
       <c r="I84" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP213</v>
       </c>
       <c r="J84" t="str">
-        <v>H3</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="85" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G85" t="str">
-        <v>C141B45D140_9</v>
+        <v>CKP222F102_5</v>
       </c>
       <c r="H85" t="str">
-        <v>2022 - P9 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 -P5 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
       </c>
       <c r="I85" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP222</v>
       </c>
       <c r="J85" t="str">
-        <v>L15</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="86" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G86" t="str">
-        <v>C141B60D140_8</v>
+        <v>CKP222F102_8</v>
       </c>
       <c r="H86" t="str">
-        <v>2022 - P8 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 -P8 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
       </c>
       <c r="I86" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT CKP222</v>
       </c>
       <c r="J86" t="str">
-        <v>O15</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="87" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G87" t="str">
-        <v>C132BL55D131_9</v>
+        <v>C141B60-G_9</v>
       </c>
       <c r="H87" t="str">
-        <v>2022 - P9 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P9 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I87" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J87" t="str">
-        <v>N15</v>
+        <v>J3</v>
       </c>
     </row>
     <row r="88" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G88" t="str">
-        <v>C132B45-G_5</v>
+        <v>C132B60-G_9</v>
       </c>
       <c r="H88" t="str">
-        <v>2022 - P5 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P9 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I88" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J88" t="str">
-        <v>G3</v>
+        <v>J3</v>
       </c>
     </row>
     <row r="89" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G89" t="str">
-        <v>C132B50-G_5</v>
+        <v>C141B55-G_9</v>
       </c>
       <c r="H89" t="str">
-        <v>2022 - P5 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P9 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I89" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J89" t="str">
-        <v>H3</v>
+        <v>I3</v>
       </c>
     </row>
     <row r="90" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G90" t="str">
-        <v>C141BL50D141_9</v>
+        <v>C141BL60-G_9</v>
       </c>
       <c r="H90" t="str">
         <v>2022 - P9 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
@@ -8407,29 +9014,29 @@
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J90" t="str">
-        <v>M15</v>
+        <v>J3</v>
       </c>
     </row>
     <row r="91" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G91" t="str">
-        <v>C141BL50D141_10</v>
+        <v>C132B55-G_9</v>
       </c>
       <c r="H91" t="str">
-        <v>2022 - P10 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P9 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I91" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J91" t="str">
-        <v>M15</v>
+        <v>I3</v>
       </c>
     </row>
     <row r="92" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G92" t="str">
-        <v>C141BL50-G_9</v>
+        <v>C141B50-G_9</v>
       </c>
       <c r="H92" t="str">
-        <v>2022 - P9 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P9 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I92" t="str">
         <v>OVERZICHT COZ1323</v>
@@ -8440,164 +9047,164 @@
     </row>
     <row r="93" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G93" t="str">
-        <v>C132BL45D131_10</v>
+        <v>C132B45-G_9</v>
       </c>
       <c r="H93" t="str">
-        <v>2022 - P10 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P9 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I93" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J93" t="str">
-        <v>L15</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="94" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G94" t="str">
-        <v>C132BL45-G_6</v>
+        <v>C132B50-G_9</v>
       </c>
       <c r="H94" t="str">
-        <v>2022 - P6 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P9 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I94" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J94" t="str">
-        <v>G3</v>
+        <v>H3</v>
       </c>
     </row>
     <row r="95" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G95" t="str">
-        <v>C141B45-G_9</v>
+        <v>C141B60-G_8</v>
       </c>
       <c r="H95" t="str">
-        <v>2022 - P9 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P8 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I95" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J95" t="str">
-        <v>G3</v>
+        <v>J3</v>
       </c>
     </row>
     <row r="96" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G96" t="str">
-        <v>C132B45D131_9</v>
+        <v>C132B60-G_8</v>
       </c>
       <c r="H96" t="str">
-        <v>2022 - P9 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P8 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I96" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J96" t="str">
-        <v>L15</v>
+        <v>J3</v>
       </c>
     </row>
     <row r="97" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G97" t="str">
-        <v>C132B60D131_8</v>
+        <v>C141B55-G_8</v>
       </c>
       <c r="H97" t="str">
-        <v>2022 - P8 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P8 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I97" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J97" t="str">
-        <v>O15</v>
+        <v>I3</v>
       </c>
     </row>
     <row r="98" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G98" t="str">
-        <v>C141B55D140_8</v>
+        <v>C141B60-G_7</v>
       </c>
       <c r="H98" t="str">
-        <v>2022 - P8 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P7 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I98" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J98" t="str">
-        <v>N15</v>
+        <v>J3</v>
       </c>
     </row>
     <row r="99" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G99" t="str">
-        <v>C141B60D140_7</v>
+        <v>C141BL60-G_8</v>
       </c>
       <c r="H99" t="str">
-        <v>2022 - P7 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P8 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I99" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J99" t="str">
-        <v>O15</v>
+        <v>J3</v>
       </c>
     </row>
     <row r="100" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G100" t="str">
-        <v>C132BL50D131_9</v>
+        <v>C132B55-G_8</v>
       </c>
       <c r="H100" t="str">
-        <v>2022 - P9 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P8 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I100" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J100" t="str">
-        <v>M15</v>
+        <v>I3</v>
       </c>
     </row>
     <row r="101" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G101" t="str">
-        <v>C141BL45-G_9</v>
+        <v>C132B60-G_7</v>
       </c>
       <c r="H101" t="str">
-        <v>2022 - P9 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P7 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I101" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J101" t="str">
-        <v>G3</v>
+        <v>J3</v>
       </c>
     </row>
     <row r="102" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G102" t="str">
-        <v>C141BL45D141_9</v>
+        <v>C141B55-G_7</v>
       </c>
       <c r="H102" t="str">
-        <v>2022 - P9 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P7 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I102" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J102" t="str">
-        <v>L15</v>
+        <v>I3</v>
       </c>
     </row>
     <row r="103" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G103" t="str">
-        <v>C141BL45D141_10</v>
+        <v>C141B50-G_8</v>
       </c>
       <c r="H103" t="str">
-        <v>2022 - P10 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P8 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I103" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J103" t="str">
-        <v>L15</v>
+        <v>H3</v>
       </c>
     </row>
     <row r="104" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G104" t="str">
-        <v>C141BL60D141_8</v>
+        <v>C141B60D140_10</v>
       </c>
       <c r="H104" t="str">
-        <v>2022 - P8 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P10 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I104" t="str">
         <v>OVERZICHT COZ1323</v>
@@ -8608,94 +9215,94 @@
     </row>
     <row r="105" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G105" t="str">
-        <v>C132B55D131_8</v>
+        <v>C141B60-G_6</v>
       </c>
       <c r="H105" t="str">
-        <v>2022 - P8 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P6 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I105" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J105" t="str">
-        <v>N15</v>
+        <v>J3</v>
       </c>
     </row>
     <row r="106" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G106" t="str">
-        <v>C132B60D131_7</v>
+        <v>C132BL45-G_9</v>
       </c>
       <c r="H106" t="str">
-        <v>2022 - P7 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P9 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I106" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J106" t="str">
-        <v>O15</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="107" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G107" t="str">
-        <v>C141B55D140_7</v>
+        <v>C141BL60-G_7</v>
       </c>
       <c r="H107" t="str">
-        <v>2022 - P7 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P7 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I107" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J107" t="str">
-        <v>N15</v>
+        <v>J3</v>
       </c>
     </row>
     <row r="108" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G108" t="str">
-        <v>C141B50D140_8</v>
+        <v>C132B55-G_7</v>
       </c>
       <c r="H108" t="str">
-        <v>2022 - P8 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P7 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I108" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J108" t="str">
-        <v>M15</v>
+        <v>I3</v>
       </c>
     </row>
     <row r="109" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G109" t="str">
-        <v>C141B60D140_6</v>
+        <v>C132B50-G_8</v>
       </c>
       <c r="H109" t="str">
-        <v>2022 - P6 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P8 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I109" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J109" t="str">
-        <v>O15</v>
+        <v>H3</v>
       </c>
     </row>
     <row r="110" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G110" t="str">
-        <v>C132BL45D131_9</v>
+        <v>C132B45-G_8</v>
       </c>
       <c r="H110" t="str">
-        <v>2022 - P9 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P8 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I110" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J110" t="str">
-        <v>L15</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="111" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G111" t="str">
-        <v>C132BL60D131_8</v>
+        <v>C132B60D131_10</v>
       </c>
       <c r="H111" t="str">
-        <v>2022 - P8 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P10 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I111" t="str">
         <v>OVERZICHT COZ1323</v>
@@ -8706,38 +9313,38 @@
     </row>
     <row r="112" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G112" t="str">
-        <v>C141BL55D141_8</v>
+        <v>C141B50-G_7</v>
       </c>
       <c r="H112" t="str">
-        <v>2022 - P8 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P7 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I112" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J112" t="str">
-        <v>N15</v>
+        <v>H3</v>
       </c>
     </row>
     <row r="113" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G113" t="str">
-        <v>C141BL60D141_7</v>
+        <v>C141B55-G_6</v>
       </c>
       <c r="H113" t="str">
-        <v>2022 - P7 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P6 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I113" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J113" t="str">
-        <v>O15</v>
+        <v>I3</v>
       </c>
     </row>
     <row r="114" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G114" t="str">
-        <v>C132B55D131_7</v>
+        <v>C141B55D140_10</v>
       </c>
       <c r="H114" t="str">
-        <v>2022 - P7 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P10 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I114" t="str">
         <v>OVERZICHT COZ1323</v>
@@ -8748,122 +9355,122 @@
     </row>
     <row r="115" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G115" t="str">
-        <v>C132B50D131_8</v>
+        <v>C132B45-G_7</v>
       </c>
       <c r="H115" t="str">
-        <v>2022 - P8 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P7 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I115" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J115" t="str">
-        <v>M15</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="116" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G116" t="str">
-        <v>C132B60D131_5</v>
+        <v>C132B50-G_7</v>
       </c>
       <c r="H116" t="str">
-        <v>2022 - P6 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P7 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I116" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J116" t="str">
-        <v>O15</v>
+        <v>H3</v>
       </c>
     </row>
     <row r="117" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G117" t="str">
-        <v>C132B60D131_6</v>
+        <v>C132B55D131_10</v>
       </c>
       <c r="H117" t="str">
-        <v>2022 - P6 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P10 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I117" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J117" t="str">
-        <v>O15</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="118" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G118" t="str">
-        <v>C141B50D140_7</v>
+        <v>C132B55-G_6</v>
       </c>
       <c r="H118" t="str">
-        <v>2022 - P7 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P6 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I118" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J118" t="str">
-        <v>M15</v>
+        <v>I3</v>
       </c>
     </row>
     <row r="119" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G119" t="str">
-        <v>C132BL45-G_5</v>
+        <v>C141B60D140_9</v>
       </c>
       <c r="H119" t="str">
-        <v>2022 - P5 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P9 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I119" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J119" t="str">
-        <v>G3</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="120" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G120" t="str">
-        <v>C141B55D140_6</v>
+        <v>C141B50D140_10</v>
       </c>
       <c r="H120" t="str">
-        <v>2022 - P6 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P10 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I120" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J120" t="str">
-        <v>N15</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="121" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G121" t="str">
-        <v>C141B45D140_8</v>
+        <v>C141B50-G_6</v>
       </c>
       <c r="H121" t="str">
-        <v>2022 - P8 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P6 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I121" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J121" t="str">
-        <v>L15</v>
+        <v>H3</v>
       </c>
     </row>
     <row r="122" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G122" t="str">
-        <v>C132BL55D131_8</v>
+        <v>C132BL60D131_10</v>
       </c>
       <c r="H122" t="str">
-        <v>2022 - P8 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P10 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I122" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J122" t="str">
-        <v>N15</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="123" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G123" t="str">
-        <v>C132BL60D131_7</v>
+        <v>C132B60D131_9</v>
       </c>
       <c r="H123" t="str">
-        <v>2022 - P7 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P9 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I123" t="str">
         <v>OVERZICHT COZ1323</v>
@@ -8874,80 +9481,80 @@
     </row>
     <row r="124" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G124" t="str">
-        <v>C141BL55D141_7</v>
+        <v>C141B60-G_5</v>
       </c>
       <c r="H124" t="str">
-        <v>2022 - P7 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P5 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I124" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J124" t="str">
-        <v>N15</v>
+        <v>J3</v>
       </c>
     </row>
     <row r="125" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G125" t="str">
-        <v>C141BL50-G_8</v>
+        <v>C132B50D131_10</v>
       </c>
       <c r="H125" t="str">
-        <v>2022 - P8 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P10 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I125" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J125" t="str">
-        <v>H3</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="126" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G126" t="str">
-        <v>C141BL50D141_8</v>
+        <v>C132B50-G_6</v>
       </c>
       <c r="H126" t="str">
-        <v>2022 - P8 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P6 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I126" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J126" t="str">
-        <v>M15</v>
+        <v>H3</v>
       </c>
     </row>
     <row r="127" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G127" t="str">
-        <v>C132B50D131_7</v>
+        <v>C141B55D140_9</v>
       </c>
       <c r="H127" t="str">
-        <v>2022 - P7 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P9 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I127" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J127" t="str">
-        <v>M15</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="128" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G128" t="str">
-        <v>C132B55D131_5</v>
+        <v>C141B45D140_10</v>
       </c>
       <c r="H128" t="str">
-        <v>2022 - P6 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P10 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I128" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J128" t="str">
-        <v>N15</v>
+        <v>L15</v>
       </c>
     </row>
     <row r="129" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G129" t="str">
-        <v>C132B55D131_6</v>
+        <v>C132BL55D131_10</v>
       </c>
       <c r="H129" t="str">
-        <v>2022 - P6 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P10 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I129" t="str">
         <v>OVERZICHT COZ1323</v>
@@ -8958,52 +9565,52 @@
     </row>
     <row r="130" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G130" t="str">
-        <v>C132B45D131_8</v>
+        <v>C132B60-G_5</v>
       </c>
       <c r="H130" t="str">
-        <v>2022 - P8 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P5 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I130" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J130" t="str">
-        <v>L15</v>
+        <v>J3</v>
       </c>
     </row>
     <row r="131" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G131" t="str">
-        <v>C141B50D140_6</v>
+        <v>C141BL60D141_9</v>
       </c>
       <c r="H131" t="str">
-        <v>2022 - P6 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P9 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I131" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J131" t="str">
-        <v>M15</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="132" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G132" t="str">
-        <v>C141B45D140_7</v>
+        <v>C141BL60D141_10</v>
       </c>
       <c r="H132" t="str">
-        <v>2022 - P7 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P10 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I132" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J132" t="str">
-        <v>L15</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="133" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G133" t="str">
-        <v>C132BL55D131_7</v>
+        <v>C132B55D131_9</v>
       </c>
       <c r="H133" t="str">
-        <v>2022 - P7 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P9 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I133" t="str">
         <v>OVERZICHT COZ1323</v>
@@ -9014,223 +9621,223 @@
     </row>
     <row r="134" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G134" t="str">
-        <v>C132BL50D131_8</v>
+        <v>C141B55-G_5</v>
       </c>
       <c r="H134" t="str">
-        <v>2022 - P8 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P5 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I134" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J134" t="str">
-        <v>M15</v>
+        <v>I3</v>
       </c>
     </row>
     <row r="135" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G135" t="str">
-        <v>C132BL60D131_6</v>
+        <v>C132B45D131_10</v>
       </c>
       <c r="H135" t="str">
-        <v>2022 - P6 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P10 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I135" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J135" t="str">
-        <v>O15</v>
+        <v>L15</v>
       </c>
     </row>
     <row r="136" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G136" t="str">
-        <v>C141BL50-G_7</v>
+        <v>C141B50D140_9</v>
       </c>
       <c r="H136" t="str">
-        <v>2022 - P7 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P9 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I136" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J136" t="str">
-        <v>H3</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="137" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G137" t="str">
-        <v>C141BL50D141_7</v>
+        <v>C132B55-G_5</v>
       </c>
       <c r="H137" t="str">
-        <v>2022 - P7 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P5 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I137" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J137" t="str">
-        <v>M15</v>
+        <v>I3</v>
       </c>
     </row>
     <row r="138" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G138" t="str">
-        <v>C141BL45-G_8</v>
+        <v>C132BL60D131_9</v>
       </c>
       <c r="H138" t="str">
-        <v>2022 - P8 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P9 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I138" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J138" t="str">
-        <v>G3</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="139" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G139" t="str">
-        <v>C141BL45D141_8</v>
+        <v>C132BL50D131_10</v>
       </c>
       <c r="H139" t="str">
-        <v>2022 - P8 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P10 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I139" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J139" t="str">
-        <v>L15</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="140" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G140" t="str">
-        <v>C141B60D140_5</v>
+        <v>C132BL45-G_7</v>
       </c>
       <c r="H140" t="str">
-        <v>2022 - P5 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P7 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I140" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J140" t="str">
-        <v>O15</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="141" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G141" t="str">
-        <v>C132B50D131_5</v>
+        <v>C141BL55D141_9</v>
       </c>
       <c r="H141" t="str">
-        <v>2022 - P6 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P9 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I141" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J141" t="str">
-        <v>M15</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="142" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G142" t="str">
-        <v>C132B50D131_6</v>
+        <v>C141BL55D141_10</v>
       </c>
       <c r="H142" t="str">
-        <v>2022 - P6 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P10 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I142" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J142" t="str">
-        <v>M15</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="143" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G143" t="str">
-        <v>C132B45D131_7</v>
+        <v>C132B50D131_9</v>
       </c>
       <c r="H143" t="str">
-        <v>2022 - P7 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P9 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I143" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J143" t="str">
-        <v>L15</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="144" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G144" t="str">
-        <v>C141B45D140_6</v>
+        <v>C141B50-G_5</v>
       </c>
       <c r="H144" t="str">
-        <v>2022 - P6 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P5 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I144" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J144" t="str">
-        <v>L15</v>
+        <v>H3</v>
       </c>
     </row>
     <row r="145" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G145" t="str">
-        <v>CK213M45PB3_6</v>
+        <v>C141B45D140_9</v>
       </c>
       <c r="H145" t="str">
-        <v>2022 - P6 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2137-KLEUR.xlsx</v>
+        <v>2022 - P9 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I145" t="str">
-        <v>OVERZICHT CKP213</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J145" t="str">
-        <v>H3</v>
+        <v>L15</v>
       </c>
     </row>
     <row r="146" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G146" t="str">
-        <v>CK213M45PB3_4</v>
+        <v>C141B60D140_8</v>
       </c>
       <c r="H146" t="str">
-        <v>2022 - P4 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2137-KLEUR.xlsx</v>
+        <v>2022 - P8 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I146" t="str">
-        <v>OVERZICHT CKP213</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J146" t="str">
-        <v>H3</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="147" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G147" t="str">
-        <v>CK213M45PB3_5</v>
+        <v>C132BL55D131_9</v>
       </c>
       <c r="H147" t="str">
-        <v>2022 - P5 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2317-KLEUR.xlsx</v>
+        <v>2022 - P9 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I147" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J147" t="str">
-        <v>H3</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="148" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G148" t="str">
-        <v>CK213M45PB3_7</v>
+        <v>C132B45-G_5</v>
       </c>
       <c r="H148" t="str">
-        <v>2022 - P7 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2137-KLEUR.xlsx</v>
+        <v>2022 - P5 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I148" t="str">
-        <v>OVERZICHT CKP213</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J148" t="str">
-        <v>H3</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="149" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G149" t="str">
-        <v>CK213M45PB3_8</v>
+        <v>C132B50-G_5</v>
       </c>
       <c r="H149" t="str">
-        <v>2022 - P8 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2137-KLEUR.xlsx</v>
+        <v>2022 - P5 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I149" t="str">
-        <v>OVERZICHT CKP213</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J149" t="str">
         <v>H3</v>
@@ -9238,41 +9845,41 @@
     </row>
     <row r="150" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G150" t="str">
-        <v>CK213M45PB3_9</v>
+        <v>C141BL50D141_9</v>
       </c>
       <c r="H150" t="str">
-        <v>2022 - P9 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2137-KLEUR.xlsx</v>
+        <v>2022 - P9 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I150" t="str">
-        <v>OVERZICHT CKP213</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J150" t="str">
-        <v>H3</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="151" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G151" t="str">
-        <v>CK213M45PB3_10</v>
+        <v>C141BL50D141_10</v>
       </c>
       <c r="H151" t="str">
-        <v>2022 - P10 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2137-KLEUR.xlsx</v>
+        <v>2022 - P10 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I151" t="str">
-        <v>OVERZICHT CKP213</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J151" t="str">
-        <v>H3</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="152" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G152" t="str">
-        <v>CK231M45PB3_2</v>
+        <v>C141BL50-G_9</v>
       </c>
       <c r="H152" t="str">
-        <v>2022 - P2 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2317-KLEUR.xlsx</v>
+        <v>2022 - P9 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I152" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J152" t="str">
         <v>H3</v>
@@ -9280,192 +9887,192 @@
     </row>
     <row r="153" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G153" t="str">
-        <v>CK231M45PB3_5</v>
+        <v>C132BL45D131_10</v>
       </c>
       <c r="H153" t="str">
-        <v>2022 - P5 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2317-KLEUR.xlsx</v>
+        <v>2022 - P10 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I153" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J153" t="str">
-        <v>H3</v>
+        <v>L15</v>
       </c>
     </row>
     <row r="154" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G154" t="str">
-        <v>CK231M45PB3_6</v>
+        <v>C132BL45-G_6</v>
       </c>
       <c r="H154" t="str">
-        <v>2022 - P6 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2317-KLEUR.xlsx</v>
+        <v>2022 - P6 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I154" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J154" t="str">
-        <v>H3</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="155" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G155" t="str">
-        <v>CK231M45PB3_7</v>
+        <v>C132B45D131_9</v>
       </c>
       <c r="H155" t="str">
-        <v>2022 - P7 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2317-KLEUR.xlsx</v>
+        <v>2022 - P9 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I155" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J155" t="str">
-        <v>H3</v>
+        <v>L15</v>
       </c>
     </row>
     <row r="156" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G156" t="str">
-        <v>CK231M45PB3_9</v>
+        <v>C132B60D131_8</v>
       </c>
       <c r="H156" t="str">
-        <v>2022 - P9 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2317-KLEUR.xlsx</v>
+        <v>2022 - P8 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I156" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J156" t="str">
-        <v>H3</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="157" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G157" t="str">
-        <v>CK231M45PB3_10</v>
+        <v>C141B55D140_8</v>
       </c>
       <c r="H157" t="str">
-        <v>2022 - P10 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2317-KLEUR.xlsx</v>
+        <v>2022 - P8 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I157" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J157" t="str">
-        <v>H3</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="158" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G158" t="str">
-        <v>CK231M45PB3_3</v>
+        <v>C141B60D140_7</v>
       </c>
       <c r="H158" t="str">
-        <v>2022 - P3 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2317-KLEUR.xlsx</v>
+        <v>2022 - P7 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I158" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J158" t="str">
-        <v>H3</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="159" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G159" t="str">
-        <v>CK231M45PB3_4</v>
+        <v>C132BL50D131_9</v>
       </c>
       <c r="H159" t="str">
-        <v>2022 - P4 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2317-KLEUR.xlsx</v>
+        <v>2022 - P9 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I159" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J159" t="str">
-        <v>H3</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="160" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G160" t="str">
-        <v>CK231M45PB3_1</v>
+        <v>C141BL45-G_9</v>
       </c>
       <c r="H160" t="str">
-        <v>2022 - P1 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2317-KLEUR.xlsx</v>
+        <v>2022 - P9 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I160" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J160" t="str">
-        <v>H3</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="161" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G161" t="str">
-        <v>CK231M45PB3_8</v>
+        <v>C141BL45D141_9</v>
       </c>
       <c r="H161" t="str">
-        <v>2022 - P8 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2317-KLEUR.xlsx</v>
+        <v>2022 - P9 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I161" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J161" t="str">
-        <v>H3</v>
+        <v>L15</v>
       </c>
     </row>
     <row r="162" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G162" t="str">
-        <v>CK213M45PB3_1</v>
+        <v>C141BL45D141_10</v>
       </c>
       <c r="H162" t="str">
-        <v>2022 - P1 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2137-KLEUR.xlsx</v>
+        <v>2022 - P10 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I162" t="str">
-        <v>OVERZICHT CKP213</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J162" t="str">
-        <v>H3</v>
+        <v>L15</v>
       </c>
     </row>
     <row r="163" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G163" t="str">
-        <v>CK213M45PB3_3</v>
+        <v>C141BL60D141_8</v>
       </c>
       <c r="H163" t="str">
-        <v>2022 - P3 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2137-KLEUR.xlsx</v>
+        <v>2022 - P8 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I163" t="str">
-        <v>OVERZICHT CKP213</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J163" t="str">
-        <v>H3</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="164" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G164" t="str">
-        <v>CK213M45PB3_2</v>
+        <v>C132B55D131_8</v>
       </c>
       <c r="H164" t="str">
-        <v>2022 - P2 Berekening Kolom B Lade(2-3-5-6-8--26-27-29-34-36) 2137-KLEUR.xlsx</v>
+        <v>2022 - P8 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I164" t="str">
-        <v>OVERZICHT CKP213</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J164" t="str">
-        <v>H3</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="165" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G165" t="str">
-        <v>C132BL50D131_7</v>
+        <v>C132B60D131_7</v>
       </c>
       <c r="H165" t="str">
-        <v>2022 - P7 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P7 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I165" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J165" t="str">
-        <v>M15</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="166" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G166" t="str">
-        <v>C132BL55D131_6</v>
+        <v>C141B55D140_7</v>
       </c>
       <c r="H166" t="str">
-        <v>2022 - P6 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P7 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I166" t="str">
         <v>OVERZICHT COZ1323</v>
@@ -9476,38 +10083,38 @@
     </row>
     <row r="167" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G167" t="str">
-        <v>C132BL45D131_8</v>
+        <v>C141B50D140_8</v>
       </c>
       <c r="H167" t="str">
-        <v>2022 - P8 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P8 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I167" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J167" t="str">
-        <v>L15</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="168" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G168" t="str">
-        <v>C141BL45-G_7</v>
+        <v>C141B60D140_6</v>
       </c>
       <c r="H168" t="str">
-        <v>2022 - P7 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P6 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I168" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J168" t="str">
-        <v>G3</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="169" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G169" t="str">
-        <v>C141BL45D141_7</v>
+        <v>C132BL45D131_9</v>
       </c>
       <c r="H169" t="str">
-        <v>2022 - P7 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P9 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I169" t="str">
         <v>OVERZICHT COZ1323</v>
@@ -9518,108 +10125,108 @@
     </row>
     <row r="170" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G170" t="str">
-        <v>C141B55D140_5</v>
+        <v>C132BL60D131_8</v>
       </c>
       <c r="H170" t="str">
-        <v>2022 - P5 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P8 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I170" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J170" t="str">
-        <v>N15</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="171" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G171" t="str">
-        <v>C132B45D131_5</v>
+        <v>C141BL55D141_8</v>
       </c>
       <c r="H171" t="str">
-        <v>2022 - P6 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P8 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I171" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J171" t="str">
-        <v>L15</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="172" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G172" t="str">
-        <v>C132B45D131_6</v>
+        <v>C141BL60D141_7</v>
       </c>
       <c r="H172" t="str">
-        <v>2022 - P6 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P7 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I172" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J172" t="str">
-        <v>L15</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="173" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G173" t="str">
-        <v>C141B60D140_4</v>
+        <v>C132B55D131_7</v>
       </c>
       <c r="H173" t="str">
-        <v>2022 - P4 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P7 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I173" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J173" t="str">
-        <v>O15</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="174" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G174" t="str">
-        <v>C141BL60D141_5</v>
+        <v>C132B50D131_8</v>
       </c>
       <c r="H174" t="str">
-        <v>2022 - P5 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P8 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I174" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J174" t="str">
-        <v>O15</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="175" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G175" t="str">
-        <v>C132BL50D131_6</v>
+        <v>C132B60D131_5</v>
       </c>
       <c r="H175" t="str">
-        <v>2022 - P6 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P6 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I175" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J175" t="str">
-        <v>M15</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="176" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G176" t="str">
-        <v>C132BL45D131_7</v>
+        <v>C132B60D131_6</v>
       </c>
       <c r="H176" t="str">
-        <v>2022 - P7 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P6 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I176" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J176" t="str">
-        <v>L15</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="177" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G177" t="str">
-        <v>C141B50D140_5</v>
+        <v>C141B50D140_7</v>
       </c>
       <c r="H177" t="str">
-        <v>2022 - P5 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P7 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I177" t="str">
         <v>OVERZICHT COZ1323</v>
@@ -9630,52 +10237,52 @@
     </row>
     <row r="178" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G178" t="str">
-        <v>C132B60D131_4</v>
+        <v>C132BL45-G_5</v>
       </c>
       <c r="H178" t="str">
-        <v>2022 - P4 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P5 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I178" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J178" t="str">
-        <v>O15</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="179" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G179" t="str">
-        <v>C132BL60D131_5</v>
+        <v>C141B55D140_6</v>
       </c>
       <c r="H179" t="str">
-        <v>2022 - P5 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P6 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I179" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J179" t="str">
-        <v>O15</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="180" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G180" t="str">
-        <v>C141B55D140_4</v>
+        <v>C141B45D140_8</v>
       </c>
       <c r="H180" t="str">
-        <v>2022 - P4 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P8 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I180" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J180" t="str">
-        <v>N15</v>
+        <v>L15</v>
       </c>
     </row>
     <row r="181" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G181" t="str">
-        <v>C141BL55D141_5</v>
+        <v>C132BL55D131_8</v>
       </c>
       <c r="H181" t="str">
-        <v>2022 - P5 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P8 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I181" t="str">
         <v>OVERZICHT COZ1323</v>
@@ -9686,164 +10293,164 @@
     </row>
     <row r="182" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G182" t="str">
-        <v>C132BL45D131_6</v>
+        <v>C132BL60D131_7</v>
       </c>
       <c r="H182" t="str">
-        <v>2022 - P6 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P7 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I182" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J182" t="str">
-        <v>L15</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="183" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G183" t="str">
-        <v>C141B45D140_5</v>
+        <v>C141BL55D141_7</v>
       </c>
       <c r="H183" t="str">
-        <v>2022 - P5 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P7 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I183" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J183" t="str">
-        <v>L15</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="184" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G184" t="str">
-        <v>C141BL60D141_4</v>
+        <v>C141BL50-G_8</v>
       </c>
       <c r="H184" t="str">
-        <v>2022 - P4 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P8 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I184" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J184" t="str">
-        <v>O15</v>
+        <v>H3</v>
       </c>
     </row>
     <row r="185" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G185" t="str">
-        <v>C132B55D131_4</v>
+        <v>C141BL50D141_8</v>
       </c>
       <c r="H185" t="str">
-        <v>2022 - P4 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P8 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I185" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J185" t="str">
-        <v>N15</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="186" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G186" t="str">
-        <v>C132BL55D131_5</v>
+        <v>C132B50D131_7</v>
       </c>
       <c r="H186" t="str">
-        <v>2022 - P5 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P7 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I186" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J186" t="str">
-        <v>N15</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="187" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G187" t="str">
-        <v>C141B50D140_4</v>
+        <v>C132B55D131_5</v>
       </c>
       <c r="H187" t="str">
-        <v>2022 - P4 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P6 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I187" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J187" t="str">
-        <v>M15</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="188" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G188" t="str">
-        <v>C141BL50D141_5</v>
+        <v>C132B55D131_6</v>
       </c>
       <c r="H188" t="str">
-        <v>2022 - P5 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P6 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I188" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J188" t="str">
-        <v>M15</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="189" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G189" t="str">
-        <v>C141B60D140_3</v>
+        <v>C132B45D131_8</v>
       </c>
       <c r="H189" t="str">
-        <v>2022 - P3 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P8 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I189" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J189" t="str">
-        <v>O15</v>
+        <v>L15</v>
       </c>
     </row>
     <row r="190" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G190" t="str">
-        <v>C132BL60D131_4</v>
+        <v>C141B50D140_6</v>
       </c>
       <c r="H190" t="str">
-        <v>2022 - P4 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P6 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I190" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J190" t="str">
-        <v>O15</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="191" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G191" t="str">
-        <v>C141BL55D141_4</v>
+        <v>C141B45D140_7</v>
       </c>
       <c r="H191" t="str">
-        <v>2022 - P4 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P7 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I191" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J191" t="str">
-        <v>N15</v>
+        <v>L15</v>
       </c>
     </row>
     <row r="192" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G192" t="str">
-        <v>C132B50D131_4</v>
+        <v>C132BL55D131_7</v>
       </c>
       <c r="H192" t="str">
-        <v>2022 - P4 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P7 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I192" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J192" t="str">
-        <v>M15</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="193" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G193" t="str">
-        <v>C132BL50D131_5</v>
+        <v>C132BL50D131_8</v>
       </c>
       <c r="H193" t="str">
-        <v>2022 - P5 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P8 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I193" t="str">
         <v>OVERZICHT COZ1323</v>
@@ -9854,10 +10461,10 @@
     </row>
     <row r="194" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G194" t="str">
-        <v>C132B60D131_3</v>
+        <v>C132BL60D131_6</v>
       </c>
       <c r="H194" t="str">
-        <v>2022 - P3 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P6 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I194" t="str">
         <v>OVERZICHT COZ1323</v>
@@ -9868,52 +10475,52 @@
     </row>
     <row r="195" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G195" t="str">
-        <v>C141B45-G_8</v>
+        <v>C141BL50-G_7</v>
       </c>
       <c r="H195" t="str">
-        <v>2022 - P8 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P7 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I195" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J195" t="str">
-        <v>G3</v>
+        <v>H3</v>
       </c>
     </row>
     <row r="196" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G196" t="str">
-        <v>C141B55D140_3</v>
+        <v>C141BL50D141_7</v>
       </c>
       <c r="H196" t="str">
-        <v>2022 - P3 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P7 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I196" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J196" t="str">
-        <v>N15</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="197" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G197" t="str">
-        <v>C141B45D140_4</v>
+        <v>C141BL45-G_8</v>
       </c>
       <c r="H197" t="str">
-        <v>2022 - P4 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P8 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I197" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J197" t="str">
-        <v>L15</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="198" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G198" t="str">
-        <v>C141BL45D141_5</v>
+        <v>C141BL45D141_8</v>
       </c>
       <c r="H198" t="str">
-        <v>2022 - P5 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P8 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I198" t="str">
         <v>OVERZICHT COZ1323</v>
@@ -9924,24 +10531,24 @@
     </row>
     <row r="199" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G199" t="str">
-        <v>C132BL55D131_4</v>
+        <v>C141B60D140_5</v>
       </c>
       <c r="H199" t="str">
-        <v>2022 - P4 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P5 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I199" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J199" t="str">
-        <v>N15</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="200" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G200" t="str">
-        <v>C141BL50D141_4</v>
+        <v>C132B50D131_5</v>
       </c>
       <c r="H200" t="str">
-        <v>2022 - P4 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P6 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I200" t="str">
         <v>OVERZICHT COZ1323</v>
@@ -9952,38 +10559,38 @@
     </row>
     <row r="201" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G201" t="str">
-        <v>C141BL60D141_3</v>
+        <v>C132B50D131_6</v>
       </c>
       <c r="H201" t="str">
-        <v>2022 - P3 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P6 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I201" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J201" t="str">
-        <v>O15</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="202" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G202" t="str">
-        <v>C132B55D131_3</v>
+        <v>C132B45D131_7</v>
       </c>
       <c r="H202" t="str">
-        <v>2022 - P3 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P7 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I202" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J202" t="str">
-        <v>N15</v>
+        <v>L15</v>
       </c>
     </row>
     <row r="203" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G203" t="str">
-        <v>C132B45D131_4</v>
+        <v>C141B45D140_6</v>
       </c>
       <c r="H203" t="str">
-        <v>2022 - P4 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P6 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I203" t="str">
         <v>OVERZICHT COZ1323</v>
@@ -9994,108 +10601,108 @@
     </row>
     <row r="204" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G204" t="str">
-        <v>C132BL45D131_5</v>
+        <v>C132BL50D131_7</v>
       </c>
       <c r="H204" t="str">
-        <v>2022 - P5 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P7 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I204" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J204" t="str">
-        <v>L15</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="205" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G205" t="str">
-        <v>C141B50D140_3</v>
+        <v>C132BL55D131_6</v>
       </c>
       <c r="H205" t="str">
-        <v>2022 - P3 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P6 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I205" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J205" t="str">
-        <v>M15</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="206" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G206" t="str">
-        <v>C132BL50D131_4</v>
+        <v>C132BL45D131_8</v>
       </c>
       <c r="H206" t="str">
-        <v>2022 - P4 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P8 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I206" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J206" t="str">
-        <v>M15</v>
+        <v>L15</v>
       </c>
     </row>
     <row r="207" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G207" t="str">
-        <v>C132BL60D131_3</v>
+        <v>C141BL45-G_7</v>
       </c>
       <c r="H207" t="str">
-        <v>2022 - P3 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P7 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I207" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J207" t="str">
-        <v>O15</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="208" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G208" t="str">
-        <v>C141BL55D141_3</v>
+        <v>C141BL45D141_7</v>
       </c>
       <c r="H208" t="str">
-        <v>2022 - P3 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P7 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I208" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J208" t="str">
-        <v>N15</v>
+        <v>L15</v>
       </c>
     </row>
     <row r="209" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G209" t="str">
-        <v>C141BL45D141_4</v>
+        <v>C141B55D140_5</v>
       </c>
       <c r="H209" t="str">
-        <v>2022 - P4 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P5 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I209" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J209" t="str">
-        <v>L15</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="210" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G210" t="str">
-        <v>C132B50D131_3</v>
+        <v>C132B45D131_5</v>
       </c>
       <c r="H210" t="str">
-        <v>2022 - P3 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P6 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I210" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J210" t="str">
-        <v>M15</v>
+        <v>L15</v>
       </c>
     </row>
     <row r="211" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G211" t="str">
-        <v>C141B45D140_3</v>
+        <v>C132B45D131_6</v>
       </c>
       <c r="H211" t="str">
-        <v>2022 - P3 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P6 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I211" t="str">
         <v>OVERZICHT COZ1323</v>
@@ -10106,38 +10713,38 @@
     </row>
     <row r="212" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G212" t="str">
-        <v>C132BL55D131_3</v>
+        <v>C141B60D140_4</v>
       </c>
       <c r="H212" t="str">
-        <v>2022 - P3 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P4 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I212" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J212" t="str">
-        <v>N15</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="213" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G213" t="str">
-        <v>C132BL45D131_4</v>
+        <v>C141BL60D141_5</v>
       </c>
       <c r="H213" t="str">
-        <v>2022 - P4 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P5 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I213" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J213" t="str">
-        <v>L15</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="214" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G214" t="str">
-        <v>C141BL50D141_3</v>
+        <v>C132BL50D131_6</v>
       </c>
       <c r="H214" t="str">
-        <v>2022 - P3 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P6 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I214" t="str">
         <v>OVERZICHT COZ1323</v>
@@ -10148,10 +10755,10 @@
     </row>
     <row r="215" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G215" t="str">
-        <v>C132B45D131_3</v>
+        <v>C132BL45D131_7</v>
       </c>
       <c r="H215" t="str">
-        <v>2022 - P3 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P7 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I215" t="str">
         <v>OVERZICHT COZ1323</v>
@@ -10162,10 +10769,10 @@
     </row>
     <row r="216" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G216" t="str">
-        <v>C132BL50D131_3</v>
+        <v>C141B50D140_5</v>
       </c>
       <c r="H216" t="str">
-        <v>2022 - P3 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P5 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I216" t="str">
         <v>OVERZICHT COZ1323</v>
@@ -10176,94 +10783,94 @@
     </row>
     <row r="217" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G217" t="str">
-        <v>C141BL45D141_3</v>
+        <v>C132B60D131_4</v>
       </c>
       <c r="H217" t="str">
-        <v>2022 - P3 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P4 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I217" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J217" t="str">
-        <v>L15</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="218" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G218" t="str">
-        <v>C141B45-G_7</v>
+        <v>C132BL60D131_5</v>
       </c>
       <c r="H218" t="str">
-        <v>2022 - P7 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P5 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I218" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J218" t="str">
-        <v>G3</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="219" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G219" t="str">
-        <v>C132BL45D131_3</v>
+        <v>C141B55D140_4</v>
       </c>
       <c r="H219" t="str">
-        <v>2022 - P3 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P4 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I219" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J219" t="str">
-        <v>L15</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="220" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G220" t="str">
-        <v>C141B60D140_2</v>
+        <v>C141BL55D141_5</v>
       </c>
       <c r="H220" t="str">
-        <v>2022 - P2 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P5 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I220" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J220" t="str">
-        <v>O15</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="221" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G221" t="str">
-        <v>C132B60D131_2</v>
+        <v>C132BL45D131_6</v>
       </c>
       <c r="H221" t="str">
-        <v>2022 - P2 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P6 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I221" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J221" t="str">
-        <v>O15</v>
+        <v>L15</v>
       </c>
     </row>
     <row r="222" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G222" t="str">
-        <v>C141B55D140_2</v>
+        <v>C141B45D140_5</v>
       </c>
       <c r="H222" t="str">
-        <v>2022 - P2 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P5 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I222" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J222" t="str">
-        <v>N15</v>
+        <v>L15</v>
       </c>
     </row>
     <row r="223" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G223" t="str">
-        <v>C141BL60D141_2</v>
+        <v>C141BL60D141_4</v>
       </c>
       <c r="H223" t="str">
-        <v>2022 - P2 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P4 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I223" t="str">
         <v>OVERZICHT COZ1323</v>
@@ -10274,10 +10881,10 @@
     </row>
     <row r="224" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G224" t="str">
-        <v>C132B55D131_2</v>
+        <v>C132B55D131_4</v>
       </c>
       <c r="H224" t="str">
-        <v>2022 - P2 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P4 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I224" t="str">
         <v>OVERZICHT COZ1323</v>
@@ -10288,80 +10895,80 @@
     </row>
     <row r="225" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G225" t="str">
-        <v>C141B50D140_2</v>
+        <v>C132BL55D131_5</v>
       </c>
       <c r="H225" t="str">
-        <v>2022 - P2 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P5 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I225" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J225" t="str">
-        <v>M15</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="226" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G226" t="str">
-        <v>C132BL60D131_2</v>
+        <v>C141B50D140_4</v>
       </c>
       <c r="H226" t="str">
-        <v>2022 - P2 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P4 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I226" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J226" t="str">
-        <v>O15</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="227" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G227" t="str">
-        <v>C141BL55D141_2</v>
+        <v>C141BL50D141_5</v>
       </c>
       <c r="H227" t="str">
-        <v>2022 - P2 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P5 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I227" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J227" t="str">
-        <v>N15</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="228" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G228" t="str">
-        <v>C132B50D131_2</v>
+        <v>C141B60D140_3</v>
       </c>
       <c r="H228" t="str">
-        <v>2022 - P2 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P3 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I228" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J228" t="str">
-        <v>M15</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="229" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G229" t="str">
-        <v>C141B45D140_2</v>
+        <v>C132BL60D131_4</v>
       </c>
       <c r="H229" t="str">
-        <v>2022 - P2 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P4 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I229" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J229" t="str">
-        <v>L15</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="230" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G230" t="str">
-        <v>C132BL55D131_2</v>
+        <v>C141BL55D141_4</v>
       </c>
       <c r="H230" t="str">
-        <v>2022 - P2 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P4 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I230" t="str">
         <v>OVERZICHT COZ1323</v>
@@ -10372,10 +10979,10 @@
     </row>
     <row r="231" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G231" t="str">
-        <v>C141BL50D141_2</v>
+        <v>C132B50D131_4</v>
       </c>
       <c r="H231" t="str">
-        <v>2022 - P2 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P4 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I231" t="str">
         <v>OVERZICHT COZ1323</v>
@@ -10386,52 +10993,52 @@
     </row>
     <row r="232" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G232" t="str">
-        <v>C141B45-G_6</v>
+        <v>C132BL50D131_5</v>
       </c>
       <c r="H232" t="str">
-        <v>2022 - P6 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 - P5 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I232" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J232" t="str">
-        <v>G3</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="233" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G233" t="str">
-        <v>C132B45D131_2</v>
+        <v>C132B60D131_3</v>
       </c>
       <c r="H233" t="str">
-        <v>2022 - P2 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 - P3 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I233" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J233" t="str">
-        <v>L15</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="234" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G234" t="str">
-        <v>C132BL50D131_2</v>
+        <v>C141B55D140_3</v>
       </c>
       <c r="H234" t="str">
-        <v>2022 - P2 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P3 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I234" t="str">
         <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J234" t="str">
-        <v>M15</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="235" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G235" t="str">
-        <v>C141BL45D141_2</v>
+        <v>C141B45D140_4</v>
       </c>
       <c r="H235" t="str">
-        <v>2022 - P2 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 - P4 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I235" t="str">
         <v>OVERZICHT COZ1323</v>
@@ -10442,10 +11049,10 @@
     </row>
     <row r="236" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G236" t="str">
-        <v>C132BL45D131_2</v>
+        <v>C141BL45D141_5</v>
       </c>
       <c r="H236" t="str">
-        <v>2022 - P2 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 - P5 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I236" t="str">
         <v>OVERZICHT COZ1323</v>
@@ -10456,797 +11063,797 @@
     </row>
     <row r="237" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G237" t="str">
-        <v>CKPL231F88_2</v>
+        <v>C132BL55D131_4</v>
       </c>
       <c r="H237" t="str">
-        <v>2022 -P2 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
+        <v>2022 - P4 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I237" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J237" t="str">
-        <v>H3</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="238" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G238" t="str">
-        <v>CKPL231F88_1</v>
+        <v>C141BL50D141_4</v>
       </c>
       <c r="H238" t="str">
-        <v>2022 -P1 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
+        <v>2022 - P4 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I238" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J238" t="str">
-        <v>H3</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="239" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G239" t="str">
-        <v>CKP231F102_1</v>
+        <v>C141BL60D141_3</v>
       </c>
       <c r="H239" t="str">
-        <v>2022 -P1 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
+        <v>2022 - P3 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I239" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J239" t="str">
-        <v>G3</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="240" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G240" t="str">
-        <v>CKP231F102_2</v>
+        <v>C132B55D131_3</v>
       </c>
       <c r="H240" t="str">
-        <v>2022 -P2 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
+        <v>2022 - P3 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I240" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J240" t="str">
-        <v>G3</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="241" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G241" t="str">
-        <v>CKPL231F88_10</v>
+        <v>C132B45D131_4</v>
       </c>
       <c r="H241" t="str">
-        <v>2022 -P10 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
+        <v>2022 - P4 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I241" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J241" t="str">
-        <v>H3</v>
+        <v>L15</v>
       </c>
     </row>
     <row r="242" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G242" t="str">
-        <v>CKPL231F88_9</v>
+        <v>C132BL45D131_5</v>
       </c>
       <c r="H242" t="str">
-        <v>2022 -P9 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
+        <v>2022 - P5 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I242" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J242" t="str">
-        <v>H3</v>
+        <v>L15</v>
       </c>
     </row>
     <row r="243" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G243" t="str">
-        <v>CKP231F102_3</v>
+        <v>C141B50D140_3</v>
       </c>
       <c r="H243" t="str">
-        <v>2022 -P3 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
+        <v>2022 - P3 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I243" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J243" t="str">
-        <v>G3</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="244" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G244" t="str">
-        <v>CKP231F102_9</v>
+        <v>C132BL50D131_4</v>
       </c>
       <c r="H244" t="str">
-        <v>2022 -P9 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
+        <v>2022 - P4 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I244" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J244" t="str">
-        <v>G3</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="245" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G245" t="str">
-        <v>CKP231F102_10</v>
+        <v>C132BL60D131_3</v>
       </c>
       <c r="H245" t="str">
-        <v>2022 -P10 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
+        <v>2022 - P3 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I245" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J245" t="str">
-        <v>G3</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="246" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G246" t="str">
-        <v>CKPL231F88_6</v>
+        <v>C141BL55D141_3</v>
       </c>
       <c r="H246" t="str">
-        <v>2022 -P6 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
+        <v>2022 - P3 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I246" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J246" t="str">
-        <v>H3</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="247" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G247" t="str">
-        <v>CKPL231F88_7</v>
+        <v>C141BL45D141_4</v>
       </c>
       <c r="H247" t="str">
-        <v>2022 -P7 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
+        <v>2022 - P4 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I247" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J247" t="str">
-        <v>H3</v>
+        <v>L15</v>
       </c>
     </row>
     <row r="248" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G248" t="str">
-        <v>CKPL213F88_5</v>
+        <v>C132B50D131_3</v>
       </c>
       <c r="H248" t="str">
-        <v>2022 -P5 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
+        <v>2022 - P3 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I248" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J248" t="str">
-        <v>H3</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="249" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G249" t="str">
-        <v>CKPL231F88_5</v>
+        <v>C141B45D140_3</v>
       </c>
       <c r="H249" t="str">
-        <v>2022 -P5 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
+        <v>2022 - P3 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I249" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J249" t="str">
-        <v>H3</v>
+        <v>L15</v>
       </c>
     </row>
     <row r="250" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G250" t="str">
-        <v>CKPL231F88_4</v>
+        <v>C132BL55D131_3</v>
       </c>
       <c r="H250" t="str">
-        <v>2022 -P4 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
+        <v>2022 - P3 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I250" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J250" t="str">
-        <v>H3</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="251" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G251" t="str">
-        <v>CKPL231F88_3</v>
+        <v>C132BL45D131_4</v>
       </c>
       <c r="H251" t="str">
-        <v>2022 -P3 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
+        <v>2022 - P4 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I251" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J251" t="str">
-        <v>H3</v>
+        <v>L15</v>
       </c>
     </row>
     <row r="252" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G252" t="str">
-        <v>CKP213F102_5</v>
+        <v>C141BL50D141_3</v>
       </c>
       <c r="H252" t="str">
-        <v>2022 -P5 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
+        <v>2022 - P3 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I252" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J252" t="str">
-        <v>G3</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="253" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G253" t="str">
-        <v>CKP231F102_4</v>
+        <v>C132B45D131_3</v>
       </c>
       <c r="H253" t="str">
-        <v>2022 -P4 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
+        <v>2022 - P3 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I253" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J253" t="str">
-        <v>G3</v>
+        <v>L15</v>
       </c>
     </row>
     <row r="254" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G254" t="str">
-        <v>CKP231F102_5</v>
+        <v>C132BL50D131_3</v>
       </c>
       <c r="H254" t="str">
-        <v>2022 -P5 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
+        <v>2022 - P3 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I254" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J254" t="str">
-        <v>G3</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="255" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G255" t="str">
-        <v>CKP231F102_6</v>
+        <v>C141BL45D141_3</v>
       </c>
       <c r="H255" t="str">
-        <v>2022 -P6 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
+        <v>2022 - P3 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I255" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J255" t="str">
-        <v>G3</v>
+        <v>L15</v>
       </c>
     </row>
     <row r="256" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G256" t="str">
-        <v>CKP231F102_7</v>
+        <v>C132BL45D131_3</v>
       </c>
       <c r="H256" t="str">
-        <v>2022 -P7 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
+        <v>2022 - P3 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I256" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J256" t="str">
-        <v>G3</v>
+        <v>L15</v>
       </c>
     </row>
     <row r="257" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G257" t="str">
-        <v>CKP231F102_8</v>
+        <v>C141B60D140_2</v>
       </c>
       <c r="H257" t="str">
-        <v>2022 -P8 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
+        <v>2022 - P2 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I257" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J257" t="str">
-        <v>G3</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="258" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G258" t="str">
-        <v>CKPL231F88_8</v>
+        <v>C132B60D131_2</v>
       </c>
       <c r="H258" t="str">
-        <v>2022 -P8 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
+        <v>2022 - P2 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I258" t="str">
-        <v>OVERZICHT CKP231</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J258" t="str">
-        <v>H3</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="259" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G259" t="str">
-        <v>CKPL222F88_4</v>
+        <v>C141B55D140_2</v>
       </c>
       <c r="H259" t="str">
-        <v>2022 -P4 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
+        <v>2022 - P2 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I259" t="str">
-        <v>OVERZICHT CKP222</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J259" t="str">
-        <v>H3</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="260" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G260" t="str">
-        <v>CKPL222F88_3</v>
+        <v>C141BL60D141_2</v>
       </c>
       <c r="H260" t="str">
-        <v>2022 -P3 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
+        <v>2022 - P2 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I260" t="str">
-        <v>OVERZICHT CKP222</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J260" t="str">
-        <v>H3</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="261" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G261" t="str">
-        <v>CKPL213F88_1</v>
+        <v>C132B55D131_2</v>
       </c>
       <c r="H261" t="str">
-        <v>2022 -P1 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
+        <v>2022 - P2 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I261" t="str">
-        <v>OVERZICHT CKP222</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J261" t="str">
-        <v>H3</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="262" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G262" t="str">
-        <v>CKPL222F88_1</v>
+        <v>C141B50D140_2</v>
       </c>
       <c r="H262" t="str">
-        <v>2022 -P1 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
+        <v>2022 - P2 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I262" t="str">
-        <v>OVERZICHT CKP222</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J262" t="str">
-        <v>H3</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="263" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G263" t="str">
-        <v>CKP213F102_1</v>
+        <v>C132BL60D131_2</v>
       </c>
       <c r="H263" t="str">
-        <v>2022 -P1 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
+        <v>2022 - P2 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I263" t="str">
-        <v>OVERZICHT CKP222</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J263" t="str">
-        <v>G3</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="264" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G264" t="str">
-        <v>CKP213F102_10</v>
+        <v>C141BL55D141_2</v>
       </c>
       <c r="H264" t="str">
-        <v>2022 -P10 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
+        <v>2022 - P2 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I264" t="str">
-        <v>OVERZICHT CKP213</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J264" t="str">
-        <v>G3</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="265" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G265" t="str">
-        <v>CKP222F102_1</v>
+        <v>C132B50D131_2</v>
       </c>
       <c r="H265" t="str">
-        <v>2022 -P1 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
+        <v>2022 - P2 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I265" t="str">
-        <v>OVERZICHT CKP222</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J265" t="str">
-        <v>G3</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="266" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G266" t="str">
-        <v>CKP222F102_3</v>
+        <v>C141B45D140_2</v>
       </c>
       <c r="H266" t="str">
-        <v>2022 -P3 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
+        <v>2022 - P2 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I266" t="str">
-        <v>OVERZICHT CKP222</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J266" t="str">
-        <v>G3</v>
+        <v>L15</v>
       </c>
     </row>
     <row r="267" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G267" t="str">
-        <v>CKP222F102_7</v>
+        <v>C132BL55D131_2</v>
       </c>
       <c r="H267" t="str">
-        <v>2022 -P7 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
+        <v>2022 - P2 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I267" t="str">
-        <v>OVERZICHT CKP222</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J267" t="str">
-        <v>G3</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="268" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G268" t="str">
-        <v>CKP222F102_9</v>
+        <v>C141BL50D141_2</v>
       </c>
       <c r="H268" t="str">
-        <v>2022 -P9 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
+        <v>2022 - P2 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I268" t="str">
-        <v>OVERZICHT CKP222</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J268" t="str">
-        <v>G3</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="269" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G269" t="str">
-        <v>CKP222F102_10</v>
+        <v>C132B45D131_2</v>
       </c>
       <c r="H269" t="str">
-        <v>2022 -P10 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
+        <v>2022 - P2 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I269" t="str">
-        <v>OVERZICHT CKP222</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J269" t="str">
-        <v>G3</v>
+        <v>L15</v>
       </c>
     </row>
     <row r="270" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G270" t="str">
-        <v>CKPL213F88_2</v>
+        <v>C132BL50D131_2</v>
       </c>
       <c r="H270" t="str">
-        <v>2022 -P2 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
+        <v>2022 - P2 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I270" t="str">
-        <v>OVERZICHT CKP213</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J270" t="str">
-        <v>H3</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="271" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G271" t="str">
-        <v>CKP213F102_2</v>
+        <v>C141BL45D141_2</v>
       </c>
       <c r="H271" t="str">
-        <v>2022 -P2 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
+        <v>2022 - P2 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I271" t="str">
-        <v>OVERZICHT CKP213</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J271" t="str">
-        <v>G3</v>
+        <v>L15</v>
       </c>
     </row>
     <row r="272" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G272" t="str">
-        <v>CKPL222F88_10</v>
+        <v>C132BL45D131_2</v>
       </c>
       <c r="H272" t="str">
-        <v>2022 -P10 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
+        <v>2022 - P2 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I272" t="str">
-        <v>OVERZICHT CKP222</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J272" t="str">
-        <v>H3</v>
+        <v>L15</v>
       </c>
     </row>
     <row r="273" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G273" t="str">
-        <v>CKPL213F88_10</v>
+        <v>C141B60D140_1</v>
       </c>
       <c r="H273" t="str">
-        <v>2022 -P10 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
+        <v>2022 - P1 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I273" t="str">
-        <v>OVERZICHT CKP213</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J273" t="str">
-        <v>H3</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="274" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G274" t="str">
-        <v>CKPL222F88_9</v>
+        <v>C132B60D131_1</v>
       </c>
       <c r="H274" t="str">
-        <v>2022 -P9 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
+        <v>2022 - P1 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I274" t="str">
-        <v>OVERZICHT CKP222</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J274" t="str">
-        <v>H3</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="275" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G275" t="str">
-        <v>CKPL213F88_9</v>
+        <v>C141B55D140_1</v>
       </c>
       <c r="H275" t="str">
-        <v>2022 -P9 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
+        <v>2022 - P1 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I275" t="str">
-        <v>OVERZICHT CKP213</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J275" t="str">
-        <v>H3</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="276" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G276" t="str">
-        <v>CKPL222F88_7</v>
+        <v>C141BL60D141_1</v>
       </c>
       <c r="H276" t="str">
-        <v>2022 -P7 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
+        <v>2022 - P1 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I276" t="str">
-        <v>OVERZICHT CKP222</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J276" t="str">
-        <v>H3</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="277" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G277" t="str">
-        <v>CKPL213F88_7</v>
+        <v>C132B55D131_1</v>
       </c>
       <c r="H277" t="str">
-        <v>2022 -P7 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
+        <v>2022 - P1 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I277" t="str">
-        <v>OVERZICHT CKP213</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J277" t="str">
-        <v>H3</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="278" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G278" t="str">
-        <v>CKPL222F88_6</v>
+        <v>C141B50D140_1</v>
       </c>
       <c r="H278" t="str">
-        <v>2022 -P6 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
+        <v>2022 - P1 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I278" t="str">
-        <v>OVERZICHT CKP222</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J278" t="str">
-        <v>H3</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="279" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G279" t="str">
-        <v>CKPL213F88_4</v>
+        <v>C132BL60D131_1</v>
       </c>
       <c r="H279" t="str">
-        <v>2022 -P4 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
+        <v>2022 - P1 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I279" t="str">
-        <v>OVERZICHT CKP213</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J279" t="str">
-        <v>H3</v>
+        <v>O15</v>
       </c>
     </row>
     <row r="280" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G280" t="str">
-        <v>CKPL222F88_2</v>
+        <v>C141BL55D141_1</v>
       </c>
       <c r="H280" t="str">
-        <v>2022 -P2 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
+        <v>2022 - P1 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I280" t="str">
-        <v>OVERZICHT CKP222</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J280" t="str">
-        <v>H3</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="281" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G281" t="str">
-        <v>CKP213F102_3</v>
+        <v>C132B50D131_1</v>
       </c>
       <c r="H281" t="str">
-        <v>2022 -P3 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
+        <v>2022 - P1 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I281" t="str">
-        <v>OVERZICHT CKP213</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J281" t="str">
-        <v>G3</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="282" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G282" t="str">
-        <v>CKP213F102_4</v>
+        <v>C132BL55D131_1</v>
       </c>
       <c r="H282" t="str">
-        <v>2022 -P4 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
+        <v>2022 - P1 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I282" t="str">
-        <v>OVERZICHT CKP213</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J282" t="str">
-        <v>G3</v>
+        <v>N15</v>
       </c>
     </row>
     <row r="283" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G283" t="str">
-        <v>CKP213F102_7</v>
+        <v>C141BL50D141_1</v>
       </c>
       <c r="H283" t="str">
-        <v>2022 -P7 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
+        <v>2022 - P1 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I283" t="str">
-        <v>OVERZICHT CKP213</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J283" t="str">
-        <v>G3</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="284" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G284" t="str">
-        <v>CKP213F102_9</v>
+        <v>C132B45D131_1</v>
       </c>
       <c r="H284" t="str">
-        <v>2022 -P9 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
+        <v>2022 - P1 Berekening opzetkast 1323-KLEUR.xlsx</v>
       </c>
       <c r="I284" t="str">
-        <v>OVERZICHT CKP213</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J284" t="str">
-        <v>G3</v>
+        <v>L15</v>
       </c>
     </row>
     <row r="285" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G285" t="str">
-        <v>CKP222F102_2</v>
+        <v>C132BL50D131_1</v>
       </c>
       <c r="H285" t="str">
-        <v>2022 -P2 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
+        <v>2022 - P1 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I285" t="str">
-        <v>OVERZICHT CKP222</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J285" t="str">
-        <v>G3</v>
+        <v>M15</v>
       </c>
     </row>
     <row r="286" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G286" t="str">
-        <v>CKP222F102_4</v>
+        <v>C141BL45D141_1</v>
       </c>
       <c r="H286" t="str">
-        <v>2022 -P4 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
+        <v>2022 - P1 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
       </c>
       <c r="I286" t="str">
-        <v>OVERZICHT CKP222</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J286" t="str">
-        <v>G3</v>
+        <v>L15</v>
       </c>
     </row>
     <row r="287" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G287" t="str">
-        <v>CKP222F102_6</v>
+        <v>C132BL45D131_1</v>
       </c>
       <c r="H287" t="str">
-        <v>2022 -P6 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
+        <v>2022 - P1 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I287" t="str">
-        <v>OVERZICHT CKP222</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J287" t="str">
-        <v>G3</v>
+        <v>L15</v>
       </c>
     </row>
     <row r="288" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G288" t="str">
-        <v>CKPL222F88_8</v>
+        <v>C141B45-G_9</v>
       </c>
       <c r="H288" t="str">
-        <v>2022 -P8 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
+        <v>2022 - P9 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I288" t="str">
-        <v>OVERZICHT CKP222</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J288" t="str">
-        <v>H3</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="289" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G289" t="str">
-        <v>CKPL213F88_8</v>
+        <v>C141B45-G_7</v>
       </c>
       <c r="H289" t="str">
-        <v>2022 -P8 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
+        <v>2022 - P7 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I289" t="str">
-        <v>OVERZICHT CKP213</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J289" t="str">
-        <v>H3</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="290" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G290" t="str">
-        <v>CKPL213F88_6</v>
+        <v>C141B45-G_6</v>
       </c>
       <c r="H290" t="str">
-        <v>2022 -P6 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
+        <v>2022 - P6 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I290" t="str">
-        <v>OVERZICHT CKP213</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J290" t="str">
-        <v>H3</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="291" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G291" t="str">
-        <v>CKPL222F88_5</v>
+        <v>C141B45-G_5</v>
       </c>
       <c r="H291" t="str">
-        <v>2022 -P5 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
+        <v>2022 - P5 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I291" t="str">
-        <v>OVERZICHT CKP222</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J291" t="str">
-        <v>H3</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="292" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G292" t="str">
-        <v>CKPL213F88_3</v>
+        <v>C141B45-G_8</v>
       </c>
       <c r="H292" t="str">
-        <v>2022 -P3 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
+        <v>2022 - P8 Berekening opzetkast 1413-KLEUR.xlsx</v>
       </c>
       <c r="I292" t="str">
-        <v>OVERZICHT CKP213</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J292" t="str">
-        <v>H3</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="293" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G293" t="str">
-        <v>CKP213F102_6</v>
+        <v>C132BL45-G_8</v>
       </c>
       <c r="H293" t="str">
-        <v>2022 -P6 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
+        <v>2022 - P8 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
       </c>
       <c r="I293" t="str">
-        <v>OVERZICHT CKP213</v>
+        <v>OVERZICHT COZ1323</v>
       </c>
       <c r="J293" t="str">
         <v>G3</v>
@@ -11254,282 +11861,394 @@
     </row>
     <row r="294" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G294" t="str">
-        <v>CKP213F102_8</v>
+        <v>COPBL60_2</v>
       </c>
       <c r="H294" t="str">
-        <v>2022 -P8 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
+        <v>2022 -P2 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="I294" t="str">
-        <v>OVERZICHT CKP213</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="J294" t="str">
-        <v>G3</v>
+        <v>H11</v>
       </c>
     </row>
     <row r="295" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G295" t="str">
-        <v>CKP222F102_5</v>
+        <v>COPBL60_3</v>
       </c>
       <c r="H295" t="str">
-        <v>2022 -P5 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
+        <v>2022 -P3 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="I295" t="str">
-        <v>OVERZICHT CKP222</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="J295" t="str">
-        <v>G3</v>
+        <v>H11</v>
       </c>
     </row>
     <row r="296" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G296" t="str">
-        <v>CKP222F102_8</v>
+        <v>COPBL60_4</v>
       </c>
       <c r="H296" t="str">
-        <v>2022 -P8 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2227-KLEUR.xlsx</v>
+        <v>2022 -P4 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="I296" t="str">
-        <v>OVERZICHT CKP222</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="J296" t="str">
-        <v>G3</v>
+        <v>H11</v>
       </c>
     </row>
     <row r="297" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G297" t="str">
-        <v>C141B60D140_1</v>
+        <v>COPBL60_5</v>
       </c>
       <c r="H297" t="str">
-        <v>2022 - P1 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 -P5 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="I297" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="J297" t="str">
-        <v>O15</v>
+        <v>H11</v>
       </c>
     </row>
     <row r="298" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G298" t="str">
-        <v>C132B60D131_1</v>
+        <v>COPBL50FLES_2</v>
       </c>
       <c r="H298" t="str">
-        <v>2022 - P1 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 -P2 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="I298" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="J298" t="str">
-        <v>O15</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="299" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G299" t="str">
-        <v>C141B55D140_1</v>
+        <v>COPBL60_6</v>
       </c>
       <c r="H299" t="str">
-        <v>2022 - P1 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 -P6 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="I299" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="J299" t="str">
-        <v>N15</v>
+        <v>H11</v>
       </c>
     </row>
     <row r="300" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G300" t="str">
-        <v>C141BL60D141_1</v>
+        <v>COPBL60FLES_1</v>
       </c>
       <c r="H300" t="str">
-        <v>2022 - P1 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 -P1 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="I300" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="J300" t="str">
-        <v>O15</v>
+        <v>H3</v>
       </c>
     </row>
     <row r="301" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G301" t="str">
-        <v>C132B55D131_1</v>
+        <v>COPBL60_7</v>
       </c>
       <c r="H301" t="str">
-        <v>2022 - P1 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 -P7 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="I301" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="J301" t="str">
-        <v>N15</v>
+        <v>H11</v>
       </c>
     </row>
     <row r="302" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G302" t="str">
-        <v>C141B50D140_1</v>
+        <v>COPBL60FLES_2</v>
       </c>
       <c r="H302" t="str">
-        <v>2022 - P1 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 -P2 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="I302" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="J302" t="str">
-        <v>M15</v>
+        <v>H3</v>
       </c>
     </row>
     <row r="303" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G303" t="str">
-        <v>C132BL60D131_1</v>
+        <v>COPBL50FLES_3</v>
       </c>
       <c r="H303" t="str">
-        <v>2022 - P1 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 -P3 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="I303" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="J303" t="str">
-        <v>O15</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="304" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G304" t="str">
-        <v>C141BL55D141_1</v>
+        <v>COPBL60_8</v>
       </c>
       <c r="H304" t="str">
-        <v>2022 - P1 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 -P8 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="I304" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="J304" t="str">
-        <v>N15</v>
+        <v>H11</v>
       </c>
     </row>
     <row r="305" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G305" t="str">
-        <v>C132B50D131_1</v>
+        <v>COPBL50FLES_4</v>
       </c>
       <c r="H305" t="str">
-        <v>2022 - P1 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 -P4 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="I305" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="J305" t="str">
-        <v>M15</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="306" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G306" t="str">
-        <v>C132BL55D131_1</v>
+        <v>COPBL50FLES_5</v>
       </c>
       <c r="H306" t="str">
-        <v>2022 - P1 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 -P5 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="I306" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="J306" t="str">
-        <v>N15</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="307" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G307" t="str">
-        <v>C141BL50D141_1</v>
+        <v>COPBL60FLES_3</v>
       </c>
       <c r="H307" t="str">
-        <v>2022 - P1 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 -P3 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="I307" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="J307" t="str">
-        <v>M15</v>
+        <v>H3</v>
       </c>
     </row>
     <row r="308" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G308" t="str">
-        <v>C132B45D131_1</v>
+        <v>COPBL50FLES_6</v>
       </c>
       <c r="H308" t="str">
-        <v>2022 - P1 Berekening opzetkast 1323-KLEUR.xlsx</v>
+        <v>2022 -P6 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="I308" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="J308" t="str">
-        <v>L15</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="309" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G309" t="str">
-        <v>C132BL50D131_1</v>
+        <v>COPBL60FLES_4</v>
       </c>
       <c r="H309" t="str">
-        <v>2022 - P1 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 -P4 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="I309" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="J309" t="str">
-        <v>M15</v>
+        <v>H3</v>
       </c>
     </row>
     <row r="310" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G310" t="str">
-        <v>C141BL45D141_1</v>
+        <v>COPBL50FLES_7</v>
       </c>
       <c r="H310" t="str">
-        <v>2022 - P1 Berekening opzetkast 1413-KLEUR met lade.xlsx</v>
+        <v>2022 -P7 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="I310" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="J310" t="str">
-        <v>L15</v>
+        <v>G3</v>
       </c>
     </row>
     <row r="311" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G311" t="str">
-        <v>C132BL45D131_1</v>
+        <v>COPBL60_9</v>
       </c>
       <c r="H311" t="str">
-        <v>2022 - P1 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 -P9 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="I311" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="J311" t="str">
-        <v>L15</v>
+        <v>H11</v>
       </c>
     </row>
     <row r="312" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G312" t="str">
-        <v>C141B45-G_5</v>
+        <v>COPBL60FLES_5</v>
       </c>
       <c r="H312" t="str">
-        <v>2022 - P5 Berekening opzetkast 1413-KLEUR.xlsx</v>
+        <v>2022 -P5 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="I312" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="J312" t="str">
-        <v>G3</v>
+        <v>H3</v>
       </c>
     </row>
     <row r="313" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G313" t="str">
-        <v>C132BL45-G_8</v>
+        <v>COPBL50FLES_8</v>
       </c>
       <c r="H313" t="str">
-        <v>2022 - P8 Berekening opzetkast 1323-KLEUR met lade.xlsx</v>
+        <v>2022 -P8 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="I313" t="str">
-        <v>OVERZICHT COZ1323</v>
+        <v>OVERZICHT PO</v>
       </c>
       <c r="J313" t="str">
         <v>G3</v>
+      </c>
+    </row>
+    <row r="314" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G314" t="str">
+        <v>COPBL60FLES_6</v>
+      </c>
+      <c r="H314" t="str">
+        <v>2022 -P6 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
+      </c>
+      <c r="I314" t="str">
+        <v>OVERZICHT PO</v>
+      </c>
+      <c r="J314" t="str">
+        <v>H3</v>
+      </c>
+    </row>
+    <row r="315" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G315" t="str">
+        <v>COPBL60_10</v>
+      </c>
+      <c r="H315" t="str">
+        <v>2022 -P10 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
+      </c>
+      <c r="I315" t="str">
+        <v>OVERZICHT PO</v>
+      </c>
+      <c r="J315" t="str">
+        <v>H11</v>
+      </c>
+    </row>
+    <row r="316" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G316" t="str">
+        <v>COPBL60FLES_7</v>
+      </c>
+      <c r="H316" t="str">
+        <v>2022 -P7 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
+      </c>
+      <c r="I316" t="str">
+        <v>OVERZICHT PO</v>
+      </c>
+      <c r="J316" t="str">
+        <v>H3</v>
+      </c>
+    </row>
+    <row r="317" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G317" t="str">
+        <v>COPBL50FLES_9</v>
+      </c>
+      <c r="H317" t="str">
+        <v>2022 -P9 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
+      </c>
+      <c r="I317" t="str">
+        <v>OVERZICHT PO</v>
+      </c>
+      <c r="J317" t="str">
+        <v>G3</v>
+      </c>
+    </row>
+    <row r="318" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G318" t="str">
+        <v>COPBL60FLES_8</v>
+      </c>
+      <c r="H318" t="str">
+        <v>2022 -P8 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
+      </c>
+      <c r="I318" t="str">
+        <v>OVERZICHT PO</v>
+      </c>
+      <c r="J318" t="str">
+        <v>H3</v>
+      </c>
+    </row>
+    <row r="319" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G319" t="str">
+        <v>COPBL50FLES_10</v>
+      </c>
+      <c r="H319" t="str">
+        <v>2022 -P10 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
+      </c>
+      <c r="I319" t="str">
+        <v>OVERZICHT PO</v>
+      </c>
+      <c r="J319" t="str">
+        <v>G3</v>
+      </c>
+    </row>
+    <row r="320" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G320" t="str">
+        <v>COPBL60FLES_9</v>
+      </c>
+      <c r="H320" t="str">
+        <v>2022 -P9 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
+      </c>
+      <c r="I320" t="str">
+        <v>OVERZICHT PO</v>
+      </c>
+      <c r="J320" t="str">
+        <v>H3</v>
+      </c>
+    </row>
+    <row r="321" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G321" t="str">
+        <v>COPBL60FLES_10</v>
+      </c>
+      <c r="H321" t="str">
+        <v>2022 -P10 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
+      </c>
+      <c r="I321" t="str">
+        <v>OVERZICHT PO</v>
+      </c>
+      <c r="J321" t="str">
+        <v>H3</v>
       </c>
     </row>
   </sheetData>

--- a/Batch File/File - Tab - Cell - (start of recursive resolver) - New.xlsx
+++ b/Batch File/File - Tab - Cell - (start of recursive resolver) - New.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mordrel-my.sharepoint.com/personal/matthieu_mordrel_pro/Documents/Work/Projects/Kovera/Project 2/Scripts/Project/Batch File/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="340" documentId="8_{9249E20C-2A1A-4D5B-AF97-066FDAA15AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87AE2DD5-359A-4AE3-8BF4-2E1242BF2022}"/>
+  <xr:revisionPtr revIDLastSave="343" documentId="8_{9249E20C-2A1A-4D5B-AF97-066FDAA15AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3916BD8-1815-4549-A449-300307EC32F0}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3510" windowWidth="29040" windowHeight="15840" xr2:uid="{FB1F73C2-3A7C-4D28-BF2A-BCBC768C2592}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FB1F73C2-3A7C-4D28-BF2A-BCBC768C2592}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11695" uniqueCount="2493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11231" uniqueCount="2493">
   <si>
     <t>2022 - P1 berekening kolomkast 2137.xlsx</t>
   </si>
@@ -7636,8 +7636,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}" name="Table2" displayName="Table2" ref="A1:D329" totalsRowShown="0">
-  <autoFilter ref="A1:D329" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}" name="Table2" displayName="Table2" ref="A1:D213" totalsRowShown="0">
+  <autoFilter ref="A1:D213" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{EAD2BB95-0271-4DE1-860E-94A419353B53}" name="Product_Id"/>
     <tableColumn id="2" xr3:uid="{42247E71-8EC0-4CEB-B24A-D3FBFE9449A8}" name="File"/>
@@ -7979,11 +7979,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535C4B85-08F9-4009-85A5-566FB6CE48DF}">
-  <dimension ref="A1:O329"/>
+  <dimension ref="A1:O213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8017,16 +8015,16 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1910</v>
+        <v>2280</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="G2" t="s">
         <v>1908</v>
@@ -8034,16 +8032,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1911</v>
+        <v>2281</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="G3" t="s">
         <v>1909</v>
@@ -8051,16 +8049,16 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1912</v>
+        <v>2282</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="G4" t="s">
         <v>1657</v>
@@ -8080,16 +8078,16 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1913</v>
+        <v>2283</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="G5" t="s">
         <v>1666</v>
@@ -8106,16 +8104,16 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1914</v>
+        <v>2284</v>
       </c>
       <c r="B6" t="s">
-        <v>265</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="G6" t="s">
         <v>1675</v>
@@ -8132,16 +8130,16 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1915</v>
+        <v>2285</v>
       </c>
       <c r="B7" t="s">
-        <v>266</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="G7" t="s">
         <v>1658</v>
@@ -8158,16 +8156,16 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1916</v>
+        <v>2286</v>
       </c>
       <c r="B8" t="s">
-        <v>267</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="G8" t="s">
         <v>1659</v>
@@ -8184,16 +8182,16 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1917</v>
+        <v>2287</v>
       </c>
       <c r="B9" t="s">
-        <v>268</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="G9" t="s">
         <v>1667</v>
@@ -8210,16 +8208,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1918</v>
+        <v>2288</v>
       </c>
       <c r="B10" t="s">
-        <v>269</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="G10" t="s">
         <v>1660</v>
@@ -8236,16 +8234,16 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1919</v>
+        <v>2289</v>
       </c>
       <c r="B11" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="G11" t="s">
         <v>1668</v>
@@ -8262,16 +8260,16 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1920</v>
+        <v>2290</v>
       </c>
       <c r="B12" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="G12" t="s">
         <v>1676</v>
@@ -8288,16 +8286,16 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1921</v>
+        <v>2291</v>
       </c>
       <c r="B13" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="G13" t="s">
         <v>1669</v>
@@ -8314,16 +8312,16 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1922</v>
+        <v>2292</v>
       </c>
       <c r="B14" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="G14" t="s">
         <v>1661</v>
@@ -8340,16 +8338,16 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1923</v>
+        <v>2293</v>
       </c>
       <c r="B15" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="G15" t="s">
         <v>1677</v>
@@ -8366,16 +8364,16 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1924</v>
+        <v>2294</v>
       </c>
       <c r="B16" t="s">
-        <v>265</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="G16" t="s">
         <v>1662</v>
@@ -8392,16 +8390,16 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1925</v>
+        <v>2295</v>
       </c>
       <c r="B17" t="s">
-        <v>266</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="G17" t="s">
         <v>1678</v>
@@ -8418,16 +8416,16 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1926</v>
+        <v>2296</v>
       </c>
       <c r="B18" t="s">
-        <v>267</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="G18" t="s">
         <v>1670</v>
@@ -8444,16 +8442,16 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1927</v>
+        <v>2297</v>
       </c>
       <c r="B19" t="s">
-        <v>268</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="G19" t="s">
         <v>1663</v>
@@ -8470,16 +8468,16 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1928</v>
+        <v>2298</v>
       </c>
       <c r="B20" t="s">
-        <v>269</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="G20" t="s">
         <v>1607</v>
@@ -8496,16 +8494,16 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1929</v>
+        <v>2299</v>
       </c>
       <c r="B21" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="G21" t="s">
         <v>1671</v>
@@ -8522,16 +8520,16 @@
     </row>
     <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1930</v>
+        <v>2300</v>
       </c>
       <c r="B22" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="G22" t="s">
         <v>1608</v>
@@ -8548,16 +8546,16 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1931</v>
+        <v>2301</v>
       </c>
       <c r="B23" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="G23" t="s">
         <v>1679</v>
@@ -8574,16 +8572,16 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1932</v>
+        <v>2302</v>
       </c>
       <c r="B24" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="G24" t="s">
         <v>1672</v>
@@ -8600,16 +8598,16 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1933</v>
+        <v>2303</v>
       </c>
       <c r="B25" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="G25" t="s">
         <v>1680</v>
@@ -8626,16 +8624,16 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1934</v>
+        <v>2304</v>
       </c>
       <c r="B26" t="s">
-        <v>265</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="G26" t="s">
         <v>1617</v>
@@ -8652,16 +8650,16 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1935</v>
+        <v>2305</v>
       </c>
       <c r="B27" t="s">
-        <v>266</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="G27" t="s">
         <v>1664</v>
@@ -8678,16 +8676,16 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1936</v>
+        <v>2306</v>
       </c>
       <c r="B28" t="s">
-        <v>267</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="G28" t="s">
         <v>1681</v>
@@ -8704,16 +8702,16 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1937</v>
+        <v>2307</v>
       </c>
       <c r="B29" t="s">
-        <v>268</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="G29" t="s">
         <v>1609</v>
@@ -8730,16 +8728,16 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1938</v>
+        <v>2308</v>
       </c>
       <c r="B30" t="s">
-        <v>269</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="G30" t="s">
         <v>1610</v>
@@ -8756,16 +8754,16 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1939</v>
+        <v>2309</v>
       </c>
       <c r="B31" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="G31" t="s">
         <v>1618</v>
@@ -8782,16 +8780,16 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1940</v>
+        <v>2310</v>
       </c>
       <c r="B32" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D32" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="G32" t="s">
         <v>1611</v>
@@ -8808,16 +8806,16 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1941</v>
+        <v>2311</v>
       </c>
       <c r="B33" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="G33" t="s">
         <v>1673</v>
@@ -8834,16 +8832,16 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1942</v>
+        <v>2312</v>
       </c>
       <c r="B34" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="G34" t="s">
         <v>1665</v>
@@ -8860,16 +8858,16 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1943</v>
+        <v>2313</v>
       </c>
       <c r="B35" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="G35" t="s">
         <v>1619</v>
@@ -8886,16 +8884,16 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1944</v>
+        <v>2314</v>
       </c>
       <c r="B36" t="s">
-        <v>265</v>
+        <v>119</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="G36" t="s">
         <v>1612</v>
@@ -8912,16 +8910,16 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1945</v>
+        <v>2315</v>
       </c>
       <c r="B37" t="s">
-        <v>266</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="G37" t="s">
         <v>1620</v>
@@ -8938,16 +8936,16 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1946</v>
+        <v>2316</v>
       </c>
       <c r="B38" t="s">
-        <v>267</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="G38" t="s">
         <v>1682</v>
@@ -8964,16 +8962,16 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1947</v>
+        <v>2317</v>
       </c>
       <c r="B39" t="s">
-        <v>268</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="G39" t="s">
         <v>1613</v>
@@ -8990,16 +8988,16 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1948</v>
+        <v>2318</v>
       </c>
       <c r="B40" t="s">
-        <v>269</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="G40" t="s">
         <v>1674</v>
@@ -9016,16 +9014,16 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1949</v>
+        <v>2319</v>
       </c>
       <c r="B41" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D41" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="G41" t="s">
         <v>1614</v>
@@ -9042,16 +9040,16 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1950</v>
+        <v>2320</v>
       </c>
       <c r="B42" t="s">
-        <v>260</v>
+        <v>158</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D42" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="G42" t="s">
         <v>1621</v>
@@ -9068,16 +9066,16 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1951</v>
+        <v>2321</v>
       </c>
       <c r="B43" t="s">
-        <v>262</v>
+        <v>158</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D43" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="G43" t="s">
         <v>1622</v>
@@ -9094,16 +9092,16 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1952</v>
+        <v>2322</v>
       </c>
       <c r="B44" t="s">
-        <v>263</v>
+        <v>158</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D44" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="G44" t="s">
         <v>1623</v>
@@ -9120,16 +9118,16 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1953</v>
+        <v>2323</v>
       </c>
       <c r="B45" t="s">
-        <v>264</v>
+        <v>158</v>
       </c>
       <c r="C45" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D45" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="G45" t="s">
         <v>1683</v>
@@ -9146,16 +9144,16 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1954</v>
+        <v>2324</v>
       </c>
       <c r="B46" t="s">
-        <v>265</v>
+        <v>158</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D46" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="G46" t="s">
         <v>1615</v>
@@ -9172,16 +9170,16 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1955</v>
+        <v>2325</v>
       </c>
       <c r="B47" t="s">
-        <v>266</v>
+        <v>160</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D47" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="G47" t="s">
         <v>1616</v>
@@ -9198,16 +9196,16 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1956</v>
+        <v>2326</v>
       </c>
       <c r="B48" t="s">
-        <v>267</v>
+        <v>161</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D48" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="G48" t="s">
         <v>1624</v>
@@ -9224,16 +9222,16 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1957</v>
+        <v>2327</v>
       </c>
       <c r="B49" t="s">
-        <v>268</v>
+        <v>162</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D49" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="G49" t="s">
         <v>1625</v>
@@ -9250,16 +9248,16 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1958</v>
+        <v>2328</v>
       </c>
       <c r="B50" t="s">
-        <v>269</v>
+        <v>163</v>
       </c>
       <c r="C50" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D50" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="G50" t="s">
         <v>1363</v>
@@ -9276,16 +9274,16 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1959</v>
+        <v>2329</v>
       </c>
       <c r="B51" t="s">
-        <v>270</v>
+        <v>163</v>
       </c>
       <c r="C51" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D51" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="G51" t="s">
         <v>612</v>
@@ -9302,16 +9300,16 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1960</v>
+        <v>2330</v>
       </c>
       <c r="B52" t="s">
-        <v>260</v>
+        <v>164</v>
       </c>
       <c r="C52" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D52" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="G52" t="s">
         <v>1547</v>
@@ -9328,3880 +9326,2256 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1961</v>
+        <v>2331</v>
       </c>
       <c r="B53" t="s">
-        <v>262</v>
+        <v>165</v>
       </c>
       <c r="C53" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D53" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1962</v>
+        <v>2332</v>
       </c>
       <c r="B54" t="s">
-        <v>263</v>
+        <v>166</v>
       </c>
       <c r="C54" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D54" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1963</v>
+        <v>2333</v>
       </c>
       <c r="B55" t="s">
-        <v>264</v>
+        <v>167</v>
       </c>
       <c r="C55" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D55" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1964</v>
+        <v>2334</v>
       </c>
       <c r="B56" t="s">
-        <v>265</v>
+        <v>158</v>
       </c>
       <c r="C56" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D56" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1965</v>
+        <v>2335</v>
       </c>
       <c r="B57" t="s">
-        <v>266</v>
+        <v>160</v>
       </c>
       <c r="C57" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D57" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1966</v>
+        <v>2336</v>
       </c>
       <c r="B58" t="s">
-        <v>267</v>
+        <v>161</v>
       </c>
       <c r="C58" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D58" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1967</v>
+        <v>2337</v>
       </c>
       <c r="B59" t="s">
-        <v>268</v>
+        <v>162</v>
       </c>
       <c r="C59" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D59" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1968</v>
+        <v>2338</v>
       </c>
       <c r="B60" t="s">
-        <v>269</v>
+        <v>163</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D60" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1969</v>
+        <v>2339</v>
       </c>
       <c r="B61" t="s">
-        <v>270</v>
+        <v>163</v>
       </c>
       <c r="C61" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D61" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1970</v>
+        <v>2340</v>
       </c>
       <c r="B62" t="s">
-        <v>260</v>
+        <v>164</v>
       </c>
       <c r="C62" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D62" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1971</v>
+        <v>2341</v>
       </c>
       <c r="B63" t="s">
-        <v>262</v>
+        <v>165</v>
       </c>
       <c r="C63" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D63" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1972</v>
+        <v>2342</v>
       </c>
       <c r="B64" t="s">
-        <v>263</v>
+        <v>166</v>
       </c>
       <c r="C64" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D64" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1973</v>
+        <v>2343</v>
       </c>
       <c r="B65" t="s">
-        <v>264</v>
+        <v>167</v>
       </c>
       <c r="C65" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D65" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1974</v>
+        <v>2344</v>
       </c>
       <c r="B66" t="s">
-        <v>265</v>
+        <v>158</v>
       </c>
       <c r="C66" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D66" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1975</v>
+        <v>2345</v>
       </c>
       <c r="B67" t="s">
-        <v>266</v>
+        <v>160</v>
       </c>
       <c r="C67" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D67" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1976</v>
+        <v>2346</v>
       </c>
       <c r="B68" t="s">
-        <v>267</v>
+        <v>161</v>
       </c>
       <c r="C68" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D68" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1977</v>
+        <v>2347</v>
       </c>
       <c r="B69" t="s">
-        <v>268</v>
+        <v>162</v>
       </c>
       <c r="C69" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D69" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1978</v>
+        <v>2348</v>
       </c>
       <c r="B70" t="s">
-        <v>269</v>
+        <v>163</v>
       </c>
       <c r="C70" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D70" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1979</v>
+        <v>2349</v>
       </c>
       <c r="B71" t="s">
-        <v>270</v>
+        <v>163</v>
       </c>
       <c r="C71" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D71" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1980</v>
+        <v>2350</v>
       </c>
       <c r="B72" t="s">
-        <v>260</v>
+        <v>164</v>
       </c>
       <c r="C72" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D72" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1981</v>
+        <v>2351</v>
       </c>
       <c r="B73" t="s">
-        <v>262</v>
+        <v>165</v>
       </c>
       <c r="C73" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D73" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1982</v>
+        <v>2352</v>
       </c>
       <c r="B74" t="s">
-        <v>263</v>
+        <v>166</v>
       </c>
       <c r="C74" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D74" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1983</v>
+        <v>2353</v>
       </c>
       <c r="B75" t="s">
-        <v>264</v>
+        <v>167</v>
       </c>
       <c r="C75" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D75" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1984</v>
+        <v>2354</v>
       </c>
       <c r="B76" t="s">
-        <v>265</v>
+        <v>158</v>
       </c>
       <c r="C76" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D76" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1985</v>
+        <v>2355</v>
       </c>
       <c r="B77" t="s">
-        <v>266</v>
+        <v>160</v>
       </c>
       <c r="C77" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D77" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1986</v>
+        <v>2356</v>
       </c>
       <c r="B78" t="s">
-        <v>267</v>
+        <v>161</v>
       </c>
       <c r="C78" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D78" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1987</v>
+        <v>2357</v>
       </c>
       <c r="B79" t="s">
-        <v>268</v>
+        <v>162</v>
       </c>
       <c r="C79" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D79" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1988</v>
+        <v>2358</v>
       </c>
       <c r="B80" t="s">
-        <v>269</v>
+        <v>163</v>
       </c>
       <c r="C80" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D80" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1989</v>
+        <v>2359</v>
       </c>
       <c r="B81" t="s">
-        <v>270</v>
+        <v>163</v>
       </c>
       <c r="C81" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D81" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1990</v>
+        <v>2360</v>
       </c>
       <c r="B82" t="s">
-        <v>260</v>
+        <v>164</v>
       </c>
       <c r="C82" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D82" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1991</v>
+        <v>2361</v>
       </c>
       <c r="B83" t="s">
-        <v>262</v>
+        <v>165</v>
       </c>
       <c r="C83" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D83" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1992</v>
+        <v>2362</v>
       </c>
       <c r="B84" t="s">
-        <v>263</v>
+        <v>166</v>
       </c>
       <c r="C84" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D84" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1993</v>
+        <v>2363</v>
       </c>
       <c r="B85" t="s">
-        <v>264</v>
+        <v>167</v>
       </c>
       <c r="C85" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D85" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1994</v>
+        <v>2364</v>
       </c>
       <c r="B86" t="s">
-        <v>265</v>
+        <v>173</v>
       </c>
       <c r="C86" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D86" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1995</v>
+        <v>2365</v>
       </c>
       <c r="B87" t="s">
-        <v>266</v>
+        <v>173</v>
       </c>
       <c r="C87" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D87" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1996</v>
+        <v>2366</v>
       </c>
       <c r="B88" t="s">
-        <v>267</v>
+        <v>173</v>
       </c>
       <c r="C88" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D88" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1997</v>
+        <v>2367</v>
       </c>
       <c r="B89" t="s">
-        <v>268</v>
+        <v>173</v>
       </c>
       <c r="C89" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D89" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1998</v>
+        <v>2368</v>
       </c>
       <c r="B90" t="s">
-        <v>269</v>
+        <v>173</v>
       </c>
       <c r="C90" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D90" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1999</v>
+        <v>2369</v>
       </c>
       <c r="B91" t="s">
-        <v>270</v>
+        <v>174</v>
       </c>
       <c r="C91" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D91" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>2000</v>
+        <v>2370</v>
       </c>
       <c r="B92" t="s">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="C92" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D92" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>2001</v>
+        <v>2371</v>
       </c>
       <c r="B93" t="s">
-        <v>262</v>
+        <v>176</v>
       </c>
       <c r="C93" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D93" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>2002</v>
+        <v>2372</v>
       </c>
       <c r="B94" t="s">
-        <v>263</v>
+        <v>183</v>
       </c>
       <c r="C94" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D94" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>2003</v>
+        <v>2373</v>
       </c>
       <c r="B95" t="s">
-        <v>264</v>
+        <v>178</v>
       </c>
       <c r="C95" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D95" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>2004</v>
+        <v>2374</v>
       </c>
       <c r="B96" t="s">
-        <v>265</v>
+        <v>179</v>
       </c>
       <c r="C96" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D96" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>2005</v>
+        <v>2375</v>
       </c>
       <c r="B97" t="s">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="C97" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D97" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>2006</v>
+        <v>2376</v>
       </c>
       <c r="B98" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="C98" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D98" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>2007</v>
+        <v>2377</v>
       </c>
       <c r="B99" t="s">
-        <v>268</v>
+        <v>182</v>
       </c>
       <c r="C99" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D99" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>2008</v>
+        <v>2378</v>
       </c>
       <c r="B100" t="s">
-        <v>269</v>
+        <v>173</v>
       </c>
       <c r="C100" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D100" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>2009</v>
+        <v>2379</v>
       </c>
       <c r="B101" t="s">
-        <v>270</v>
+        <v>174</v>
       </c>
       <c r="C101" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D101" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>2010</v>
+        <v>2380</v>
       </c>
       <c r="B102" t="s">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="C102" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D102" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>2011</v>
+        <v>2381</v>
       </c>
       <c r="B103" t="s">
-        <v>262</v>
+        <v>176</v>
       </c>
       <c r="C103" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D103" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>2012</v>
+        <v>2382</v>
       </c>
       <c r="B104" t="s">
-        <v>263</v>
+        <v>183</v>
       </c>
       <c r="C104" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D104" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>2013</v>
+        <v>2383</v>
       </c>
       <c r="B105" t="s">
-        <v>264</v>
+        <v>178</v>
       </c>
       <c r="C105" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D105" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>2014</v>
+        <v>2384</v>
       </c>
       <c r="B106" t="s">
-        <v>265</v>
+        <v>179</v>
       </c>
       <c r="C106" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D106" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>2015</v>
+        <v>2385</v>
       </c>
       <c r="B107" t="s">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="C107" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D107" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>2016</v>
+        <v>2386</v>
       </c>
       <c r="B108" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="C108" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D108" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>2017</v>
+        <v>2387</v>
       </c>
       <c r="B109" t="s">
-        <v>268</v>
+        <v>182</v>
       </c>
       <c r="C109" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D109" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>2018</v>
+        <v>2388</v>
       </c>
       <c r="B110" t="s">
-        <v>269</v>
+        <v>173</v>
       </c>
       <c r="C110" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D110" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>2019</v>
+        <v>2389</v>
       </c>
       <c r="B111" t="s">
-        <v>270</v>
+        <v>174</v>
       </c>
       <c r="C111" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D111" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>2020</v>
+        <v>2390</v>
       </c>
       <c r="B112" t="s">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="C112" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D112" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>2021</v>
+        <v>2391</v>
       </c>
       <c r="B113" t="s">
-        <v>262</v>
+        <v>176</v>
       </c>
       <c r="C113" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D113" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>2022</v>
+        <v>2392</v>
       </c>
       <c r="B114" t="s">
-        <v>263</v>
+        <v>183</v>
       </c>
       <c r="C114" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D114" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>2023</v>
+        <v>2393</v>
       </c>
       <c r="B115" t="s">
-        <v>264</v>
+        <v>178</v>
       </c>
       <c r="C115" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D115" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>2024</v>
+        <v>2394</v>
       </c>
       <c r="B116" t="s">
-        <v>265</v>
+        <v>179</v>
       </c>
       <c r="C116" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D116" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>2025</v>
+        <v>2395</v>
       </c>
       <c r="B117" t="s">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="C117" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D117" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>2026</v>
+        <v>2396</v>
       </c>
       <c r="B118" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="C118" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D118" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>2027</v>
+        <v>2397</v>
       </c>
       <c r="B119" t="s">
-        <v>268</v>
+        <v>182</v>
       </c>
       <c r="C119" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D119" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>2028</v>
+        <v>2398</v>
       </c>
       <c r="B120" t="s">
-        <v>269</v>
+        <v>173</v>
       </c>
       <c r="C120" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D120" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>2029</v>
+        <v>2399</v>
       </c>
       <c r="B121" t="s">
-        <v>270</v>
+        <v>174</v>
       </c>
       <c r="C121" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D121" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>2030</v>
+        <v>2400</v>
       </c>
       <c r="B122" t="s">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="C122" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D122" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>2031</v>
+        <v>2401</v>
       </c>
       <c r="B123" t="s">
-        <v>262</v>
+        <v>176</v>
       </c>
       <c r="C123" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D123" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>2032</v>
+        <v>2402</v>
       </c>
       <c r="B124" t="s">
-        <v>263</v>
+        <v>183</v>
       </c>
       <c r="C124" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D124" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>2033</v>
+        <v>2403</v>
       </c>
       <c r="B125" t="s">
-        <v>264</v>
+        <v>178</v>
       </c>
       <c r="C125" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D125" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>2034</v>
+        <v>2404</v>
       </c>
       <c r="B126" t="s">
-        <v>265</v>
+        <v>179</v>
       </c>
       <c r="C126" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D126" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>2035</v>
+        <v>2405</v>
       </c>
       <c r="B127" t="s">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="C127" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D127" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>2036</v>
+        <v>2406</v>
       </c>
       <c r="B128" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="C128" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D128" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>2037</v>
+        <v>2407</v>
       </c>
       <c r="B129" t="s">
-        <v>268</v>
+        <v>182</v>
       </c>
       <c r="C129" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D129" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>2038</v>
+        <v>2408</v>
       </c>
       <c r="B130" t="s">
-        <v>269</v>
+        <v>184</v>
       </c>
       <c r="C130" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D130" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>2039</v>
+        <v>2409</v>
       </c>
       <c r="B131" t="s">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="C131" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D131" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>2040</v>
+        <v>2410</v>
       </c>
       <c r="B132" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="C132" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D132" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>2041</v>
+        <v>2411</v>
       </c>
       <c r="B133" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="C133" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D133" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>2042</v>
+        <v>2412</v>
       </c>
       <c r="B134" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="C134" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D134" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>2043</v>
+        <v>2413</v>
       </c>
       <c r="B135" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="C135" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D135" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>2044</v>
+        <v>2414</v>
       </c>
       <c r="B136" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="C136" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D136" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>2045</v>
+        <v>2415</v>
       </c>
       <c r="B137" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="C137" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D137" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>2046</v>
+        <v>2416</v>
       </c>
       <c r="B138" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C138" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D138" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>2047</v>
+        <v>2417</v>
       </c>
       <c r="B139" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="C139" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D139" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>2048</v>
+        <v>2418</v>
       </c>
       <c r="B140" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="C140" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D140" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>2049</v>
+        <v>2419</v>
       </c>
       <c r="B141" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="C141" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D141" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>2050</v>
+        <v>2420</v>
       </c>
       <c r="B142" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="C142" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D142" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>2051</v>
+        <v>2421</v>
       </c>
       <c r="B143" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="C143" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D143" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>2052</v>
+        <v>2422</v>
       </c>
       <c r="B144" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="C144" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D144" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>2053</v>
+        <v>2423</v>
       </c>
       <c r="B145" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="C145" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D145" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>2054</v>
+        <v>2424</v>
       </c>
       <c r="B146" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="C146" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D146" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>2055</v>
+        <v>2425</v>
       </c>
       <c r="B147" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="C147" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D147" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>2056</v>
+        <v>2426</v>
       </c>
       <c r="B148" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C148" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D148" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>2057</v>
+        <v>2427</v>
       </c>
       <c r="B149" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="C149" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D149" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>2058</v>
+        <v>2428</v>
       </c>
       <c r="B150" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="C150" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D150" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>2059</v>
+        <v>2429</v>
       </c>
       <c r="B151" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="C151" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D151" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>2060</v>
+        <v>2430</v>
       </c>
       <c r="B152" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="C152" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D152" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>2061</v>
+        <v>2431</v>
       </c>
       <c r="B153" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="C153" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D153" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>2062</v>
+        <v>2432</v>
       </c>
       <c r="B154" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="C154" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D154" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>2063</v>
+        <v>2433</v>
       </c>
       <c r="B155" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="C155" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D155" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>2064</v>
+        <v>2434</v>
       </c>
       <c r="B156" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="C156" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D156" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>2065</v>
+        <v>2435</v>
       </c>
       <c r="B157" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="C157" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D157" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>2066</v>
+        <v>2436</v>
       </c>
       <c r="B158" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C158" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D158" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>2067</v>
+        <v>2437</v>
       </c>
       <c r="B159" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="C159" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D159" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>2068</v>
+        <v>2438</v>
       </c>
       <c r="B160" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="C160" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D160" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>2069</v>
+        <v>2439</v>
       </c>
       <c r="B161" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="C161" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D161" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>2070</v>
+        <v>2440</v>
       </c>
       <c r="B162" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="C162" t="s">
         <v>159</v>
       </c>
       <c r="D162" t="s">
-        <v>169</v>
+        <v>294</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>2071</v>
+        <v>2441</v>
       </c>
       <c r="B163" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="C163" t="s">
         <v>159</v>
       </c>
       <c r="D163" t="s">
-        <v>170</v>
+        <v>294</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>2072</v>
+        <v>2442</v>
       </c>
       <c r="B164" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="C164" t="s">
         <v>159</v>
       </c>
       <c r="D164" t="s">
-        <v>171</v>
+        <v>295</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>2073</v>
+        <v>2443</v>
       </c>
       <c r="B165" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="C165" t="s">
         <v>159</v>
       </c>
       <c r="D165" t="s">
-        <v>172</v>
+        <v>295</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>2074</v>
+        <v>2444</v>
       </c>
       <c r="B166" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="C166" t="s">
         <v>159</v>
       </c>
       <c r="D166" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>2075</v>
+        <v>2445</v>
       </c>
       <c r="B167" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="C167" t="s">
         <v>159</v>
       </c>
       <c r="D167" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>2076</v>
+        <v>2446</v>
       </c>
       <c r="B168" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="C168" t="s">
         <v>159</v>
       </c>
       <c r="D168" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>2077</v>
+        <v>2447</v>
       </c>
       <c r="B169" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="C169" t="s">
         <v>159</v>
       </c>
       <c r="D169" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>2078</v>
+        <v>2448</v>
       </c>
       <c r="B170" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="C170" t="s">
         <v>159</v>
       </c>
       <c r="D170" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>2079</v>
+        <v>2449</v>
       </c>
       <c r="B171" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="C171" t="s">
         <v>159</v>
       </c>
       <c r="D171" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>2080</v>
+        <v>2450</v>
       </c>
       <c r="B172" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C172" t="s">
         <v>159</v>
       </c>
       <c r="D172" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>2081</v>
+        <v>2451</v>
       </c>
       <c r="B173" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="C173" t="s">
         <v>159</v>
       </c>
       <c r="D173" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>2082</v>
+        <v>2452</v>
       </c>
       <c r="B174" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="C174" t="s">
         <v>159</v>
       </c>
       <c r="D174" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>2083</v>
+        <v>2453</v>
       </c>
       <c r="B175" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="C175" t="s">
         <v>159</v>
       </c>
       <c r="D175" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>2084</v>
+        <v>2454</v>
       </c>
       <c r="B176" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="C176" t="s">
         <v>159</v>
       </c>
       <c r="D176" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>2085</v>
+        <v>2455</v>
       </c>
       <c r="B177" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="C177" t="s">
         <v>159</v>
       </c>
       <c r="D177" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>2086</v>
+        <v>2456</v>
       </c>
       <c r="B178" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="C178" t="s">
         <v>159</v>
       </c>
       <c r="D178" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>2087</v>
+        <v>2457</v>
       </c>
       <c r="B179" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="C179" t="s">
         <v>159</v>
       </c>
       <c r="D179" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>2088</v>
+        <v>2458</v>
       </c>
       <c r="B180" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="C180" t="s">
         <v>159</v>
       </c>
       <c r="D180" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>2089</v>
+        <v>2459</v>
       </c>
       <c r="B181" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="C181" t="s">
         <v>159</v>
       </c>
       <c r="D181" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>2090</v>
+        <v>2460</v>
       </c>
       <c r="B182" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="C182" t="s">
         <v>159</v>
       </c>
       <c r="D182" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>2091</v>
+        <v>2461</v>
       </c>
       <c r="B183" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="C183" t="s">
         <v>159</v>
       </c>
       <c r="D183" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>2092</v>
+        <v>2462</v>
       </c>
       <c r="B184" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="C184" t="s">
         <v>159</v>
       </c>
       <c r="D184" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>2093</v>
+        <v>2463</v>
       </c>
       <c r="B185" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="C185" t="s">
         <v>159</v>
       </c>
       <c r="D185" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>2094</v>
+        <v>2464</v>
       </c>
       <c r="B186" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="C186" t="s">
         <v>159</v>
       </c>
       <c r="D186" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>2095</v>
+        <v>2465</v>
       </c>
       <c r="B187" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="C187" t="s">
         <v>159</v>
       </c>
       <c r="D187" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>2096</v>
+        <v>2466</v>
       </c>
       <c r="B188" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="C188" t="s">
         <v>159</v>
       </c>
       <c r="D188" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>2097</v>
+        <v>2467</v>
       </c>
       <c r="B189" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="C189" t="s">
         <v>159</v>
       </c>
       <c r="D189" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>2098</v>
+        <v>2468</v>
       </c>
       <c r="B190" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="C190" t="s">
         <v>159</v>
       </c>
       <c r="D190" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>2099</v>
+        <v>2469</v>
       </c>
       <c r="B191" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="C191" t="s">
         <v>159</v>
       </c>
       <c r="D191" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>2100</v>
+        <v>2470</v>
       </c>
       <c r="B192" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="C192" t="s">
         <v>159</v>
       </c>
       <c r="D192" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>2101</v>
+        <v>2471</v>
       </c>
       <c r="B193" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="C193" t="s">
         <v>159</v>
       </c>
       <c r="D193" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>2102</v>
+        <v>2472</v>
       </c>
       <c r="B194" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="C194" t="s">
         <v>159</v>
       </c>
       <c r="D194" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>2103</v>
+        <v>2473</v>
       </c>
       <c r="B195" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="C195" t="s">
         <v>159</v>
       </c>
       <c r="D195" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>2104</v>
+        <v>2474</v>
       </c>
       <c r="B196" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="C196" t="s">
         <v>159</v>
       </c>
       <c r="D196" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>2105</v>
+        <v>2475</v>
       </c>
       <c r="B197" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="C197" t="s">
         <v>159</v>
       </c>
       <c r="D197" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>2106</v>
+        <v>2476</v>
       </c>
       <c r="B198" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="C198" t="s">
         <v>159</v>
       </c>
       <c r="D198" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>2107</v>
+        <v>2477</v>
       </c>
       <c r="B199" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="C199" t="s">
         <v>159</v>
       </c>
       <c r="D199" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>2108</v>
+        <v>2478</v>
       </c>
       <c r="B200" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="C200" t="s">
         <v>159</v>
       </c>
       <c r="D200" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>2109</v>
+        <v>2479</v>
       </c>
       <c r="B201" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="C201" t="s">
         <v>159</v>
       </c>
       <c r="D201" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>2110</v>
+        <v>2480</v>
       </c>
       <c r="B202" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="C202" t="s">
         <v>159</v>
       </c>
       <c r="D202" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>2111</v>
+        <v>2481</v>
       </c>
       <c r="B203" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="C203" t="s">
         <v>159</v>
       </c>
       <c r="D203" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>2112</v>
+        <v>2482</v>
       </c>
       <c r="B204" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="C204" t="s">
         <v>159</v>
       </c>
       <c r="D204" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>2113</v>
+        <v>2483</v>
       </c>
       <c r="B205" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="C205" t="s">
         <v>159</v>
       </c>
       <c r="D205" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>2114</v>
+        <v>2484</v>
       </c>
       <c r="B206" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="C206" t="s">
         <v>159</v>
       </c>
       <c r="D206" t="s">
-        <v>169</v>
+        <v>295</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>2115</v>
+        <v>2485</v>
       </c>
       <c r="B207" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="C207" t="s">
         <v>159</v>
       </c>
       <c r="D207" t="s">
-        <v>170</v>
+        <v>295</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>2116</v>
+        <v>2486</v>
       </c>
       <c r="B208" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C208" t="s">
         <v>159</v>
       </c>
       <c r="D208" t="s">
-        <v>171</v>
+        <v>295</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>2117</v>
+        <v>2487</v>
       </c>
       <c r="B209" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C209" t="s">
         <v>159</v>
       </c>
       <c r="D209" t="s">
-        <v>172</v>
+        <v>295</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>2118</v>
+        <v>2488</v>
       </c>
       <c r="B210" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="C210" t="s">
         <v>159</v>
       </c>
       <c r="D210" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>2119</v>
+        <v>2489</v>
       </c>
       <c r="B211" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="C211" t="s">
         <v>159</v>
       </c>
       <c r="D211" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>2120</v>
+        <v>2490</v>
       </c>
       <c r="B212" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="C212" t="s">
         <v>159</v>
       </c>
       <c r="D212" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>2121</v>
+        <v>2491</v>
       </c>
       <c r="B213" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="C213" t="s">
         <v>159</v>
       </c>
       <c r="D213" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>2122</v>
-      </c>
-      <c r="B214" t="s">
-        <v>183</v>
-      </c>
-      <c r="C214" t="s">
-        <v>159</v>
-      </c>
-      <c r="D214" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>2123</v>
-      </c>
-      <c r="B215" t="s">
-        <v>178</v>
-      </c>
-      <c r="C215" t="s">
-        <v>159</v>
-      </c>
-      <c r="D215" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>2124</v>
-      </c>
-      <c r="B216" t="s">
-        <v>179</v>
-      </c>
-      <c r="C216" t="s">
-        <v>159</v>
-      </c>
-      <c r="D216" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>2125</v>
-      </c>
-      <c r="B217" t="s">
-        <v>180</v>
-      </c>
-      <c r="C217" t="s">
-        <v>159</v>
-      </c>
-      <c r="D217" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>2126</v>
-      </c>
-      <c r="B218" t="s">
-        <v>181</v>
-      </c>
-      <c r="C218" t="s">
-        <v>159</v>
-      </c>
-      <c r="D218" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>2127</v>
-      </c>
-      <c r="B219" t="s">
-        <v>182</v>
-      </c>
-      <c r="C219" t="s">
-        <v>159</v>
-      </c>
-      <c r="D219" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>2128</v>
-      </c>
-      <c r="B220" t="s">
-        <v>173</v>
-      </c>
-      <c r="C220" t="s">
-        <v>159</v>
-      </c>
-      <c r="D220" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>2129</v>
-      </c>
-      <c r="B221" t="s">
-        <v>174</v>
-      </c>
-      <c r="C221" t="s">
-        <v>159</v>
-      </c>
-      <c r="D221" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>2130</v>
-      </c>
-      <c r="B222" t="s">
-        <v>175</v>
-      </c>
-      <c r="C222" t="s">
-        <v>159</v>
-      </c>
-      <c r="D222" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>2131</v>
-      </c>
-      <c r="B223" t="s">
-        <v>176</v>
-      </c>
-      <c r="C223" t="s">
-        <v>159</v>
-      </c>
-      <c r="D223" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>2132</v>
-      </c>
-      <c r="B224" t="s">
-        <v>183</v>
-      </c>
-      <c r="C224" t="s">
-        <v>159</v>
-      </c>
-      <c r="D224" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>2133</v>
-      </c>
-      <c r="B225" t="s">
-        <v>178</v>
-      </c>
-      <c r="C225" t="s">
-        <v>159</v>
-      </c>
-      <c r="D225" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>2134</v>
-      </c>
-      <c r="B226" t="s">
-        <v>179</v>
-      </c>
-      <c r="C226" t="s">
-        <v>159</v>
-      </c>
-      <c r="D226" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>2135</v>
-      </c>
-      <c r="B227" t="s">
-        <v>180</v>
-      </c>
-      <c r="C227" t="s">
-        <v>159</v>
-      </c>
-      <c r="D227" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>2136</v>
-      </c>
-      <c r="B228" t="s">
-        <v>181</v>
-      </c>
-      <c r="C228" t="s">
-        <v>159</v>
-      </c>
-      <c r="D228" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>2137</v>
-      </c>
-      <c r="B229" t="s">
-        <v>182</v>
-      </c>
-      <c r="C229" t="s">
-        <v>159</v>
-      </c>
-      <c r="D229" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>2138</v>
-      </c>
-      <c r="B230" t="s">
-        <v>173</v>
-      </c>
-      <c r="C230" t="s">
-        <v>159</v>
-      </c>
-      <c r="D230" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>2139</v>
-      </c>
-      <c r="B231" t="s">
-        <v>174</v>
-      </c>
-      <c r="C231" t="s">
-        <v>159</v>
-      </c>
-      <c r="D231" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>2140</v>
-      </c>
-      <c r="B232" t="s">
-        <v>175</v>
-      </c>
-      <c r="C232" t="s">
-        <v>159</v>
-      </c>
-      <c r="D232" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>2141</v>
-      </c>
-      <c r="B233" t="s">
-        <v>176</v>
-      </c>
-      <c r="C233" t="s">
-        <v>159</v>
-      </c>
-      <c r="D233" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>2142</v>
-      </c>
-      <c r="B234" t="s">
-        <v>183</v>
-      </c>
-      <c r="C234" t="s">
-        <v>159</v>
-      </c>
-      <c r="D234" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>2143</v>
-      </c>
-      <c r="B235" t="s">
-        <v>178</v>
-      </c>
-      <c r="C235" t="s">
-        <v>159</v>
-      </c>
-      <c r="D235" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>2144</v>
-      </c>
-      <c r="B236" t="s">
-        <v>179</v>
-      </c>
-      <c r="C236" t="s">
-        <v>159</v>
-      </c>
-      <c r="D236" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>2145</v>
-      </c>
-      <c r="B237" t="s">
-        <v>180</v>
-      </c>
-      <c r="C237" t="s">
-        <v>159</v>
-      </c>
-      <c r="D237" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>2146</v>
-      </c>
-      <c r="B238" t="s">
-        <v>181</v>
-      </c>
-      <c r="C238" t="s">
-        <v>159</v>
-      </c>
-      <c r="D238" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>2147</v>
-      </c>
-      <c r="B239" t="s">
-        <v>182</v>
-      </c>
-      <c r="C239" t="s">
-        <v>159</v>
-      </c>
-      <c r="D239" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>2148</v>
-      </c>
-      <c r="B240" t="s">
-        <v>173</v>
-      </c>
-      <c r="C240" t="s">
-        <v>159</v>
-      </c>
-      <c r="D240" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>2149</v>
-      </c>
-      <c r="B241" t="s">
-        <v>174</v>
-      </c>
-      <c r="C241" t="s">
-        <v>159</v>
-      </c>
-      <c r="D241" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>2150</v>
-      </c>
-      <c r="B242" t="s">
-        <v>175</v>
-      </c>
-      <c r="C242" t="s">
-        <v>159</v>
-      </c>
-      <c r="D242" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>2151</v>
-      </c>
-      <c r="B243" t="s">
-        <v>176</v>
-      </c>
-      <c r="C243" t="s">
-        <v>159</v>
-      </c>
-      <c r="D243" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>2152</v>
-      </c>
-      <c r="B244" t="s">
-        <v>183</v>
-      </c>
-      <c r="C244" t="s">
-        <v>159</v>
-      </c>
-      <c r="D244" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>2153</v>
-      </c>
-      <c r="B245" t="s">
-        <v>178</v>
-      </c>
-      <c r="C245" t="s">
-        <v>159</v>
-      </c>
-      <c r="D245" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>2154</v>
-      </c>
-      <c r="B246" t="s">
-        <v>179</v>
-      </c>
-      <c r="C246" t="s">
-        <v>159</v>
-      </c>
-      <c r="D246" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>2155</v>
-      </c>
-      <c r="B247" t="s">
-        <v>180</v>
-      </c>
-      <c r="C247" t="s">
-        <v>159</v>
-      </c>
-      <c r="D247" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>2156</v>
-      </c>
-      <c r="B248" t="s">
-        <v>181</v>
-      </c>
-      <c r="C248" t="s">
-        <v>159</v>
-      </c>
-      <c r="D248" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>2157</v>
-      </c>
-      <c r="B249" t="s">
-        <v>182</v>
-      </c>
-      <c r="C249" t="s">
-        <v>159</v>
-      </c>
-      <c r="D249" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>2158</v>
-      </c>
-      <c r="B250" t="s">
-        <v>184</v>
-      </c>
-      <c r="C250" t="s">
-        <v>159</v>
-      </c>
-      <c r="D250" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>2159</v>
-      </c>
-      <c r="B251" t="s">
-        <v>184</v>
-      </c>
-      <c r="C251" t="s">
-        <v>159</v>
-      </c>
-      <c r="D251" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>2160</v>
-      </c>
-      <c r="B252" t="s">
-        <v>184</v>
-      </c>
-      <c r="C252" t="s">
-        <v>159</v>
-      </c>
-      <c r="D252" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>2161</v>
-      </c>
-      <c r="B253" t="s">
-        <v>184</v>
-      </c>
-      <c r="C253" t="s">
-        <v>159</v>
-      </c>
-      <c r="D253" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>2162</v>
-      </c>
-      <c r="B254" t="s">
-        <v>184</v>
-      </c>
-      <c r="C254" t="s">
-        <v>159</v>
-      </c>
-      <c r="D254" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>2163</v>
-      </c>
-      <c r="B255" t="s">
-        <v>185</v>
-      </c>
-      <c r="C255" t="s">
-        <v>159</v>
-      </c>
-      <c r="D255" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>2164</v>
-      </c>
-      <c r="B256" t="s">
-        <v>186</v>
-      </c>
-      <c r="C256" t="s">
-        <v>159</v>
-      </c>
-      <c r="D256" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>2165</v>
-      </c>
-      <c r="B257" t="s">
-        <v>187</v>
-      </c>
-      <c r="C257" t="s">
-        <v>159</v>
-      </c>
-      <c r="D257" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>2166</v>
-      </c>
-      <c r="B258" t="s">
-        <v>188</v>
-      </c>
-      <c r="C258" t="s">
-        <v>159</v>
-      </c>
-      <c r="D258" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>2167</v>
-      </c>
-      <c r="B259" t="s">
-        <v>189</v>
-      </c>
-      <c r="C259" t="s">
-        <v>159</v>
-      </c>
-      <c r="D259" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>2168</v>
-      </c>
-      <c r="B260" t="s">
-        <v>190</v>
-      </c>
-      <c r="C260" t="s">
-        <v>159</v>
-      </c>
-      <c r="D260" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>2169</v>
-      </c>
-      <c r="B261" t="s">
-        <v>191</v>
-      </c>
-      <c r="C261" t="s">
-        <v>159</v>
-      </c>
-      <c r="D261" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>2170</v>
-      </c>
-      <c r="B262" t="s">
-        <v>192</v>
-      </c>
-      <c r="C262" t="s">
-        <v>159</v>
-      </c>
-      <c r="D262" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>2171</v>
-      </c>
-      <c r="B263" t="s">
-        <v>193</v>
-      </c>
-      <c r="C263" t="s">
-        <v>159</v>
-      </c>
-      <c r="D263" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>2172</v>
-      </c>
-      <c r="B264" t="s">
-        <v>184</v>
-      </c>
-      <c r="C264" t="s">
-        <v>159</v>
-      </c>
-      <c r="D264" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>2173</v>
-      </c>
-      <c r="B265" t="s">
-        <v>185</v>
-      </c>
-      <c r="C265" t="s">
-        <v>159</v>
-      </c>
-      <c r="D265" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>2174</v>
-      </c>
-      <c r="B266" t="s">
-        <v>186</v>
-      </c>
-      <c r="C266" t="s">
-        <v>159</v>
-      </c>
-      <c r="D266" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>2175</v>
-      </c>
-      <c r="B267" t="s">
-        <v>187</v>
-      </c>
-      <c r="C267" t="s">
-        <v>159</v>
-      </c>
-      <c r="D267" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>2176</v>
-      </c>
-      <c r="B268" t="s">
-        <v>188</v>
-      </c>
-      <c r="C268" t="s">
-        <v>159</v>
-      </c>
-      <c r="D268" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>2177</v>
-      </c>
-      <c r="B269" t="s">
-        <v>189</v>
-      </c>
-      <c r="C269" t="s">
-        <v>159</v>
-      </c>
-      <c r="D269" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>2178</v>
-      </c>
-      <c r="B270" t="s">
-        <v>190</v>
-      </c>
-      <c r="C270" t="s">
-        <v>159</v>
-      </c>
-      <c r="D270" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>2179</v>
-      </c>
-      <c r="B271" t="s">
-        <v>191</v>
-      </c>
-      <c r="C271" t="s">
-        <v>159</v>
-      </c>
-      <c r="D271" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>2180</v>
-      </c>
-      <c r="B272" t="s">
-        <v>192</v>
-      </c>
-      <c r="C272" t="s">
-        <v>159</v>
-      </c>
-      <c r="D272" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>2181</v>
-      </c>
-      <c r="B273" t="s">
-        <v>193</v>
-      </c>
-      <c r="C273" t="s">
-        <v>159</v>
-      </c>
-      <c r="D273" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B274" t="s">
-        <v>184</v>
-      </c>
-      <c r="C274" t="s">
-        <v>159</v>
-      </c>
-      <c r="D274" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>2183</v>
-      </c>
-      <c r="B275" t="s">
-        <v>185</v>
-      </c>
-      <c r="C275" t="s">
-        <v>159</v>
-      </c>
-      <c r="D275" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>2184</v>
-      </c>
-      <c r="B276" t="s">
-        <v>186</v>
-      </c>
-      <c r="C276" t="s">
-        <v>159</v>
-      </c>
-      <c r="D276" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>2185</v>
-      </c>
-      <c r="B277" t="s">
-        <v>187</v>
-      </c>
-      <c r="C277" t="s">
-        <v>159</v>
-      </c>
-      <c r="D277" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>2186</v>
-      </c>
-      <c r="B278" t="s">
-        <v>188</v>
-      </c>
-      <c r="C278" t="s">
-        <v>159</v>
-      </c>
-      <c r="D278" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>2187</v>
-      </c>
-      <c r="B279" t="s">
-        <v>189</v>
-      </c>
-      <c r="C279" t="s">
-        <v>159</v>
-      </c>
-      <c r="D279" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>2188</v>
-      </c>
-      <c r="B280" t="s">
-        <v>190</v>
-      </c>
-      <c r="C280" t="s">
-        <v>159</v>
-      </c>
-      <c r="D280" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>2189</v>
-      </c>
-      <c r="B281" t="s">
-        <v>191</v>
-      </c>
-      <c r="C281" t="s">
-        <v>159</v>
-      </c>
-      <c r="D281" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>2190</v>
-      </c>
-      <c r="B282" t="s">
-        <v>192</v>
-      </c>
-      <c r="C282" t="s">
-        <v>159</v>
-      </c>
-      <c r="D282" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>2191</v>
-      </c>
-      <c r="B283" t="s">
-        <v>193</v>
-      </c>
-      <c r="C283" t="s">
-        <v>159</v>
-      </c>
-      <c r="D283" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>2192</v>
-      </c>
-      <c r="B284" t="s">
-        <v>184</v>
-      </c>
-      <c r="C284" t="s">
-        <v>159</v>
-      </c>
-      <c r="D284" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>2193</v>
-      </c>
-      <c r="B285" t="s">
-        <v>185</v>
-      </c>
-      <c r="C285" t="s">
-        <v>159</v>
-      </c>
-      <c r="D285" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>2194</v>
-      </c>
-      <c r="B286" t="s">
-        <v>186</v>
-      </c>
-      <c r="C286" t="s">
-        <v>159</v>
-      </c>
-      <c r="D286" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>2195</v>
-      </c>
-      <c r="B287" t="s">
-        <v>187</v>
-      </c>
-      <c r="C287" t="s">
-        <v>159</v>
-      </c>
-      <c r="D287" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>2196</v>
-      </c>
-      <c r="B288" t="s">
-        <v>188</v>
-      </c>
-      <c r="C288" t="s">
-        <v>159</v>
-      </c>
-      <c r="D288" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>2197</v>
-      </c>
-      <c r="B289" t="s">
-        <v>189</v>
-      </c>
-      <c r="C289" t="s">
-        <v>159</v>
-      </c>
-      <c r="D289" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>2198</v>
-      </c>
-      <c r="B290" t="s">
-        <v>190</v>
-      </c>
-      <c r="C290" t="s">
-        <v>159</v>
-      </c>
-      <c r="D290" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>2199</v>
-      </c>
-      <c r="B291" t="s">
-        <v>191</v>
-      </c>
-      <c r="C291" t="s">
-        <v>159</v>
-      </c>
-      <c r="D291" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>2200</v>
-      </c>
-      <c r="B292" t="s">
-        <v>192</v>
-      </c>
-      <c r="C292" t="s">
-        <v>159</v>
-      </c>
-      <c r="D292" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>2201</v>
-      </c>
-      <c r="B293" t="s">
-        <v>193</v>
-      </c>
-      <c r="C293" t="s">
-        <v>159</v>
-      </c>
-      <c r="D293" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>2202</v>
-      </c>
-      <c r="B294" t="s">
-        <v>194</v>
-      </c>
-      <c r="C294" t="s">
-        <v>159</v>
-      </c>
-      <c r="D294" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>2203</v>
-      </c>
-      <c r="B295" t="s">
-        <v>194</v>
-      </c>
-      <c r="C295" t="s">
-        <v>159</v>
-      </c>
-      <c r="D295" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>2204</v>
-      </c>
-      <c r="B296" t="s">
-        <v>194</v>
-      </c>
-      <c r="C296" t="s">
-        <v>159</v>
-      </c>
-      <c r="D296" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>2205</v>
-      </c>
-      <c r="B297" t="s">
-        <v>194</v>
-      </c>
-      <c r="C297" t="s">
-        <v>159</v>
-      </c>
-      <c r="D297" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>2206</v>
-      </c>
-      <c r="B298" t="s">
-        <v>194</v>
-      </c>
-      <c r="C298" t="s">
-        <v>159</v>
-      </c>
-      <c r="D298" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>2207</v>
-      </c>
-      <c r="B299" t="s">
-        <v>195</v>
-      </c>
-      <c r="C299" t="s">
-        <v>159</v>
-      </c>
-      <c r="D299" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>2208</v>
-      </c>
-      <c r="B300" t="s">
-        <v>196</v>
-      </c>
-      <c r="C300" t="s">
-        <v>159</v>
-      </c>
-      <c r="D300" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>2209</v>
-      </c>
-      <c r="B301" t="s">
-        <v>197</v>
-      </c>
-      <c r="C301" t="s">
-        <v>159</v>
-      </c>
-      <c r="D301" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>2210</v>
-      </c>
-      <c r="B302" t="s">
-        <v>183</v>
-      </c>
-      <c r="C302" t="s">
-        <v>159</v>
-      </c>
-      <c r="D302" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>2211</v>
-      </c>
-      <c r="B303" t="s">
-        <v>198</v>
-      </c>
-      <c r="C303" t="s">
-        <v>159</v>
-      </c>
-      <c r="D303" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>2212</v>
-      </c>
-      <c r="B304" t="s">
-        <v>199</v>
-      </c>
-      <c r="C304" t="s">
-        <v>159</v>
-      </c>
-      <c r="D304" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>2213</v>
-      </c>
-      <c r="B305" t="s">
-        <v>200</v>
-      </c>
-      <c r="C305" t="s">
-        <v>159</v>
-      </c>
-      <c r="D305" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>2214</v>
-      </c>
-      <c r="B306" t="s">
-        <v>194</v>
-      </c>
-      <c r="C306" t="s">
-        <v>159</v>
-      </c>
-      <c r="D306" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>2215</v>
-      </c>
-      <c r="B307" t="s">
-        <v>195</v>
-      </c>
-      <c r="C307" t="s">
-        <v>159</v>
-      </c>
-      <c r="D307" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>2216</v>
-      </c>
-      <c r="B308" t="s">
-        <v>196</v>
-      </c>
-      <c r="C308" t="s">
-        <v>159</v>
-      </c>
-      <c r="D308" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>2217</v>
-      </c>
-      <c r="B309" t="s">
-        <v>197</v>
-      </c>
-      <c r="C309" t="s">
-        <v>159</v>
-      </c>
-      <c r="D309" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>2218</v>
-      </c>
-      <c r="B310" t="s">
-        <v>183</v>
-      </c>
-      <c r="C310" t="s">
-        <v>159</v>
-      </c>
-      <c r="D310" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>2219</v>
-      </c>
-      <c r="B311" t="s">
-        <v>198</v>
-      </c>
-      <c r="C311" t="s">
-        <v>159</v>
-      </c>
-      <c r="D311" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>2220</v>
-      </c>
-      <c r="B312" t="s">
-        <v>199</v>
-      </c>
-      <c r="C312" t="s">
-        <v>159</v>
-      </c>
-      <c r="D312" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>2221</v>
-      </c>
-      <c r="B313" t="s">
-        <v>200</v>
-      </c>
-      <c r="C313" t="s">
-        <v>159</v>
-      </c>
-      <c r="D313" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>2222</v>
-      </c>
-      <c r="B314" t="s">
-        <v>194</v>
-      </c>
-      <c r="C314" t="s">
-        <v>159</v>
-      </c>
-      <c r="D314" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>2223</v>
-      </c>
-      <c r="B315" t="s">
-        <v>195</v>
-      </c>
-      <c r="C315" t="s">
-        <v>159</v>
-      </c>
-      <c r="D315" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>2224</v>
-      </c>
-      <c r="B316" t="s">
-        <v>196</v>
-      </c>
-      <c r="C316" t="s">
-        <v>159</v>
-      </c>
-      <c r="D316" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>2225</v>
-      </c>
-      <c r="B317" t="s">
-        <v>197</v>
-      </c>
-      <c r="C317" t="s">
-        <v>159</v>
-      </c>
-      <c r="D317" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>2226</v>
-      </c>
-      <c r="B318" t="s">
-        <v>183</v>
-      </c>
-      <c r="C318" t="s">
-        <v>159</v>
-      </c>
-      <c r="D318" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>2227</v>
-      </c>
-      <c r="B319" t="s">
-        <v>198</v>
-      </c>
-      <c r="C319" t="s">
-        <v>159</v>
-      </c>
-      <c r="D319" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>2228</v>
-      </c>
-      <c r="B320" t="s">
-        <v>199</v>
-      </c>
-      <c r="C320" t="s">
-        <v>159</v>
-      </c>
-      <c r="D320" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>2229</v>
-      </c>
-      <c r="B321" t="s">
-        <v>200</v>
-      </c>
-      <c r="C321" t="s">
-        <v>159</v>
-      </c>
-      <c r="D321" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>2230</v>
-      </c>
-      <c r="B322" t="s">
-        <v>194</v>
-      </c>
-      <c r="C322" t="s">
-        <v>159</v>
-      </c>
-      <c r="D322" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>2231</v>
-      </c>
-      <c r="B323" t="s">
-        <v>195</v>
-      </c>
-      <c r="C323" t="s">
-        <v>159</v>
-      </c>
-      <c r="D323" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>2232</v>
-      </c>
-      <c r="B324" t="s">
-        <v>196</v>
-      </c>
-      <c r="C324" t="s">
-        <v>159</v>
-      </c>
-      <c r="D324" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>2233</v>
-      </c>
-      <c r="B325" t="s">
-        <v>197</v>
-      </c>
-      <c r="C325" t="s">
-        <v>159</v>
-      </c>
-      <c r="D325" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>2234</v>
-      </c>
-      <c r="B326" t="s">
-        <v>183</v>
-      </c>
-      <c r="C326" t="s">
-        <v>159</v>
-      </c>
-      <c r="D326" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>2235</v>
-      </c>
-      <c r="B327" t="s">
-        <v>198</v>
-      </c>
-      <c r="C327" t="s">
-        <v>159</v>
-      </c>
-      <c r="D327" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>2236</v>
-      </c>
-      <c r="B328" t="s">
-        <v>199</v>
-      </c>
-      <c r="C328" t="s">
-        <v>159</v>
-      </c>
-      <c r="D328" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>2237</v>
-      </c>
-      <c r="B329" t="s">
-        <v>200</v>
-      </c>
-      <c r="C329" t="s">
-        <v>159</v>
-      </c>
-      <c r="D329" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -13217,8 +11591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209EB290-E984-4CA7-9281-0E76135DBB3C}">
   <dimension ref="B1:O329"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:O213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Batch File/File - Tab - Cell - (start of recursive resolver) - New.xlsx
+++ b/Batch File/File - Tab - Cell - (start of recursive resolver) - New.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mordrel-my.sharepoint.com/personal/matthieu_mordrel_pro/Documents/Work/Projects/Kovera/Project 2/Scripts/Project/Batch File/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="343" documentId="8_{9249E20C-2A1A-4D5B-AF97-066FDAA15AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3916BD8-1815-4549-A449-300307EC32F0}"/>
+  <xr:revisionPtr revIDLastSave="355" documentId="8_{9249E20C-2A1A-4D5B-AF97-066FDAA15AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C49EFB6F-639A-4DA7-89AD-D4F792EE1100}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FB1F73C2-3A7C-4D28-BF2A-BCBC768C2592}"/>
+    <workbookView xWindow="38280" yWindow="3510" windowWidth="29040" windowHeight="15840" xr2:uid="{FB1F73C2-3A7C-4D28-BF2A-BCBC768C2592}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11231" uniqueCount="2493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11389" uniqueCount="2662">
   <si>
     <t>2022 - P1 berekening kolomkast 2137.xlsx</t>
   </si>
@@ -7539,6 +7539,513 @@
   </si>
   <si>
     <t>Hardcoded</t>
+  </si>
+  <si>
+    <t>File or tab missing</t>
+  </si>
+  <si>
+    <t>CK222O30_2</t>
+  </si>
+  <si>
+    <t>2022 - P2 Berekening Open Kolomkast 2227-KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>CK222O30_3</t>
+  </si>
+  <si>
+    <t>2022 - P3 Berekening Open Kolomkast 2227-KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>CK222O35_2</t>
+  </si>
+  <si>
+    <t>CK222O35_3</t>
+  </si>
+  <si>
+    <t>CK222O40_2</t>
+  </si>
+  <si>
+    <t>CK222O40_3</t>
+  </si>
+  <si>
+    <t>CK222O45_2</t>
+  </si>
+  <si>
+    <t>CK222O45_3</t>
+  </si>
+  <si>
+    <t>CK222O50_2</t>
+  </si>
+  <si>
+    <t>CK222O50_3</t>
+  </si>
+  <si>
+    <t>CK222O55_2</t>
+  </si>
+  <si>
+    <t>CK222O55_3</t>
+  </si>
+  <si>
+    <t>CK222O60_2</t>
+  </si>
+  <si>
+    <t>CK222O60_3</t>
+  </si>
+  <si>
+    <t>C79B30_10</t>
+  </si>
+  <si>
+    <t>2022 - P10 Berekening Hangkast 790-KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OVERZICH PO</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>C79B35_10</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>C79B40_10</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>C79B45_10</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>C79B50_10</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>C79B55_10</t>
+  </si>
+  <si>
+    <t>I12</t>
+  </si>
+  <si>
+    <t>C79B60_10</t>
+  </si>
+  <si>
+    <t>J12</t>
+  </si>
+  <si>
+    <t>C79B70_10</t>
+  </si>
+  <si>
+    <t>K12</t>
+  </si>
+  <si>
+    <t>C79B80_10</t>
+  </si>
+  <si>
+    <t>L12</t>
+  </si>
+  <si>
+    <t>C79B90_10</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>C79B100_10</t>
+  </si>
+  <si>
+    <t>N12</t>
+  </si>
+  <si>
+    <t>C79B110_10</t>
+  </si>
+  <si>
+    <t>O12</t>
+  </si>
+  <si>
+    <t>C79B120_10</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>C74DK60_3</t>
+  </si>
+  <si>
+    <t>~$2022 - p3 Berekening Hoek Hangkasten 790+KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>OVERZICHT HOEKHANG K</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>C74DK60_4</t>
+  </si>
+  <si>
+    <t>~$2022 - p4 Berekening Hoek Hangkasten 790+KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>C74DK60_5</t>
+  </si>
+  <si>
+    <t>~$2022 - p5 Berekening Hoek Hangkasten 790+KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>C74DK60_6</t>
+  </si>
+  <si>
+    <t>~$2022 - p6 Berekening Hoek Hangkasten 790+KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>C74DK60_7</t>
+  </si>
+  <si>
+    <t>~$2022 - p7 Berekening Hoek Hangkasten 790+KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>C74DK60_8</t>
+  </si>
+  <si>
+    <t>~$2022 - p8 Berekening Hoek Hangkasten 790+KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>C74DK60_9</t>
+  </si>
+  <si>
+    <t>~$2022 - p9 Berekening Hoek Hangkasten 790+KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>C74DK60_10</t>
+  </si>
+  <si>
+    <t>~$2022 - p10 Berekening Hoek Hangkasten 790+KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>C74DK90_3</t>
+  </si>
+  <si>
+    <t>E14</t>
+  </si>
+  <si>
+    <t>C74DK90_4</t>
+  </si>
+  <si>
+    <t>C74DK90_5</t>
+  </si>
+  <si>
+    <t>C74DK90_6</t>
+  </si>
+  <si>
+    <t>C74DK90_7</t>
+  </si>
+  <si>
+    <t>C74DK90_8</t>
+  </si>
+  <si>
+    <t>C74DK90_9</t>
+  </si>
+  <si>
+    <t>C74DK90_10</t>
+  </si>
+  <si>
+    <t>C79HB90_3</t>
+  </si>
+  <si>
+    <t>C79HB90_4</t>
+  </si>
+  <si>
+    <t>C79HB90_5</t>
+  </si>
+  <si>
+    <t>C79HB90_6</t>
+  </si>
+  <si>
+    <t>C79HB90_7</t>
+  </si>
+  <si>
+    <t>C79HB90_8</t>
+  </si>
+  <si>
+    <t>C79HB90_9</t>
+  </si>
+  <si>
+    <t>C79HB90_10</t>
+  </si>
+  <si>
+    <t>C79SHB60_3</t>
+  </si>
+  <si>
+    <t>C79SHB60_4</t>
+  </si>
+  <si>
+    <t>C79SHB60_5</t>
+  </si>
+  <si>
+    <t>C79SHB60_6</t>
+  </si>
+  <si>
+    <t>C79SHB60_7</t>
+  </si>
+  <si>
+    <t>C79SHB60_8</t>
+  </si>
+  <si>
+    <t>C79SHB60_9</t>
+  </si>
+  <si>
+    <t>C79SHB60_10</t>
+  </si>
+  <si>
+    <t>C79SHB64_3</t>
+  </si>
+  <si>
+    <t>C79SHB64_4</t>
+  </si>
+  <si>
+    <t>C79SHB64_5</t>
+  </si>
+  <si>
+    <t>C79SHB64_6</t>
+  </si>
+  <si>
+    <t>C79SHB64_7</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>C79SHB64_8</t>
+  </si>
+  <si>
+    <t>C79SHB64_9</t>
+  </si>
+  <si>
+    <t>C79SHB64_10</t>
+  </si>
+  <si>
+    <t>C79HB60_3</t>
+  </si>
+  <si>
+    <t>C79HB60_4</t>
+  </si>
+  <si>
+    <t>C79HB60_5</t>
+  </si>
+  <si>
+    <t>C79HB60_6</t>
+  </si>
+  <si>
+    <t>C79HB60_7</t>
+  </si>
+  <si>
+    <t>C79HB60_8</t>
+  </si>
+  <si>
+    <t>C79HB60_9</t>
+  </si>
+  <si>
+    <t>C79HB60_10</t>
+  </si>
+  <si>
+    <t>C79HB64_3</t>
+  </si>
+  <si>
+    <t>C79HB64_4</t>
+  </si>
+  <si>
+    <t>C79HB64_5</t>
+  </si>
+  <si>
+    <t>C79HB64_6</t>
+  </si>
+  <si>
+    <t>C79HB64_7</t>
+  </si>
+  <si>
+    <t>C79HB64_8</t>
+  </si>
+  <si>
+    <t>C79HB64_9</t>
+  </si>
+  <si>
+    <t>C79HB64_10</t>
+  </si>
+  <si>
+    <t>C70OB30_1</t>
+  </si>
+  <si>
+    <t>2022 -P1 Berekening Open Hangkast 700-43-KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>OVERZICHT C70-43</t>
+  </si>
+  <si>
+    <t>C70OB30_2</t>
+  </si>
+  <si>
+    <t>2022 -P2 Berekening Open Hangkast 700-KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>OVERZICHT C70-</t>
+  </si>
+  <si>
+    <t>C70OB35_1</t>
+  </si>
+  <si>
+    <t>C70OB35_2</t>
+  </si>
+  <si>
+    <t>C70OB40_1</t>
+  </si>
+  <si>
+    <t>C70OB40_2</t>
+  </si>
+  <si>
+    <t>C70OB45_1</t>
+  </si>
+  <si>
+    <t>C70OB45_2</t>
+  </si>
+  <si>
+    <t>C70OB50_1</t>
+  </si>
+  <si>
+    <t>C70OB50_2</t>
+  </si>
+  <si>
+    <t>C70OB55_1</t>
+  </si>
+  <si>
+    <t>C70OB55_2</t>
+  </si>
+  <si>
+    <t>C70OB60_1</t>
+  </si>
+  <si>
+    <t>C70OB60_2</t>
+  </si>
+  <si>
+    <t>C66DK6043_9</t>
+  </si>
+  <si>
+    <t>~$2022 - P9 Berekening Hangkast 700-430 KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>OVERZICHT HOEKHANG K43</t>
+  </si>
+  <si>
+    <t>C66DK6043_10</t>
+  </si>
+  <si>
+    <t>~$2022 - P10 Berekening Hangkast 700-430 KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>C66K9043_9</t>
+  </si>
+  <si>
+    <t>C66K9043_10</t>
+  </si>
+  <si>
+    <t>C70HB9043_9</t>
+  </si>
+  <si>
+    <t>C70HB9043_10</t>
+  </si>
+  <si>
+    <t>C70SHB6043_9</t>
+  </si>
+  <si>
+    <t>C70SHB6043_10</t>
+  </si>
+  <si>
+    <t>C70SHB6443_9</t>
+  </si>
+  <si>
+    <t>C70SHB6443_10</t>
+  </si>
+  <si>
+    <t>C70HB6043_9</t>
+  </si>
+  <si>
+    <t>C70HB6043_10</t>
+  </si>
+  <si>
+    <t>C70HB6443_9</t>
+  </si>
+  <si>
+    <t>C70HB6443_10</t>
+  </si>
+  <si>
+    <t>C141BL45D141_6</t>
+  </si>
+  <si>
+    <t>2022 - P6 Berekening opzetkast 1413-KLEUR met lade.xlsx</t>
+  </si>
+  <si>
+    <t>L17</t>
+  </si>
+  <si>
+    <t>C141BL50D141_6</t>
+  </si>
+  <si>
+    <t>M17</t>
+  </si>
+  <si>
+    <t>C141BL55D141_6</t>
+  </si>
+  <si>
+    <t>N17</t>
+  </si>
+  <si>
+    <t>C141BL60D141_6</t>
+  </si>
+  <si>
+    <t>O17</t>
+  </si>
+  <si>
+    <t>C141BL45-G_6</t>
+  </si>
+  <si>
+    <t>C141BL50-G_6</t>
+  </si>
+  <si>
+    <t>C141BL55-G_6</t>
+  </si>
+  <si>
+    <t>C141BL60-G_6</t>
+  </si>
+  <si>
+    <t>C141BL45KL-GST_6</t>
+  </si>
+  <si>
+    <t>C141BL50KL-GST_6</t>
+  </si>
+  <si>
+    <t>C141BL55KL-GST_6</t>
+  </si>
+  <si>
+    <t>C141BL60KL-GST_6</t>
+  </si>
+  <si>
+    <t>C141BL45KL-GDB_6</t>
+  </si>
+  <si>
+    <t>C141BL50KL-GDB_6</t>
+  </si>
+  <si>
+    <t>C141BL55KL-GDB_6</t>
+  </si>
+  <si>
+    <t>C141BL60KL-GDB_6</t>
   </si>
 </sst>
 </file>
@@ -7636,8 +8143,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}" name="Table2" displayName="Table2" ref="A1:D213" totalsRowShown="0">
-  <autoFilter ref="A1:D213" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}" name="Table2" displayName="Table2" ref="A1:D128" totalsRowShown="0">
+  <autoFilter ref="A1:D128" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{EAD2BB95-0271-4DE1-860E-94A419353B53}" name="Product_Id"/>
     <tableColumn id="2" xr3:uid="{42247E71-8EC0-4CEB-B24A-D3FBFE9449A8}" name="File"/>
@@ -7979,9 +8486,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535C4B85-08F9-4009-85A5-566FB6CE48DF}">
-  <dimension ref="A1:O213"/>
+  <dimension ref="A1:O128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8015,79 +8524,79 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2280</v>
+        <v>2494</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>2495</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>288</v>
-      </c>
-      <c r="G2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>1908</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2281</v>
+        <v>2496</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>2497</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>288</v>
-      </c>
-      <c r="G3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2282</v>
+        <v>2498</v>
       </c>
       <c r="B4" t="s">
-        <v>290</v>
+        <v>2495</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="G4" t="s">
         <v>1657</v>
       </c>
       <c r="H4" t="str" cm="1">
-        <f t="array" ref="H4:H52">_xlfn.BYROW(G4:G52,_xlfn.LAMBDA(_xlpm.id,_xlfn.XLOOKUP(_xlpm.id,Table3[Product_ID],Table3[File],"",0,1)))</f>
+        <f t="array" ref="H4:H41">_xlfn.BYROW(G4:G41,_xlfn.LAMBDA(_xlpm.id,_xlfn.XLOOKUP(_xlpm.id,Table3[Product_ID],Table3[File],"",0,1)))</f>
         <v>2022 -P2 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="I4" t="str" cm="1">
-        <f t="array" ref="I4:I52">_xlfn.BYROW(G4:G52,_xlfn.LAMBDA(_xlpm.id,_xlfn.XLOOKUP(_xlpm.id,Table3[Product_ID],Table3[Tab],"",0,1)))</f>
+        <f t="array" ref="I4:I41">_xlfn.BYROW(G4:G41,_xlfn.LAMBDA(_xlpm.id,_xlfn.XLOOKUP(_xlpm.id,Table3[Product_ID],Table3[Tab],"",0,1)))</f>
         <v>OVERZICHT PO</v>
       </c>
       <c r="O4" t="str" cm="1">
-        <f t="array" ref="O4:O52">_xlfn.BYROW(G4:G52,_xlfn.LAMBDA(_xlpm.id,_xlfn.XLOOKUP(_xlpm.id,Table3[Product_ID],Table3[Cell],"",0,1)))</f>
+        <f t="array" ref="O4:O41">_xlfn.BYROW(G4:G41,_xlfn.LAMBDA(_xlpm.id,_xlfn.XLOOKUP(_xlpm.id,Table3[Product_ID],Table3[Cell],"",0,1)))</f>
         <v>E11</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2283</v>
+        <v>2499</v>
       </c>
       <c r="B5" t="s">
-        <v>291</v>
+        <v>2497</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="G5" t="s">
         <v>1666</v>
@@ -8104,16 +8613,16 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2284</v>
+        <v>2500</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>2495</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="G6" t="s">
         <v>1675</v>
@@ -8130,16 +8639,16 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2285</v>
+        <v>2501</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>2497</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="G7" t="s">
         <v>1658</v>
@@ -8156,16 +8665,16 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2286</v>
+        <v>2502</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>2495</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="G8" t="s">
         <v>1659</v>
@@ -8182,16 +8691,16 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2287</v>
+        <v>2503</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>2497</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="G9" t="s">
         <v>1667</v>
@@ -8208,16 +8717,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2288</v>
+        <v>2504</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>2495</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G10" t="s">
         <v>1660</v>
@@ -8234,16 +8743,16 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2289</v>
+        <v>2505</v>
       </c>
       <c r="B11" t="s">
-        <v>292</v>
+        <v>2497</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G11" t="s">
         <v>1668</v>
@@ -8260,16 +8769,16 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
       <c r="B12" t="s">
-        <v>287</v>
+        <v>2495</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="G12" t="s">
         <v>1676</v>
@@ -8286,16 +8795,16 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>2291</v>
+        <v>2507</v>
       </c>
       <c r="B13" t="s">
-        <v>289</v>
+        <v>2497</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="G13" t="s">
         <v>1669</v>
@@ -8312,16 +8821,16 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>2292</v>
+        <v>2508</v>
       </c>
       <c r="B14" t="s">
-        <v>290</v>
+        <v>2495</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="G14" t="s">
         <v>1661</v>
@@ -8338,16 +8847,16 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>2293</v>
+        <v>2509</v>
       </c>
       <c r="B15" t="s">
-        <v>291</v>
+        <v>2497</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="G15" t="s">
         <v>1677</v>
@@ -8364,16 +8873,16 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>2294</v>
+        <v>2510</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>2511</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>2512</v>
       </c>
       <c r="D16" t="s">
-        <v>293</v>
+        <v>2513</v>
       </c>
       <c r="G16" t="s">
         <v>1662</v>
@@ -8390,16 +8899,16 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>2295</v>
+        <v>2514</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>2511</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>2512</v>
       </c>
       <c r="D17" t="s">
-        <v>293</v>
+        <v>2515</v>
       </c>
       <c r="G17" t="s">
         <v>1678</v>
@@ -8416,16 +8925,16 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>2296</v>
+        <v>2516</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>2511</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>2512</v>
       </c>
       <c r="D18" t="s">
-        <v>293</v>
+        <v>2517</v>
       </c>
       <c r="G18" t="s">
         <v>1670</v>
@@ -8442,16 +8951,16 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>2297</v>
+        <v>2518</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>2511</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>2512</v>
       </c>
       <c r="D19" t="s">
-        <v>293</v>
+        <v>2519</v>
       </c>
       <c r="G19" t="s">
         <v>1663</v>
@@ -8468,16 +8977,16 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>2298</v>
+        <v>2520</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>2511</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>2512</v>
       </c>
       <c r="D20" t="s">
-        <v>293</v>
+        <v>2521</v>
       </c>
       <c r="G20" t="s">
         <v>1607</v>
@@ -8494,16 +9003,16 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>2299</v>
+        <v>2522</v>
       </c>
       <c r="B21" t="s">
-        <v>292</v>
+        <v>2511</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>2512</v>
       </c>
       <c r="D21" t="s">
-        <v>293</v>
+        <v>2523</v>
       </c>
       <c r="G21" t="s">
         <v>1671</v>
@@ -8520,16 +9029,16 @@
     </row>
     <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>2300</v>
+        <v>2524</v>
       </c>
       <c r="B22" t="s">
-        <v>287</v>
+        <v>2511</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>2512</v>
       </c>
       <c r="D22" t="s">
-        <v>294</v>
+        <v>2525</v>
       </c>
       <c r="G22" t="s">
         <v>1608</v>
@@ -8546,16 +9055,16 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>2301</v>
+        <v>2526</v>
       </c>
       <c r="B23" t="s">
-        <v>289</v>
+        <v>2511</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>2512</v>
       </c>
       <c r="D23" t="s">
-        <v>294</v>
+        <v>2527</v>
       </c>
       <c r="G23" t="s">
         <v>1679</v>
@@ -8572,16 +9081,16 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>2302</v>
+        <v>2528</v>
       </c>
       <c r="B24" t="s">
-        <v>290</v>
+        <v>2511</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>2512</v>
       </c>
       <c r="D24" t="s">
-        <v>294</v>
+        <v>2529</v>
       </c>
       <c r="G24" t="s">
         <v>1672</v>
@@ -8598,16 +9107,16 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>2303</v>
+        <v>2530</v>
       </c>
       <c r="B25" t="s">
-        <v>291</v>
+        <v>2511</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>2512</v>
       </c>
       <c r="D25" t="s">
-        <v>294</v>
+        <v>2531</v>
       </c>
       <c r="G25" t="s">
         <v>1680</v>
@@ -8624,16 +9133,16 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>2304</v>
+        <v>2532</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>2511</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>2512</v>
       </c>
       <c r="D26" t="s">
-        <v>294</v>
+        <v>2533</v>
       </c>
       <c r="G26" t="s">
         <v>1617</v>
@@ -8650,16 +9159,16 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>2305</v>
+        <v>2534</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>2511</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>2512</v>
       </c>
       <c r="D27" t="s">
-        <v>294</v>
+        <v>2535</v>
       </c>
       <c r="G27" t="s">
         <v>1664</v>
@@ -8676,16 +9185,16 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>2306</v>
+        <v>2536</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>2511</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>2512</v>
       </c>
       <c r="D28" t="s">
-        <v>294</v>
+        <v>2537</v>
       </c>
       <c r="G28" t="s">
         <v>1681</v>
@@ -8702,16 +9211,16 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>2307</v>
+        <v>2538</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>2539</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>2540</v>
       </c>
       <c r="D29" t="s">
-        <v>294</v>
+        <v>2541</v>
       </c>
       <c r="G29" t="s">
         <v>1609</v>
@@ -8728,16 +9237,16 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>2308</v>
+        <v>2542</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>2543</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>2540</v>
       </c>
       <c r="D30" t="s">
-        <v>294</v>
+        <v>2541</v>
       </c>
       <c r="G30" t="s">
         <v>1610</v>
@@ -8754,16 +9263,16 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>2309</v>
+        <v>2544</v>
       </c>
       <c r="B31" t="s">
-        <v>292</v>
+        <v>2545</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>2540</v>
       </c>
       <c r="D31" t="s">
-        <v>294</v>
+        <v>2541</v>
       </c>
       <c r="G31" t="s">
         <v>1618</v>
@@ -8780,16 +9289,16 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>2310</v>
+        <v>2546</v>
       </c>
       <c r="B32" t="s">
-        <v>287</v>
+        <v>2547</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>2540</v>
       </c>
       <c r="D32" t="s">
-        <v>295</v>
+        <v>2541</v>
       </c>
       <c r="G32" t="s">
         <v>1611</v>
@@ -8806,16 +9315,16 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>2311</v>
+        <v>2548</v>
       </c>
       <c r="B33" t="s">
-        <v>289</v>
+        <v>2549</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>2540</v>
       </c>
       <c r="D33" t="s">
-        <v>295</v>
+        <v>2541</v>
       </c>
       <c r="G33" t="s">
         <v>1673</v>
@@ -8832,16 +9341,16 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>2312</v>
+        <v>2550</v>
       </c>
       <c r="B34" t="s">
-        <v>290</v>
+        <v>2551</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>2540</v>
       </c>
       <c r="D34" t="s">
-        <v>295</v>
+        <v>2541</v>
       </c>
       <c r="G34" t="s">
         <v>1665</v>
@@ -8858,16 +9367,16 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>2313</v>
+        <v>2552</v>
       </c>
       <c r="B35" t="s">
-        <v>291</v>
+        <v>2553</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>2540</v>
       </c>
       <c r="D35" t="s">
-        <v>295</v>
+        <v>2541</v>
       </c>
       <c r="G35" t="s">
         <v>1619</v>
@@ -8884,16 +9393,16 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>2314</v>
+        <v>2554</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>2555</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>2540</v>
       </c>
       <c r="D36" t="s">
-        <v>295</v>
+        <v>2541</v>
       </c>
       <c r="G36" t="s">
         <v>1612</v>
@@ -8910,16 +9419,16 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>2315</v>
+        <v>2556</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>2539</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>2540</v>
       </c>
       <c r="D37" t="s">
-        <v>295</v>
+        <v>2557</v>
       </c>
       <c r="G37" t="s">
         <v>1620</v>
@@ -8936,16 +9445,16 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>2316</v>
+        <v>2558</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>2543</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
+        <v>2540</v>
       </c>
       <c r="D38" t="s">
-        <v>295</v>
+        <v>2557</v>
       </c>
       <c r="G38" t="s">
         <v>1682</v>
@@ -8962,16 +9471,16 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>2317</v>
+        <v>2559</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>2545</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>2540</v>
       </c>
       <c r="D39" t="s">
-        <v>295</v>
+        <v>2557</v>
       </c>
       <c r="G39" t="s">
         <v>1613</v>
@@ -8988,16 +9497,16 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>2318</v>
+        <v>2560</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>2547</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>2540</v>
       </c>
       <c r="D40" t="s">
-        <v>295</v>
+        <v>2557</v>
       </c>
       <c r="G40" t="s">
         <v>1674</v>
@@ -9014,16 +9523,16 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>2319</v>
+        <v>2561</v>
       </c>
       <c r="B41" t="s">
-        <v>292</v>
+        <v>2549</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>2540</v>
       </c>
       <c r="D41" t="s">
-        <v>295</v>
+        <v>2557</v>
       </c>
       <c r="G41" t="s">
         <v>1614</v>
@@ -9040,1290 +9549,1158 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>2320</v>
+        <v>2562</v>
       </c>
       <c r="B42" t="s">
-        <v>158</v>
+        <v>2551</v>
       </c>
       <c r="C42" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D42" t="s">
-        <v>296</v>
-      </c>
-      <c r="G42" t="s">
-        <v>1621</v>
-      </c>
-      <c r="H42" t="str">
-        <v>2022 -P6 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I42" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O42" t="str">
-        <v>F3</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>2321</v>
+        <v>2563</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>2553</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D43" t="s">
-        <v>297</v>
-      </c>
-      <c r="G43" t="s">
-        <v>1622</v>
-      </c>
-      <c r="H43" t="str">
-        <v>2022 -P7 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I43" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O43" t="str">
-        <v>F3</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>2322</v>
+        <v>2564</v>
       </c>
       <c r="B44" t="s">
-        <v>158</v>
+        <v>2555</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D44" t="s">
-        <v>298</v>
-      </c>
-      <c r="G44" t="s">
-        <v>1623</v>
-      </c>
-      <c r="H44" t="str">
-        <v>2022 -P8 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I44" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O44" t="str">
-        <v>F3</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>2323</v>
+        <v>2565</v>
       </c>
       <c r="B45" t="s">
-        <v>158</v>
+        <v>2539</v>
       </c>
       <c r="C45" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D45" t="s">
-        <v>299</v>
-      </c>
-      <c r="G45" t="s">
-        <v>1683</v>
-      </c>
-      <c r="H45" t="str">
-        <v>2022 -P10 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I45" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O45" t="str">
-        <v>G11</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>2324</v>
+        <v>2566</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>2543</v>
       </c>
       <c r="C46" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D46" t="s">
-        <v>288</v>
-      </c>
-      <c r="G46" t="s">
-        <v>1615</v>
-      </c>
-      <c r="H46" t="str">
-        <v>2022 -P9 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I46" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O46" t="str">
-        <v>E3</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>2325</v>
+        <v>2567</v>
       </c>
       <c r="B47" t="s">
-        <v>160</v>
+        <v>2545</v>
       </c>
       <c r="C47" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D47" t="s">
-        <v>288</v>
-      </c>
-      <c r="G47" t="s">
-        <v>1616</v>
-      </c>
-      <c r="H47" t="str">
-        <v>2022 -P10 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I47" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O47" t="str">
-        <v>E3</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>2326</v>
+        <v>2568</v>
       </c>
       <c r="B48" t="s">
-        <v>161</v>
+        <v>2547</v>
       </c>
       <c r="C48" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D48" t="s">
-        <v>288</v>
-      </c>
-      <c r="G48" t="s">
-        <v>1624</v>
-      </c>
-      <c r="H48" t="str">
-        <v>2022 -P9 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I48" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O48" t="str">
-        <v>F3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>2327</v>
+        <v>2569</v>
       </c>
       <c r="B49" t="s">
-        <v>162</v>
+        <v>2549</v>
       </c>
       <c r="C49" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D49" t="s">
-        <v>288</v>
-      </c>
-      <c r="G49" t="s">
-        <v>1625</v>
-      </c>
-      <c r="H49" t="str">
-        <v>2022 -P10 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I49" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O49" t="str">
-        <v>F3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>2328</v>
+        <v>2570</v>
       </c>
       <c r="B50" t="s">
-        <v>163</v>
+        <v>2551</v>
       </c>
       <c r="C50" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D50" t="s">
-        <v>288</v>
-      </c>
-      <c r="G50" t="s">
-        <v>1363</v>
-      </c>
-      <c r="H50" t="str">
-        <v>2022 -P6 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2317 KLEUR.xlsx</v>
-      </c>
-      <c r="I50" t="str">
-        <v>OVERZICHT CKP231</v>
-      </c>
-      <c r="O50" t="str">
-        <v>I3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>2329</v>
+        <v>2571</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>2553</v>
       </c>
       <c r="C51" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D51" t="s">
-        <v>288</v>
-      </c>
-      <c r="G51" t="s">
-        <v>612</v>
-      </c>
-      <c r="H51" t="str">
-        <v>2022 -P7 Berekening Kolom P Lade F+O (11-12-14-17-18-19-20-21-23) 2137-KLEUR.xlsx</v>
-      </c>
-      <c r="I51" t="str">
-        <v>OVERZICHT CKP213</v>
-      </c>
-      <c r="O51" t="str">
-        <v>I3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>2330</v>
+        <v>2572</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>2555</v>
       </c>
       <c r="C52" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D52" t="s">
-        <v>288</v>
-      </c>
-      <c r="G52" t="s">
-        <v>1547</v>
-      </c>
-      <c r="H52" t="str">
-        <v>2022 -P2 Berekening 2b Ladenkasten 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I52" t="str">
-        <v>OVERZICHT COP</v>
-      </c>
-      <c r="O52" t="str">
-        <v>F65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>2331</v>
+        <v>2573</v>
       </c>
       <c r="B53" t="s">
-        <v>165</v>
+        <v>2539</v>
       </c>
       <c r="C53" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D53" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>2332</v>
+        <v>2574</v>
       </c>
       <c r="B54" t="s">
-        <v>166</v>
+        <v>2543</v>
       </c>
       <c r="C54" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D54" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>2333</v>
+        <v>2575</v>
       </c>
       <c r="B55" t="s">
-        <v>167</v>
+        <v>2545</v>
       </c>
       <c r="C55" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D55" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>2334</v>
+        <v>2576</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>2547</v>
       </c>
       <c r="C56" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D56" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>2335</v>
+        <v>2577</v>
       </c>
       <c r="B57" t="s">
-        <v>160</v>
+        <v>2549</v>
       </c>
       <c r="C57" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D57" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>2336</v>
+        <v>2578</v>
       </c>
       <c r="B58" t="s">
-        <v>161</v>
+        <v>2551</v>
       </c>
       <c r="C58" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D58" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>2337</v>
+        <v>2579</v>
       </c>
       <c r="B59" t="s">
-        <v>162</v>
+        <v>2553</v>
       </c>
       <c r="C59" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D59" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>2338</v>
+        <v>2580</v>
       </c>
       <c r="B60" t="s">
-        <v>163</v>
+        <v>2555</v>
       </c>
       <c r="C60" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D60" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>2339</v>
+        <v>2581</v>
       </c>
       <c r="B61" t="s">
-        <v>163</v>
+        <v>2539</v>
       </c>
       <c r="C61" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D61" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>2340</v>
+        <v>2582</v>
       </c>
       <c r="B62" t="s">
-        <v>164</v>
+        <v>2543</v>
       </c>
       <c r="C62" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D62" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>2341</v>
+        <v>2583</v>
       </c>
       <c r="B63" t="s">
-        <v>165</v>
+        <v>2545</v>
       </c>
       <c r="C63" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D63" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>2342</v>
+        <v>2584</v>
       </c>
       <c r="B64" t="s">
-        <v>166</v>
+        <v>2547</v>
       </c>
       <c r="C64" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D64" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>2343</v>
+        <v>2585</v>
       </c>
       <c r="B65" t="s">
-        <v>167</v>
+        <v>2549</v>
       </c>
       <c r="C65" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D65" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>2344</v>
+        <v>2587</v>
       </c>
       <c r="B66" t="s">
-        <v>158</v>
+        <v>2551</v>
       </c>
       <c r="C66" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D66" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>2345</v>
+        <v>2588</v>
       </c>
       <c r="B67" t="s">
-        <v>160</v>
+        <v>2553</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D67" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>2346</v>
+        <v>2589</v>
       </c>
       <c r="B68" t="s">
-        <v>161</v>
+        <v>2555</v>
       </c>
       <c r="C68" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D68" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>2347</v>
+        <v>2590</v>
       </c>
       <c r="B69" t="s">
-        <v>162</v>
+        <v>2539</v>
       </c>
       <c r="C69" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D69" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>2348</v>
+        <v>2591</v>
       </c>
       <c r="B70" t="s">
-        <v>163</v>
+        <v>2543</v>
       </c>
       <c r="C70" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D70" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>2349</v>
+        <v>2592</v>
       </c>
       <c r="B71" t="s">
-        <v>163</v>
+        <v>2545</v>
       </c>
       <c r="C71" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D71" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>2350</v>
+        <v>2593</v>
       </c>
       <c r="B72" t="s">
-        <v>164</v>
+        <v>2547</v>
       </c>
       <c r="C72" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D72" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>2351</v>
+        <v>2594</v>
       </c>
       <c r="B73" t="s">
-        <v>165</v>
+        <v>2549</v>
       </c>
       <c r="C73" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D73" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>2352</v>
+        <v>2595</v>
       </c>
       <c r="B74" t="s">
-        <v>166</v>
+        <v>2551</v>
       </c>
       <c r="C74" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D74" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>2353</v>
+        <v>2596</v>
       </c>
       <c r="B75" t="s">
-        <v>167</v>
+        <v>2553</v>
       </c>
       <c r="C75" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D75" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>2354</v>
+        <v>2597</v>
       </c>
       <c r="B76" t="s">
-        <v>158</v>
+        <v>2555</v>
       </c>
       <c r="C76" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D76" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>2355</v>
+        <v>2598</v>
       </c>
       <c r="B77" t="s">
-        <v>160</v>
+        <v>2539</v>
       </c>
       <c r="C77" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D77" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>2356</v>
+        <v>2599</v>
       </c>
       <c r="B78" t="s">
-        <v>161</v>
+        <v>2543</v>
       </c>
       <c r="C78" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D78" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>2357</v>
+        <v>2600</v>
       </c>
       <c r="B79" t="s">
-        <v>162</v>
+        <v>2545</v>
       </c>
       <c r="C79" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D79" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>2358</v>
+        <v>2601</v>
       </c>
       <c r="B80" t="s">
-        <v>163</v>
+        <v>2547</v>
       </c>
       <c r="C80" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D80" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>2359</v>
+        <v>2602</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>2549</v>
       </c>
       <c r="C81" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D81" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>2360</v>
+        <v>2603</v>
       </c>
       <c r="B82" t="s">
-        <v>164</v>
+        <v>2551</v>
       </c>
       <c r="C82" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D82" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>2361</v>
+        <v>2604</v>
       </c>
       <c r="B83" t="s">
-        <v>165</v>
+        <v>2553</v>
       </c>
       <c r="C83" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D83" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>2362</v>
+        <v>2605</v>
       </c>
       <c r="B84" t="s">
-        <v>166</v>
+        <v>2555</v>
       </c>
       <c r="C84" t="s">
-        <v>159</v>
+        <v>2540</v>
       </c>
       <c r="D84" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>2363</v>
+        <v>2606</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
+        <v>2607</v>
       </c>
       <c r="C85" t="s">
-        <v>159</v>
+        <v>2608</v>
       </c>
       <c r="D85" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>2364</v>
+        <v>2609</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
+        <v>2610</v>
       </c>
       <c r="C86" t="s">
-        <v>159</v>
+        <v>2611</v>
       </c>
       <c r="D86" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>2365</v>
+        <v>2612</v>
       </c>
       <c r="B87" t="s">
-        <v>173</v>
+        <v>2607</v>
       </c>
       <c r="C87" t="s">
-        <v>159</v>
+        <v>2608</v>
       </c>
       <c r="D87" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>2366</v>
+        <v>2613</v>
       </c>
       <c r="B88" t="s">
-        <v>173</v>
+        <v>2610</v>
       </c>
       <c r="C88" t="s">
-        <v>159</v>
+        <v>2611</v>
       </c>
       <c r="D88" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>2367</v>
+        <v>2614</v>
       </c>
       <c r="B89" t="s">
-        <v>173</v>
+        <v>2607</v>
       </c>
       <c r="C89" t="s">
-        <v>159</v>
+        <v>2608</v>
       </c>
       <c r="D89" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>2368</v>
+        <v>2615</v>
       </c>
       <c r="B90" t="s">
-        <v>173</v>
+        <v>2610</v>
       </c>
       <c r="C90" t="s">
-        <v>159</v>
+        <v>2611</v>
       </c>
       <c r="D90" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>2369</v>
+        <v>2616</v>
       </c>
       <c r="B91" t="s">
-        <v>174</v>
+        <v>2607</v>
       </c>
       <c r="C91" t="s">
-        <v>159</v>
+        <v>2608</v>
       </c>
       <c r="D91" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>2370</v>
+        <v>2617</v>
       </c>
       <c r="B92" t="s">
-        <v>175</v>
+        <v>2610</v>
       </c>
       <c r="C92" t="s">
-        <v>159</v>
+        <v>2611</v>
       </c>
       <c r="D92" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>2371</v>
+        <v>2618</v>
       </c>
       <c r="B93" t="s">
-        <v>176</v>
+        <v>2607</v>
       </c>
       <c r="C93" t="s">
-        <v>159</v>
+        <v>2608</v>
       </c>
       <c r="D93" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>2372</v>
+        <v>2619</v>
       </c>
       <c r="B94" t="s">
-        <v>183</v>
+        <v>2610</v>
       </c>
       <c r="C94" t="s">
-        <v>159</v>
+        <v>2611</v>
       </c>
       <c r="D94" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>2373</v>
+        <v>2620</v>
       </c>
       <c r="B95" t="s">
-        <v>178</v>
+        <v>2607</v>
       </c>
       <c r="C95" t="s">
-        <v>159</v>
+        <v>2608</v>
       </c>
       <c r="D95" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>2374</v>
+        <v>2621</v>
       </c>
       <c r="B96" t="s">
-        <v>179</v>
+        <v>2610</v>
       </c>
       <c r="C96" t="s">
-        <v>159</v>
+        <v>2611</v>
       </c>
       <c r="D96" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>2375</v>
+        <v>2622</v>
       </c>
       <c r="B97" t="s">
-        <v>180</v>
+        <v>2607</v>
       </c>
       <c r="C97" t="s">
-        <v>159</v>
+        <v>2608</v>
       </c>
       <c r="D97" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>2376</v>
+        <v>2623</v>
       </c>
       <c r="B98" t="s">
-        <v>181</v>
+        <v>2610</v>
       </c>
       <c r="C98" t="s">
-        <v>159</v>
+        <v>2611</v>
       </c>
       <c r="D98" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>2377</v>
+        <v>2624</v>
       </c>
       <c r="B99" t="s">
-        <v>182</v>
+        <v>2625</v>
       </c>
       <c r="C99" t="s">
-        <v>159</v>
+        <v>2626</v>
       </c>
       <c r="D99" t="s">
-        <v>288</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>2378</v>
+        <v>2627</v>
       </c>
       <c r="B100" t="s">
-        <v>173</v>
+        <v>2628</v>
       </c>
       <c r="C100" t="s">
-        <v>159</v>
+        <v>2626</v>
       </c>
       <c r="D100" t="s">
-        <v>293</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>2379</v>
+        <v>2629</v>
       </c>
       <c r="B101" t="s">
-        <v>174</v>
+        <v>2625</v>
       </c>
       <c r="C101" t="s">
-        <v>159</v>
+        <v>2626</v>
       </c>
       <c r="D101" t="s">
-        <v>293</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>2380</v>
+        <v>2630</v>
       </c>
       <c r="B102" t="s">
-        <v>175</v>
+        <v>2628</v>
       </c>
       <c r="C102" t="s">
-        <v>159</v>
+        <v>2626</v>
       </c>
       <c r="D102" t="s">
-        <v>293</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>2381</v>
+        <v>2631</v>
       </c>
       <c r="B103" t="s">
-        <v>176</v>
+        <v>2625</v>
       </c>
       <c r="C103" t="s">
-        <v>159</v>
+        <v>2626</v>
       </c>
       <c r="D103" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>2382</v>
+        <v>2632</v>
       </c>
       <c r="B104" t="s">
-        <v>183</v>
+        <v>2628</v>
       </c>
       <c r="C104" t="s">
-        <v>159</v>
+        <v>2626</v>
       </c>
       <c r="D104" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>2383</v>
+        <v>2633</v>
       </c>
       <c r="B105" t="s">
-        <v>178</v>
+        <v>2625</v>
       </c>
       <c r="C105" t="s">
-        <v>159</v>
+        <v>2626</v>
       </c>
       <c r="D105" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>2384</v>
+        <v>2634</v>
       </c>
       <c r="B106" t="s">
-        <v>179</v>
+        <v>2628</v>
       </c>
       <c r="C106" t="s">
-        <v>159</v>
+        <v>2626</v>
       </c>
       <c r="D106" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>2385</v>
+        <v>2635</v>
       </c>
       <c r="B107" t="s">
-        <v>180</v>
+        <v>2625</v>
       </c>
       <c r="C107" t="s">
-        <v>159</v>
+        <v>2626</v>
       </c>
       <c r="D107" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>2386</v>
+        <v>2636</v>
       </c>
       <c r="B108" t="s">
-        <v>181</v>
+        <v>2628</v>
       </c>
       <c r="C108" t="s">
-        <v>159</v>
+        <v>2626</v>
       </c>
       <c r="D108" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>2387</v>
+        <v>2637</v>
       </c>
       <c r="B109" t="s">
-        <v>182</v>
+        <v>2625</v>
       </c>
       <c r="C109" t="s">
-        <v>159</v>
+        <v>2626</v>
       </c>
       <c r="D109" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>2388</v>
+        <v>2638</v>
       </c>
       <c r="B110" t="s">
-        <v>173</v>
+        <v>2628</v>
       </c>
       <c r="C110" t="s">
-        <v>159</v>
+        <v>2626</v>
       </c>
       <c r="D110" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>2389</v>
+        <v>2639</v>
       </c>
       <c r="B111" t="s">
-        <v>174</v>
+        <v>2625</v>
       </c>
       <c r="C111" t="s">
-        <v>159</v>
+        <v>2626</v>
       </c>
       <c r="D111" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>2390</v>
+        <v>2640</v>
       </c>
       <c r="B112" t="s">
-        <v>175</v>
+        <v>2628</v>
       </c>
       <c r="C112" t="s">
-        <v>159</v>
+        <v>2626</v>
       </c>
       <c r="D112" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>2391</v>
+        <v>2641</v>
       </c>
       <c r="B113" t="s">
-        <v>176</v>
+        <v>2642</v>
       </c>
       <c r="C113" t="s">
         <v>159</v>
       </c>
       <c r="D113" t="s">
-        <v>294</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>2392</v>
+        <v>2644</v>
       </c>
       <c r="B114" t="s">
-        <v>183</v>
+        <v>2642</v>
       </c>
       <c r="C114" t="s">
         <v>159</v>
       </c>
       <c r="D114" t="s">
-        <v>294</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>2393</v>
+        <v>2646</v>
       </c>
       <c r="B115" t="s">
-        <v>178</v>
+        <v>2642</v>
       </c>
       <c r="C115" t="s">
         <v>159</v>
       </c>
       <c r="D115" t="s">
-        <v>294</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>2394</v>
+        <v>2648</v>
       </c>
       <c r="B116" t="s">
-        <v>179</v>
+        <v>2642</v>
       </c>
       <c r="C116" t="s">
         <v>159</v>
       </c>
       <c r="D116" t="s">
-        <v>294</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>2395</v>
+        <v>2650</v>
       </c>
       <c r="B117" t="s">
-        <v>180</v>
+        <v>2642</v>
       </c>
       <c r="C117" t="s">
         <v>159</v>
       </c>
       <c r="D117" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>2396</v>
+        <v>2651</v>
       </c>
       <c r="B118" t="s">
-        <v>181</v>
+        <v>2642</v>
       </c>
       <c r="C118" t="s">
         <v>159</v>
       </c>
       <c r="D118" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>2397</v>
+        <v>2652</v>
       </c>
       <c r="B119" t="s">
-        <v>182</v>
+        <v>2642</v>
       </c>
       <c r="C119" t="s">
         <v>159</v>
       </c>
       <c r="D119" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>2398</v>
+        <v>2653</v>
       </c>
       <c r="B120" t="s">
-        <v>173</v>
+        <v>2642</v>
       </c>
       <c r="C120" t="s">
         <v>159</v>
       </c>
       <c r="D120" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>2399</v>
+        <v>2654</v>
       </c>
       <c r="B121" t="s">
-        <v>174</v>
+        <v>2642</v>
       </c>
       <c r="C121" t="s">
         <v>159</v>
       </c>
       <c r="D121" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>2400</v>
+        <v>2655</v>
       </c>
       <c r="B122" t="s">
-        <v>175</v>
+        <v>2642</v>
       </c>
       <c r="C122" t="s">
         <v>159</v>
       </c>
       <c r="D122" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>2401</v>
+        <v>2656</v>
       </c>
       <c r="B123" t="s">
-        <v>176</v>
+        <v>2642</v>
       </c>
       <c r="C123" t="s">
         <v>159</v>
       </c>
       <c r="D123" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>2402</v>
+        <v>2657</v>
       </c>
       <c r="B124" t="s">
-        <v>183</v>
+        <v>2642</v>
       </c>
       <c r="C124" t="s">
         <v>159</v>
@@ -10334,1248 +10711,58 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>2403</v>
+        <v>2658</v>
       </c>
       <c r="B125" t="s">
-        <v>178</v>
+        <v>2642</v>
       </c>
       <c r="C125" t="s">
         <v>159</v>
       </c>
       <c r="D125" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>2404</v>
+        <v>2659</v>
       </c>
       <c r="B126" t="s">
-        <v>179</v>
+        <v>2642</v>
       </c>
       <c r="C126" t="s">
         <v>159</v>
       </c>
       <c r="D126" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>2405</v>
+        <v>2660</v>
       </c>
       <c r="B127" t="s">
-        <v>180</v>
+        <v>2642</v>
       </c>
       <c r="C127" t="s">
         <v>159</v>
       </c>
       <c r="D127" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>2406</v>
+        <v>2661</v>
       </c>
       <c r="B128" t="s">
-        <v>181</v>
+        <v>2642</v>
       </c>
       <c r="C128" t="s">
         <v>159</v>
       </c>
       <c r="D128" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>2407</v>
-      </c>
-      <c r="B129" t="s">
-        <v>182</v>
-      </c>
-      <c r="C129" t="s">
-        <v>159</v>
-      </c>
-      <c r="D129" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>2408</v>
-      </c>
-      <c r="B130" t="s">
-        <v>184</v>
-      </c>
-      <c r="C130" t="s">
-        <v>159</v>
-      </c>
-      <c r="D130" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>2409</v>
-      </c>
-      <c r="B131" t="s">
-        <v>184</v>
-      </c>
-      <c r="C131" t="s">
-        <v>159</v>
-      </c>
-      <c r="D131" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>2410</v>
-      </c>
-      <c r="B132" t="s">
-        <v>184</v>
-      </c>
-      <c r="C132" t="s">
-        <v>159</v>
-      </c>
-      <c r="D132" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>2411</v>
-      </c>
-      <c r="B133" t="s">
-        <v>184</v>
-      </c>
-      <c r="C133" t="s">
-        <v>159</v>
-      </c>
-      <c r="D133" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>2412</v>
-      </c>
-      <c r="B134" t="s">
-        <v>184</v>
-      </c>
-      <c r="C134" t="s">
-        <v>159</v>
-      </c>
-      <c r="D134" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>2413</v>
-      </c>
-      <c r="B135" t="s">
-        <v>185</v>
-      </c>
-      <c r="C135" t="s">
-        <v>159</v>
-      </c>
-      <c r="D135" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>2414</v>
-      </c>
-      <c r="B136" t="s">
-        <v>186</v>
-      </c>
-      <c r="C136" t="s">
-        <v>159</v>
-      </c>
-      <c r="D136" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>2415</v>
-      </c>
-      <c r="B137" t="s">
-        <v>187</v>
-      </c>
-      <c r="C137" t="s">
-        <v>159</v>
-      </c>
-      <c r="D137" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>2416</v>
-      </c>
-      <c r="B138" t="s">
-        <v>188</v>
-      </c>
-      <c r="C138" t="s">
-        <v>159</v>
-      </c>
-      <c r="D138" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>2417</v>
-      </c>
-      <c r="B139" t="s">
-        <v>189</v>
-      </c>
-      <c r="C139" t="s">
-        <v>159</v>
-      </c>
-      <c r="D139" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>2418</v>
-      </c>
-      <c r="B140" t="s">
-        <v>190</v>
-      </c>
-      <c r="C140" t="s">
-        <v>159</v>
-      </c>
-      <c r="D140" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>2419</v>
-      </c>
-      <c r="B141" t="s">
-        <v>191</v>
-      </c>
-      <c r="C141" t="s">
-        <v>159</v>
-      </c>
-      <c r="D141" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>2420</v>
-      </c>
-      <c r="B142" t="s">
-        <v>192</v>
-      </c>
-      <c r="C142" t="s">
-        <v>159</v>
-      </c>
-      <c r="D142" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>2421</v>
-      </c>
-      <c r="B143" t="s">
-        <v>193</v>
-      </c>
-      <c r="C143" t="s">
-        <v>159</v>
-      </c>
-      <c r="D143" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>2422</v>
-      </c>
-      <c r="B144" t="s">
-        <v>184</v>
-      </c>
-      <c r="C144" t="s">
-        <v>159</v>
-      </c>
-      <c r="D144" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>2423</v>
-      </c>
-      <c r="B145" t="s">
-        <v>185</v>
-      </c>
-      <c r="C145" t="s">
-        <v>159</v>
-      </c>
-      <c r="D145" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>2424</v>
-      </c>
-      <c r="B146" t="s">
-        <v>186</v>
-      </c>
-      <c r="C146" t="s">
-        <v>159</v>
-      </c>
-      <c r="D146" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>2425</v>
-      </c>
-      <c r="B147" t="s">
-        <v>187</v>
-      </c>
-      <c r="C147" t="s">
-        <v>159</v>
-      </c>
-      <c r="D147" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>2426</v>
-      </c>
-      <c r="B148" t="s">
-        <v>188</v>
-      </c>
-      <c r="C148" t="s">
-        <v>159</v>
-      </c>
-      <c r="D148" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>2427</v>
-      </c>
-      <c r="B149" t="s">
-        <v>189</v>
-      </c>
-      <c r="C149" t="s">
-        <v>159</v>
-      </c>
-      <c r="D149" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>2428</v>
-      </c>
-      <c r="B150" t="s">
-        <v>190</v>
-      </c>
-      <c r="C150" t="s">
-        <v>159</v>
-      </c>
-      <c r="D150" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>2429</v>
-      </c>
-      <c r="B151" t="s">
-        <v>191</v>
-      </c>
-      <c r="C151" t="s">
-        <v>159</v>
-      </c>
-      <c r="D151" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>2430</v>
-      </c>
-      <c r="B152" t="s">
-        <v>192</v>
-      </c>
-      <c r="C152" t="s">
-        <v>159</v>
-      </c>
-      <c r="D152" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>2431</v>
-      </c>
-      <c r="B153" t="s">
-        <v>193</v>
-      </c>
-      <c r="C153" t="s">
-        <v>159</v>
-      </c>
-      <c r="D153" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>2432</v>
-      </c>
-      <c r="B154" t="s">
-        <v>184</v>
-      </c>
-      <c r="C154" t="s">
-        <v>159</v>
-      </c>
-      <c r="D154" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>2433</v>
-      </c>
-      <c r="B155" t="s">
-        <v>185</v>
-      </c>
-      <c r="C155" t="s">
-        <v>159</v>
-      </c>
-      <c r="D155" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>2434</v>
-      </c>
-      <c r="B156" t="s">
-        <v>186</v>
-      </c>
-      <c r="C156" t="s">
-        <v>159</v>
-      </c>
-      <c r="D156" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>2435</v>
-      </c>
-      <c r="B157" t="s">
-        <v>187</v>
-      </c>
-      <c r="C157" t="s">
-        <v>159</v>
-      </c>
-      <c r="D157" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>2436</v>
-      </c>
-      <c r="B158" t="s">
-        <v>188</v>
-      </c>
-      <c r="C158" t="s">
-        <v>159</v>
-      </c>
-      <c r="D158" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>2437</v>
-      </c>
-      <c r="B159" t="s">
-        <v>189</v>
-      </c>
-      <c r="C159" t="s">
-        <v>159</v>
-      </c>
-      <c r="D159" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>2438</v>
-      </c>
-      <c r="B160" t="s">
-        <v>190</v>
-      </c>
-      <c r="C160" t="s">
-        <v>159</v>
-      </c>
-      <c r="D160" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>2439</v>
-      </c>
-      <c r="B161" t="s">
-        <v>191</v>
-      </c>
-      <c r="C161" t="s">
-        <v>159</v>
-      </c>
-      <c r="D161" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>2440</v>
-      </c>
-      <c r="B162" t="s">
-        <v>192</v>
-      </c>
-      <c r="C162" t="s">
-        <v>159</v>
-      </c>
-      <c r="D162" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>2441</v>
-      </c>
-      <c r="B163" t="s">
-        <v>193</v>
-      </c>
-      <c r="C163" t="s">
-        <v>159</v>
-      </c>
-      <c r="D163" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>2442</v>
-      </c>
-      <c r="B164" t="s">
-        <v>184</v>
-      </c>
-      <c r="C164" t="s">
-        <v>159</v>
-      </c>
-      <c r="D164" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>2443</v>
-      </c>
-      <c r="B165" t="s">
-        <v>185</v>
-      </c>
-      <c r="C165" t="s">
-        <v>159</v>
-      </c>
-      <c r="D165" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>2444</v>
-      </c>
-      <c r="B166" t="s">
-        <v>186</v>
-      </c>
-      <c r="C166" t="s">
-        <v>159</v>
-      </c>
-      <c r="D166" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>2445</v>
-      </c>
-      <c r="B167" t="s">
-        <v>187</v>
-      </c>
-      <c r="C167" t="s">
-        <v>159</v>
-      </c>
-      <c r="D167" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>2446</v>
-      </c>
-      <c r="B168" t="s">
-        <v>188</v>
-      </c>
-      <c r="C168" t="s">
-        <v>159</v>
-      </c>
-      <c r="D168" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>2447</v>
-      </c>
-      <c r="B169" t="s">
-        <v>189</v>
-      </c>
-      <c r="C169" t="s">
-        <v>159</v>
-      </c>
-      <c r="D169" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>2448</v>
-      </c>
-      <c r="B170" t="s">
-        <v>190</v>
-      </c>
-      <c r="C170" t="s">
-        <v>159</v>
-      </c>
-      <c r="D170" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>2449</v>
-      </c>
-      <c r="B171" t="s">
-        <v>191</v>
-      </c>
-      <c r="C171" t="s">
-        <v>159</v>
-      </c>
-      <c r="D171" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>2450</v>
-      </c>
-      <c r="B172" t="s">
-        <v>192</v>
-      </c>
-      <c r="C172" t="s">
-        <v>159</v>
-      </c>
-      <c r="D172" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>2451</v>
-      </c>
-      <c r="B173" t="s">
-        <v>193</v>
-      </c>
-      <c r="C173" t="s">
-        <v>159</v>
-      </c>
-      <c r="D173" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>2452</v>
-      </c>
-      <c r="B174" t="s">
-        <v>194</v>
-      </c>
-      <c r="C174" t="s">
-        <v>159</v>
-      </c>
-      <c r="D174" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>2453</v>
-      </c>
-      <c r="B175" t="s">
-        <v>194</v>
-      </c>
-      <c r="C175" t="s">
-        <v>159</v>
-      </c>
-      <c r="D175" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>2454</v>
-      </c>
-      <c r="B176" t="s">
-        <v>194</v>
-      </c>
-      <c r="C176" t="s">
-        <v>159</v>
-      </c>
-      <c r="D176" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>2455</v>
-      </c>
-      <c r="B177" t="s">
-        <v>194</v>
-      </c>
-      <c r="C177" t="s">
-        <v>159</v>
-      </c>
-      <c r="D177" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>2456</v>
-      </c>
-      <c r="B178" t="s">
-        <v>194</v>
-      </c>
-      <c r="C178" t="s">
-        <v>159</v>
-      </c>
-      <c r="D178" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>2457</v>
-      </c>
-      <c r="B179" t="s">
-        <v>195</v>
-      </c>
-      <c r="C179" t="s">
-        <v>159</v>
-      </c>
-      <c r="D179" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>2458</v>
-      </c>
-      <c r="B180" t="s">
-        <v>196</v>
-      </c>
-      <c r="C180" t="s">
-        <v>159</v>
-      </c>
-      <c r="D180" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>2459</v>
-      </c>
-      <c r="B181" t="s">
-        <v>197</v>
-      </c>
-      <c r="C181" t="s">
-        <v>159</v>
-      </c>
-      <c r="D181" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>2460</v>
-      </c>
-      <c r="B182" t="s">
-        <v>183</v>
-      </c>
-      <c r="C182" t="s">
-        <v>159</v>
-      </c>
-      <c r="D182" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>2461</v>
-      </c>
-      <c r="B183" t="s">
-        <v>198</v>
-      </c>
-      <c r="C183" t="s">
-        <v>159</v>
-      </c>
-      <c r="D183" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>2462</v>
-      </c>
-      <c r="B184" t="s">
-        <v>199</v>
-      </c>
-      <c r="C184" t="s">
-        <v>159</v>
-      </c>
-      <c r="D184" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>2463</v>
-      </c>
-      <c r="B185" t="s">
-        <v>200</v>
-      </c>
-      <c r="C185" t="s">
-        <v>159</v>
-      </c>
-      <c r="D185" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>2464</v>
-      </c>
-      <c r="B186" t="s">
-        <v>201</v>
-      </c>
-      <c r="C186" t="s">
-        <v>159</v>
-      </c>
-      <c r="D186" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>2465</v>
-      </c>
-      <c r="B187" t="s">
-        <v>194</v>
-      </c>
-      <c r="C187" t="s">
-        <v>159</v>
-      </c>
-      <c r="D187" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>2466</v>
-      </c>
-      <c r="B188" t="s">
-        <v>195</v>
-      </c>
-      <c r="C188" t="s">
-        <v>159</v>
-      </c>
-      <c r="D188" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>2467</v>
-      </c>
-      <c r="B189" t="s">
-        <v>196</v>
-      </c>
-      <c r="C189" t="s">
-        <v>159</v>
-      </c>
-      <c r="D189" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>2468</v>
-      </c>
-      <c r="B190" t="s">
-        <v>197</v>
-      </c>
-      <c r="C190" t="s">
-        <v>159</v>
-      </c>
-      <c r="D190" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>2469</v>
-      </c>
-      <c r="B191" t="s">
-        <v>183</v>
-      </c>
-      <c r="C191" t="s">
-        <v>159</v>
-      </c>
-      <c r="D191" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>2470</v>
-      </c>
-      <c r="B192" t="s">
-        <v>198</v>
-      </c>
-      <c r="C192" t="s">
-        <v>159</v>
-      </c>
-      <c r="D192" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>2471</v>
-      </c>
-      <c r="B193" t="s">
-        <v>199</v>
-      </c>
-      <c r="C193" t="s">
-        <v>159</v>
-      </c>
-      <c r="D193" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>2472</v>
-      </c>
-      <c r="B194" t="s">
-        <v>200</v>
-      </c>
-      <c r="C194" t="s">
-        <v>159</v>
-      </c>
-      <c r="D194" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>2473</v>
-      </c>
-      <c r="B195" t="s">
-        <v>201</v>
-      </c>
-      <c r="C195" t="s">
-        <v>159</v>
-      </c>
-      <c r="D195" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>2474</v>
-      </c>
-      <c r="B196" t="s">
-        <v>194</v>
-      </c>
-      <c r="C196" t="s">
-        <v>159</v>
-      </c>
-      <c r="D196" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>2475</v>
-      </c>
-      <c r="B197" t="s">
-        <v>195</v>
-      </c>
-      <c r="C197" t="s">
-        <v>159</v>
-      </c>
-      <c r="D197" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>2476</v>
-      </c>
-      <c r="B198" t="s">
-        <v>196</v>
-      </c>
-      <c r="C198" t="s">
-        <v>159</v>
-      </c>
-      <c r="D198" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>2477</v>
-      </c>
-      <c r="B199" t="s">
-        <v>197</v>
-      </c>
-      <c r="C199" t="s">
-        <v>159</v>
-      </c>
-      <c r="D199" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>2478</v>
-      </c>
-      <c r="B200" t="s">
-        <v>183</v>
-      </c>
-      <c r="C200" t="s">
-        <v>159</v>
-      </c>
-      <c r="D200" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>2479</v>
-      </c>
-      <c r="B201" t="s">
-        <v>198</v>
-      </c>
-      <c r="C201" t="s">
-        <v>159</v>
-      </c>
-      <c r="D201" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>2480</v>
-      </c>
-      <c r="B202" t="s">
-        <v>199</v>
-      </c>
-      <c r="C202" t="s">
-        <v>159</v>
-      </c>
-      <c r="D202" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>2481</v>
-      </c>
-      <c r="B203" t="s">
-        <v>200</v>
-      </c>
-      <c r="C203" t="s">
-        <v>159</v>
-      </c>
-      <c r="D203" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>2482</v>
-      </c>
-      <c r="B204" t="s">
-        <v>201</v>
-      </c>
-      <c r="C204" t="s">
-        <v>159</v>
-      </c>
-      <c r="D204" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>2483</v>
-      </c>
-      <c r="B205" t="s">
-        <v>194</v>
-      </c>
-      <c r="C205" t="s">
-        <v>159</v>
-      </c>
-      <c r="D205" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>2484</v>
-      </c>
-      <c r="B206" t="s">
-        <v>195</v>
-      </c>
-      <c r="C206" t="s">
-        <v>159</v>
-      </c>
-      <c r="D206" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>2485</v>
-      </c>
-      <c r="B207" t="s">
-        <v>196</v>
-      </c>
-      <c r="C207" t="s">
-        <v>159</v>
-      </c>
-      <c r="D207" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>2486</v>
-      </c>
-      <c r="B208" t="s">
-        <v>197</v>
-      </c>
-      <c r="C208" t="s">
-        <v>159</v>
-      </c>
-      <c r="D208" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>2487</v>
-      </c>
-      <c r="B209" t="s">
-        <v>183</v>
-      </c>
-      <c r="C209" t="s">
-        <v>159</v>
-      </c>
-      <c r="D209" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>2488</v>
-      </c>
-      <c r="B210" t="s">
-        <v>198</v>
-      </c>
-      <c r="C210" t="s">
-        <v>159</v>
-      </c>
-      <c r="D210" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>2489</v>
-      </c>
-      <c r="B211" t="s">
-        <v>199</v>
-      </c>
-      <c r="C211" t="s">
-        <v>159</v>
-      </c>
-      <c r="D211" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>2490</v>
-      </c>
-      <c r="B212" t="s">
-        <v>200</v>
-      </c>
-      <c r="C212" t="s">
-        <v>159</v>
-      </c>
-      <c r="D212" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>2491</v>
-      </c>
-      <c r="B213" t="s">
-        <v>201</v>
-      </c>
-      <c r="C213" t="s">
-        <v>159</v>
-      </c>
-      <c r="D213" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -11589,10 +10776,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209EB290-E984-4CA7-9281-0E76135DBB3C}">
-  <dimension ref="B1:O329"/>
+  <dimension ref="B1:T329"/>
   <sheetViews>
-    <sheetView topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:O213"/>
+    <sheetView topLeftCell="E74" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:T128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11603,9 +10790,13 @@
     <col min="5" max="5" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>2238</v>
       </c>
@@ -11621,8 +10812,11 @@
       <c r="L1" s="3" t="s">
         <v>2492</v>
       </c>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1910</v>
       </c>
@@ -11659,8 +10853,20 @@
       <c r="O2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q2" t="s">
+        <v>2494</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2495</v>
+      </c>
+      <c r="S2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1911</v>
       </c>
@@ -11697,8 +10903,20 @@
       <c r="O3" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q3" t="s">
+        <v>2496</v>
+      </c>
+      <c r="R3" t="s">
+        <v>2497</v>
+      </c>
+      <c r="S3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1912</v>
       </c>
@@ -11735,8 +10953,20 @@
       <c r="O4" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q4" t="s">
+        <v>2498</v>
+      </c>
+      <c r="R4" t="s">
+        <v>2495</v>
+      </c>
+      <c r="S4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1913</v>
       </c>
@@ -11773,8 +11003,20 @@
       <c r="O5" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q5" t="s">
+        <v>2499</v>
+      </c>
+      <c r="R5" t="s">
+        <v>2497</v>
+      </c>
+      <c r="S5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1914</v>
       </c>
@@ -11811,8 +11053,20 @@
       <c r="O6" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q6" t="s">
+        <v>2500</v>
+      </c>
+      <c r="R6" t="s">
+        <v>2495</v>
+      </c>
+      <c r="S6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>1915</v>
       </c>
@@ -11849,8 +11103,20 @@
       <c r="O7" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q7" t="s">
+        <v>2501</v>
+      </c>
+      <c r="R7" t="s">
+        <v>2497</v>
+      </c>
+      <c r="S7" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>1916</v>
       </c>
@@ -11887,8 +11153,20 @@
       <c r="O8" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q8" t="s">
+        <v>2502</v>
+      </c>
+      <c r="R8" t="s">
+        <v>2495</v>
+      </c>
+      <c r="S8" t="s">
+        <v>48</v>
+      </c>
+      <c r="T8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>1917</v>
       </c>
@@ -11925,8 +11203,20 @@
       <c r="O9" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q9" t="s">
+        <v>2503</v>
+      </c>
+      <c r="R9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="S9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>1918</v>
       </c>
@@ -11963,8 +11253,20 @@
       <c r="O10" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q10" t="s">
+        <v>2504</v>
+      </c>
+      <c r="R10" t="s">
+        <v>2495</v>
+      </c>
+      <c r="S10" t="s">
+        <v>48</v>
+      </c>
+      <c r="T10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>1919</v>
       </c>
@@ -12001,8 +11303,20 @@
       <c r="O11" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q11" t="s">
+        <v>2505</v>
+      </c>
+      <c r="R11" t="s">
+        <v>2497</v>
+      </c>
+      <c r="S11" t="s">
+        <v>48</v>
+      </c>
+      <c r="T11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>1920</v>
       </c>
@@ -12039,8 +11353,20 @@
       <c r="O12" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q12" t="s">
+        <v>2506</v>
+      </c>
+      <c r="R12" t="s">
+        <v>2495</v>
+      </c>
+      <c r="S12" t="s">
+        <v>48</v>
+      </c>
+      <c r="T12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>1921</v>
       </c>
@@ -12077,8 +11403,20 @@
       <c r="O13" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q13" t="s">
+        <v>2507</v>
+      </c>
+      <c r="R13" t="s">
+        <v>2497</v>
+      </c>
+      <c r="S13" t="s">
+        <v>48</v>
+      </c>
+      <c r="T13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>1922</v>
       </c>
@@ -12115,8 +11453,20 @@
       <c r="O14" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q14" t="s">
+        <v>2508</v>
+      </c>
+      <c r="R14" t="s">
+        <v>2495</v>
+      </c>
+      <c r="S14" t="s">
+        <v>48</v>
+      </c>
+      <c r="T14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>1923</v>
       </c>
@@ -12153,8 +11503,20 @@
       <c r="O15" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q15" t="s">
+        <v>2509</v>
+      </c>
+      <c r="R15" t="s">
+        <v>2497</v>
+      </c>
+      <c r="S15" t="s">
+        <v>48</v>
+      </c>
+      <c r="T15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>1924</v>
       </c>
@@ -12191,8 +11553,20 @@
       <c r="O16" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q16" t="s">
+        <v>2510</v>
+      </c>
+      <c r="R16" t="s">
+        <v>2511</v>
+      </c>
+      <c r="S16" t="s">
+        <v>2512</v>
+      </c>
+      <c r="T16" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>1925</v>
       </c>
@@ -12229,8 +11603,20 @@
       <c r="O17" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q17" t="s">
+        <v>2514</v>
+      </c>
+      <c r="R17" t="s">
+        <v>2511</v>
+      </c>
+      <c r="S17" t="s">
+        <v>2512</v>
+      </c>
+      <c r="T17" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>1926</v>
       </c>
@@ -12267,8 +11653,20 @@
       <c r="O18" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q18" t="s">
+        <v>2516</v>
+      </c>
+      <c r="R18" t="s">
+        <v>2511</v>
+      </c>
+      <c r="S18" t="s">
+        <v>2512</v>
+      </c>
+      <c r="T18" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>1927</v>
       </c>
@@ -12305,8 +11703,20 @@
       <c r="O19" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q19" t="s">
+        <v>2518</v>
+      </c>
+      <c r="R19" t="s">
+        <v>2511</v>
+      </c>
+      <c r="S19" t="s">
+        <v>2512</v>
+      </c>
+      <c r="T19" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>1928</v>
       </c>
@@ -12343,8 +11753,20 @@
       <c r="O20" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q20" t="s">
+        <v>2520</v>
+      </c>
+      <c r="R20" t="s">
+        <v>2511</v>
+      </c>
+      <c r="S20" t="s">
+        <v>2512</v>
+      </c>
+      <c r="T20" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>1929</v>
       </c>
@@ -12381,8 +11803,20 @@
       <c r="O21" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q21" t="s">
+        <v>2522</v>
+      </c>
+      <c r="R21" t="s">
+        <v>2511</v>
+      </c>
+      <c r="S21" t="s">
+        <v>2512</v>
+      </c>
+      <c r="T21" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>1930</v>
       </c>
@@ -12419,8 +11853,20 @@
       <c r="O22" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q22" t="s">
+        <v>2524</v>
+      </c>
+      <c r="R22" t="s">
+        <v>2511</v>
+      </c>
+      <c r="S22" t="s">
+        <v>2512</v>
+      </c>
+      <c r="T22" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>1931</v>
       </c>
@@ -12457,8 +11903,20 @@
       <c r="O23" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q23" t="s">
+        <v>2526</v>
+      </c>
+      <c r="R23" t="s">
+        <v>2511</v>
+      </c>
+      <c r="S23" t="s">
+        <v>2512</v>
+      </c>
+      <c r="T23" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>1932</v>
       </c>
@@ -12495,8 +11953,20 @@
       <c r="O24" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q24" t="s">
+        <v>2528</v>
+      </c>
+      <c r="R24" t="s">
+        <v>2511</v>
+      </c>
+      <c r="S24" t="s">
+        <v>2512</v>
+      </c>
+      <c r="T24" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>1933</v>
       </c>
@@ -12533,8 +12003,20 @@
       <c r="O25" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q25" t="s">
+        <v>2530</v>
+      </c>
+      <c r="R25" t="s">
+        <v>2511</v>
+      </c>
+      <c r="S25" t="s">
+        <v>2512</v>
+      </c>
+      <c r="T25" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>1934</v>
       </c>
@@ -12571,8 +12053,20 @@
       <c r="O26" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q26" t="s">
+        <v>2532</v>
+      </c>
+      <c r="R26" t="s">
+        <v>2511</v>
+      </c>
+      <c r="S26" t="s">
+        <v>2512</v>
+      </c>
+      <c r="T26" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>1935</v>
       </c>
@@ -12609,8 +12103,20 @@
       <c r="O27" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q27" t="s">
+        <v>2534</v>
+      </c>
+      <c r="R27" t="s">
+        <v>2511</v>
+      </c>
+      <c r="S27" t="s">
+        <v>2512</v>
+      </c>
+      <c r="T27" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>1936</v>
       </c>
@@ -12647,8 +12153,20 @@
       <c r="O28" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q28" t="s">
+        <v>2536</v>
+      </c>
+      <c r="R28" t="s">
+        <v>2511</v>
+      </c>
+      <c r="S28" t="s">
+        <v>2512</v>
+      </c>
+      <c r="T28" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>1937</v>
       </c>
@@ -12685,8 +12203,20 @@
       <c r="O29" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q29" t="s">
+        <v>2538</v>
+      </c>
+      <c r="R29" t="s">
+        <v>2539</v>
+      </c>
+      <c r="S29" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T29" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>1938</v>
       </c>
@@ -12723,8 +12253,20 @@
       <c r="O30" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q30" t="s">
+        <v>2542</v>
+      </c>
+      <c r="R30" t="s">
+        <v>2543</v>
+      </c>
+      <c r="S30" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T30" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>1939</v>
       </c>
@@ -12761,8 +12303,20 @@
       <c r="O31" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q31" t="s">
+        <v>2544</v>
+      </c>
+      <c r="R31" t="s">
+        <v>2545</v>
+      </c>
+      <c r="S31" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T31" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>1940</v>
       </c>
@@ -12799,8 +12353,20 @@
       <c r="O32" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q32" t="s">
+        <v>2546</v>
+      </c>
+      <c r="R32" t="s">
+        <v>2547</v>
+      </c>
+      <c r="S32" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T32" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>1941</v>
       </c>
@@ -12837,8 +12403,20 @@
       <c r="O33" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q33" t="s">
+        <v>2548</v>
+      </c>
+      <c r="R33" t="s">
+        <v>2549</v>
+      </c>
+      <c r="S33" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T33" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>1942</v>
       </c>
@@ -12875,8 +12453,20 @@
       <c r="O34" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q34" t="s">
+        <v>2550</v>
+      </c>
+      <c r="R34" t="s">
+        <v>2551</v>
+      </c>
+      <c r="S34" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T34" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>1943</v>
       </c>
@@ -12913,8 +12503,20 @@
       <c r="O35" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q35" t="s">
+        <v>2552</v>
+      </c>
+      <c r="R35" t="s">
+        <v>2553</v>
+      </c>
+      <c r="S35" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T35" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>1944</v>
       </c>
@@ -12951,8 +12553,20 @@
       <c r="O36" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q36" t="s">
+        <v>2554</v>
+      </c>
+      <c r="R36" t="s">
+        <v>2555</v>
+      </c>
+      <c r="S36" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T36" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>1945</v>
       </c>
@@ -12989,8 +12603,20 @@
       <c r="O37" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q37" t="s">
+        <v>2556</v>
+      </c>
+      <c r="R37" t="s">
+        <v>2539</v>
+      </c>
+      <c r="S37" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T37" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>1946</v>
       </c>
@@ -13027,8 +12653,20 @@
       <c r="O38" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q38" t="s">
+        <v>2558</v>
+      </c>
+      <c r="R38" t="s">
+        <v>2543</v>
+      </c>
+      <c r="S38" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T38" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>1947</v>
       </c>
@@ -13065,8 +12703,20 @@
       <c r="O39" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q39" t="s">
+        <v>2559</v>
+      </c>
+      <c r="R39" t="s">
+        <v>2545</v>
+      </c>
+      <c r="S39" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T39" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>1948</v>
       </c>
@@ -13103,8 +12753,20 @@
       <c r="O40" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q40" t="s">
+        <v>2560</v>
+      </c>
+      <c r="R40" t="s">
+        <v>2547</v>
+      </c>
+      <c r="S40" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T40" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>1949</v>
       </c>
@@ -13141,8 +12803,20 @@
       <c r="O41" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q41" t="s">
+        <v>2561</v>
+      </c>
+      <c r="R41" t="s">
+        <v>2549</v>
+      </c>
+      <c r="S41" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T41" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>1950</v>
       </c>
@@ -13167,8 +12841,20 @@
       <c r="O42" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q42" t="s">
+        <v>2562</v>
+      </c>
+      <c r="R42" t="s">
+        <v>2551</v>
+      </c>
+      <c r="S42" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T42" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>1951</v>
       </c>
@@ -13193,8 +12879,20 @@
       <c r="O43" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q43" t="s">
+        <v>2563</v>
+      </c>
+      <c r="R43" t="s">
+        <v>2553</v>
+      </c>
+      <c r="S43" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T43" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>1952</v>
       </c>
@@ -13219,8 +12917,20 @@
       <c r="O44" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q44" t="s">
+        <v>2564</v>
+      </c>
+      <c r="R44" t="s">
+        <v>2555</v>
+      </c>
+      <c r="S44" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T44" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>1953</v>
       </c>
@@ -13245,8 +12955,20 @@
       <c r="O45" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q45" t="s">
+        <v>2565</v>
+      </c>
+      <c r="R45" t="s">
+        <v>2539</v>
+      </c>
+      <c r="S45" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T45" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>1954</v>
       </c>
@@ -13271,8 +12993,20 @@
       <c r="O46" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q46" t="s">
+        <v>2566</v>
+      </c>
+      <c r="R46" t="s">
+        <v>2543</v>
+      </c>
+      <c r="S46" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T46" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>1955</v>
       </c>
@@ -13297,8 +13031,20 @@
       <c r="O47" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q47" t="s">
+        <v>2567</v>
+      </c>
+      <c r="R47" t="s">
+        <v>2545</v>
+      </c>
+      <c r="S47" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T47" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>1956</v>
       </c>
@@ -13323,8 +13069,20 @@
       <c r="O48" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q48" t="s">
+        <v>2568</v>
+      </c>
+      <c r="R48" t="s">
+        <v>2547</v>
+      </c>
+      <c r="S48" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T48" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>1957</v>
       </c>
@@ -13349,8 +13107,20 @@
       <c r="O49" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q49" t="s">
+        <v>2569</v>
+      </c>
+      <c r="R49" t="s">
+        <v>2549</v>
+      </c>
+      <c r="S49" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T49" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>1958</v>
       </c>
@@ -13375,8 +13145,20 @@
       <c r="O50" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q50" t="s">
+        <v>2570</v>
+      </c>
+      <c r="R50" t="s">
+        <v>2551</v>
+      </c>
+      <c r="S50" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T50" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>1959</v>
       </c>
@@ -13401,8 +13183,20 @@
       <c r="O51" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q51" t="s">
+        <v>2571</v>
+      </c>
+      <c r="R51" t="s">
+        <v>2553</v>
+      </c>
+      <c r="S51" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T51" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>1960</v>
       </c>
@@ -13427,8 +13221,20 @@
       <c r="O52" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q52" t="s">
+        <v>2572</v>
+      </c>
+      <c r="R52" t="s">
+        <v>2555</v>
+      </c>
+      <c r="S52" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T52" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>1961</v>
       </c>
@@ -13453,8 +13259,20 @@
       <c r="O53" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q53" t="s">
+        <v>2573</v>
+      </c>
+      <c r="R53" t="s">
+        <v>2539</v>
+      </c>
+      <c r="S53" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T53" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>1962</v>
       </c>
@@ -13479,8 +13297,20 @@
       <c r="O54" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q54" t="s">
+        <v>2574</v>
+      </c>
+      <c r="R54" t="s">
+        <v>2543</v>
+      </c>
+      <c r="S54" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T54" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>1963</v>
       </c>
@@ -13505,8 +13335,20 @@
       <c r="O55" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q55" t="s">
+        <v>2575</v>
+      </c>
+      <c r="R55" t="s">
+        <v>2545</v>
+      </c>
+      <c r="S55" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T55" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>1964</v>
       </c>
@@ -13531,8 +13373,20 @@
       <c r="O56" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q56" t="s">
+        <v>2576</v>
+      </c>
+      <c r="R56" t="s">
+        <v>2547</v>
+      </c>
+      <c r="S56" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T56" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>1965</v>
       </c>
@@ -13557,8 +13411,20 @@
       <c r="O57" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q57" t="s">
+        <v>2577</v>
+      </c>
+      <c r="R57" t="s">
+        <v>2549</v>
+      </c>
+      <c r="S57" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T57" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>1966</v>
       </c>
@@ -13583,8 +13449,20 @@
       <c r="O58" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q58" t="s">
+        <v>2578</v>
+      </c>
+      <c r="R58" t="s">
+        <v>2551</v>
+      </c>
+      <c r="S58" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T58" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>1967</v>
       </c>
@@ -13609,8 +13487,20 @@
       <c r="O59" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q59" t="s">
+        <v>2579</v>
+      </c>
+      <c r="R59" t="s">
+        <v>2553</v>
+      </c>
+      <c r="S59" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T59" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>1968</v>
       </c>
@@ -13635,8 +13525,20 @@
       <c r="O60" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q60" t="s">
+        <v>2580</v>
+      </c>
+      <c r="R60" t="s">
+        <v>2555</v>
+      </c>
+      <c r="S60" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T60" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>1969</v>
       </c>
@@ -13661,8 +13563,20 @@
       <c r="O61" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q61" t="s">
+        <v>2581</v>
+      </c>
+      <c r="R61" t="s">
+        <v>2539</v>
+      </c>
+      <c r="S61" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T61" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>1970</v>
       </c>
@@ -13687,8 +13601,20 @@
       <c r="O62" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q62" t="s">
+        <v>2582</v>
+      </c>
+      <c r="R62" t="s">
+        <v>2543</v>
+      </c>
+      <c r="S62" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T62" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>1971</v>
       </c>
@@ -13713,8 +13639,20 @@
       <c r="O63" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q63" t="s">
+        <v>2583</v>
+      </c>
+      <c r="R63" t="s">
+        <v>2545</v>
+      </c>
+      <c r="S63" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T63" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>1972</v>
       </c>
@@ -13739,8 +13677,20 @@
       <c r="O64" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q64" t="s">
+        <v>2584</v>
+      </c>
+      <c r="R64" t="s">
+        <v>2547</v>
+      </c>
+      <c r="S64" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T64" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>1973</v>
       </c>
@@ -13765,8 +13715,20 @@
       <c r="O65" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q65" t="s">
+        <v>2585</v>
+      </c>
+      <c r="R65" t="s">
+        <v>2549</v>
+      </c>
+      <c r="S65" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T65" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>1974</v>
       </c>
@@ -13791,8 +13753,20 @@
       <c r="O66" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q66" t="s">
+        <v>2587</v>
+      </c>
+      <c r="R66" t="s">
+        <v>2551</v>
+      </c>
+      <c r="S66" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T66" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>1975</v>
       </c>
@@ -13817,8 +13791,20 @@
       <c r="O67" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q67" t="s">
+        <v>2588</v>
+      </c>
+      <c r="R67" t="s">
+        <v>2553</v>
+      </c>
+      <c r="S67" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T67" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>1976</v>
       </c>
@@ -13843,8 +13829,20 @@
       <c r="O68" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q68" t="s">
+        <v>2589</v>
+      </c>
+      <c r="R68" t="s">
+        <v>2555</v>
+      </c>
+      <c r="S68" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T68" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>1977</v>
       </c>
@@ -13869,8 +13867,20 @@
       <c r="O69" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q69" t="s">
+        <v>2590</v>
+      </c>
+      <c r="R69" t="s">
+        <v>2539</v>
+      </c>
+      <c r="S69" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T69" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>1978</v>
       </c>
@@ -13895,8 +13905,20 @@
       <c r="O70" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q70" t="s">
+        <v>2591</v>
+      </c>
+      <c r="R70" t="s">
+        <v>2543</v>
+      </c>
+      <c r="S70" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T70" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>1979</v>
       </c>
@@ -13921,8 +13943,20 @@
       <c r="O71" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q71" t="s">
+        <v>2592</v>
+      </c>
+      <c r="R71" t="s">
+        <v>2545</v>
+      </c>
+      <c r="S71" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T71" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>1980</v>
       </c>
@@ -13947,8 +13981,20 @@
       <c r="O72" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q72" t="s">
+        <v>2593</v>
+      </c>
+      <c r="R72" t="s">
+        <v>2547</v>
+      </c>
+      <c r="S72" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T72" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>1981</v>
       </c>
@@ -13973,8 +14019,20 @@
       <c r="O73" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q73" t="s">
+        <v>2594</v>
+      </c>
+      <c r="R73" t="s">
+        <v>2549</v>
+      </c>
+      <c r="S73" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T73" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>1982</v>
       </c>
@@ -13999,8 +14057,20 @@
       <c r="O74" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q74" t="s">
+        <v>2595</v>
+      </c>
+      <c r="R74" t="s">
+        <v>2551</v>
+      </c>
+      <c r="S74" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T74" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>1983</v>
       </c>
@@ -14025,8 +14095,20 @@
       <c r="O75" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q75" t="s">
+        <v>2596</v>
+      </c>
+      <c r="R75" t="s">
+        <v>2553</v>
+      </c>
+      <c r="S75" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T75" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>1984</v>
       </c>
@@ -14051,8 +14133,20 @@
       <c r="O76" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q76" t="s">
+        <v>2597</v>
+      </c>
+      <c r="R76" t="s">
+        <v>2555</v>
+      </c>
+      <c r="S76" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T76" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>1985</v>
       </c>
@@ -14077,8 +14171,20 @@
       <c r="O77" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q77" t="s">
+        <v>2598</v>
+      </c>
+      <c r="R77" t="s">
+        <v>2539</v>
+      </c>
+      <c r="S77" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T77" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>1986</v>
       </c>
@@ -14103,8 +14209,20 @@
       <c r="O78" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q78" t="s">
+        <v>2599</v>
+      </c>
+      <c r="R78" t="s">
+        <v>2543</v>
+      </c>
+      <c r="S78" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T78" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>1987</v>
       </c>
@@ -14129,8 +14247,20 @@
       <c r="O79" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q79" t="s">
+        <v>2600</v>
+      </c>
+      <c r="R79" t="s">
+        <v>2545</v>
+      </c>
+      <c r="S79" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T79" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>1988</v>
       </c>
@@ -14155,8 +14285,20 @@
       <c r="O80" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q80" t="s">
+        <v>2601</v>
+      </c>
+      <c r="R80" t="s">
+        <v>2547</v>
+      </c>
+      <c r="S80" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T80" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>1989</v>
       </c>
@@ -14181,8 +14323,20 @@
       <c r="O81" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q81" t="s">
+        <v>2602</v>
+      </c>
+      <c r="R81" t="s">
+        <v>2549</v>
+      </c>
+      <c r="S81" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T81" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>1990</v>
       </c>
@@ -14207,8 +14361,20 @@
       <c r="O82" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q82" t="s">
+        <v>2603</v>
+      </c>
+      <c r="R82" t="s">
+        <v>2551</v>
+      </c>
+      <c r="S82" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T82" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>1991</v>
       </c>
@@ -14233,8 +14399,20 @@
       <c r="O83" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q83" t="s">
+        <v>2604</v>
+      </c>
+      <c r="R83" t="s">
+        <v>2553</v>
+      </c>
+      <c r="S83" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T83" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>1992</v>
       </c>
@@ -14259,8 +14437,20 @@
       <c r="O84" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q84" t="s">
+        <v>2605</v>
+      </c>
+      <c r="R84" t="s">
+        <v>2555</v>
+      </c>
+      <c r="S84" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T84" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>1993</v>
       </c>
@@ -14285,8 +14475,20 @@
       <c r="O85" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q85" t="s">
+        <v>2606</v>
+      </c>
+      <c r="R85" t="s">
+        <v>2607</v>
+      </c>
+      <c r="S85" t="s">
+        <v>2608</v>
+      </c>
+      <c r="T85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>1994</v>
       </c>
@@ -14311,8 +14513,20 @@
       <c r="O86" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q86" t="s">
+        <v>2609</v>
+      </c>
+      <c r="R86" t="s">
+        <v>2610</v>
+      </c>
+      <c r="S86" t="s">
+        <v>2611</v>
+      </c>
+      <c r="T86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>1995</v>
       </c>
@@ -14337,8 +14551,20 @@
       <c r="O87" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q87" t="s">
+        <v>2612</v>
+      </c>
+      <c r="R87" t="s">
+        <v>2607</v>
+      </c>
+      <c r="S87" t="s">
+        <v>2608</v>
+      </c>
+      <c r="T87" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>1996</v>
       </c>
@@ -14363,8 +14589,20 @@
       <c r="O88" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q88" t="s">
+        <v>2613</v>
+      </c>
+      <c r="R88" t="s">
+        <v>2610</v>
+      </c>
+      <c r="S88" t="s">
+        <v>2611</v>
+      </c>
+      <c r="T88" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>1997</v>
       </c>
@@ -14389,8 +14627,20 @@
       <c r="O89" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q89" t="s">
+        <v>2614</v>
+      </c>
+      <c r="R89" t="s">
+        <v>2607</v>
+      </c>
+      <c r="S89" t="s">
+        <v>2608</v>
+      </c>
+      <c r="T89" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>1998</v>
       </c>
@@ -14415,8 +14665,20 @@
       <c r="O90" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q90" t="s">
+        <v>2615</v>
+      </c>
+      <c r="R90" t="s">
+        <v>2610</v>
+      </c>
+      <c r="S90" t="s">
+        <v>2611</v>
+      </c>
+      <c r="T90" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>1999</v>
       </c>
@@ -14441,8 +14703,20 @@
       <c r="O91" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q91" t="s">
+        <v>2616</v>
+      </c>
+      <c r="R91" t="s">
+        <v>2607</v>
+      </c>
+      <c r="S91" t="s">
+        <v>2608</v>
+      </c>
+      <c r="T91" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>2000</v>
       </c>
@@ -14467,8 +14741,20 @@
       <c r="O92" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q92" t="s">
+        <v>2617</v>
+      </c>
+      <c r="R92" t="s">
+        <v>2610</v>
+      </c>
+      <c r="S92" t="s">
+        <v>2611</v>
+      </c>
+      <c r="T92" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>2001</v>
       </c>
@@ -14493,8 +14779,20 @@
       <c r="O93" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q93" t="s">
+        <v>2618</v>
+      </c>
+      <c r="R93" t="s">
+        <v>2607</v>
+      </c>
+      <c r="S93" t="s">
+        <v>2608</v>
+      </c>
+      <c r="T93" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>2002</v>
       </c>
@@ -14519,8 +14817,20 @@
       <c r="O94" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q94" t="s">
+        <v>2619</v>
+      </c>
+      <c r="R94" t="s">
+        <v>2610</v>
+      </c>
+      <c r="S94" t="s">
+        <v>2611</v>
+      </c>
+      <c r="T94" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="95" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>2003</v>
       </c>
@@ -14545,8 +14855,20 @@
       <c r="O95" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q95" t="s">
+        <v>2620</v>
+      </c>
+      <c r="R95" t="s">
+        <v>2607</v>
+      </c>
+      <c r="S95" t="s">
+        <v>2608</v>
+      </c>
+      <c r="T95" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>2004</v>
       </c>
@@ -14571,8 +14893,20 @@
       <c r="O96" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q96" t="s">
+        <v>2621</v>
+      </c>
+      <c r="R96" t="s">
+        <v>2610</v>
+      </c>
+      <c r="S96" t="s">
+        <v>2611</v>
+      </c>
+      <c r="T96" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="97" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>2005</v>
       </c>
@@ -14597,8 +14931,20 @@
       <c r="O97" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q97" t="s">
+        <v>2622</v>
+      </c>
+      <c r="R97" t="s">
+        <v>2607</v>
+      </c>
+      <c r="S97" t="s">
+        <v>2608</v>
+      </c>
+      <c r="T97" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>2006</v>
       </c>
@@ -14623,8 +14969,20 @@
       <c r="O98" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q98" t="s">
+        <v>2623</v>
+      </c>
+      <c r="R98" t="s">
+        <v>2610</v>
+      </c>
+      <c r="S98" t="s">
+        <v>2611</v>
+      </c>
+      <c r="T98" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="99" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>2007</v>
       </c>
@@ -14649,8 +15007,20 @@
       <c r="O99" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q99" t="s">
+        <v>2624</v>
+      </c>
+      <c r="R99" t="s">
+        <v>2625</v>
+      </c>
+      <c r="S99" t="s">
+        <v>2626</v>
+      </c>
+      <c r="T99" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="100" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>2008</v>
       </c>
@@ -14675,8 +15045,20 @@
       <c r="O100" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q100" t="s">
+        <v>2627</v>
+      </c>
+      <c r="R100" t="s">
+        <v>2628</v>
+      </c>
+      <c r="S100" t="s">
+        <v>2626</v>
+      </c>
+      <c r="T100" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="101" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>2009</v>
       </c>
@@ -14701,8 +15083,20 @@
       <c r="O101" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q101" t="s">
+        <v>2629</v>
+      </c>
+      <c r="R101" t="s">
+        <v>2625</v>
+      </c>
+      <c r="S101" t="s">
+        <v>2626</v>
+      </c>
+      <c r="T101" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="102" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>2010</v>
       </c>
@@ -14727,8 +15121,20 @@
       <c r="O102" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q102" t="s">
+        <v>2630</v>
+      </c>
+      <c r="R102" t="s">
+        <v>2628</v>
+      </c>
+      <c r="S102" t="s">
+        <v>2626</v>
+      </c>
+      <c r="T102" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="103" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>2011</v>
       </c>
@@ -14753,8 +15159,20 @@
       <c r="O103" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q103" t="s">
+        <v>2631</v>
+      </c>
+      <c r="R103" t="s">
+        <v>2625</v>
+      </c>
+      <c r="S103" t="s">
+        <v>2626</v>
+      </c>
+      <c r="T103" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="104" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>2012</v>
       </c>
@@ -14779,8 +15197,20 @@
       <c r="O104" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q104" t="s">
+        <v>2632</v>
+      </c>
+      <c r="R104" t="s">
+        <v>2628</v>
+      </c>
+      <c r="S104" t="s">
+        <v>2626</v>
+      </c>
+      <c r="T104" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="105" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>2013</v>
       </c>
@@ -14805,8 +15235,20 @@
       <c r="O105" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q105" t="s">
+        <v>2633</v>
+      </c>
+      <c r="R105" t="s">
+        <v>2625</v>
+      </c>
+      <c r="S105" t="s">
+        <v>2626</v>
+      </c>
+      <c r="T105" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="106" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>2014</v>
       </c>
@@ -14831,8 +15273,20 @@
       <c r="O106" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q106" t="s">
+        <v>2634</v>
+      </c>
+      <c r="R106" t="s">
+        <v>2628</v>
+      </c>
+      <c r="S106" t="s">
+        <v>2626</v>
+      </c>
+      <c r="T106" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="107" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>2015</v>
       </c>
@@ -14857,8 +15311,20 @@
       <c r="O107" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q107" t="s">
+        <v>2635</v>
+      </c>
+      <c r="R107" t="s">
+        <v>2625</v>
+      </c>
+      <c r="S107" t="s">
+        <v>2626</v>
+      </c>
+      <c r="T107" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="108" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>2016</v>
       </c>
@@ -14883,8 +15349,20 @@
       <c r="O108" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q108" t="s">
+        <v>2636</v>
+      </c>
+      <c r="R108" t="s">
+        <v>2628</v>
+      </c>
+      <c r="S108" t="s">
+        <v>2626</v>
+      </c>
+      <c r="T108" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="109" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>2017</v>
       </c>
@@ -14909,8 +15387,20 @@
       <c r="O109" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q109" t="s">
+        <v>2637</v>
+      </c>
+      <c r="R109" t="s">
+        <v>2625</v>
+      </c>
+      <c r="S109" t="s">
+        <v>2626</v>
+      </c>
+      <c r="T109" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="110" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>2018</v>
       </c>
@@ -14935,8 +15425,20 @@
       <c r="O110" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q110" t="s">
+        <v>2638</v>
+      </c>
+      <c r="R110" t="s">
+        <v>2628</v>
+      </c>
+      <c r="S110" t="s">
+        <v>2626</v>
+      </c>
+      <c r="T110" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="111" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>2019</v>
       </c>
@@ -14961,8 +15463,20 @@
       <c r="O111" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q111" t="s">
+        <v>2639</v>
+      </c>
+      <c r="R111" t="s">
+        <v>2625</v>
+      </c>
+      <c r="S111" t="s">
+        <v>2626</v>
+      </c>
+      <c r="T111" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="112" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>2020</v>
       </c>
@@ -14987,8 +15501,20 @@
       <c r="O112" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q112" t="s">
+        <v>2640</v>
+      </c>
+      <c r="R112" t="s">
+        <v>2628</v>
+      </c>
+      <c r="S112" t="s">
+        <v>2626</v>
+      </c>
+      <c r="T112" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="113" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>2021</v>
       </c>
@@ -15013,8 +15539,20 @@
       <c r="O113" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q113" t="s">
+        <v>2641</v>
+      </c>
+      <c r="R113" t="s">
+        <v>2642</v>
+      </c>
+      <c r="S113" t="s">
+        <v>159</v>
+      </c>
+      <c r="T113" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="114" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>2022</v>
       </c>
@@ -15039,8 +15577,20 @@
       <c r="O114" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q114" t="s">
+        <v>2644</v>
+      </c>
+      <c r="R114" t="s">
+        <v>2642</v>
+      </c>
+      <c r="S114" t="s">
+        <v>159</v>
+      </c>
+      <c r="T114" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="115" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>2023</v>
       </c>
@@ -15065,8 +15615,20 @@
       <c r="O115" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q115" t="s">
+        <v>2646</v>
+      </c>
+      <c r="R115" t="s">
+        <v>2642</v>
+      </c>
+      <c r="S115" t="s">
+        <v>159</v>
+      </c>
+      <c r="T115" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="116" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>2024</v>
       </c>
@@ -15091,8 +15653,20 @@
       <c r="O116" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q116" t="s">
+        <v>2648</v>
+      </c>
+      <c r="R116" t="s">
+        <v>2642</v>
+      </c>
+      <c r="S116" t="s">
+        <v>159</v>
+      </c>
+      <c r="T116" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="117" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>2025</v>
       </c>
@@ -15117,8 +15691,20 @@
       <c r="O117" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q117" t="s">
+        <v>2650</v>
+      </c>
+      <c r="R117" t="s">
+        <v>2642</v>
+      </c>
+      <c r="S117" t="s">
+        <v>159</v>
+      </c>
+      <c r="T117" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="118" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>2026</v>
       </c>
@@ -15143,8 +15729,20 @@
       <c r="O118" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="119" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q118" t="s">
+        <v>2651</v>
+      </c>
+      <c r="R118" t="s">
+        <v>2642</v>
+      </c>
+      <c r="S118" t="s">
+        <v>159</v>
+      </c>
+      <c r="T118" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="119" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>2027</v>
       </c>
@@ -15169,8 +15767,20 @@
       <c r="O119" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q119" t="s">
+        <v>2652</v>
+      </c>
+      <c r="R119" t="s">
+        <v>2642</v>
+      </c>
+      <c r="S119" t="s">
+        <v>159</v>
+      </c>
+      <c r="T119" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="120" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>2028</v>
       </c>
@@ -15195,8 +15805,20 @@
       <c r="O120" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="121" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q120" t="s">
+        <v>2653</v>
+      </c>
+      <c r="R120" t="s">
+        <v>2642</v>
+      </c>
+      <c r="S120" t="s">
+        <v>159</v>
+      </c>
+      <c r="T120" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="121" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>2029</v>
       </c>
@@ -15221,8 +15843,20 @@
       <c r="O121" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="122" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q121" t="s">
+        <v>2654</v>
+      </c>
+      <c r="R121" t="s">
+        <v>2642</v>
+      </c>
+      <c r="S121" t="s">
+        <v>159</v>
+      </c>
+      <c r="T121" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="122" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>2030</v>
       </c>
@@ -15247,8 +15881,20 @@
       <c r="O122" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="123" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q122" t="s">
+        <v>2655</v>
+      </c>
+      <c r="R122" t="s">
+        <v>2642</v>
+      </c>
+      <c r="S122" t="s">
+        <v>159</v>
+      </c>
+      <c r="T122" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="123" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>2031</v>
       </c>
@@ -15273,8 +15919,20 @@
       <c r="O123" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="124" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q123" t="s">
+        <v>2656</v>
+      </c>
+      <c r="R123" t="s">
+        <v>2642</v>
+      </c>
+      <c r="S123" t="s">
+        <v>159</v>
+      </c>
+      <c r="T123" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="124" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>2032</v>
       </c>
@@ -15299,8 +15957,20 @@
       <c r="O124" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="125" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q124" t="s">
+        <v>2657</v>
+      </c>
+      <c r="R124" t="s">
+        <v>2642</v>
+      </c>
+      <c r="S124" t="s">
+        <v>159</v>
+      </c>
+      <c r="T124" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="125" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>2033</v>
       </c>
@@ -15325,8 +15995,20 @@
       <c r="O125" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q125" t="s">
+        <v>2658</v>
+      </c>
+      <c r="R125" t="s">
+        <v>2642</v>
+      </c>
+      <c r="S125" t="s">
+        <v>159</v>
+      </c>
+      <c r="T125" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="126" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>2034</v>
       </c>
@@ -15351,8 +16033,20 @@
       <c r="O126" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="127" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q126" t="s">
+        <v>2659</v>
+      </c>
+      <c r="R126" t="s">
+        <v>2642</v>
+      </c>
+      <c r="S126" t="s">
+        <v>159</v>
+      </c>
+      <c r="T126" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="127" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>2035</v>
       </c>
@@ -15377,8 +16071,20 @@
       <c r="O127" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="128" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q127" t="s">
+        <v>2660</v>
+      </c>
+      <c r="R127" t="s">
+        <v>2642</v>
+      </c>
+      <c r="S127" t="s">
+        <v>159</v>
+      </c>
+      <c r="T127" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="128" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>2036</v>
       </c>
@@ -15402,6 +16108,18 @@
       </c>
       <c r="O128" t="s">
         <v>295</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>2661</v>
+      </c>
+      <c r="R128" t="s">
+        <v>2642</v>
+      </c>
+      <c r="S128" t="s">
+        <v>159</v>
+      </c>
+      <c r="T128" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="129" spans="2:15" x14ac:dyDescent="0.25">

--- a/Batch File/File - Tab - Cell - (start of recursive resolver) - New.xlsx
+++ b/Batch File/File - Tab - Cell - (start of recursive resolver) - New.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mordrel-my.sharepoint.com/personal/matthieu_mordrel_pro/Documents/Work/Projects/Kovera/Project 2/Scripts/Project/Batch File/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="355" documentId="8_{9249E20C-2A1A-4D5B-AF97-066FDAA15AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C49EFB6F-639A-4DA7-89AD-D4F792EE1100}"/>
+  <xr:revisionPtr revIDLastSave="365" documentId="8_{9249E20C-2A1A-4D5B-AF97-066FDAA15AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDE6FC2A-3EE8-47F2-BF46-05A07FB60F0D}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="3510" windowWidth="29040" windowHeight="15840" xr2:uid="{FB1F73C2-3A7C-4D28-BF2A-BCBC768C2592}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11389" uniqueCount="2662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10891" uniqueCount="2672">
   <si>
     <t>2022 - P1 berekening kolomkast 2137.xlsx</t>
   </si>
@@ -8046,6 +8046,36 @@
   </si>
   <si>
     <t>C141BL60KL-GDB_6</t>
+  </si>
+  <si>
+    <t>COH90CA_1</t>
+  </si>
+  <si>
+    <t>COH90CA_2</t>
+  </si>
+  <si>
+    <t>COH90CA_3</t>
+  </si>
+  <si>
+    <t>COH90CA_4</t>
+  </si>
+  <si>
+    <t>COH90CA_5</t>
+  </si>
+  <si>
+    <t>COH90CA_6</t>
+  </si>
+  <si>
+    <t>COH90CA_7</t>
+  </si>
+  <si>
+    <t>COH90CA_8</t>
+  </si>
+  <si>
+    <t>COH90CA_9</t>
+  </si>
+  <si>
+    <t>COH90CA_10</t>
   </si>
 </sst>
 </file>
@@ -8143,8 +8173,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}" name="Table2" displayName="Table2" ref="A1:D128" totalsRowShown="0">
-  <autoFilter ref="A1:D128" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}" name="Table2" displayName="Table2" ref="A1:D11" totalsRowShown="0">
+  <autoFilter ref="A1:D11" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{EAD2BB95-0271-4DE1-860E-94A419353B53}" name="Product_Id"/>
     <tableColumn id="2" xr3:uid="{42247E71-8EC0-4CEB-B24A-D3FBFE9449A8}" name="File"/>
@@ -8486,10 +8516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535C4B85-08F9-4009-85A5-566FB6CE48DF}">
-  <dimension ref="A1:O128"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8524,16 +8554,16 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2494</v>
+        <v>2662</v>
       </c>
       <c r="B2" t="s">
-        <v>2495</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>1908</v>
@@ -8541,16 +8571,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2496</v>
+        <v>2663</v>
       </c>
       <c r="B3" t="s">
-        <v>2497</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>1909</v>
@@ -8558,45 +8588,45 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2498</v>
+        <v>2664</v>
       </c>
       <c r="B4" t="s">
-        <v>2495</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G4" t="s">
         <v>1657</v>
       </c>
       <c r="H4" t="str" cm="1">
-        <f t="array" ref="H4:H41">_xlfn.BYROW(G4:G41,_xlfn.LAMBDA(_xlpm.id,_xlfn.XLOOKUP(_xlpm.id,Table3[Product_ID],Table3[File],"",0,1)))</f>
+        <f t="array" ref="H4:H11">_xlfn.BYROW(G4:G11,_xlfn.LAMBDA(_xlpm.id,_xlfn.XLOOKUP(_xlpm.id,Table3[Product_ID],Table3[File],"",0,1)))</f>
         <v>2022 -P2 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
       </c>
       <c r="I4" t="str" cm="1">
-        <f t="array" ref="I4:I41">_xlfn.BYROW(G4:G41,_xlfn.LAMBDA(_xlpm.id,_xlfn.XLOOKUP(_xlpm.id,Table3[Product_ID],Table3[Tab],"",0,1)))</f>
+        <f t="array" ref="I4:I11">_xlfn.BYROW(G4:G11,_xlfn.LAMBDA(_xlpm.id,_xlfn.XLOOKUP(_xlpm.id,Table3[Product_ID],Table3[Tab],"",0,1)))</f>
         <v>OVERZICHT PO</v>
       </c>
       <c r="O4" t="str" cm="1">
-        <f t="array" ref="O4:O41">_xlfn.BYROW(G4:G41,_xlfn.LAMBDA(_xlpm.id,_xlfn.XLOOKUP(_xlpm.id,Table3[Product_ID],Table3[Cell],"",0,1)))</f>
+        <f t="array" ref="O4:O11">_xlfn.BYROW(G4:G11,_xlfn.LAMBDA(_xlpm.id,_xlfn.XLOOKUP(_xlpm.id,Table3[Product_ID],Table3[Cell],"",0,1)))</f>
         <v>E11</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2499</v>
+        <v>2665</v>
       </c>
       <c r="B5" t="s">
-        <v>2497</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G5" t="s">
         <v>1666</v>
@@ -8613,13 +8643,13 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2500</v>
+        <v>2666</v>
       </c>
       <c r="B6" t="s">
-        <v>2495</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
         <v>272</v>
@@ -8639,13 +8669,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2501</v>
+        <v>2667</v>
       </c>
       <c r="B7" t="s">
-        <v>2497</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
         <v>272</v>
@@ -8665,16 +8695,16 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2502</v>
+        <v>2668</v>
       </c>
       <c r="B8" t="s">
-        <v>2495</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="D8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G8" t="s">
         <v>1659</v>
@@ -8691,16 +8721,16 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2503</v>
+        <v>2669</v>
       </c>
       <c r="B9" t="s">
-        <v>2497</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G9" t="s">
         <v>1667</v>
@@ -8717,16 +8747,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2504</v>
+        <v>2670</v>
       </c>
       <c r="B10" t="s">
-        <v>2495</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="D10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G10" t="s">
         <v>1660</v>
@@ -8743,16 +8773,16 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2505</v>
+        <v>2671</v>
       </c>
       <c r="B11" t="s">
-        <v>2497</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G11" t="s">
         <v>1668</v>
@@ -8765,2004 +8795,6 @@
       </c>
       <c r="O11" t="str">
         <v>F11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>2506</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2495</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>275</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1676</v>
-      </c>
-      <c r="H12" t="str">
-        <v>2022 -P3 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I12" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O12" t="str">
-        <v>G11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2507</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2497</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>275</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1669</v>
-      </c>
-      <c r="H13" t="str">
-        <v>2022 -P5 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I13" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O13" t="str">
-        <v>F11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>2508</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2495</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>276</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1661</v>
-      </c>
-      <c r="H14" t="str">
-        <v>2022 -P6 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I14" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O14" t="str">
-        <v>E11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2509</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2497</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>276</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1677</v>
-      </c>
-      <c r="H15" t="str">
-        <v>2022 -P4 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I15" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O15" t="str">
-        <v>G11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>2510</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2511</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2512</v>
-      </c>
-      <c r="D16" t="s">
-        <v>2513</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1662</v>
-      </c>
-      <c r="H16" t="str">
-        <v>2022 -P7 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I16" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O16" t="str">
-        <v>E11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>2514</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2511</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2512</v>
-      </c>
-      <c r="D17" t="s">
-        <v>2515</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1678</v>
-      </c>
-      <c r="H17" t="str">
-        <v>2022 -P5 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I17" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O17" t="str">
-        <v>G11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>2516</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2511</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2512</v>
-      </c>
-      <c r="D18" t="s">
-        <v>2517</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1670</v>
-      </c>
-      <c r="H18" t="str">
-        <v>2022 -P6 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I18" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O18" t="str">
-        <v>F11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>2518</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2511</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2512</v>
-      </c>
-      <c r="D19" t="s">
-        <v>2519</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1663</v>
-      </c>
-      <c r="H19" t="str">
-        <v>2022 -P8 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I19" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O19" t="str">
-        <v>E11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>2520</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2511</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2512</v>
-      </c>
-      <c r="D20" t="s">
-        <v>2521</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1607</v>
-      </c>
-      <c r="H20" t="str">
-        <v>2022 -P1 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I20" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O20" t="str">
-        <v>E3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>2522</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2511</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2512</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1671</v>
-      </c>
-      <c r="H21" t="str">
-        <v>2022 -P7 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I21" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O21" t="str">
-        <v>F11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>2524</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2511</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2512</v>
-      </c>
-      <c r="D22" t="s">
-        <v>2525</v>
-      </c>
-      <c r="G22" t="s">
-        <v>1608</v>
-      </c>
-      <c r="H22" t="str">
-        <v>2022 -P2 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I22" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O22" t="str">
-        <v>E3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>2526</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2511</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2512</v>
-      </c>
-      <c r="D23" t="s">
-        <v>2527</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1679</v>
-      </c>
-      <c r="H23" t="str">
-        <v>2022 -P6 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I23" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O23" t="str">
-        <v>G11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>2528</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2511</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2512</v>
-      </c>
-      <c r="D24" t="s">
-        <v>2529</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H24" t="str">
-        <v>2022 -P8 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I24" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O24" t="str">
-        <v>F11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>2530</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2511</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2512</v>
-      </c>
-      <c r="D25" t="s">
-        <v>2531</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1680</v>
-      </c>
-      <c r="H25" t="str">
-        <v>2022 -P7 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I25" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O25" t="str">
-        <v>G11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>2532</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2511</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2512</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2533</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1617</v>
-      </c>
-      <c r="H26" t="str">
-        <v>2022 -P2 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I26" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O26" t="str">
-        <v>F3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>2534</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2511</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2512</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2535</v>
-      </c>
-      <c r="G27" t="s">
-        <v>1664</v>
-      </c>
-      <c r="H27" t="str">
-        <v>2022 -P9 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I27" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O27" t="str">
-        <v>E11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>2536</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2511</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2512</v>
-      </c>
-      <c r="D28" t="s">
-        <v>2537</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1681</v>
-      </c>
-      <c r="H28" t="str">
-        <v>2022 -P8 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I28" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O28" t="str">
-        <v>G11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>2538</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2539</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D29" t="s">
-        <v>2541</v>
-      </c>
-      <c r="G29" t="s">
-        <v>1609</v>
-      </c>
-      <c r="H29" t="str">
-        <v>2022 -P3 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I29" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O29" t="str">
-        <v>E3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>2542</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2543</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D30" t="s">
-        <v>2541</v>
-      </c>
-      <c r="G30" t="s">
-        <v>1610</v>
-      </c>
-      <c r="H30" t="str">
-        <v>2022 -P4 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I30" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O30" t="str">
-        <v>E3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>2544</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2545</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D31" t="s">
-        <v>2541</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1618</v>
-      </c>
-      <c r="H31" t="str">
-        <v>2022 -P3 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I31" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O31" t="str">
-        <v>F3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>2546</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2547</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D32" t="s">
-        <v>2541</v>
-      </c>
-      <c r="G32" t="s">
-        <v>1611</v>
-      </c>
-      <c r="H32" t="str">
-        <v>2022 -P5 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I32" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O32" t="str">
-        <v>E3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>2548</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2549</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D33" t="s">
-        <v>2541</v>
-      </c>
-      <c r="G33" t="s">
-        <v>1673</v>
-      </c>
-      <c r="H33" t="str">
-        <v>2022 -P9 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I33" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O33" t="str">
-        <v>F11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>2550</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2551</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D34" t="s">
-        <v>2541</v>
-      </c>
-      <c r="G34" t="s">
-        <v>1665</v>
-      </c>
-      <c r="H34" t="str">
-        <v>2022 -P10 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I34" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O34" t="str">
-        <v>E11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>2552</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2553</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D35" t="s">
-        <v>2541</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1619</v>
-      </c>
-      <c r="H35" t="str">
-        <v>2022 -P4 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I35" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O35" t="str">
-        <v>F3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>2554</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2555</v>
-      </c>
-      <c r="C36" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D36" t="s">
-        <v>2541</v>
-      </c>
-      <c r="G36" t="s">
-        <v>1612</v>
-      </c>
-      <c r="H36" t="str">
-        <v>2022 -P6 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I36" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O36" t="str">
-        <v>E3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>2556</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2539</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D37" t="s">
-        <v>2557</v>
-      </c>
-      <c r="G37" t="s">
-        <v>1620</v>
-      </c>
-      <c r="H37" t="str">
-        <v>2022 -P5 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I37" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O37" t="str">
-        <v>F3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>2558</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2543</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D38" t="s">
-        <v>2557</v>
-      </c>
-      <c r="G38" t="s">
-        <v>1682</v>
-      </c>
-      <c r="H38" t="str">
-        <v>2022 -P9 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I38" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O38" t="str">
-        <v>G11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>2559</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2545</v>
-      </c>
-      <c r="C39" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D39" t="s">
-        <v>2557</v>
-      </c>
-      <c r="G39" t="s">
-        <v>1613</v>
-      </c>
-      <c r="H39" t="str">
-        <v>2022 -P7 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I39" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O39" t="str">
-        <v>E3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>2560</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2547</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D40" t="s">
-        <v>2557</v>
-      </c>
-      <c r="G40" t="s">
-        <v>1674</v>
-      </c>
-      <c r="H40" t="str">
-        <v>2022 -P10 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I40" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O40" t="str">
-        <v>F11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>2561</v>
-      </c>
-      <c r="B41" t="s">
-        <v>2549</v>
-      </c>
-      <c r="C41" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D41" t="s">
-        <v>2557</v>
-      </c>
-      <c r="G41" t="s">
-        <v>1614</v>
-      </c>
-      <c r="H41" t="str">
-        <v>2022 -P8 Berekening FLES-LFR - PL 794-KLEUR.xlsx</v>
-      </c>
-      <c r="I41" t="str">
-        <v>OVERZICHT PO</v>
-      </c>
-      <c r="O41" t="str">
-        <v>E3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>2562</v>
-      </c>
-      <c r="B42" t="s">
-        <v>2551</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D42" t="s">
-        <v>2557</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>2563</v>
-      </c>
-      <c r="B43" t="s">
-        <v>2553</v>
-      </c>
-      <c r="C43" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D43" t="s">
-        <v>2557</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>2564</v>
-      </c>
-      <c r="B44" t="s">
-        <v>2555</v>
-      </c>
-      <c r="C44" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D44" t="s">
-        <v>2557</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>2565</v>
-      </c>
-      <c r="B45" t="s">
-        <v>2539</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D45" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>2566</v>
-      </c>
-      <c r="B46" t="s">
-        <v>2543</v>
-      </c>
-      <c r="C46" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D46" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>2567</v>
-      </c>
-      <c r="B47" t="s">
-        <v>2545</v>
-      </c>
-      <c r="C47" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D47" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>2568</v>
-      </c>
-      <c r="B48" t="s">
-        <v>2547</v>
-      </c>
-      <c r="C48" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D48" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>2569</v>
-      </c>
-      <c r="B49" t="s">
-        <v>2549</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D49" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>2570</v>
-      </c>
-      <c r="B50" t="s">
-        <v>2551</v>
-      </c>
-      <c r="C50" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D50" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>2571</v>
-      </c>
-      <c r="B51" t="s">
-        <v>2553</v>
-      </c>
-      <c r="C51" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D51" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>2572</v>
-      </c>
-      <c r="B52" t="s">
-        <v>2555</v>
-      </c>
-      <c r="C52" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D52" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>2573</v>
-      </c>
-      <c r="B53" t="s">
-        <v>2539</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D53" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>2574</v>
-      </c>
-      <c r="B54" t="s">
-        <v>2543</v>
-      </c>
-      <c r="C54" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D54" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>2575</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2545</v>
-      </c>
-      <c r="C55" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D55" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>2576</v>
-      </c>
-      <c r="B56" t="s">
-        <v>2547</v>
-      </c>
-      <c r="C56" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D56" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>2577</v>
-      </c>
-      <c r="B57" t="s">
-        <v>2549</v>
-      </c>
-      <c r="C57" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D57" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>2578</v>
-      </c>
-      <c r="B58" t="s">
-        <v>2551</v>
-      </c>
-      <c r="C58" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D58" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>2579</v>
-      </c>
-      <c r="B59" t="s">
-        <v>2553</v>
-      </c>
-      <c r="C59" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D59" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>2580</v>
-      </c>
-      <c r="B60" t="s">
-        <v>2555</v>
-      </c>
-      <c r="C60" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D60" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>2581</v>
-      </c>
-      <c r="B61" t="s">
-        <v>2539</v>
-      </c>
-      <c r="C61" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D61" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>2582</v>
-      </c>
-      <c r="B62" t="s">
-        <v>2543</v>
-      </c>
-      <c r="C62" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D62" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>2583</v>
-      </c>
-      <c r="B63" t="s">
-        <v>2545</v>
-      </c>
-      <c r="C63" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D63" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>2584</v>
-      </c>
-      <c r="B64" t="s">
-        <v>2547</v>
-      </c>
-      <c r="C64" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D64" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>2585</v>
-      </c>
-      <c r="B65" t="s">
-        <v>2549</v>
-      </c>
-      <c r="C65" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D65" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>2587</v>
-      </c>
-      <c r="B66" t="s">
-        <v>2551</v>
-      </c>
-      <c r="C66" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D66" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>2588</v>
-      </c>
-      <c r="B67" t="s">
-        <v>2553</v>
-      </c>
-      <c r="C67" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D67" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>2589</v>
-      </c>
-      <c r="B68" t="s">
-        <v>2555</v>
-      </c>
-      <c r="C68" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D68" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>2590</v>
-      </c>
-      <c r="B69" t="s">
-        <v>2539</v>
-      </c>
-      <c r="C69" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D69" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>2591</v>
-      </c>
-      <c r="B70" t="s">
-        <v>2543</v>
-      </c>
-      <c r="C70" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D70" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>2592</v>
-      </c>
-      <c r="B71" t="s">
-        <v>2545</v>
-      </c>
-      <c r="C71" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D71" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>2593</v>
-      </c>
-      <c r="B72" t="s">
-        <v>2547</v>
-      </c>
-      <c r="C72" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D72" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>2594</v>
-      </c>
-      <c r="B73" t="s">
-        <v>2549</v>
-      </c>
-      <c r="C73" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D73" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>2595</v>
-      </c>
-      <c r="B74" t="s">
-        <v>2551</v>
-      </c>
-      <c r="C74" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D74" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>2596</v>
-      </c>
-      <c r="B75" t="s">
-        <v>2553</v>
-      </c>
-      <c r="C75" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D75" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>2597</v>
-      </c>
-      <c r="B76" t="s">
-        <v>2555</v>
-      </c>
-      <c r="C76" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D76" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>2598</v>
-      </c>
-      <c r="B77" t="s">
-        <v>2539</v>
-      </c>
-      <c r="C77" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D77" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>2599</v>
-      </c>
-      <c r="B78" t="s">
-        <v>2543</v>
-      </c>
-      <c r="C78" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D78" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>2600</v>
-      </c>
-      <c r="B79" t="s">
-        <v>2545</v>
-      </c>
-      <c r="C79" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D79" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>2601</v>
-      </c>
-      <c r="B80" t="s">
-        <v>2547</v>
-      </c>
-      <c r="C80" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D80" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>2602</v>
-      </c>
-      <c r="B81" t="s">
-        <v>2549</v>
-      </c>
-      <c r="C81" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D81" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>2603</v>
-      </c>
-      <c r="B82" t="s">
-        <v>2551</v>
-      </c>
-      <c r="C82" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D82" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>2604</v>
-      </c>
-      <c r="B83" t="s">
-        <v>2553</v>
-      </c>
-      <c r="C83" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D83" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>2605</v>
-      </c>
-      <c r="B84" t="s">
-        <v>2555</v>
-      </c>
-      <c r="C84" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D84" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>2606</v>
-      </c>
-      <c r="B85" t="s">
-        <v>2607</v>
-      </c>
-      <c r="C85" t="s">
-        <v>2608</v>
-      </c>
-      <c r="D85" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>2609</v>
-      </c>
-      <c r="B86" t="s">
-        <v>2610</v>
-      </c>
-      <c r="C86" t="s">
-        <v>2611</v>
-      </c>
-      <c r="D86" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>2612</v>
-      </c>
-      <c r="B87" t="s">
-        <v>2607</v>
-      </c>
-      <c r="C87" t="s">
-        <v>2608</v>
-      </c>
-      <c r="D87" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>2613</v>
-      </c>
-      <c r="B88" t="s">
-        <v>2610</v>
-      </c>
-      <c r="C88" t="s">
-        <v>2611</v>
-      </c>
-      <c r="D88" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>2614</v>
-      </c>
-      <c r="B89" t="s">
-        <v>2607</v>
-      </c>
-      <c r="C89" t="s">
-        <v>2608</v>
-      </c>
-      <c r="D89" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>2615</v>
-      </c>
-      <c r="B90" t="s">
-        <v>2610</v>
-      </c>
-      <c r="C90" t="s">
-        <v>2611</v>
-      </c>
-      <c r="D90" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>2616</v>
-      </c>
-      <c r="B91" t="s">
-        <v>2607</v>
-      </c>
-      <c r="C91" t="s">
-        <v>2608</v>
-      </c>
-      <c r="D91" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>2617</v>
-      </c>
-      <c r="B92" t="s">
-        <v>2610</v>
-      </c>
-      <c r="C92" t="s">
-        <v>2611</v>
-      </c>
-      <c r="D92" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>2618</v>
-      </c>
-      <c r="B93" t="s">
-        <v>2607</v>
-      </c>
-      <c r="C93" t="s">
-        <v>2608</v>
-      </c>
-      <c r="D93" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>2619</v>
-      </c>
-      <c r="B94" t="s">
-        <v>2610</v>
-      </c>
-      <c r="C94" t="s">
-        <v>2611</v>
-      </c>
-      <c r="D94" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>2620</v>
-      </c>
-      <c r="B95" t="s">
-        <v>2607</v>
-      </c>
-      <c r="C95" t="s">
-        <v>2608</v>
-      </c>
-      <c r="D95" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>2621</v>
-      </c>
-      <c r="B96" t="s">
-        <v>2610</v>
-      </c>
-      <c r="C96" t="s">
-        <v>2611</v>
-      </c>
-      <c r="D96" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>2622</v>
-      </c>
-      <c r="B97" t="s">
-        <v>2607</v>
-      </c>
-      <c r="C97" t="s">
-        <v>2608</v>
-      </c>
-      <c r="D97" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>2623</v>
-      </c>
-      <c r="B98" t="s">
-        <v>2610</v>
-      </c>
-      <c r="C98" t="s">
-        <v>2611</v>
-      </c>
-      <c r="D98" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>2624</v>
-      </c>
-      <c r="B99" t="s">
-        <v>2625</v>
-      </c>
-      <c r="C99" t="s">
-        <v>2626</v>
-      </c>
-      <c r="D99" t="s">
-        <v>2541</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>2627</v>
-      </c>
-      <c r="B100" t="s">
-        <v>2628</v>
-      </c>
-      <c r="C100" t="s">
-        <v>2626</v>
-      </c>
-      <c r="D100" t="s">
-        <v>2541</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>2629</v>
-      </c>
-      <c r="B101" t="s">
-        <v>2625</v>
-      </c>
-      <c r="C101" t="s">
-        <v>2626</v>
-      </c>
-      <c r="D101" t="s">
-        <v>2557</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>2630</v>
-      </c>
-      <c r="B102" t="s">
-        <v>2628</v>
-      </c>
-      <c r="C102" t="s">
-        <v>2626</v>
-      </c>
-      <c r="D102" t="s">
-        <v>2557</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>2631</v>
-      </c>
-      <c r="B103" t="s">
-        <v>2625</v>
-      </c>
-      <c r="C103" t="s">
-        <v>2626</v>
-      </c>
-      <c r="D103" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>2632</v>
-      </c>
-      <c r="B104" t="s">
-        <v>2628</v>
-      </c>
-      <c r="C104" t="s">
-        <v>2626</v>
-      </c>
-      <c r="D104" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>2633</v>
-      </c>
-      <c r="B105" t="s">
-        <v>2625</v>
-      </c>
-      <c r="C105" t="s">
-        <v>2626</v>
-      </c>
-      <c r="D105" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>2634</v>
-      </c>
-      <c r="B106" t="s">
-        <v>2628</v>
-      </c>
-      <c r="C106" t="s">
-        <v>2626</v>
-      </c>
-      <c r="D106" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>2635</v>
-      </c>
-      <c r="B107" t="s">
-        <v>2625</v>
-      </c>
-      <c r="C107" t="s">
-        <v>2626</v>
-      </c>
-      <c r="D107" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>2636</v>
-      </c>
-      <c r="B108" t="s">
-        <v>2628</v>
-      </c>
-      <c r="C108" t="s">
-        <v>2626</v>
-      </c>
-      <c r="D108" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>2637</v>
-      </c>
-      <c r="B109" t="s">
-        <v>2625</v>
-      </c>
-      <c r="C109" t="s">
-        <v>2626</v>
-      </c>
-      <c r="D109" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>2638</v>
-      </c>
-      <c r="B110" t="s">
-        <v>2628</v>
-      </c>
-      <c r="C110" t="s">
-        <v>2626</v>
-      </c>
-      <c r="D110" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>2639</v>
-      </c>
-      <c r="B111" t="s">
-        <v>2625</v>
-      </c>
-      <c r="C111" t="s">
-        <v>2626</v>
-      </c>
-      <c r="D111" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B112" t="s">
-        <v>2628</v>
-      </c>
-      <c r="C112" t="s">
-        <v>2626</v>
-      </c>
-      <c r="D112" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>2641</v>
-      </c>
-      <c r="B113" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C113" t="s">
-        <v>159</v>
-      </c>
-      <c r="D113" t="s">
-        <v>2643</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>2644</v>
-      </c>
-      <c r="B114" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C114" t="s">
-        <v>159</v>
-      </c>
-      <c r="D114" t="s">
-        <v>2645</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>2646</v>
-      </c>
-      <c r="B115" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C115" t="s">
-        <v>159</v>
-      </c>
-      <c r="D115" t="s">
-        <v>2647</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>2648</v>
-      </c>
-      <c r="B116" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C116" t="s">
-        <v>159</v>
-      </c>
-      <c r="D116" t="s">
-        <v>2649</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>2650</v>
-      </c>
-      <c r="B117" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C117" t="s">
-        <v>159</v>
-      </c>
-      <c r="D117" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>2651</v>
-      </c>
-      <c r="B118" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C118" t="s">
-        <v>159</v>
-      </c>
-      <c r="D118" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>2652</v>
-      </c>
-      <c r="B119" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C119" t="s">
-        <v>159</v>
-      </c>
-      <c r="D119" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>2653</v>
-      </c>
-      <c r="B120" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C120" t="s">
-        <v>159</v>
-      </c>
-      <c r="D120" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>2654</v>
-      </c>
-      <c r="B121" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C121" t="s">
-        <v>159</v>
-      </c>
-      <c r="D121" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>2655</v>
-      </c>
-      <c r="B122" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C122" t="s">
-        <v>159</v>
-      </c>
-      <c r="D122" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>2656</v>
-      </c>
-      <c r="B123" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C123" t="s">
-        <v>159</v>
-      </c>
-      <c r="D123" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>2657</v>
-      </c>
-      <c r="B124" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C124" t="s">
-        <v>159</v>
-      </c>
-      <c r="D124" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>2658</v>
-      </c>
-      <c r="B125" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C125" t="s">
-        <v>159</v>
-      </c>
-      <c r="D125" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>2659</v>
-      </c>
-      <c r="B126" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C126" t="s">
-        <v>159</v>
-      </c>
-      <c r="D126" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>2660</v>
-      </c>
-      <c r="B127" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C127" t="s">
-        <v>159</v>
-      </c>
-      <c r="D127" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>2661</v>
-      </c>
-      <c r="B128" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C128" t="s">
-        <v>159</v>
-      </c>
-      <c r="D128" t="s">
-        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/Batch File/File - Tab - Cell - (start of recursive resolver) - New.xlsx
+++ b/Batch File/File - Tab - Cell - (start of recursive resolver) - New.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mordrel-my.sharepoint.com/personal/matthieu_mordrel_pro/Documents/Work/Projects/Kovera/Project 2/Scripts/Project/Batch File/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="365" documentId="8_{9249E20C-2A1A-4D5B-AF97-066FDAA15AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDE6FC2A-3EE8-47F2-BF46-05A07FB60F0D}"/>
+  <xr:revisionPtr revIDLastSave="367" documentId="8_{9249E20C-2A1A-4D5B-AF97-066FDAA15AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E626295-076F-489D-8FB8-84903595FE47}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="3510" windowWidth="29040" windowHeight="15840" xr2:uid="{FB1F73C2-3A7C-4D28-BF2A-BCBC768C2592}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10891" uniqueCount="2672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11399" uniqueCount="2818">
   <si>
     <t>2022 - P1 berekening kolomkast 2137.xlsx</t>
   </si>
@@ -8048,34 +8048,472 @@
     <t>C141BL60KL-GDB_6</t>
   </si>
   <si>
-    <t>COH90CA_1</t>
-  </si>
-  <si>
-    <t>COH90CA_2</t>
-  </si>
-  <si>
-    <t>COH90CA_3</t>
-  </si>
-  <si>
-    <t>COH90CA_4</t>
-  </si>
-  <si>
-    <t>COH90CA_5</t>
-  </si>
-  <si>
-    <t>COH90CA_6</t>
-  </si>
-  <si>
-    <t>COH90CA_7</t>
-  </si>
-  <si>
-    <t>COH90CA_8</t>
-  </si>
-  <si>
-    <t>COH90CA_9</t>
-  </si>
-  <si>
-    <t>COH90CA_10</t>
+    <t>C58B3056_1</t>
+  </si>
+  <si>
+    <t>2022 - P1 Berekening Hangkast 584-565 KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>C58B3056_2</t>
+  </si>
+  <si>
+    <t>C58B3056_3</t>
+  </si>
+  <si>
+    <t>C58B3056_4</t>
+  </si>
+  <si>
+    <t>C58B3056_5</t>
+  </si>
+  <si>
+    <t>C58B3056_6</t>
+  </si>
+  <si>
+    <t>C58B3056_7</t>
+  </si>
+  <si>
+    <t>C58B3056_8</t>
+  </si>
+  <si>
+    <t>C58B3056_9</t>
+  </si>
+  <si>
+    <t>C58B3556_1</t>
+  </si>
+  <si>
+    <t>C58B3556_2</t>
+  </si>
+  <si>
+    <t>C58B3556_3</t>
+  </si>
+  <si>
+    <t>C58B3556_4</t>
+  </si>
+  <si>
+    <t>C58B3556_5</t>
+  </si>
+  <si>
+    <t>C58B3556_6</t>
+  </si>
+  <si>
+    <t>C58B3556_7</t>
+  </si>
+  <si>
+    <t>C58B3556_8</t>
+  </si>
+  <si>
+    <t>C58B3556_9</t>
+  </si>
+  <si>
+    <t>C58B4056_1</t>
+  </si>
+  <si>
+    <t>C58B4056_2</t>
+  </si>
+  <si>
+    <t>C58B4056_3</t>
+  </si>
+  <si>
+    <t>C58B4056_4</t>
+  </si>
+  <si>
+    <t>C58B4056_5</t>
+  </si>
+  <si>
+    <t>C58B4056_6</t>
+  </si>
+  <si>
+    <t>C58B4056_7</t>
+  </si>
+  <si>
+    <t>C58B4056_8</t>
+  </si>
+  <si>
+    <t>C58B4056_9</t>
+  </si>
+  <si>
+    <t>C58B4556_1</t>
+  </si>
+  <si>
+    <t>C58B4556_2</t>
+  </si>
+  <si>
+    <t>C58B4556_3</t>
+  </si>
+  <si>
+    <t>C58B4556_4</t>
+  </si>
+  <si>
+    <t>C58B4556_5</t>
+  </si>
+  <si>
+    <t>C58B4556_6</t>
+  </si>
+  <si>
+    <t>C58B4556_7</t>
+  </si>
+  <si>
+    <t>C58B4556_8</t>
+  </si>
+  <si>
+    <t>C58B4556_9</t>
+  </si>
+  <si>
+    <t>C58B5056_1</t>
+  </si>
+  <si>
+    <t>C58B5056_2</t>
+  </si>
+  <si>
+    <t>C58B5056_3</t>
+  </si>
+  <si>
+    <t>C58B5056_4</t>
+  </si>
+  <si>
+    <t>C58B5056_5</t>
+  </si>
+  <si>
+    <t>C58B5056_6</t>
+  </si>
+  <si>
+    <t>C58B5056_7</t>
+  </si>
+  <si>
+    <t>C58B5056_8</t>
+  </si>
+  <si>
+    <t>C58B5056_9</t>
+  </si>
+  <si>
+    <t>C58B5556_1</t>
+  </si>
+  <si>
+    <t>C58B5556_2</t>
+  </si>
+  <si>
+    <t>C58B5556_3</t>
+  </si>
+  <si>
+    <t>C58B5556_4</t>
+  </si>
+  <si>
+    <t>C58B5556_5</t>
+  </si>
+  <si>
+    <t>C58B5556_6</t>
+  </si>
+  <si>
+    <t>C58B5556_7</t>
+  </si>
+  <si>
+    <t>C58B5556_8</t>
+  </si>
+  <si>
+    <t>C58B5556_9</t>
+  </si>
+  <si>
+    <t>C58B6056_1</t>
+  </si>
+  <si>
+    <t>C58B6056_2</t>
+  </si>
+  <si>
+    <t>C58B6056_3</t>
+  </si>
+  <si>
+    <t>C58B6056_4</t>
+  </si>
+  <si>
+    <t>C58B6056_5</t>
+  </si>
+  <si>
+    <t>C58B6056_6</t>
+  </si>
+  <si>
+    <t>C58B6056_7</t>
+  </si>
+  <si>
+    <t>C58B6056_8</t>
+  </si>
+  <si>
+    <t>C58B6056_9</t>
+  </si>
+  <si>
+    <t>C58B7056_1</t>
+  </si>
+  <si>
+    <t>C58B7056_2</t>
+  </si>
+  <si>
+    <t>C58B7056_3</t>
+  </si>
+  <si>
+    <t>C58B7056_4</t>
+  </si>
+  <si>
+    <t>C58B7056_5</t>
+  </si>
+  <si>
+    <t>C58B7056_6</t>
+  </si>
+  <si>
+    <t>C58B7056_7</t>
+  </si>
+  <si>
+    <t>C58B7056_8</t>
+  </si>
+  <si>
+    <t>C58B7056_9</t>
+  </si>
+  <si>
+    <t>C58B8056_1</t>
+  </si>
+  <si>
+    <t>C58B8056_2</t>
+  </si>
+  <si>
+    <t>C58B8056_3</t>
+  </si>
+  <si>
+    <t>C58B8056_4</t>
+  </si>
+  <si>
+    <t>C58B8056_5</t>
+  </si>
+  <si>
+    <t>C58B8056_6</t>
+  </si>
+  <si>
+    <t>C58B8056_7</t>
+  </si>
+  <si>
+    <t>C58B8056_8</t>
+  </si>
+  <si>
+    <t>C58B8056_9</t>
+  </si>
+  <si>
+    <t>C58B9056_1</t>
+  </si>
+  <si>
+    <t>C58B9056_2</t>
+  </si>
+  <si>
+    <t>C58B9056_3</t>
+  </si>
+  <si>
+    <t>C58B9056_4</t>
+  </si>
+  <si>
+    <t>C58B9056_5</t>
+  </si>
+  <si>
+    <t>C58B9056_6</t>
+  </si>
+  <si>
+    <t>C58B9056_7</t>
+  </si>
+  <si>
+    <t>C58B9056_8</t>
+  </si>
+  <si>
+    <t>C58B9056_9</t>
+  </si>
+  <si>
+    <t>C58B10056_1</t>
+  </si>
+  <si>
+    <t>C58B10056_2</t>
+  </si>
+  <si>
+    <t>C58B10056_3</t>
+  </si>
+  <si>
+    <t>C58B10056_4</t>
+  </si>
+  <si>
+    <t>C58B10056_5</t>
+  </si>
+  <si>
+    <t>C58B10056_6</t>
+  </si>
+  <si>
+    <t>C58B10056_7</t>
+  </si>
+  <si>
+    <t>C58B10056_8</t>
+  </si>
+  <si>
+    <t>C58B10056_9</t>
+  </si>
+  <si>
+    <t>C58B11056_1</t>
+  </si>
+  <si>
+    <t>C58B11056_2</t>
+  </si>
+  <si>
+    <t>C58B11056_3</t>
+  </si>
+  <si>
+    <t>C58B11056_4</t>
+  </si>
+  <si>
+    <t>C58B11056_5</t>
+  </si>
+  <si>
+    <t>C58B11056_6</t>
+  </si>
+  <si>
+    <t>C58B11056_7</t>
+  </si>
+  <si>
+    <t>C58B11056_8</t>
+  </si>
+  <si>
+    <t>C58B11056_9</t>
+  </si>
+  <si>
+    <t>C58B12056_1</t>
+  </si>
+  <si>
+    <t>C58B12056_2</t>
+  </si>
+  <si>
+    <t>C58B12056_3</t>
+  </si>
+  <si>
+    <t>C58B12056_4</t>
+  </si>
+  <si>
+    <t>C58B12056_5</t>
+  </si>
+  <si>
+    <t>C58B12056_6</t>
+  </si>
+  <si>
+    <t>C58B12056_7</t>
+  </si>
+  <si>
+    <t>C58B12056_8</t>
+  </si>
+  <si>
+    <t>C58B12056_9</t>
+  </si>
+  <si>
+    <t>C58DK60_1</t>
+  </si>
+  <si>
+    <t>2022 - p1 Berekening Hoek Hangkasten 584-584 KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>C58DK60_2</t>
+  </si>
+  <si>
+    <t>2022 - p2 Berekening Hoek Hangkasten 584-584 KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>C58DK60_3</t>
+  </si>
+  <si>
+    <t>2022 - p3 Berekening Hoek Hangkasten 584-584 KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>C58DK60_4</t>
+  </si>
+  <si>
+    <t>2022 - p4 Berekening Hoek Hangkasten 584-584 KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>C58DK60_5</t>
+  </si>
+  <si>
+    <t>2022 - p5 Berekening Hoek Hangkasten 584-584 KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>C58DK60_6</t>
+  </si>
+  <si>
+    <t>2022 - p6 Berekening Hoek Hangkasten 584-584 KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>C58DK60_7</t>
+  </si>
+  <si>
+    <t>2022 - p7 Berekening Hoek Hangkasten 584-584 KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>C58DK60_8</t>
+  </si>
+  <si>
+    <t>2022 - p8 Berekening Hoek Hangkasten 584-584 KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>C58DK60_9</t>
+  </si>
+  <si>
+    <t>2022 - p9 Berekening Hoek Hangkasten 584-584 KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>C58DK60_10</t>
+  </si>
+  <si>
+    <t>2022 - p10 Berekening Hoek Hangkasten 584-584 KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>C58K90_1</t>
+  </si>
+  <si>
+    <t>C58K90_2</t>
+  </si>
+  <si>
+    <t>C58K90_3</t>
+  </si>
+  <si>
+    <t>C58K90_4</t>
+  </si>
+  <si>
+    <t>C58K90_5</t>
+  </si>
+  <si>
+    <t>C58K90_6</t>
+  </si>
+  <si>
+    <t>C58K90_7</t>
+  </si>
+  <si>
+    <t>C58K90_8</t>
+  </si>
+  <si>
+    <t>C58K90_9</t>
+  </si>
+  <si>
+    <t>C58K90_10</t>
+  </si>
+  <si>
+    <t>2022 - P2 Berekening Hangkast 584-565 KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>2022 - P3 Berekening Hangkast 584-565 KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>2022 - P4 Berekening Hangkast 584-565 KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>2022 - P5 Berekening Hangkast 584-565 KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>2022 - P6 Berekening Hangkast 584-565 KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>2022 - P7 Berekening Hangkast 584-565 KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>2022 - P8 Berekening Hangkast 584-565 KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>2022 - P9 Berekening Hangkast 584-565 KLEUR.xlsx</t>
   </si>
 </sst>
 </file>
@@ -8168,13 +8606,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}" name="Table2" displayName="Table2" ref="A1:D11" totalsRowShown="0">
-  <autoFilter ref="A1:D11" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}" name="Table2" displayName="Table2" ref="A1:D138" totalsRowShown="0">
+  <autoFilter ref="A1:D138" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{EAD2BB95-0271-4DE1-860E-94A419353B53}" name="Product_Id"/>
     <tableColumn id="2" xr3:uid="{42247E71-8EC0-4CEB-B24A-D3FBFE9449A8}" name="File"/>
@@ -8516,10 +8950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535C4B85-08F9-4009-85A5-566FB6CE48DF}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8557,13 +8991,13 @@
         <v>2662</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>2663</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>1908</v>
@@ -8571,16 +9005,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>2810</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>1909</v>
@@ -8588,16 +9022,16 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>2811</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="G4" t="s">
         <v>1657</v>
@@ -8617,16 +9051,16 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>2812</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="G5" t="s">
         <v>1666</v>
@@ -8643,16 +9077,16 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>2813</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="G6" t="s">
         <v>1675</v>
@@ -8669,16 +9103,16 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2667</v>
+        <v>2668</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>2814</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="G7" t="s">
         <v>1658</v>
@@ -8695,16 +9129,16 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2668</v>
+        <v>2669</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>2815</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="G8" t="s">
         <v>1659</v>
@@ -8721,16 +9155,16 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2669</v>
+        <v>2670</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>2816</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="G9" t="s">
         <v>1667</v>
@@ -8747,16 +9181,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2670</v>
+        <v>2671</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>2817</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="G10" t="s">
         <v>1660</v>
@@ -8773,16 +9207,16 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>2663</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G11" t="s">
         <v>1668</v>
@@ -8795,6 +9229,1784 @@
       </c>
       <c r="O11" t="str">
         <v>F11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2811</v>
+      </c>
+      <c r="C13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2813</v>
+      </c>
+      <c r="C15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2683</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2811</v>
+      </c>
+      <c r="C22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2685</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2813</v>
+      </c>
+      <c r="C24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2688</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2689</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2691</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2692</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2811</v>
+      </c>
+      <c r="C31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2694</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2813</v>
+      </c>
+      <c r="C33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2695</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2696</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2697</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2698</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2699</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2700</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2811</v>
+      </c>
+      <c r="C40" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2813</v>
+      </c>
+      <c r="C42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2704</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>2706</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C45" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2707</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>2708</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C47" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>2709</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2811</v>
+      </c>
+      <c r="C49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2711</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2813</v>
+      </c>
+      <c r="C51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>2714</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C53" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>2715</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C54" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>2716</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C55" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>2717</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C56" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>2718</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C57" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>2719</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2811</v>
+      </c>
+      <c r="C58" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>2720</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C59" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2813</v>
+      </c>
+      <c r="C60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D60" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>2722</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C61" t="s">
+        <v>117</v>
+      </c>
+      <c r="D61" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>2723</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C62" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C63" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>2725</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C64" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>2726</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C65" t="s">
+        <v>117</v>
+      </c>
+      <c r="D65" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C66" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>2728</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2811</v>
+      </c>
+      <c r="C67" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C68" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2813</v>
+      </c>
+      <c r="C69" t="s">
+        <v>117</v>
+      </c>
+      <c r="D69" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>2731</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C70" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>2732</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C71" t="s">
+        <v>117</v>
+      </c>
+      <c r="D71" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C72" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C73" t="s">
+        <v>117</v>
+      </c>
+      <c r="D73" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C74" t="s">
+        <v>117</v>
+      </c>
+      <c r="D74" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C75" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>2737</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2811</v>
+      </c>
+      <c r="C76" t="s">
+        <v>117</v>
+      </c>
+      <c r="D76" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>2738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C77" t="s">
+        <v>117</v>
+      </c>
+      <c r="D77" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>2739</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2813</v>
+      </c>
+      <c r="C78" t="s">
+        <v>117</v>
+      </c>
+      <c r="D78" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>2740</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C79" t="s">
+        <v>117</v>
+      </c>
+      <c r="D79" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C80" t="s">
+        <v>117</v>
+      </c>
+      <c r="D80" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C81" t="s">
+        <v>117</v>
+      </c>
+      <c r="D81" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C82" t="s">
+        <v>117</v>
+      </c>
+      <c r="D82" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>2744</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C83" t="s">
+        <v>117</v>
+      </c>
+      <c r="D83" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>2745</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C84" t="s">
+        <v>117</v>
+      </c>
+      <c r="D84" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>2746</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2811</v>
+      </c>
+      <c r="C85" t="s">
+        <v>117</v>
+      </c>
+      <c r="D85" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>2747</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D86" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2813</v>
+      </c>
+      <c r="C87" t="s">
+        <v>117</v>
+      </c>
+      <c r="D87" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C88" t="s">
+        <v>117</v>
+      </c>
+      <c r="D88" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>2750</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C89" t="s">
+        <v>117</v>
+      </c>
+      <c r="D89" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>2751</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C90" t="s">
+        <v>117</v>
+      </c>
+      <c r="D90" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>2752</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C91" t="s">
+        <v>117</v>
+      </c>
+      <c r="D91" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C92" t="s">
+        <v>117</v>
+      </c>
+      <c r="D92" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>2754</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C93" t="s">
+        <v>117</v>
+      </c>
+      <c r="D93" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2811</v>
+      </c>
+      <c r="C94" t="s">
+        <v>117</v>
+      </c>
+      <c r="D94" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>2756</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C95" t="s">
+        <v>117</v>
+      </c>
+      <c r="D95" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2813</v>
+      </c>
+      <c r="C96" t="s">
+        <v>117</v>
+      </c>
+      <c r="D96" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C97" t="s">
+        <v>117</v>
+      </c>
+      <c r="D97" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>2759</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C98" t="s">
+        <v>117</v>
+      </c>
+      <c r="D98" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>2760</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C99" t="s">
+        <v>117</v>
+      </c>
+      <c r="D99" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>2761</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C100" t="s">
+        <v>117</v>
+      </c>
+      <c r="D100" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C101" t="s">
+        <v>117</v>
+      </c>
+      <c r="D101" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C102" t="s">
+        <v>117</v>
+      </c>
+      <c r="D102" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2811</v>
+      </c>
+      <c r="C103" t="s">
+        <v>117</v>
+      </c>
+      <c r="D103" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C104" t="s">
+        <v>117</v>
+      </c>
+      <c r="D104" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>2766</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2813</v>
+      </c>
+      <c r="C105" t="s">
+        <v>117</v>
+      </c>
+      <c r="D105" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C106" t="s">
+        <v>117</v>
+      </c>
+      <c r="D106" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C107" t="s">
+        <v>117</v>
+      </c>
+      <c r="D107" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C108" t="s">
+        <v>117</v>
+      </c>
+      <c r="D108" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C109" t="s">
+        <v>117</v>
+      </c>
+      <c r="D109" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C110" t="s">
+        <v>117</v>
+      </c>
+      <c r="D110" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C111" t="s">
+        <v>117</v>
+      </c>
+      <c r="D111" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2811</v>
+      </c>
+      <c r="C112" t="s">
+        <v>117</v>
+      </c>
+      <c r="D112" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C113" t="s">
+        <v>117</v>
+      </c>
+      <c r="D113" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2813</v>
+      </c>
+      <c r="C114" t="s">
+        <v>117</v>
+      </c>
+      <c r="D114" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C115" t="s">
+        <v>117</v>
+      </c>
+      <c r="D115" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C116" t="s">
+        <v>117</v>
+      </c>
+      <c r="D116" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C117" t="s">
+        <v>117</v>
+      </c>
+      <c r="D117" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C118" t="s">
+        <v>117</v>
+      </c>
+      <c r="D118" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2781</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D119" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2783</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D120" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>2784</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D121" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>2786</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2787</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D122" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>2788</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2789</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D123" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>2790</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2791</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D124" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>2792</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2793</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D125" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2795</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D126" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2797</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D127" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D128" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>2800</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2781</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D129" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>2801</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2783</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D130" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D131" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>2803</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2787</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D132" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>2804</v>
+      </c>
+      <c r="B133" t="s">
+        <v>2789</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D133" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2791</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D134" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>2806</v>
+      </c>
+      <c r="B135" t="s">
+        <v>2793</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D135" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>2807</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2795</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D136" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2797</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D137" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>2809</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D138" t="s">
+        <v>2557</v>
       </c>
     </row>
   </sheetData>

--- a/Batch File/File - Tab - Cell - (start of recursive resolver) - New.xlsx
+++ b/Batch File/File - Tab - Cell - (start of recursive resolver) - New.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mordrel-my.sharepoint.com/personal/matthieu_mordrel_pro/Documents/Work/Projects/Kovera/Project 2/Scripts/Project/Batch File/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="371" documentId="8_{9249E20C-2A1A-4D5B-AF97-066FDAA15AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4C24FCD-B370-4795-B004-1DF5AE5841DE}"/>
+  <xr:revisionPtr revIDLastSave="374" documentId="8_{9249E20C-2A1A-4D5B-AF97-066FDAA15AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EBAA1FC-7E66-4D75-A11F-EE09A9D9C9C8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FB1F73C2-3A7C-4D28-BF2A-BCBC768C2592}"/>
+    <workbookView xWindow="38280" yWindow="3510" windowWidth="29040" windowHeight="15840" xr2:uid="{FB1F73C2-3A7C-4D28-BF2A-BCBC768C2592}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,30 +37,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11001" uniqueCount="2660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10849" uniqueCount="2663">
   <si>
     <t>2022 - P1 berekening kolomkast 2137.xlsx</t>
   </si>
@@ -8040,6 +8018,15 @@
   </si>
   <si>
     <t>C141BL60KL-GDB_6</t>
+  </si>
+  <si>
+    <t>CK222O59_2</t>
+  </si>
+  <si>
+    <t>2022 -P2 Berekening Kolom F+O (13-22-24-31-32-33-35-37+38+39) 2227-KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>COPBL45FLES_1</t>
   </si>
 </sst>
 </file>
@@ -8133,8 +8120,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}" name="Table2" displayName="Table2" ref="A1:D41" totalsRowShown="0">
-  <autoFilter ref="A1:D41" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}" name="Table2" displayName="Table2" ref="A1:D3" totalsRowShown="0">
+  <autoFilter ref="A1:D3" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{EAD2BB95-0271-4DE1-860E-94A419353B53}" name="Product_Id"/>
     <tableColumn id="2" xr3:uid="{42247E71-8EC0-4CEB-B24A-D3FBFE9449A8}" name="File"/>
@@ -8476,9 +8463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535C4B85-08F9-4009-85A5-566FB6CE48DF}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8495,7 +8484,7 @@
     <col min="15" max="15" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1907</v>
       </c>
@@ -8510,589 +8499,32 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2238</v>
+        <v>2660</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>2661</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2239</v>
+        <v>2662</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2240</v>
-      </c>
-      <c r="B4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" t="s">
-        <v>283</v>
-      </c>
-      <c r="O4" t="str" cm="1">
-        <f t="array" ref="O4:O11">_xlfn.BYROW(G4:G11,_xlfn.LAMBDA(_xlpm.id,_xlfn.XLOOKUP(_xlpm.id,Table3[Product_ID],Table3[Cell],"",0,1)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2241</v>
-      </c>
-      <c r="B5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" t="s">
-        <v>283</v>
-      </c>
-      <c r="O5" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2242</v>
-      </c>
-      <c r="B6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" t="s">
-        <v>283</v>
-      </c>
-      <c r="O6" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2243</v>
-      </c>
-      <c r="B7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" t="s">
-        <v>283</v>
-      </c>
-      <c r="O7" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2244</v>
-      </c>
-      <c r="B8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" t="s">
-        <v>283</v>
-      </c>
-      <c r="O8" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2245</v>
-      </c>
-      <c r="B9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" t="s">
-        <v>283</v>
-      </c>
-      <c r="O9" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2246</v>
-      </c>
-      <c r="B10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" t="s">
-        <v>283</v>
-      </c>
-      <c r="O10" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2247</v>
-      </c>
-      <c r="B11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" t="s">
-        <v>283</v>
-      </c>
-      <c r="O11" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>2248</v>
-      </c>
-      <c r="B12" t="s">
-        <v>287</v>
-      </c>
-      <c r="C12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2249</v>
-      </c>
-      <c r="B13" t="s">
-        <v>289</v>
-      </c>
-      <c r="C13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>2250</v>
-      </c>
-      <c r="B14" t="s">
-        <v>290</v>
-      </c>
-      <c r="C14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2251</v>
-      </c>
-      <c r="B15" t="s">
-        <v>291</v>
-      </c>
-      <c r="C15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>2252</v>
-      </c>
-      <c r="B16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>2253</v>
-      </c>
-      <c r="B17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>2254</v>
-      </c>
-      <c r="B18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>2255</v>
-      </c>
-      <c r="B19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>2256</v>
-      </c>
-      <c r="B20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>2257</v>
-      </c>
-      <c r="B21" t="s">
-        <v>292</v>
-      </c>
-      <c r="C21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>2258</v>
-      </c>
-      <c r="B22" t="s">
-        <v>287</v>
-      </c>
-      <c r="C22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>2259</v>
-      </c>
-      <c r="B23" t="s">
-        <v>289</v>
-      </c>
-      <c r="C23" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>2260</v>
-      </c>
-      <c r="B24" t="s">
-        <v>290</v>
-      </c>
-      <c r="C24" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>2261</v>
-      </c>
-      <c r="B25" t="s">
-        <v>291</v>
-      </c>
-      <c r="C25" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>2262</v>
-      </c>
-      <c r="B26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>2263</v>
-      </c>
-      <c r="B27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>2264</v>
-      </c>
-      <c r="B28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>2265</v>
-      </c>
-      <c r="B29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>2266</v>
-      </c>
-      <c r="B30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>2267</v>
-      </c>
-      <c r="B31" t="s">
-        <v>292</v>
-      </c>
-      <c r="C31" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>2268</v>
-      </c>
-      <c r="B32" t="s">
-        <v>287</v>
-      </c>
-      <c r="C32" t="s">
-        <v>117</v>
-      </c>
-      <c r="D32" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>2269</v>
-      </c>
-      <c r="B33" t="s">
-        <v>289</v>
-      </c>
-      <c r="C33" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>2270</v>
-      </c>
-      <c r="B34" t="s">
-        <v>290</v>
-      </c>
-      <c r="C34" t="s">
-        <v>117</v>
-      </c>
-      <c r="D34" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>2271</v>
-      </c>
-      <c r="B35" t="s">
-        <v>291</v>
-      </c>
-      <c r="C35" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>2272</v>
-      </c>
-      <c r="B36" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" t="s">
-        <v>117</v>
-      </c>
-      <c r="D36" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>2273</v>
-      </c>
-      <c r="B37" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>2274</v>
-      </c>
-      <c r="B38" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>2275</v>
-      </c>
-      <c r="B39" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>2276</v>
-      </c>
-      <c r="B40" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" t="s">
-        <v>117</v>
-      </c>
-      <c r="D40" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>2277</v>
-      </c>
-      <c r="B41" t="s">
-        <v>292</v>
-      </c>
-      <c r="C41" t="s">
-        <v>117</v>
-      </c>
-      <c r="D41" t="s">
-        <v>286</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/Batch File/File - Tab - Cell - (start of recursive resolver) - New.xlsx
+++ b/Batch File/File - Tab - Cell - (start of recursive resolver) - New.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mordrel-my.sharepoint.com/personal/matthieu_mordrel_pro/Documents/Work/Projects/Kovera/Project 2/Scripts/Project/Batch File/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="374" documentId="8_{9249E20C-2A1A-4D5B-AF97-066FDAA15AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EBAA1FC-7E66-4D75-A11F-EE09A9D9C9C8}"/>
+  <xr:revisionPtr revIDLastSave="382" documentId="8_{9249E20C-2A1A-4D5B-AF97-066FDAA15AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71B46A34-BB0F-4E6D-88A7-C3E63C4E2D2D}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="3510" windowWidth="29040" windowHeight="15840" xr2:uid="{FB1F73C2-3A7C-4D28-BF2A-BCBC768C2592}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10849" uniqueCount="2663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10873" uniqueCount="2669">
   <si>
     <t>2022 - P1 berekening kolomkast 2137.xlsx</t>
   </si>
@@ -8020,13 +8020,31 @@
     <t>C141BL60KL-GDB_6</t>
   </si>
   <si>
-    <t>CK222O59_2</t>
-  </si>
-  <si>
     <t>2022 -P2 Berekening Kolom F+O (13-22-24-31-32-33-35-37+38+39) 2227-KLEUR.xlsx</t>
   </si>
   <si>
-    <t>COPBL45FLES_1</t>
+    <t>CK222M45A_1</t>
+  </si>
+  <si>
+    <t>CKL222M45_1</t>
+  </si>
+  <si>
+    <t>CK222MF102_1</t>
+  </si>
+  <si>
+    <t>CK222M45PB3_1</t>
+  </si>
+  <si>
+    <t>CKL222MF88_1</t>
+  </si>
+  <si>
+    <t>CK222O59_1</t>
+  </si>
+  <si>
+    <t>CK222A59O_1</t>
+  </si>
+  <si>
+    <t>CK222OF88_1</t>
   </si>
 </sst>
 </file>
@@ -8119,13 +8137,17 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}" name="Table2" displayName="Table2" ref="A1:D3" totalsRowShown="0">
-  <autoFilter ref="A1:D3" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}" name="Table2" displayName="Table2" ref="A1:D9" totalsRowShown="0">
+  <autoFilter ref="A1:D9" xr:uid="{66B1EFE4-4C8C-42EA-8832-2DAE74377335}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{EAD2BB95-0271-4DE1-860E-94A419353B53}" name="Product_Id"/>
     <tableColumn id="2" xr3:uid="{42247E71-8EC0-4CEB-B24A-D3FBFE9449A8}" name="File"/>
-    <tableColumn id="3" xr3:uid="{46B4784E-B6BA-43C2-BB51-0664F7025A5B}" name="Tab"/>
+    <tableColumn id="3" xr3:uid="{46B4784E-B6BA-43C2-BB51-0664F7025A5B}" name="OVERZICHT CK222"/>
     <tableColumn id="4" xr3:uid="{F1FCF6B6-2AF3-474D-B70B-A91AFC615841}" name="Cell"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -8463,10 +8485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535C4B85-08F9-4009-85A5-566FB6CE48DF}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8492,7 +8514,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
@@ -8501,16 +8523,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B2" t="s">
         <v>2660</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2661</v>
       </c>
       <c r="C2" t="s">
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -8518,13 +8540,97 @@
         <v>2662</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>2660</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2664</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2665</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2668</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/Batch File/File - Tab - Cell - (start of recursive resolver) - New.xlsx
+++ b/Batch File/File - Tab - Cell - (start of recursive resolver) - New.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mordrel-my.sharepoint.com/personal/matthieu_mordrel_pro/Documents/Work/Projects/Kovera/Project 2/Scripts/Project/Batch File/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="497" documentId="8_{9249E20C-2A1A-4D5B-AF97-066FDAA15AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C998FA40-A4E1-4294-9BE8-AF630ADAC92A}"/>
+  <xr:revisionPtr revIDLastSave="536" documentId="8_{9249E20C-2A1A-4D5B-AF97-066FDAA15AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E005D1A2-28FD-493F-87C3-18D892F36ECF}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="3510" windowWidth="29040" windowHeight="15840" xr2:uid="{FB1F73C2-3A7C-4D28-BF2A-BCBC768C2592}"/>
   </bookViews>
@@ -17,9 +17,6 @@
     <sheet name="Prices Info" sheetId="5" r:id="rId2"/>
     <sheet name="Some products" sheetId="2" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,45 +37,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4569" uniqueCount="1311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="871">
   <si>
     <t>File</t>
   </si>
@@ -2657,1360 +2617,40 @@
     <t>C141BL60KL-GDB_6</t>
   </si>
   <si>
-    <t>2022 - P5 Berekening GLAS DEUR Hangkast 700-KLEUR.xlsx</t>
-  </si>
-  <si>
-    <t>C70B45-GSTK_1</t>
-  </si>
-  <si>
-    <t>C79B45-GST_1</t>
-  </si>
-  <si>
-    <t>C79B45-GSTK_1</t>
-  </si>
-  <si>
-    <t>C88B45-GST_1</t>
-  </si>
-  <si>
-    <t>C88B45-GSTK_1</t>
-  </si>
-  <si>
-    <t>C97B45-GST_1</t>
-  </si>
-  <si>
-    <t>C97B45-GSTK_1</t>
-  </si>
-  <si>
-    <t>C70B45-GDBK_1</t>
-  </si>
-  <si>
-    <t>C79B45-GDB_1</t>
-  </si>
-  <si>
-    <t>C79B45-GDBK_1</t>
-  </si>
-  <si>
-    <t>C88B45-GDB_1</t>
-  </si>
-  <si>
-    <t>C88B45-GDBK_1</t>
-  </si>
-  <si>
-    <t>C97B45-GDB_1</t>
-  </si>
-  <si>
-    <t>C97B45-GDBK_1</t>
-  </si>
-  <si>
-    <t>C70B45-GSTK_2</t>
-  </si>
-  <si>
-    <t>C79B45-GSTK_2</t>
-  </si>
-  <si>
-    <t>C88B45-GSTK_2</t>
-  </si>
-  <si>
-    <t>C97B45-GSTK_2</t>
-  </si>
-  <si>
-    <t>C70B50-G_5</t>
-  </si>
-  <si>
-    <t>C70B50-G_6</t>
-  </si>
-  <si>
-    <t>C70B50-G_7</t>
-  </si>
-  <si>
-    <t>C70B50-G_8</t>
-  </si>
-  <si>
-    <t>C70B50-G_9</t>
-  </si>
-  <si>
-    <t>C79B50-G_5</t>
-  </si>
-  <si>
-    <t>C79B50-G_6</t>
-  </si>
-  <si>
-    <t>C79B50-G_7</t>
-  </si>
-  <si>
-    <t>C79B50-G_8</t>
-  </si>
-  <si>
-    <t>C79B50-G_9</t>
-  </si>
-  <si>
-    <t>C88B50-G_5</t>
-  </si>
-  <si>
-    <t>C88B50-G_6</t>
-  </si>
-  <si>
-    <t>C88B50-G_7</t>
-  </si>
-  <si>
-    <t>C88B50-G_8</t>
-  </si>
-  <si>
-    <t>C88B50-G_9</t>
-  </si>
-  <si>
-    <t>C97B50-G_5</t>
-  </si>
-  <si>
-    <t>C97B50-G_6</t>
-  </si>
-  <si>
-    <t>C97B50-G_7</t>
-  </si>
-  <si>
-    <t>C97B50-G_8</t>
-  </si>
-  <si>
-    <t>C97B50-G_9</t>
-  </si>
-  <si>
-    <t>C70B55-G_5</t>
-  </si>
-  <si>
-    <t>C70B55-G_6</t>
-  </si>
-  <si>
-    <t>C70B55-G_7</t>
-  </si>
-  <si>
-    <t>C70B55-G_8</t>
-  </si>
-  <si>
-    <t>C70B55-G_9</t>
-  </si>
-  <si>
-    <t>C79B55-G_5</t>
-  </si>
-  <si>
-    <t>C79B55-G_6</t>
-  </si>
-  <si>
-    <t>C79B55-G_7</t>
-  </si>
-  <si>
-    <t>C79B55-G_8</t>
-  </si>
-  <si>
-    <t>C79B55-G_9</t>
-  </si>
-  <si>
-    <t>C88B55-G_5</t>
-  </si>
-  <si>
-    <t>C88B55-G_6</t>
-  </si>
-  <si>
-    <t>C88B55-G_7</t>
-  </si>
-  <si>
-    <t>C88B55-G_8</t>
-  </si>
-  <si>
-    <t>C88B55-G_9</t>
-  </si>
-  <si>
-    <t>C97B55-G_5</t>
-  </si>
-  <si>
-    <t>C97B55-G_6</t>
-  </si>
-  <si>
-    <t>C97B55-G_7</t>
-  </si>
-  <si>
-    <t>C97B55-G_8</t>
-  </si>
-  <si>
-    <t>C97B55-G_9</t>
-  </si>
-  <si>
-    <t>C70B60-G_5</t>
-  </si>
-  <si>
-    <t>C70B60-G_6</t>
-  </si>
-  <si>
-    <t>C70B60-G_7</t>
-  </si>
-  <si>
-    <t>C70B60-G_8</t>
-  </si>
-  <si>
-    <t>C70B60-G_9</t>
-  </si>
-  <si>
-    <t>C79B60-G_5</t>
-  </si>
-  <si>
-    <t>C79B60-G_6</t>
-  </si>
-  <si>
-    <t>C79B60-G_7</t>
-  </si>
-  <si>
-    <t>C79B60-G_8</t>
-  </si>
-  <si>
-    <t>C79B60-G_9</t>
-  </si>
-  <si>
-    <t>C88B60-G_5</t>
-  </si>
-  <si>
-    <t>C88B60-G_6</t>
-  </si>
-  <si>
-    <t>C88B60-G_7</t>
-  </si>
-  <si>
-    <t>C88B60-G_8</t>
-  </si>
-  <si>
-    <t>C88B60-G_9</t>
-  </si>
-  <si>
-    <t>C97B60-G_5</t>
-  </si>
-  <si>
-    <t>C97B60-G_6</t>
-  </si>
-  <si>
-    <t>C97B60-G_7</t>
-  </si>
-  <si>
-    <t>C97B60-G_8</t>
-  </si>
-  <si>
-    <t>C97B60-G_9</t>
-  </si>
-  <si>
-    <t>C70B45-GDBK_2</t>
-  </si>
-  <si>
-    <t>C79B45-GDBK_2</t>
-  </si>
-  <si>
-    <t>C88B45-GDBK_2</t>
-  </si>
-  <si>
-    <t>C97B45-GDBK_2</t>
-  </si>
-  <si>
-    <t>C70B45-GSTK_3</t>
-  </si>
-  <si>
-    <t>C79B45-GSTK_3</t>
-  </si>
-  <si>
-    <t>C88B45-GSTK_3</t>
-  </si>
-  <si>
-    <t>C97B45-GSTK_3</t>
-  </si>
-  <si>
-    <t>C70B45-GDBK_3</t>
-  </si>
-  <si>
-    <t>C79B45-GDBK_3</t>
-  </si>
-  <si>
-    <t>C88B45-GDBK_3</t>
-  </si>
-  <si>
-    <t>C97B45-GDBK_3</t>
-  </si>
-  <si>
-    <t>C70B45-GSTK_4</t>
-  </si>
-  <si>
-    <t>C79B45-GSTK_4</t>
-  </si>
-  <si>
-    <t>C88B45-GSTK_4</t>
-  </si>
-  <si>
-    <t>C97B45-GSTK_4</t>
-  </si>
-  <si>
-    <t>C70B45-GDBK_4</t>
-  </si>
-  <si>
-    <t>C79B45-GDBK_4</t>
-  </si>
-  <si>
-    <t>C88B45-GDBK_4</t>
-  </si>
-  <si>
-    <t>C97B45-GDBK_4</t>
-  </si>
-  <si>
-    <t>C70B45-G_5</t>
-  </si>
-  <si>
-    <t>C79B45-G_5</t>
-  </si>
-  <si>
-    <t>C88B45-G_5</t>
-  </si>
-  <si>
-    <t>C97B45-G_5</t>
-  </si>
-  <si>
-    <t>C70B45-GSTK_5</t>
-  </si>
-  <si>
-    <t>C79B45-GSTK_5</t>
-  </si>
-  <si>
-    <t>C88B45-GSTK_5</t>
-  </si>
-  <si>
-    <t>C97B45-GSTK_5</t>
-  </si>
-  <si>
-    <t>C70B45-GDBK_5</t>
-  </si>
-  <si>
-    <t>C79B45-GDBK_5</t>
-  </si>
-  <si>
-    <t>C88B45-GDBK_5</t>
-  </si>
-  <si>
-    <t>C97B45-GDBK_5</t>
-  </si>
-  <si>
-    <t>C70B45-G_6</t>
-  </si>
-  <si>
-    <t>C79B45-G_6</t>
-  </si>
-  <si>
-    <t>C88B45-G_6</t>
-  </si>
-  <si>
-    <t>C97B45-G_6</t>
-  </si>
-  <si>
-    <t>C70B45-GSTK_6</t>
-  </si>
-  <si>
-    <t>C79B45-GSTK_6</t>
-  </si>
-  <si>
-    <t>C88B45-GSTK_6</t>
-  </si>
-  <si>
-    <t>C97B45-GSTK_6</t>
-  </si>
-  <si>
-    <t>C70B45-GDBK_6</t>
-  </si>
-  <si>
-    <t>C79B45-GDBK_6</t>
-  </si>
-  <si>
-    <t>C88B45-GDBK_6</t>
-  </si>
-  <si>
-    <t>C97B45-GDBK_6</t>
-  </si>
-  <si>
-    <t>C70B50-GSTK_1</t>
-  </si>
-  <si>
-    <t>C70B50-GSTK_2</t>
-  </si>
-  <si>
-    <t>C70B50-GSTK_3</t>
-  </si>
-  <si>
-    <t>C70B50-GSTK_4</t>
-  </si>
-  <si>
-    <t>C70B50-GSTK_5</t>
-  </si>
-  <si>
-    <t>C70B50-GSTK_6</t>
-  </si>
-  <si>
-    <t>C70B50-GSTK_7</t>
-  </si>
-  <si>
-    <t>C70B50-GSTK_8</t>
-  </si>
-  <si>
-    <t>C70B50-GSTK_9</t>
-  </si>
-  <si>
-    <t>C70B50-GSTK_10</t>
-  </si>
-  <si>
-    <t>C79B50-GST_1</t>
-  </si>
-  <si>
-    <t>C79B50-GSTK_1</t>
-  </si>
-  <si>
-    <t>C79B50-GSTK_2</t>
-  </si>
-  <si>
-    <t>C79B50-GSTK_3</t>
-  </si>
-  <si>
-    <t>C79B50-GSTK_4</t>
-  </si>
-  <si>
-    <t>C79B50-GSTK_5</t>
-  </si>
-  <si>
-    <t>C79B50-GSTK_6</t>
-  </si>
-  <si>
-    <t>C79B50-GSTK_7</t>
-  </si>
-  <si>
-    <t>C79B50-GSTK_8</t>
-  </si>
-  <si>
-    <t>C79B50-GSTK_9</t>
-  </si>
-  <si>
-    <t>C79B50-GSTK_10</t>
-  </si>
-  <si>
-    <t>C88B50-GST_1</t>
-  </si>
-  <si>
-    <t>C88B50-GSTK_1</t>
-  </si>
-  <si>
-    <t>C88B50-GSTK_2</t>
-  </si>
-  <si>
-    <t>C88B50-GSTK_3</t>
-  </si>
-  <si>
-    <t>C88B50-GSTK_4</t>
-  </si>
-  <si>
-    <t>C88B50-GSTK_5</t>
-  </si>
-  <si>
-    <t>C88B50-GSTK_6</t>
-  </si>
-  <si>
-    <t>C88B50-GSTK_7</t>
-  </si>
-  <si>
-    <t>C88B50-GSTK_8</t>
-  </si>
-  <si>
-    <t>C88B50-GSTK_9</t>
-  </si>
-  <si>
-    <t>C88B50-GSTK_10</t>
-  </si>
-  <si>
-    <t>C97B50-GST_1</t>
-  </si>
-  <si>
-    <t>C97B50-GSTK_1</t>
-  </si>
-  <si>
-    <t>C97B50-GSTK_2</t>
-  </si>
-  <si>
-    <t>C97B50-GSTK_3</t>
-  </si>
-  <si>
-    <t>C97B50-GSTK_4</t>
-  </si>
-  <si>
-    <t>C97B50-GSTK_5</t>
-  </si>
-  <si>
-    <t>C97B50-GSTK_6</t>
-  </si>
-  <si>
-    <t>C97B50-GSTK_7</t>
-  </si>
-  <si>
-    <t>C97B50-GSTK_8</t>
-  </si>
-  <si>
-    <t>C97B50-GSTK_9</t>
-  </si>
-  <si>
-    <t>C97B50-GSTK_10</t>
-  </si>
-  <si>
-    <t>C70B55-GSTK_1</t>
-  </si>
-  <si>
-    <t>C70B55-GSTK_2</t>
-  </si>
-  <si>
-    <t>C70B55-GSTK_3</t>
-  </si>
-  <si>
-    <t>C70B55-GSTK_4</t>
-  </si>
-  <si>
-    <t>C70B55-GSTK_5</t>
-  </si>
-  <si>
-    <t>C70B55-GSTK_6</t>
-  </si>
-  <si>
-    <t>C70B55-GSTK_7</t>
-  </si>
-  <si>
-    <t>C70B55-GSTK_8</t>
-  </si>
-  <si>
-    <t>C70B55-GSTK_9</t>
-  </si>
-  <si>
-    <t>C70B55-GSTK_10</t>
-  </si>
-  <si>
-    <t>C79B55-GST_1</t>
-  </si>
-  <si>
-    <t>C79B55-GSTK_1</t>
-  </si>
-  <si>
-    <t>C79B55-GSTK_2</t>
-  </si>
-  <si>
-    <t>C79B55-GSTK_3</t>
-  </si>
-  <si>
-    <t>C79B55-GSTK_4</t>
-  </si>
-  <si>
-    <t>C79B55-GSTK_5</t>
-  </si>
-  <si>
-    <t>C79B55-GSTK_6</t>
-  </si>
-  <si>
-    <t>C79B55-GSTK_7</t>
-  </si>
-  <si>
-    <t>C79B55-GSTK_8</t>
-  </si>
-  <si>
-    <t>C79B55-GSTK_9</t>
-  </si>
-  <si>
-    <t>C79B55-GSTK_10</t>
-  </si>
-  <si>
-    <t>C88B55-GST_1</t>
-  </si>
-  <si>
-    <t>C88B55-GSTK_1</t>
-  </si>
-  <si>
-    <t>C88B55-GSTK_2</t>
-  </si>
-  <si>
-    <t>C88B55-GSTK_3</t>
-  </si>
-  <si>
-    <t>C88B55-GSTK_4</t>
-  </si>
-  <si>
-    <t>C88B55-GSTK_5</t>
-  </si>
-  <si>
-    <t>C88B55-GSTK_6</t>
-  </si>
-  <si>
-    <t>C88B55-GSTK_7</t>
-  </si>
-  <si>
-    <t>C88B55-GSTK_8</t>
-  </si>
-  <si>
-    <t>C88B55-GSTK_9</t>
-  </si>
-  <si>
-    <t>C88B55-GSTK_10</t>
-  </si>
-  <si>
-    <t>C97B55-GST_1</t>
-  </si>
-  <si>
-    <t>C97B55-GSTK_1</t>
-  </si>
-  <si>
-    <t>C97B55-GSTK_2</t>
-  </si>
-  <si>
-    <t>C97B55-GSTK_3</t>
-  </si>
-  <si>
-    <t>C97B55-GSTK_4</t>
-  </si>
-  <si>
-    <t>C97B55-GSTK_5</t>
-  </si>
-  <si>
-    <t>C97B55-GSTK_6</t>
-  </si>
-  <si>
-    <t>C97B55-GSTK_7</t>
-  </si>
-  <si>
-    <t>C97B55-GSTK_8</t>
-  </si>
-  <si>
-    <t>C97B55-GSTK_9</t>
-  </si>
-  <si>
-    <t>C97B55-GSTK_10</t>
-  </si>
-  <si>
-    <t>C70B60-GSTK_1</t>
-  </si>
-  <si>
-    <t>C70B60-GSTK_2</t>
-  </si>
-  <si>
-    <t>C70B60-GSTK_3</t>
-  </si>
-  <si>
-    <t>C70B60-GSTK_4</t>
-  </si>
-  <si>
-    <t>C70B60-GSTK_5</t>
-  </si>
-  <si>
-    <t>C70B60-GSTK_6</t>
-  </si>
-  <si>
-    <t>C70B60-GSTK_7</t>
-  </si>
-  <si>
-    <t>C70B60-GSTK_8</t>
-  </si>
-  <si>
-    <t>C70B60-GSTK_9</t>
-  </si>
-  <si>
-    <t>C70B60-GSTK_10</t>
-  </si>
-  <si>
-    <t>C79B60-GST_1</t>
-  </si>
-  <si>
-    <t>C79B60-GSTK_1</t>
-  </si>
-  <si>
-    <t>C79B60-GSTK_2</t>
-  </si>
-  <si>
-    <t>C79B60-GSTK_3</t>
-  </si>
-  <si>
-    <t>C79B60-GSTK_4</t>
-  </si>
-  <si>
-    <t>C79B60-GSTK_5</t>
-  </si>
-  <si>
-    <t>C79B60-GSTK_6</t>
-  </si>
-  <si>
-    <t>C79B60-GSTK_7</t>
-  </si>
-  <si>
-    <t>C79B60-GSTK_8</t>
-  </si>
-  <si>
-    <t>C79B60-GSTK_9</t>
-  </si>
-  <si>
-    <t>C79B60-GSTK_10</t>
-  </si>
-  <si>
-    <t>C88B60-GSTK_1</t>
-  </si>
-  <si>
-    <t>C88B60-GSTK_2</t>
-  </si>
-  <si>
-    <t>C88B60-GSTK_3</t>
-  </si>
-  <si>
-    <t>C88B60-GSTK_4</t>
-  </si>
-  <si>
-    <t>C88B60-GSTK_5</t>
-  </si>
-  <si>
-    <t>C88B60-GSTK_6</t>
-  </si>
-  <si>
-    <t>C88B60-GSTK_7</t>
-  </si>
-  <si>
-    <t>C88B60-GSTK_8</t>
-  </si>
-  <si>
-    <t>C88B60-GSTK_9</t>
-  </si>
-  <si>
-    <t>C88B60-GSTK_10</t>
-  </si>
-  <si>
-    <t>C97B60-GST_1</t>
-  </si>
-  <si>
-    <t>C97B60-GSTK_1</t>
-  </si>
-  <si>
-    <t>C97B60-GSTK_2</t>
-  </si>
-  <si>
-    <t>C97B60-GSTK_3</t>
-  </si>
-  <si>
-    <t>C97B60-GSTK_4</t>
-  </si>
-  <si>
-    <t>C97B60-GSTK_5</t>
-  </si>
-  <si>
-    <t>C97B60-GSTK_6</t>
-  </si>
-  <si>
-    <t>C97B60-GSTK_7</t>
-  </si>
-  <si>
-    <t>C97B60-GSTK_8</t>
-  </si>
-  <si>
-    <t>C97B60-GSTK_9</t>
-  </si>
-  <si>
-    <t>C97B60-GSTK_10</t>
-  </si>
-  <si>
-    <t>C70B45-G_7</t>
-  </si>
-  <si>
-    <t>C79B45-G_7</t>
-  </si>
-  <si>
-    <t>C88B45-G_7</t>
-  </si>
-  <si>
-    <t>C97B45-G_7</t>
-  </si>
-  <si>
-    <t>C70B45-GSTK_7</t>
-  </si>
-  <si>
-    <t>C79B45-GSTK_7</t>
-  </si>
-  <si>
-    <t>C88B45-GSTK_7</t>
-  </si>
-  <si>
-    <t>C97B45-GSTK_7</t>
-  </si>
-  <si>
-    <t>C70B45-GDBK_7</t>
-  </si>
-  <si>
-    <t>C79B45-GDBK_7</t>
-  </si>
-  <si>
-    <t>C88B45-GDBK_7</t>
-  </si>
-  <si>
-    <t>C97B45-GDBK_7</t>
-  </si>
-  <si>
-    <t>C70B45-G_8</t>
-  </si>
-  <si>
-    <t>C79B45-G_8</t>
-  </si>
-  <si>
-    <t>C88B45-G_8</t>
-  </si>
-  <si>
-    <t>C97B45-G_8</t>
-  </si>
-  <si>
-    <t>C70B45-GSTK_8</t>
-  </si>
-  <si>
-    <t>C79B45-GSTK_8</t>
-  </si>
-  <si>
-    <t>C88B45-GSTK_8</t>
-  </si>
-  <si>
-    <t>C97B45-GSTK_8</t>
-  </si>
-  <si>
-    <t>C70B45-GDBK_8</t>
-  </si>
-  <si>
-    <t>C79B45-GDBK_8</t>
-  </si>
-  <si>
-    <t>C88B45-GDBK_8</t>
-  </si>
-  <si>
-    <t>C97B45-GDBK_8</t>
-  </si>
-  <si>
-    <t>C70B45-G_9</t>
-  </si>
-  <si>
-    <t>C79B45-G_9</t>
-  </si>
-  <si>
-    <t>C88B45-G_9</t>
-  </si>
-  <si>
-    <t>C97B45-G_9</t>
-  </si>
-  <si>
-    <t>C70B45-GSTK_9</t>
-  </si>
-  <si>
-    <t>C79B45-GSTK_9</t>
-  </si>
-  <si>
-    <t>C88B45-GSTK_9</t>
-  </si>
-  <si>
-    <t>C97B45-GSTK_9</t>
-  </si>
-  <si>
-    <t>C70B45-GDBK_9</t>
-  </si>
-  <si>
-    <t>C79B45-GDBK_9</t>
-  </si>
-  <si>
-    <t>C88B45-GDBK_9</t>
-  </si>
-  <si>
-    <t>C97B45-GDBK_9</t>
-  </si>
-  <si>
-    <t>C70B45-GSTK_10</t>
-  </si>
-  <si>
-    <t>C79B45-GSTK_10</t>
-  </si>
-  <si>
-    <t>C88B45-GSTK_10</t>
-  </si>
-  <si>
-    <t>C97B45-GSTK_10</t>
-  </si>
-  <si>
-    <t>C70B45-GDBK_10</t>
-  </si>
-  <si>
-    <t>C79B45-GDBK_10</t>
-  </si>
-  <si>
-    <t>C88B45-GDBK_10</t>
-  </si>
-  <si>
-    <t>C97B45-GDBK_10</t>
-  </si>
-  <si>
-    <t>C70B50-GDBK_1</t>
-  </si>
-  <si>
-    <t>C70B50-GDBK_2</t>
-  </si>
-  <si>
-    <t>C70B50-GDBK_3</t>
-  </si>
-  <si>
-    <t>C70B50-GDBK_4</t>
-  </si>
-  <si>
-    <t>C70B50-GDBK_5</t>
-  </si>
-  <si>
-    <t>C70B50-GDBK_6</t>
-  </si>
-  <si>
-    <t>C70B50-GDBK_7</t>
-  </si>
-  <si>
-    <t>C70B50-GDBK_8</t>
-  </si>
-  <si>
-    <t>C70B50-GDBK_9</t>
-  </si>
-  <si>
-    <t>C70B50-GDBK_10</t>
-  </si>
-  <si>
-    <t>C79B50-GDB_1</t>
-  </si>
-  <si>
-    <t>C79B50-GDBK_1</t>
-  </si>
-  <si>
-    <t>C79B50-GDBK_2</t>
-  </si>
-  <si>
-    <t>C79B50-GDBK_3</t>
-  </si>
-  <si>
-    <t>C79B50-GDBK_4</t>
-  </si>
-  <si>
-    <t>C79B50-GDBK_5</t>
-  </si>
-  <si>
-    <t>C79B50-GDBK_6</t>
-  </si>
-  <si>
-    <t>C79B50-GDBK_7</t>
-  </si>
-  <si>
-    <t>C79B50-GDBK_8</t>
-  </si>
-  <si>
-    <t>C79B50-GDBK_9</t>
-  </si>
-  <si>
-    <t>C79B50-GDBK_10</t>
-  </si>
-  <si>
-    <t>C88B50-GDB_1</t>
-  </si>
-  <si>
-    <t>C88B50-GDBK_1</t>
-  </si>
-  <si>
-    <t>C88B50-GDBK_2</t>
-  </si>
-  <si>
-    <t>C88B50-GDBK_3</t>
-  </si>
-  <si>
-    <t>C88B50-GDBK_4</t>
-  </si>
-  <si>
-    <t>C88B50-GDBK_5</t>
-  </si>
-  <si>
-    <t>C88B50-GDBK_6</t>
-  </si>
-  <si>
-    <t>C88B50-GDBK_7</t>
-  </si>
-  <si>
-    <t>C88B50-GDBK_8</t>
-  </si>
-  <si>
-    <t>C88B50-GDBK_9</t>
-  </si>
-  <si>
-    <t>C88B50-GDBK_10</t>
-  </si>
-  <si>
-    <t>C97B50-GDB_1</t>
-  </si>
-  <si>
-    <t>C97B50-GDBK_1</t>
-  </si>
-  <si>
-    <t>C97B50-GDBK_2</t>
-  </si>
-  <si>
-    <t>C97B50-GDBK_3</t>
-  </si>
-  <si>
-    <t>C97B50-GDBK_4</t>
-  </si>
-  <si>
-    <t>C97B50-GDBK_5</t>
-  </si>
-  <si>
-    <t>C97B50-GDBK_6</t>
-  </si>
-  <si>
-    <t>C97B50-GDBK_7</t>
-  </si>
-  <si>
-    <t>C97B50-GDBK_8</t>
-  </si>
-  <si>
-    <t>C97B50-GDBK_9</t>
-  </si>
-  <si>
-    <t>C97B50-GDBK_10</t>
-  </si>
-  <si>
-    <t>C70B55-GDBK_1</t>
-  </si>
-  <si>
-    <t>C70B55-GDBK_2</t>
-  </si>
-  <si>
-    <t>C70B55-GDBK_3</t>
-  </si>
-  <si>
-    <t>C70B55-GDBK_4</t>
-  </si>
-  <si>
-    <t>C70B55-GDBK_5</t>
-  </si>
-  <si>
-    <t>C70B55-GDBK_6</t>
-  </si>
-  <si>
-    <t>C70B55-GDBK_7</t>
-  </si>
-  <si>
-    <t>C70B55-GDBK_8</t>
-  </si>
-  <si>
-    <t>C70B55-GDBK_9</t>
-  </si>
-  <si>
-    <t>C70B55-GDBK_10</t>
-  </si>
-  <si>
-    <t>C79B55-GDB_1</t>
-  </si>
-  <si>
-    <t>C79B55-GDBK_1</t>
-  </si>
-  <si>
-    <t>C79B55-GDBK_2</t>
-  </si>
-  <si>
-    <t>C79B55-GDBK_3</t>
-  </si>
-  <si>
-    <t>C79B55-GDBK_4</t>
-  </si>
-  <si>
-    <t>C79B55-GDBK_5</t>
-  </si>
-  <si>
-    <t>C79B55-GDBK_6</t>
-  </si>
-  <si>
-    <t>C79B55-GDBK_7</t>
-  </si>
-  <si>
-    <t>C79B55-GDBK_8</t>
-  </si>
-  <si>
-    <t>C79B55-GDBK_9</t>
-  </si>
-  <si>
-    <t>C79B55-GDBK_10</t>
-  </si>
-  <si>
-    <t>C88B55-GDB_1</t>
-  </si>
-  <si>
-    <t>C88B55-GDBK_1</t>
-  </si>
-  <si>
-    <t>C88B55-GDBK_2</t>
-  </si>
-  <si>
-    <t>C88B55-GDBK_3</t>
-  </si>
-  <si>
-    <t>C88B55-GDBK_4</t>
-  </si>
-  <si>
-    <t>C88B55-GDBK_5</t>
-  </si>
-  <si>
-    <t>C88B55-GDBK_6</t>
-  </si>
-  <si>
-    <t>C88B55-GDBK_7</t>
-  </si>
-  <si>
-    <t>C88B55-GDBK_8</t>
-  </si>
-  <si>
-    <t>C88B55-GDBK_9</t>
-  </si>
-  <si>
-    <t>C88B55-GDBK_10</t>
-  </si>
-  <si>
-    <t>C97B55-GDB_1</t>
-  </si>
-  <si>
-    <t>C97B55-GDBK_1</t>
-  </si>
-  <si>
-    <t>C97B55-GDBK_2</t>
-  </si>
-  <si>
-    <t>C97B55-GDBK_3</t>
-  </si>
-  <si>
-    <t>C97B55-GDBK_4</t>
-  </si>
-  <si>
-    <t>C97B55-GDBK_5</t>
-  </si>
-  <si>
-    <t>C97B55-GDBK_6</t>
-  </si>
-  <si>
-    <t>C97B55-GDBK_7</t>
-  </si>
-  <si>
-    <t>C97B55-GDBK_8</t>
-  </si>
-  <si>
-    <t>C97B55-GDBK_9</t>
-  </si>
-  <si>
-    <t>C97B55-GDBK_10</t>
-  </si>
-  <si>
-    <t>C70B60-GDBK_1</t>
-  </si>
-  <si>
-    <t>C70B60-GDBK_2</t>
-  </si>
-  <si>
-    <t>C70B60-GDBK_3</t>
-  </si>
-  <si>
-    <t>C70B60-GDBK_4</t>
-  </si>
-  <si>
-    <t>C70B60-GDBK_5</t>
-  </si>
-  <si>
-    <t>C70B60-GDBK_6</t>
-  </si>
-  <si>
-    <t>C70B60-GDBK_7</t>
-  </si>
-  <si>
-    <t>C70B60-GDBK_8</t>
-  </si>
-  <si>
-    <t>C70B60-GDBK_9</t>
-  </si>
-  <si>
-    <t>C70B60-GDBK_10</t>
-  </si>
-  <si>
-    <t>C79B60-GDB_1</t>
-  </si>
-  <si>
-    <t>C79B60-GDBK_1</t>
-  </si>
-  <si>
-    <t>C79B60-GDBK_2</t>
-  </si>
-  <si>
-    <t>C79B60-GDBK_3</t>
-  </si>
-  <si>
-    <t>C79B60-GDBK_4</t>
-  </si>
-  <si>
-    <t>C79B60-GDBK_5</t>
-  </si>
-  <si>
-    <t>C79B60-GDBK_6</t>
-  </si>
-  <si>
-    <t>C79B60-GDBK_7</t>
-  </si>
-  <si>
-    <t>C79B60-GDBK_8</t>
-  </si>
-  <si>
-    <t>C79B60-GDBK_9</t>
-  </si>
-  <si>
-    <t>C79B60-GDBK_10</t>
-  </si>
-  <si>
-    <t>C88B60-GDB_1</t>
-  </si>
-  <si>
-    <t>C88B60-GDBK_1</t>
-  </si>
-  <si>
-    <t>C88B60-GDBK_2</t>
-  </si>
-  <si>
-    <t>C88B60-GDBK_3</t>
-  </si>
-  <si>
-    <t>C88B60-GDBK_4</t>
-  </si>
-  <si>
-    <t>C88B60-GDBK_5</t>
-  </si>
-  <si>
-    <t>C88B60-GDBK_6</t>
-  </si>
-  <si>
-    <t>C88B60-GDBK_7</t>
-  </si>
-  <si>
-    <t>C88B60-GDBK_8</t>
-  </si>
-  <si>
-    <t>C88B60-GDBK_9</t>
-  </si>
-  <si>
-    <t>C88B60-GDBK_10</t>
-  </si>
-  <si>
-    <t>C97B60-GDB_1</t>
-  </si>
-  <si>
-    <t>C97B60-GDBK_1</t>
-  </si>
-  <si>
-    <t>C97B60-GDBK_2</t>
-  </si>
-  <si>
-    <t>C97B60-GDBK_3</t>
-  </si>
-  <si>
-    <t>C97B60-GDBK_4</t>
-  </si>
-  <si>
-    <t>C97B60-GDBK_5</t>
-  </si>
-  <si>
-    <t>C97B60-GDBK_6</t>
-  </si>
-  <si>
-    <t>C97B60-GDBK_7</t>
-  </si>
-  <si>
-    <t>C97B60-GDBK_8</t>
-  </si>
-  <si>
-    <t>C97B60-GDBK_9</t>
-  </si>
-  <si>
-    <t>C97B60-GDBK_10</t>
-  </si>
-  <si>
-    <t>2022 - P10 Berekening GLAS DEUR Hangkast 700-KLEUR.xlsx</t>
-  </si>
-  <si>
-    <t>2022 - P1 Berekening GLAS DEUR Hangkast 790-KLEUR.xlsx</t>
-  </si>
-  <si>
-    <t>2022 - P1 Berekening GLAS DEUR Hangkast 880-KLEUR.xlsx</t>
-  </si>
-  <si>
-    <t>2022 - P2 Berekening GLAS DEUR Hangkast 700-KLEUR.xlsx</t>
-  </si>
-  <si>
-    <t>2022 - P2 Berekening GLAS DEUR Hangkast 790-KLEUR.xlsx</t>
-  </si>
-  <si>
-    <t>2022 - P2 Berekening GLAS DEUR Hangkast 880-KLEUR.xlsx</t>
-  </si>
-  <si>
-    <t>2022 - P6 Berekening GLAS DEUR Hangkast 700-KLEUR.xlsx</t>
-  </si>
-  <si>
-    <t>2022 - P7 Berekening GLAS DEUR Hangkast 700-KLEUR.xlsx</t>
-  </si>
-  <si>
-    <t>2022 - P8 Berekening GLAS DEUR Hangkast 700-KLEUR.xlsx</t>
-  </si>
-  <si>
-    <t>2022 - P9 Berekening GLAS DEUR Hangkast 700-KLEUR.xlsx</t>
-  </si>
-  <si>
-    <t>2022 - P5 Berekening GLAS DEUR Hangkast 790-KLEUR.xlsx</t>
-  </si>
-  <si>
-    <t>2022 - P6 Berekening GLAS DEUR Hangkast 790-KLEUR.xlsx</t>
-  </si>
-  <si>
-    <t>2022 - P7 Berekening GLAS DEUR Hangkast 790-KLEUR.xlsx</t>
-  </si>
-  <si>
-    <t>2022 - P8 Berekening GLAS DEUR Hangkast 790-KLEUR.xlsx</t>
-  </si>
-  <si>
-    <t>2022 - P9 Berekening GLAS DEUR Hangkast 790-KLEUR.xlsx</t>
-  </si>
-  <si>
-    <t>2022 - P5 Berekening GLAS DEUR Hangkast 880-KLEUR.xlsx</t>
-  </si>
-  <si>
-    <t>2022 - P6 Berekening GLAS DEUR Hangkast 880-KLEUR.xlsx</t>
-  </si>
-  <si>
-    <t>2022 - P7 Berekening GLAS DEUR Hangkast 880-KLEUR.xlsx</t>
-  </si>
-  <si>
-    <t>2022 - P8 Berekening GLAS DEUR Hangkast 880-KLEUR.xlsx</t>
-  </si>
-  <si>
-    <t>2022 - P9 Berekening GLAS DEUR Hangkast 880-KLEUR.xlsx</t>
-  </si>
-  <si>
-    <t>2022 - P3 Berekening GLAS DEUR Hangkast 700-KLEUR.xlsx</t>
-  </si>
-  <si>
-    <t>2022 - P3 Berekening GLAS DEUR Hangkast 790-KLEUR.xlsx</t>
-  </si>
-  <si>
-    <t>2022 - P3 Berekening GLAS DEUR Hangkast 880-KLEUR.xlsx</t>
-  </si>
-  <si>
-    <t>2022 - P4 Berekening GLAS DEUR Hangkast 700-KLEUR.xlsx</t>
-  </si>
-  <si>
-    <t>2022 - P4 Berekening GLAS DEUR Hangkast 790-KLEUR.xlsx</t>
-  </si>
-  <si>
-    <t>2022 - P4 Berekening GLAS DEUR Hangkast 880-KLEUR.xlsx</t>
-  </si>
-  <si>
-    <t>2022 - P10 Berekening GLAS DEUR Hangkast 790-KLEUR.xlsx</t>
-  </si>
-  <si>
-    <t>2022 - P10 Berekening GLAS DEUR Hangkast 880-KLEUR.xlsx</t>
+    <t>C66DK60_2</t>
+  </si>
+  <si>
+    <t>2022 - p2  Berekening Hoek Hangkasten 700+KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>C66K90_2</t>
+  </si>
+  <si>
+    <t>C70HB90_2</t>
+  </si>
+  <si>
+    <t>C70SHB60_2</t>
+  </si>
+  <si>
+    <t>C70SHB64_2</t>
+  </si>
+  <si>
+    <t>C70HB60_2</t>
+  </si>
+  <si>
+    <t>C70HB64_2</t>
+  </si>
+  <si>
+    <t>CO15_1</t>
+  </si>
+  <si>
+    <t>H61</t>
+  </si>
+  <si>
+    <t>2022 - P1 Berekening Open Onderkasten 794-KLEUR.xlsx</t>
+  </si>
+  <si>
+    <t>OVERZICHT PO</t>
   </si>
 </sst>
 </file>
@@ -4072,7 +2712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4081,6 +2721,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4107,114 +2748,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Dashboard"/>
-      <sheetName val="Price Details"/>
-      <sheetName val="Catalogue"/>
-      <sheetName val="Products"/>
-      <sheetName val="P_P"/>
-      <sheetName val="P_E"/>
-      <sheetName val="P_LADE"/>
-      <sheetName val="P_BM"/>
-      <sheetName val="P_Hardcoded"/>
-      <sheetName val="Elements"/>
-      <sheetName val="E_R (Time)"/>
-      <sheetName val="E_R (LM)"/>
-      <sheetName val="E_R (Stuk)"/>
-      <sheetName val="E_R (surface)"/>
-      <sheetName val="E_AFVAL"/>
-      <sheetName val="Resources"/>
-      <sheetName val="Base_Materials"/>
-      <sheetName val="Base_Operations"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>13</v>
-    <v>3</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_error">
-    <k n="errorType" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
-</rvStructures>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4561,17 +3094,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535C4B85-08F9-4009-85A5-566FB6CE48DF}">
-  <dimension ref="A1:H433"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H332"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="69.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="6" max="6" width="54.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -4583,7 +3116,7 @@
     <col min="15" max="15" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>106</v>
       </c>
@@ -4598,7360 +3131,116 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>477</v>
+        <v>859</v>
       </c>
       <c r="B2" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+        <v>860</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>737</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" t="str" cm="1">
-        <f t="array" ref="F2:F432">_xlfn.LET(
-    _xlpm.colA, Table2[Product_Id],
-    _xlpm.colB, [1]!Products_Table[Product_ID],
-    _xlpm.common, _xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlpm.colA, ISNUMBER(MATCH(_xlpm.colA, _xlpm.colB, 0))))),
-    _xlpm.common
-)</f>
-        <v>C70B45-G_5</v>
-      </c>
-      <c r="H2" t="e" cm="1" vm="1">
-        <f t="array" ref="H2">_xlfn.LET(
-    _xlpm.colA, Table2[Product_Id],
-    _xlpm.colB,_xlfn.ANCHORARRAY( F2),
-    _xlpm.notInB, _xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlpm.colA, ISNA(MATCH(_xlpm.colA, _xlpm.colB, 0))))),
-    _xlpm.notInB
-)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>861</v>
+      </c>
+      <c r="B3" t="s">
         <v>860</v>
       </c>
-      <c r="B3" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
+      <c r="C3" s="4" t="s">
+        <v>737</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" t="str">
-        <v>C70B45-G_6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B4" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
+        <v>860</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>737</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" t="str">
-        <v>C70B45-G_7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B5" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
+        <v>860</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>737</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" t="str">
-        <v>C70B45-G_8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B6" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
+        <v>860</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>737</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" t="str">
-        <v>C70B45-G_9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B7" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
+        <v>860</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>737</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" t="str">
-        <v>C70B45-GDB_1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
+        <v>860</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>737</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" t="str">
-        <v>C70B45-GDBK_1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
+        <v>869</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>870</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" t="str">
-        <v>C70B45-GDBK_10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>437</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="str">
-        <v>C70B45-GDBK_2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>867</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="str">
-        <v>C70B45-GDBK_3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
         <v>868</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" t="str">
-        <v>C70B45-GDBK_4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>869</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" t="str">
-        <v>C70B45-GDBK_5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>870</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="str">
-        <v>C70B45-GDBK_6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>871</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" t="str">
-        <v>C70B45-GDBK_7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>872</v>
-      </c>
-      <c r="B16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" t="str">
-        <v>C70B45-GDBK_8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>873</v>
-      </c>
-      <c r="B17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" t="str">
-        <v>C70B45-GDBK_9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>874</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" t="str">
-        <v>C70B45-GST_1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>875</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" t="str">
-        <v>C70B45-GSTK_1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>876</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" t="str">
-        <v>C70B45-GSTK_10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>877</v>
-      </c>
-      <c r="B21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" t="str">
-        <v>C70B45-GSTK_2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>878</v>
-      </c>
-      <c r="B22" t="s">
-        <v>859</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" t="str">
-        <v>C70B45-GSTK_3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>879</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" t="str">
-        <v>C70B45-GSTK_4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>880</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" t="str">
-        <v>C70B45-GSTK_5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>881</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" t="str">
-        <v>C70B45-GSTK_6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>882</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" t="str">
-        <v>C70B45-GSTK_7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>883</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" t="str">
-        <v>C70B45-GSTK_8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>884</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" t="str">
-        <v>C70B45-GSTK_9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>885</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" t="str">
-        <v>C70B50-G_5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>886</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" t="str">
-        <v>C70B50-G_6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>887</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" t="str">
-        <v>C70B50-G_7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>888</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" t="str">
-        <v>C70B50-G_8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>889</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" t="str">
-        <v>C70B50-G_9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>890</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" t="str">
-        <v>C70B50-GDB_1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>891</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" t="str">
-        <v>C70B50-GDBK_1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>892</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" t="str">
-        <v>C70B50-GDBK_10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>893</v>
-      </c>
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>79</v>
-      </c>
-      <c r="F37" t="str">
-        <v>C70B50-GDBK_2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>894</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" t="str">
-        <v>C70B50-GDBK_3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>895</v>
-      </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" t="str">
-        <v>C70B50-GDBK_4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>896</v>
-      </c>
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" t="str">
-        <v>C70B50-GDBK_5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>897</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" t="s">
-        <v>79</v>
-      </c>
-      <c r="F41" t="str">
-        <v>C70B50-GDBK_6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>898</v>
-      </c>
-      <c r="B42" t="s">
-        <v>859</v>
-      </c>
-      <c r="C42" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" t="s">
-        <v>80</v>
-      </c>
-      <c r="F42" t="str">
-        <v>C70B50-GDBK_7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>899</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" t="s">
-        <v>80</v>
-      </c>
-      <c r="F43" t="str">
-        <v>C70B50-GDBK_8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>900</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" t="s">
-        <v>80</v>
-      </c>
-      <c r="F44" t="str">
-        <v>C70B50-GDBK_9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>901</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C45" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" t="s">
-        <v>80</v>
-      </c>
-      <c r="F45" t="str">
-        <v>C70B50-GST_1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>902</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C46" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" t="s">
-        <v>80</v>
-      </c>
-      <c r="F46" t="str">
-        <v>C70B50-GSTK_1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>903</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C47" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" t="s">
-        <v>80</v>
-      </c>
-      <c r="F47" t="str">
-        <v>C70B50-GSTK_10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>904</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C48" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" t="s">
-        <v>80</v>
-      </c>
-      <c r="F48" t="str">
-        <v>C70B50-GSTK_2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>905</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C49" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" t="s">
-        <v>80</v>
-      </c>
-      <c r="F49" t="str">
-        <v>C70B50-GSTK_3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>906</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" t="s">
-        <v>80</v>
-      </c>
-      <c r="F50" t="str">
-        <v>C70B50-GSTK_4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>907</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C51" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" t="s">
-        <v>80</v>
-      </c>
-      <c r="F51" t="str">
-        <v>C70B50-GSTK_5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>908</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C52" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" t="s">
-        <v>80</v>
-      </c>
-      <c r="F52" t="str">
-        <v>C70B50-GSTK_6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>909</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C53" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" t="s">
-        <v>80</v>
-      </c>
-      <c r="F53" t="str">
-        <v>C70B50-GSTK_7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>910</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C54" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" t="s">
-        <v>80</v>
-      </c>
-      <c r="F54" t="str">
-        <v>C70B50-GSTK_8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>911</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C55" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" t="s">
-        <v>80</v>
-      </c>
-      <c r="F55" t="str">
-        <v>C70B50-GSTK_9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>912</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C56" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" t="s">
-        <v>80</v>
-      </c>
-      <c r="F56" t="str">
-        <v>C70B55-G_5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>913</v>
-      </c>
-      <c r="B57" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" t="s">
-        <v>80</v>
-      </c>
-      <c r="F57" t="str">
-        <v>C70B55-G_6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>914</v>
-      </c>
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" t="s">
-        <v>80</v>
-      </c>
-      <c r="F58" t="str">
-        <v>C70B55-G_7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>915</v>
-      </c>
-      <c r="B59" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" t="s">
-        <v>80</v>
-      </c>
-      <c r="F59" t="str">
-        <v>C70B55-G_8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>916</v>
-      </c>
-      <c r="B60" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" t="s">
-        <v>80</v>
-      </c>
-      <c r="F60" t="str">
-        <v>C70B55-G_9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>917</v>
-      </c>
-      <c r="B61" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" t="s">
-        <v>80</v>
-      </c>
-      <c r="F61" t="str">
-        <v>C70B55-GDB_1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>918</v>
-      </c>
-      <c r="B62" t="s">
-        <v>859</v>
-      </c>
-      <c r="C62" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" t="s">
-        <v>81</v>
-      </c>
-      <c r="F62" t="str">
-        <v>C70B55-GDBK_1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>919</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C63" t="s">
-        <v>4</v>
-      </c>
-      <c r="D63" t="s">
-        <v>81</v>
-      </c>
-      <c r="F63" t="str">
-        <v>C70B55-GDBK_10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>920</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C64" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" t="s">
-        <v>81</v>
-      </c>
-      <c r="F64" t="str">
-        <v>C70B55-GDBK_2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>921</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C65" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" t="s">
-        <v>81</v>
-      </c>
-      <c r="F65" t="str">
-        <v>C70B55-GDBK_3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>922</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C66" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66" t="s">
-        <v>81</v>
-      </c>
-      <c r="F66" t="str">
-        <v>C70B55-GDBK_4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>923</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C67" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" t="s">
-        <v>81</v>
-      </c>
-      <c r="F67" t="str">
-        <v>C70B55-GDBK_5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>924</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C68" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" t="s">
-        <v>81</v>
-      </c>
-      <c r="F68" t="str">
-        <v>C70B55-GDBK_6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>925</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C69" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69" t="s">
-        <v>81</v>
-      </c>
-      <c r="F69" t="str">
-        <v>C70B55-GDBK_7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>926</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C70" t="s">
-        <v>4</v>
-      </c>
-      <c r="D70" t="s">
-        <v>81</v>
-      </c>
-      <c r="F70" t="str">
-        <v>C70B55-GDBK_8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>927</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C71" t="s">
-        <v>4</v>
-      </c>
-      <c r="D71" t="s">
-        <v>81</v>
-      </c>
-      <c r="F71" t="str">
-        <v>C70B55-GDBK_9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>928</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C72" t="s">
-        <v>4</v>
-      </c>
-      <c r="D72" t="s">
-        <v>81</v>
-      </c>
-      <c r="F72" t="str">
-        <v>C70B55-GST_1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>929</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C73" t="s">
-        <v>4</v>
-      </c>
-      <c r="D73" t="s">
-        <v>81</v>
-      </c>
-      <c r="F73" t="str">
-        <v>C70B55-GSTK_1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>930</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C74" t="s">
-        <v>4</v>
-      </c>
-      <c r="D74" t="s">
-        <v>81</v>
-      </c>
-      <c r="F74" t="str">
-        <v>C70B55-GSTK_10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>931</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C75" t="s">
-        <v>4</v>
-      </c>
-      <c r="D75" t="s">
-        <v>81</v>
-      </c>
-      <c r="F75" t="str">
-        <v>C70B55-GSTK_2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>932</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C76" t="s">
-        <v>4</v>
-      </c>
-      <c r="D76" t="s">
-        <v>81</v>
-      </c>
-      <c r="F76" t="str">
-        <v>C70B55-GSTK_3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>933</v>
-      </c>
-      <c r="B77" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" t="s">
-        <v>4</v>
-      </c>
-      <c r="D77" t="s">
-        <v>81</v>
-      </c>
-      <c r="F77" t="str">
-        <v>C70B55-GSTK_4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>934</v>
-      </c>
-      <c r="B78" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" t="s">
-        <v>4</v>
-      </c>
-      <c r="D78" t="s">
-        <v>81</v>
-      </c>
-      <c r="F78" t="str">
-        <v>C70B55-GSTK_5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>935</v>
-      </c>
-      <c r="B79" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D79" t="s">
-        <v>81</v>
-      </c>
-      <c r="F79" t="str">
-        <v>C70B55-GSTK_6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>936</v>
-      </c>
-      <c r="B80" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" t="s">
-        <v>4</v>
-      </c>
-      <c r="D80" t="s">
-        <v>81</v>
-      </c>
-      <c r="F80" t="str">
-        <v>C70B55-GSTK_7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>937</v>
-      </c>
-      <c r="B81" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81" t="s">
-        <v>4</v>
-      </c>
-      <c r="D81" t="s">
-        <v>81</v>
-      </c>
-      <c r="F81" t="str">
-        <v>C70B55-GSTK_8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>938</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C82" t="s">
-        <v>4</v>
-      </c>
-      <c r="D82" t="s">
-        <v>88</v>
-      </c>
-      <c r="F82" t="str">
-        <v>C70B55-GSTK_9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>939</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C83" t="s">
-        <v>4</v>
-      </c>
-      <c r="D83" t="s">
-        <v>88</v>
-      </c>
-      <c r="F83" t="str">
-        <v>C70B60-G_5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>940</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C84" t="s">
-        <v>4</v>
-      </c>
-      <c r="D84" t="s">
-        <v>88</v>
-      </c>
-      <c r="F84" t="str">
-        <v>C70B60-G_6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>941</v>
-      </c>
-      <c r="B85" t="s">
-        <v>94</v>
-      </c>
-      <c r="C85" t="s">
-        <v>4</v>
-      </c>
-      <c r="D85" t="s">
-        <v>88</v>
-      </c>
-      <c r="F85" t="str">
-        <v>C70B60-G_7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>942</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C86" t="s">
-        <v>4</v>
-      </c>
-      <c r="D86" t="s">
-        <v>93</v>
-      </c>
-      <c r="F86" t="str">
-        <v>C70B60-G_8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>943</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C87" t="s">
-        <v>4</v>
-      </c>
-      <c r="D87" t="s">
-        <v>93</v>
-      </c>
-      <c r="F87" t="str">
-        <v>C70B60-G_9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>944</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1305</v>
-      </c>
-      <c r="C88" t="s">
-        <v>4</v>
-      </c>
-      <c r="D88" t="s">
-        <v>93</v>
-      </c>
-      <c r="F88" t="str">
-        <v>C70B60-GDB_1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>945</v>
-      </c>
-      <c r="B89" t="s">
-        <v>95</v>
-      </c>
-      <c r="C89" t="s">
-        <v>4</v>
-      </c>
-      <c r="D89" t="s">
-        <v>93</v>
-      </c>
-      <c r="F89" t="str">
-        <v>C70B60-GDBK_1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>946</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C90" t="s">
-        <v>4</v>
-      </c>
-      <c r="D90" t="s">
-        <v>88</v>
-      </c>
-      <c r="F90" t="str">
-        <v>C70B60-GDBK_10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>947</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C91" t="s">
-        <v>4</v>
-      </c>
-      <c r="D91" t="s">
-        <v>88</v>
-      </c>
-      <c r="F91" t="str">
-        <v>C70B60-GDBK_2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>948</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1305</v>
-      </c>
-      <c r="C92" t="s">
-        <v>4</v>
-      </c>
-      <c r="D92" t="s">
-        <v>88</v>
-      </c>
-      <c r="F92" t="str">
-        <v>C70B60-GDBK_3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>949</v>
-      </c>
-      <c r="B93" t="s">
-        <v>95</v>
-      </c>
-      <c r="C93" t="s">
-        <v>4</v>
-      </c>
-      <c r="D93" t="s">
-        <v>88</v>
-      </c>
-      <c r="F93" t="str">
-        <v>C70B60-GDBK_4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>950</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C94" t="s">
-        <v>4</v>
-      </c>
-      <c r="D94" t="s">
-        <v>93</v>
-      </c>
-      <c r="F94" t="str">
-        <v>C70B60-GDBK_5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>951</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C95" t="s">
-        <v>4</v>
-      </c>
-      <c r="D95" t="s">
-        <v>93</v>
-      </c>
-      <c r="F95" t="str">
-        <v>C70B60-GDBK_6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>952</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C96" t="s">
-        <v>4</v>
-      </c>
-      <c r="D96" t="s">
-        <v>93</v>
-      </c>
-      <c r="F96" t="str">
-        <v>C70B60-GDBK_7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>953</v>
-      </c>
-      <c r="B97" t="s">
-        <v>96</v>
-      </c>
-      <c r="C97" t="s">
-        <v>4</v>
-      </c>
-      <c r="D97" t="s">
-        <v>93</v>
-      </c>
-      <c r="F97" t="str">
-        <v>C70B60-GDBK_8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>954</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C98" t="s">
-        <v>4</v>
-      </c>
-      <c r="D98" t="s">
-        <v>88</v>
-      </c>
-      <c r="F98" t="str">
-        <v>C70B60-GDBK_9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>955</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C99" t="s">
-        <v>4</v>
-      </c>
-      <c r="D99" t="s">
-        <v>88</v>
-      </c>
-      <c r="F99" t="str">
-        <v>C70B60-GST_1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>956</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C100" t="s">
-        <v>4</v>
-      </c>
-      <c r="D100" t="s">
-        <v>88</v>
-      </c>
-      <c r="F100" t="str">
-        <v>C70B60-GSTK_1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>957</v>
-      </c>
-      <c r="B101" t="s">
-        <v>96</v>
-      </c>
-      <c r="C101" t="s">
-        <v>4</v>
-      </c>
-      <c r="D101" t="s">
-        <v>88</v>
-      </c>
-      <c r="F101" t="str">
-        <v>C70B60-GSTK_10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>958</v>
-      </c>
-      <c r="B102" t="s">
-        <v>859</v>
-      </c>
-      <c r="C102" t="s">
-        <v>4</v>
-      </c>
-      <c r="D102" t="s">
-        <v>78</v>
-      </c>
-      <c r="F102" t="str">
-        <v>C70B60-GSTK_2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>959</v>
-      </c>
-      <c r="B103" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C103" t="s">
-        <v>4</v>
-      </c>
-      <c r="D103" t="s">
-        <v>78</v>
-      </c>
-      <c r="F103" t="str">
-        <v>C70B60-GSTK_3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>960</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C104" t="s">
-        <v>4</v>
-      </c>
-      <c r="D104" t="s">
-        <v>78</v>
-      </c>
-      <c r="F104" t="str">
-        <v>C70B60-GSTK_4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>961</v>
-      </c>
-      <c r="B105" t="s">
-        <v>6</v>
-      </c>
-      <c r="C105" t="s">
-        <v>4</v>
-      </c>
-      <c r="D105" t="s">
-        <v>78</v>
-      </c>
-      <c r="F105" t="str">
-        <v>C70B60-GSTK_5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>962</v>
-      </c>
-      <c r="B106" t="s">
-        <v>859</v>
-      </c>
-      <c r="C106" t="s">
-        <v>4</v>
-      </c>
-      <c r="D106" t="s">
-        <v>93</v>
-      </c>
-      <c r="F106" t="str">
-        <v>C70B60-GSTK_6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>963</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C107" t="s">
-        <v>4</v>
-      </c>
-      <c r="D107" t="s">
-        <v>93</v>
-      </c>
-      <c r="F107" t="str">
-        <v>C70B60-GSTK_7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>964</v>
-      </c>
-      <c r="B108" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C108" t="s">
-        <v>4</v>
-      </c>
-      <c r="D108" t="s">
-        <v>93</v>
-      </c>
-      <c r="F108" t="str">
-        <v>C70B60-GSTK_8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>965</v>
-      </c>
-      <c r="B109" t="s">
-        <v>6</v>
-      </c>
-      <c r="C109" t="s">
-        <v>4</v>
-      </c>
-      <c r="D109" t="s">
-        <v>93</v>
-      </c>
-      <c r="F109" t="str">
-        <v>C70B60-GSTK_9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>966</v>
-      </c>
-      <c r="B110" t="s">
-        <v>859</v>
-      </c>
-      <c r="C110" t="s">
-        <v>4</v>
-      </c>
-      <c r="D110" t="s">
-        <v>88</v>
-      </c>
-      <c r="F110" t="str">
-        <v>C79B45-G_5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>967</v>
-      </c>
-      <c r="B111" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C111" t="s">
-        <v>4</v>
-      </c>
-      <c r="D111" t="s">
-        <v>88</v>
-      </c>
-      <c r="F111" t="str">
-        <v>C79B45-G_6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>968</v>
-      </c>
-      <c r="B112" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C112" t="s">
-        <v>4</v>
-      </c>
-      <c r="D112" t="s">
-        <v>88</v>
-      </c>
-      <c r="F112" t="str">
-        <v>C79B45-G_7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>969</v>
-      </c>
-      <c r="B113" t="s">
-        <v>6</v>
-      </c>
-      <c r="C113" t="s">
-        <v>4</v>
-      </c>
-      <c r="D113" t="s">
-        <v>88</v>
-      </c>
-      <c r="F113" t="str">
-        <v>C79B45-G_8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>970</v>
-      </c>
-      <c r="B114" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C114" t="s">
-        <v>4</v>
-      </c>
-      <c r="D114" t="s">
-        <v>78</v>
-      </c>
-      <c r="F114" t="str">
-        <v>C79B45-G_9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>971</v>
-      </c>
-      <c r="B115" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C115" t="s">
-        <v>4</v>
-      </c>
-      <c r="D115" t="s">
-        <v>78</v>
-      </c>
-      <c r="F115" t="str">
-        <v>C79B45-GDB_1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>972</v>
-      </c>
-      <c r="B116" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C116" t="s">
-        <v>4</v>
-      </c>
-      <c r="D116" t="s">
-        <v>78</v>
-      </c>
-      <c r="F116" t="str">
-        <v>C79B45-GDBK_1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>973</v>
-      </c>
-      <c r="B117" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" t="s">
-        <v>4</v>
-      </c>
-      <c r="D117" t="s">
-        <v>78</v>
-      </c>
-      <c r="F117" t="str">
-        <v>C79B45-GDBK_10</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>974</v>
-      </c>
-      <c r="B118" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C118" t="s">
-        <v>4</v>
-      </c>
-      <c r="D118" t="s">
-        <v>93</v>
-      </c>
-      <c r="F118" t="str">
-        <v>C79B45-GDBK_2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>975</v>
-      </c>
-      <c r="B119" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C119" t="s">
-        <v>4</v>
-      </c>
-      <c r="D119" t="s">
-        <v>93</v>
-      </c>
-      <c r="F119" t="str">
-        <v>C79B45-GDBK_3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>976</v>
-      </c>
-      <c r="B120" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C120" t="s">
-        <v>4</v>
-      </c>
-      <c r="D120" t="s">
-        <v>93</v>
-      </c>
-      <c r="F120" t="str">
-        <v>C79B45-GDBK_4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>977</v>
-      </c>
-      <c r="B121" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" t="s">
-        <v>4</v>
-      </c>
-      <c r="D121" t="s">
-        <v>93</v>
-      </c>
-      <c r="F121" t="str">
-        <v>C79B45-GDBK_5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>978</v>
-      </c>
-      <c r="B122" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C122" t="s">
-        <v>4</v>
-      </c>
-      <c r="D122" t="s">
-        <v>88</v>
-      </c>
-      <c r="F122" t="str">
-        <v>C79B45-GDBK_6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>979</v>
-      </c>
-      <c r="B123" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C123" t="s">
-        <v>4</v>
-      </c>
-      <c r="D123" t="s">
-        <v>88</v>
-      </c>
-      <c r="F123" t="str">
-        <v>C79B45-GDBK_7</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>980</v>
-      </c>
-      <c r="B124" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C124" t="s">
-        <v>4</v>
-      </c>
-      <c r="D124" t="s">
-        <v>88</v>
-      </c>
-      <c r="F124" t="str">
-        <v>C79B45-GDBK_8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>981</v>
-      </c>
-      <c r="B125" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" t="s">
-        <v>4</v>
-      </c>
-      <c r="D125" t="s">
-        <v>88</v>
-      </c>
-      <c r="F125" t="str">
-        <v>C79B45-GDBK_9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>487</v>
-      </c>
-      <c r="B126" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C126" t="s">
-        <v>4</v>
-      </c>
-      <c r="D126" t="s">
-        <v>102</v>
-      </c>
-      <c r="F126" t="str">
-        <v>C79B45-GST_1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>982</v>
-      </c>
-      <c r="B127" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C127" t="s">
-        <v>4</v>
-      </c>
-      <c r="D127" t="s">
-        <v>102</v>
-      </c>
-      <c r="F127" t="str">
-        <v>C79B45-GSTK_1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>983</v>
-      </c>
-      <c r="B128" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C128" t="s">
-        <v>4</v>
-      </c>
-      <c r="D128" t="s">
-        <v>98</v>
-      </c>
-      <c r="F128" t="str">
-        <v>C79B45-GSTK_10</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>984</v>
-      </c>
-      <c r="B129" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C129" t="s">
-        <v>4</v>
-      </c>
-      <c r="D129" t="s">
-        <v>98</v>
-      </c>
-      <c r="F129" t="str">
-        <v>C79B45-GSTK_2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>985</v>
-      </c>
-      <c r="B130" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C130" t="s">
-        <v>4</v>
-      </c>
-      <c r="D130" t="s">
-        <v>98</v>
-      </c>
-      <c r="F130" t="str">
-        <v>C79B45-GSTK_3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>986</v>
-      </c>
-      <c r="B131" t="s">
-        <v>859</v>
-      </c>
-      <c r="C131" t="s">
-        <v>4</v>
-      </c>
-      <c r="D131" t="s">
-        <v>89</v>
-      </c>
-      <c r="F131" t="str">
-        <v>C79B45-GSTK_4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>987</v>
-      </c>
-      <c r="B132" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C132" t="s">
-        <v>4</v>
-      </c>
-      <c r="D132" t="s">
-        <v>98</v>
-      </c>
-      <c r="F132" t="str">
-        <v>C79B45-GSTK_5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>988</v>
-      </c>
-      <c r="B133" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C133" t="s">
-        <v>4</v>
-      </c>
-      <c r="D133" t="s">
-        <v>98</v>
-      </c>
-      <c r="F133" t="str">
-        <v>C79B45-GSTK_6</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>989</v>
-      </c>
-      <c r="B134" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C134" t="s">
-        <v>4</v>
-      </c>
-      <c r="D134" t="s">
-        <v>98</v>
-      </c>
-      <c r="F134" t="str">
-        <v>C79B45-GSTK_7</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>990</v>
-      </c>
-      <c r="B135" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C135" t="s">
-        <v>4</v>
-      </c>
-      <c r="D135" t="s">
-        <v>98</v>
-      </c>
-      <c r="F135" t="str">
-        <v>C79B45-GSTK_8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>991</v>
-      </c>
-      <c r="B136" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C136" t="s">
-        <v>4</v>
-      </c>
-      <c r="D136" t="s">
-        <v>98</v>
-      </c>
-      <c r="F136" t="str">
-        <v>C79B45-GSTK_9</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>992</v>
-      </c>
-      <c r="B137" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C137" t="s">
-        <v>4</v>
-      </c>
-      <c r="D137" t="s">
-        <v>102</v>
-      </c>
-      <c r="F137" t="str">
-        <v>C79B50-G_5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>993</v>
-      </c>
-      <c r="B138" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C138" t="s">
-        <v>4</v>
-      </c>
-      <c r="D138" t="s">
-        <v>98</v>
-      </c>
-      <c r="F138" t="str">
-        <v>C79B50-G_6</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>994</v>
-      </c>
-      <c r="B139" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C139" t="s">
-        <v>4</v>
-      </c>
-      <c r="D139" t="s">
-        <v>98</v>
-      </c>
-      <c r="F139" t="str">
-        <v>C79B50-G_7</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>995</v>
-      </c>
-      <c r="B140" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C140" t="s">
-        <v>4</v>
-      </c>
-      <c r="D140" t="s">
-        <v>98</v>
-      </c>
-      <c r="F140" t="str">
-        <v>C79B50-G_8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>996</v>
-      </c>
-      <c r="B141" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C141" t="s">
-        <v>4</v>
-      </c>
-      <c r="D141" t="s">
-        <v>98</v>
-      </c>
-      <c r="F141" t="str">
-        <v>C79B50-G_9</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>997</v>
-      </c>
-      <c r="B142" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C142" t="s">
-        <v>4</v>
-      </c>
-      <c r="D142" t="s">
-        <v>98</v>
-      </c>
-      <c r="F142" t="str">
-        <v>C79B50-GDB_1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>998</v>
-      </c>
-      <c r="B143" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C143" t="s">
-        <v>4</v>
-      </c>
-      <c r="D143" t="s">
-        <v>98</v>
-      </c>
-      <c r="F143" t="str">
-        <v>C79B50-GDBK_1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>999</v>
-      </c>
-      <c r="B144" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C144" t="s">
-        <v>4</v>
-      </c>
-      <c r="D144" t="s">
-        <v>98</v>
-      </c>
-      <c r="F144" t="str">
-        <v>C79B50-GDBK_10</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B145" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C145" t="s">
-        <v>4</v>
-      </c>
-      <c r="D145" t="s">
-        <v>98</v>
-      </c>
-      <c r="F145" t="str">
-        <v>C79B50-GDBK_2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B146" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C146" t="s">
-        <v>4</v>
-      </c>
-      <c r="D146" t="s">
-        <v>98</v>
-      </c>
-      <c r="F146" t="str">
-        <v>C79B50-GDBK_3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B147" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C147" t="s">
-        <v>4</v>
-      </c>
-      <c r="D147" t="s">
-        <v>98</v>
-      </c>
-      <c r="F147" t="str">
-        <v>C79B50-GDBK_4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B148" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C148" t="s">
-        <v>4</v>
-      </c>
-      <c r="D148" t="s">
-        <v>102</v>
-      </c>
-      <c r="F148" t="str">
-        <v>C79B50-GDBK_5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B149" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C149" t="s">
-        <v>4</v>
-      </c>
-      <c r="D149" t="s">
-        <v>98</v>
-      </c>
-      <c r="F149" t="str">
-        <v>C79B50-GDBK_6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B150" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C150" t="s">
-        <v>4</v>
-      </c>
-      <c r="D150" t="s">
-        <v>98</v>
-      </c>
-      <c r="F150" t="str">
-        <v>C79B50-GDBK_7</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B151" t="s">
-        <v>1305</v>
-      </c>
-      <c r="C151" t="s">
-        <v>4</v>
-      </c>
-      <c r="D151" t="s">
-        <v>98</v>
-      </c>
-      <c r="F151" t="str">
-        <v>C79B50-GDBK_8</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B152" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C152" t="s">
-        <v>4</v>
-      </c>
-      <c r="D152" t="s">
-        <v>98</v>
-      </c>
-      <c r="F152" t="str">
-        <v>C79B50-GDBK_9</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B153" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C153" t="s">
-        <v>4</v>
-      </c>
-      <c r="D153" t="s">
-        <v>98</v>
-      </c>
-      <c r="F153" t="str">
-        <v>C79B50-GST_1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B154" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C154" t="s">
-        <v>4</v>
-      </c>
-      <c r="D154" t="s">
-        <v>98</v>
-      </c>
-      <c r="F154" t="str">
-        <v>C79B50-GSTK_1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B155" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C155" t="s">
-        <v>4</v>
-      </c>
-      <c r="D155" t="s">
-        <v>98</v>
-      </c>
-      <c r="F155" t="str">
-        <v>C79B50-GSTK_10</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B156" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C156" t="s">
-        <v>4</v>
-      </c>
-      <c r="D156" t="s">
-        <v>98</v>
-      </c>
-      <c r="F156" t="str">
-        <v>C79B50-GSTK_2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B157" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C157" t="s">
-        <v>4</v>
-      </c>
-      <c r="D157" t="s">
-        <v>98</v>
-      </c>
-      <c r="F157" t="str">
-        <v>C79B50-GSTK_3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B158" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C158" t="s">
-        <v>4</v>
-      </c>
-      <c r="D158" t="s">
-        <v>98</v>
-      </c>
-      <c r="F158" t="str">
-        <v>C79B50-GSTK_4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B159" t="s">
-        <v>92</v>
-      </c>
-      <c r="C159" t="s">
-        <v>4</v>
-      </c>
-      <c r="D159" t="s">
-        <v>102</v>
-      </c>
-      <c r="F159" t="str">
-        <v>C79B50-GSTK_5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B160" t="s">
-        <v>92</v>
-      </c>
-      <c r="C160" t="s">
-        <v>4</v>
-      </c>
-      <c r="D160" t="s">
-        <v>98</v>
-      </c>
-      <c r="F160" t="str">
-        <v>C79B50-GSTK_6</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B161" t="s">
-        <v>94</v>
-      </c>
-      <c r="C161" t="s">
-        <v>4</v>
-      </c>
-      <c r="D161" t="s">
-        <v>98</v>
-      </c>
-      <c r="F161" t="str">
-        <v>C79B50-GSTK_7</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B162" t="s">
-        <v>95</v>
-      </c>
-      <c r="C162" t="s">
-        <v>4</v>
-      </c>
-      <c r="D162" t="s">
-        <v>98</v>
-      </c>
-      <c r="F162" t="str">
-        <v>C79B50-GSTK_8</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B163" t="s">
-        <v>96</v>
-      </c>
-      <c r="C163" t="s">
-        <v>4</v>
-      </c>
-      <c r="D163" t="s">
-        <v>98</v>
-      </c>
-      <c r="F163" t="str">
-        <v>C79B50-GSTK_9</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B164" t="s">
-        <v>6</v>
-      </c>
-      <c r="C164" t="s">
-        <v>4</v>
-      </c>
-      <c r="D164" t="s">
-        <v>98</v>
-      </c>
-      <c r="F164" t="str">
-        <v>C79B55-G_5</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B165" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" t="s">
-        <v>4</v>
-      </c>
-      <c r="D165" t="s">
-        <v>98</v>
-      </c>
-      <c r="F165" t="str">
-        <v>C79B55-G_6</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B166" t="s">
-        <v>8</v>
-      </c>
-      <c r="C166" t="s">
-        <v>4</v>
-      </c>
-      <c r="D166" t="s">
-        <v>98</v>
-      </c>
-      <c r="F166" t="str">
-        <v>C79B55-G_7</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B167" t="s">
-        <v>9</v>
-      </c>
-      <c r="C167" t="s">
-        <v>4</v>
-      </c>
-      <c r="D167" t="s">
-        <v>98</v>
-      </c>
-      <c r="F167" t="str">
-        <v>C79B55-G_8</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B168" t="s">
-        <v>10</v>
-      </c>
-      <c r="C168" t="s">
-        <v>4</v>
-      </c>
-      <c r="D168" t="s">
-        <v>98</v>
-      </c>
-      <c r="F168" t="str">
-        <v>C79B55-G_9</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B169" t="s">
-        <v>97</v>
-      </c>
-      <c r="C169" t="s">
-        <v>4</v>
-      </c>
-      <c r="D169" t="s">
-        <v>98</v>
-      </c>
-      <c r="F169" t="str">
-        <v>C79B55-GDB_1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>497</v>
-      </c>
-      <c r="B170" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C170" t="s">
-        <v>4</v>
-      </c>
-      <c r="D170" t="s">
-        <v>103</v>
-      </c>
-      <c r="F170" t="str">
-        <v>C79B55-GDBK_1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B171" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C171" t="s">
-        <v>4</v>
-      </c>
-      <c r="D171" t="s">
-        <v>103</v>
-      </c>
-      <c r="F171" t="str">
-        <v>C79B55-GDBK_10</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B172" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C172" t="s">
-        <v>4</v>
-      </c>
-      <c r="D172" t="s">
-        <v>99</v>
-      </c>
-      <c r="F172" t="str">
-        <v>C79B55-GDBK_2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B173" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C173" t="s">
-        <v>4</v>
-      </c>
-      <c r="D173" t="s">
-        <v>99</v>
-      </c>
-      <c r="F173" t="str">
-        <v>C79B55-GDBK_3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B174" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C174" t="s">
-        <v>4</v>
-      </c>
-      <c r="D174" t="s">
-        <v>99</v>
-      </c>
-      <c r="F174" t="str">
-        <v>C79B55-GDBK_4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B175" t="s">
-        <v>859</v>
-      </c>
-      <c r="C175" t="s">
-        <v>4</v>
-      </c>
-      <c r="D175" t="s">
-        <v>99</v>
-      </c>
-      <c r="F175" t="str">
-        <v>C79B55-GDBK_5</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B176" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C176" t="s">
-        <v>4</v>
-      </c>
-      <c r="D176" t="s">
-        <v>99</v>
-      </c>
-      <c r="F176" t="str">
-        <v>C79B55-GDBK_6</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C177" t="s">
-        <v>4</v>
-      </c>
-      <c r="D177" t="s">
-        <v>99</v>
-      </c>
-      <c r="F177" t="str">
-        <v>C79B55-GDBK_7</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C178" t="s">
-        <v>4</v>
-      </c>
-      <c r="D178" t="s">
-        <v>99</v>
-      </c>
-      <c r="F178" t="str">
-        <v>C79B55-GDBK_8</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B179" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C179" t="s">
-        <v>4</v>
-      </c>
-      <c r="D179" t="s">
-        <v>99</v>
-      </c>
-      <c r="F179" t="str">
-        <v>C79B55-GDBK_9</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B180" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C180" t="s">
-        <v>4</v>
-      </c>
-      <c r="D180" t="s">
-        <v>99</v>
-      </c>
-      <c r="F180" t="str">
-        <v>C79B55-GST_1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B181" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C181" t="s">
-        <v>4</v>
-      </c>
-      <c r="D181" t="s">
-        <v>103</v>
-      </c>
-      <c r="F181" t="str">
-        <v>C79B55-GSTK_1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B182" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C182" t="s">
-        <v>4</v>
-      </c>
-      <c r="D182" t="s">
-        <v>99</v>
-      </c>
-      <c r="F182" t="str">
-        <v>C79B55-GSTK_10</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B183" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C183" t="s">
-        <v>4</v>
-      </c>
-      <c r="D183" t="s">
-        <v>99</v>
-      </c>
-      <c r="F183" t="str">
-        <v>C79B55-GSTK_2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B184" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C184" t="s">
-        <v>4</v>
-      </c>
-      <c r="D184" t="s">
-        <v>99</v>
-      </c>
-      <c r="F184" t="str">
-        <v>C79B55-GSTK_3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B185" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C185" t="s">
-        <v>4</v>
-      </c>
-      <c r="D185" t="s">
-        <v>99</v>
-      </c>
-      <c r="F185" t="str">
-        <v>C79B55-GSTK_4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B186" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C186" t="s">
-        <v>4</v>
-      </c>
-      <c r="D186" t="s">
-        <v>99</v>
-      </c>
-      <c r="F186" t="str">
-        <v>C79B55-GSTK_5</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B187" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C187" t="s">
-        <v>4</v>
-      </c>
-      <c r="D187" t="s">
-        <v>99</v>
-      </c>
-      <c r="F187" t="str">
-        <v>C79B55-GSTK_6</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B188" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C188" t="s">
-        <v>4</v>
-      </c>
-      <c r="D188" t="s">
-        <v>99</v>
-      </c>
-      <c r="F188" t="str">
-        <v>C79B55-GSTK_7</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B189" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C189" t="s">
-        <v>4</v>
-      </c>
-      <c r="D189" t="s">
-        <v>99</v>
-      </c>
-      <c r="F189" t="str">
-        <v>C79B55-GSTK_8</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B190" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C190" t="s">
-        <v>4</v>
-      </c>
-      <c r="D190" t="s">
-        <v>99</v>
-      </c>
-      <c r="F190" t="str">
-        <v>C79B55-GSTK_9</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B191" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C191" t="s">
-        <v>4</v>
-      </c>
-      <c r="D191" t="s">
-        <v>99</v>
-      </c>
-      <c r="F191" t="str">
-        <v>C79B60-G_5</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B192" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C192" t="s">
-        <v>4</v>
-      </c>
-      <c r="D192" t="s">
-        <v>103</v>
-      </c>
-      <c r="F192" t="str">
-        <v>C79B60-G_6</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B193" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C193" t="s">
-        <v>4</v>
-      </c>
-      <c r="D193" t="s">
-        <v>99</v>
-      </c>
-      <c r="F193" t="str">
-        <v>C79B60-G_7</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B194" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C194" t="s">
-        <v>4</v>
-      </c>
-      <c r="D194" t="s">
-        <v>99</v>
-      </c>
-      <c r="F194" t="str">
-        <v>C79B60-G_8</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B195" t="s">
-        <v>1305</v>
-      </c>
-      <c r="C195" t="s">
-        <v>4</v>
-      </c>
-      <c r="D195" t="s">
-        <v>99</v>
-      </c>
-      <c r="F195" t="str">
-        <v>C79B60-G_9</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B196" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C196" t="s">
-        <v>4</v>
-      </c>
-      <c r="D196" t="s">
-        <v>99</v>
-      </c>
-      <c r="F196" t="str">
-        <v>C79B60-GDB_1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B197" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C197" t="s">
-        <v>4</v>
-      </c>
-      <c r="D197" t="s">
-        <v>99</v>
-      </c>
-      <c r="F197" t="str">
-        <v>C79B60-GDBK_1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B198" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C198" t="s">
-        <v>4</v>
-      </c>
-      <c r="D198" t="s">
-        <v>99</v>
-      </c>
-      <c r="F198" t="str">
-        <v>C79B60-GDBK_10</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B199" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C199" t="s">
-        <v>4</v>
-      </c>
-      <c r="D199" t="s">
-        <v>99</v>
-      </c>
-      <c r="F199" t="str">
-        <v>C79B60-GDBK_2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B200" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C200" t="s">
-        <v>4</v>
-      </c>
-      <c r="D200" t="s">
-        <v>99</v>
-      </c>
-      <c r="F200" t="str">
-        <v>C79B60-GDBK_3</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B201" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C201" t="s">
-        <v>4</v>
-      </c>
-      <c r="D201" t="s">
-        <v>99</v>
-      </c>
-      <c r="F201" t="str">
-        <v>C79B60-GDBK_4</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B202" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C202" t="s">
-        <v>4</v>
-      </c>
-      <c r="D202" t="s">
-        <v>99</v>
-      </c>
-      <c r="F202" t="str">
-        <v>C79B60-GDBK_5</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B203" t="s">
-        <v>92</v>
-      </c>
-      <c r="C203" t="s">
-        <v>4</v>
-      </c>
-      <c r="D203" t="s">
-        <v>103</v>
-      </c>
-      <c r="F203" t="str">
-        <v>C79B60-GDBK_6</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B204" t="s">
-        <v>92</v>
-      </c>
-      <c r="C204" t="s">
-        <v>4</v>
-      </c>
-      <c r="D204" t="s">
-        <v>99</v>
-      </c>
-      <c r="F204" t="str">
-        <v>C79B60-GDBK_7</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B205" t="s">
-        <v>94</v>
-      </c>
-      <c r="C205" t="s">
-        <v>4</v>
-      </c>
-      <c r="D205" t="s">
-        <v>99</v>
-      </c>
-      <c r="F205" t="str">
-        <v>C79B60-GDBK_8</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B206" t="s">
-        <v>95</v>
-      </c>
-      <c r="C206" t="s">
-        <v>4</v>
-      </c>
-      <c r="D206" t="s">
-        <v>99</v>
-      </c>
-      <c r="F206" t="str">
-        <v>C79B60-GDBK_9</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B207" t="s">
-        <v>96</v>
-      </c>
-      <c r="C207" t="s">
-        <v>4</v>
-      </c>
-      <c r="D207" t="s">
-        <v>99</v>
-      </c>
-      <c r="F207" t="str">
-        <v>C79B60-GST_1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B208" t="s">
-        <v>6</v>
-      </c>
-      <c r="C208" t="s">
-        <v>4</v>
-      </c>
-      <c r="D208" t="s">
-        <v>99</v>
-      </c>
-      <c r="F208" t="str">
-        <v>C79B60-GSTK_1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B209" t="s">
-        <v>7</v>
-      </c>
-      <c r="C209" t="s">
-        <v>4</v>
-      </c>
-      <c r="D209" t="s">
-        <v>99</v>
-      </c>
-      <c r="F209" t="str">
-        <v>C79B60-GSTK_10</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B210" t="s">
-        <v>8</v>
-      </c>
-      <c r="C210" t="s">
-        <v>4</v>
-      </c>
-      <c r="D210" t="s">
-        <v>99</v>
-      </c>
-      <c r="F210" t="str">
-        <v>C79B60-GSTK_2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B211" t="s">
-        <v>9</v>
-      </c>
-      <c r="C211" t="s">
-        <v>4</v>
-      </c>
-      <c r="D211" t="s">
-        <v>99</v>
-      </c>
-      <c r="F211" t="str">
-        <v>C79B60-GSTK_3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B212" t="s">
-        <v>10</v>
-      </c>
-      <c r="C212" t="s">
-        <v>4</v>
-      </c>
-      <c r="D212" t="s">
-        <v>99</v>
-      </c>
-      <c r="F212" t="str">
-        <v>C79B60-GSTK_4</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B213" t="s">
-        <v>97</v>
-      </c>
-      <c r="C213" t="s">
-        <v>4</v>
-      </c>
-      <c r="D213" t="s">
-        <v>99</v>
-      </c>
-      <c r="F213" t="str">
-        <v>C79B60-GSTK_5</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>507</v>
-      </c>
-      <c r="B214" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C214" t="s">
-        <v>4</v>
-      </c>
-      <c r="D214" t="s">
-        <v>104</v>
-      </c>
-      <c r="F214" t="str">
-        <v>C79B60-GSTK_6</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B215" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C215" t="s">
-        <v>4</v>
-      </c>
-      <c r="D215" t="s">
-        <v>104</v>
-      </c>
-      <c r="F215" t="str">
-        <v>C79B60-GSTK_7</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B216" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C216" t="s">
-        <v>4</v>
-      </c>
-      <c r="D216" t="s">
-        <v>100</v>
-      </c>
-      <c r="F216" t="str">
-        <v>C79B60-GSTK_8</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B217" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C217" t="s">
-        <v>4</v>
-      </c>
-      <c r="D217" t="s">
-        <v>100</v>
-      </c>
-      <c r="F217" t="str">
-        <v>C79B60-GSTK_9</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B218" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C218" t="s">
-        <v>4</v>
-      </c>
-      <c r="D218" t="s">
-        <v>100</v>
-      </c>
-      <c r="F218" t="str">
-        <v>C88B45-G_5</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B219" t="s">
-        <v>859</v>
-      </c>
-      <c r="C219" t="s">
-        <v>4</v>
-      </c>
-      <c r="D219" t="s">
-        <v>91</v>
-      </c>
-      <c r="F219" t="str">
-        <v>C88B45-G_6</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B220" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C220" t="s">
-        <v>4</v>
-      </c>
-      <c r="D220" t="s">
-        <v>100</v>
-      </c>
-      <c r="F220" t="str">
-        <v>C88B45-G_7</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B221" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C221" t="s">
-        <v>4</v>
-      </c>
-      <c r="D221" t="s">
-        <v>100</v>
-      </c>
-      <c r="F221" t="str">
-        <v>C88B45-G_8</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B222" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C222" t="s">
-        <v>4</v>
-      </c>
-      <c r="D222" t="s">
-        <v>100</v>
-      </c>
-      <c r="F222" t="str">
-        <v>C88B45-G_9</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B223" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C223" t="s">
-        <v>4</v>
-      </c>
-      <c r="D223" t="s">
-        <v>100</v>
-      </c>
-      <c r="F223" t="str">
-        <v>C88B45-GDB_1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B224" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C224" t="s">
-        <v>4</v>
-      </c>
-      <c r="D224" t="s">
-        <v>100</v>
-      </c>
-      <c r="F224" t="str">
-        <v>C88B45-GDBK_1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B225" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C225" t="s">
-        <v>4</v>
-      </c>
-      <c r="D225" t="s">
-        <v>104</v>
-      </c>
-      <c r="F225" t="str">
-        <v>C88B45-GDBK_10</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B226" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C226" t="s">
-        <v>4</v>
-      </c>
-      <c r="D226" t="s">
-        <v>100</v>
-      </c>
-      <c r="F226" t="str">
-        <v>C88B45-GDBK_2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B227" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C227" t="s">
-        <v>4</v>
-      </c>
-      <c r="D227" t="s">
-        <v>100</v>
-      </c>
-      <c r="F227" t="str">
-        <v>C88B45-GDBK_3</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B228" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C228" t="s">
-        <v>4</v>
-      </c>
-      <c r="D228" t="s">
-        <v>100</v>
-      </c>
-      <c r="F228" t="str">
-        <v>C88B45-GDBK_4</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B229" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C229" t="s">
-        <v>4</v>
-      </c>
-      <c r="D229" t="s">
-        <v>100</v>
-      </c>
-      <c r="F229" t="str">
-        <v>C88B45-GDBK_5</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B230" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C230" t="s">
-        <v>4</v>
-      </c>
-      <c r="D230" t="s">
-        <v>100</v>
-      </c>
-      <c r="F230" t="str">
-        <v>C88B45-GDBK_6</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B231" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C231" t="s">
-        <v>4</v>
-      </c>
-      <c r="D231" t="s">
-        <v>100</v>
-      </c>
-      <c r="F231" t="str">
-        <v>C88B45-GDBK_7</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B232" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C232" t="s">
-        <v>4</v>
-      </c>
-      <c r="D232" t="s">
-        <v>100</v>
-      </c>
-      <c r="F232" t="str">
-        <v>C88B45-GDBK_8</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B233" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C233" t="s">
-        <v>4</v>
-      </c>
-      <c r="D233" t="s">
-        <v>100</v>
-      </c>
-      <c r="F233" t="str">
-        <v>C88B45-GDBK_9</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B234" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C234" t="s">
-        <v>4</v>
-      </c>
-      <c r="D234" t="s">
-        <v>100</v>
-      </c>
-      <c r="F234" t="str">
-        <v>C88B45-GST_1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B235" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C235" t="s">
-        <v>4</v>
-      </c>
-      <c r="D235" t="s">
-        <v>100</v>
-      </c>
-      <c r="F235" t="str">
-        <v>C88B45-GSTK_1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B236" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C236" t="s">
-        <v>4</v>
-      </c>
-      <c r="D236" t="s">
-        <v>104</v>
-      </c>
-      <c r="F236" t="str">
-        <v>C88B45-GSTK_10</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B237" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C237" t="s">
-        <v>4</v>
-      </c>
-      <c r="D237" t="s">
-        <v>100</v>
-      </c>
-      <c r="F237" t="str">
-        <v>C88B45-GSTK_2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B238" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C238" t="s">
-        <v>4</v>
-      </c>
-      <c r="D238" t="s">
-        <v>100</v>
-      </c>
-      <c r="F238" t="str">
-        <v>C88B45-GSTK_3</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B239" t="s">
-        <v>1305</v>
-      </c>
-      <c r="C239" t="s">
-        <v>4</v>
-      </c>
-      <c r="D239" t="s">
-        <v>100</v>
-      </c>
-      <c r="F239" t="str">
-        <v>C88B45-GSTK_4</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B240" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C240" t="s">
-        <v>4</v>
-      </c>
-      <c r="D240" t="s">
-        <v>100</v>
-      </c>
-      <c r="F240" t="str">
-        <v>C88B45-GSTK_5</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B241" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C241" t="s">
-        <v>4</v>
-      </c>
-      <c r="D241" t="s">
-        <v>100</v>
-      </c>
-      <c r="F241" t="str">
-        <v>C88B45-GSTK_6</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B242" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C242" t="s">
-        <v>4</v>
-      </c>
-      <c r="D242" t="s">
-        <v>100</v>
-      </c>
-      <c r="F242" t="str">
-        <v>C88B45-GSTK_7</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B243" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C243" t="s">
-        <v>4</v>
-      </c>
-      <c r="D243" t="s">
-        <v>100</v>
-      </c>
-      <c r="F243" t="str">
-        <v>C88B45-GSTK_8</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B244" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C244" t="s">
-        <v>4</v>
-      </c>
-      <c r="D244" t="s">
-        <v>100</v>
-      </c>
-      <c r="F244" t="str">
-        <v>C88B45-GSTK_9</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B245" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C245" t="s">
-        <v>4</v>
-      </c>
-      <c r="D245" t="s">
-        <v>100</v>
-      </c>
-      <c r="F245" t="str">
-        <v>C88B50-G_5</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B246" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C246" t="s">
-        <v>4</v>
-      </c>
-      <c r="D246" t="s">
-        <v>100</v>
-      </c>
-      <c r="F246" t="str">
-        <v>C88B50-G_6</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B247" t="s">
-        <v>92</v>
-      </c>
-      <c r="C247" t="s">
-        <v>4</v>
-      </c>
-      <c r="D247" t="s">
-        <v>104</v>
-      </c>
-      <c r="F247" t="str">
-        <v>C88B50-G_7</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B248" t="s">
-        <v>92</v>
-      </c>
-      <c r="C248" t="s">
-        <v>4</v>
-      </c>
-      <c r="D248" t="s">
-        <v>100</v>
-      </c>
-      <c r="F248" t="str">
-        <v>C88B50-G_8</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B249" t="s">
-        <v>94</v>
-      </c>
-      <c r="C249" t="s">
-        <v>4</v>
-      </c>
-      <c r="D249" t="s">
-        <v>100</v>
-      </c>
-      <c r="F249" t="str">
-        <v>C88B50-G_9</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B250" t="s">
-        <v>95</v>
-      </c>
-      <c r="C250" t="s">
-        <v>4</v>
-      </c>
-      <c r="D250" t="s">
-        <v>100</v>
-      </c>
-      <c r="F250" t="str">
-        <v>C88B50-GDB_1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B251" t="s">
-        <v>96</v>
-      </c>
-      <c r="C251" t="s">
-        <v>4</v>
-      </c>
-      <c r="D251" t="s">
-        <v>100</v>
-      </c>
-      <c r="F251" t="str">
-        <v>C88B50-GDBK_1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B252" t="s">
-        <v>6</v>
-      </c>
-      <c r="C252" t="s">
-        <v>4</v>
-      </c>
-      <c r="D252" t="s">
-        <v>100</v>
-      </c>
-      <c r="F252" t="str">
-        <v>C88B50-GDBK_10</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B253" t="s">
-        <v>7</v>
-      </c>
-      <c r="C253" t="s">
-        <v>4</v>
-      </c>
-      <c r="D253" t="s">
-        <v>100</v>
-      </c>
-      <c r="F253" t="str">
-        <v>C88B50-GDBK_2</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B254" t="s">
-        <v>8</v>
-      </c>
-      <c r="C254" t="s">
-        <v>4</v>
-      </c>
-      <c r="D254" t="s">
-        <v>100</v>
-      </c>
-      <c r="F254" t="str">
-        <v>C88B50-GDBK_3</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B255" t="s">
-        <v>9</v>
-      </c>
-      <c r="C255" t="s">
-        <v>4</v>
-      </c>
-      <c r="D255" t="s">
-        <v>100</v>
-      </c>
-      <c r="F255" t="str">
-        <v>C88B50-GDBK_4</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B256" t="s">
-        <v>10</v>
-      </c>
-      <c r="C256" t="s">
-        <v>4</v>
-      </c>
-      <c r="D256" t="s">
-        <v>100</v>
-      </c>
-      <c r="F256" t="str">
-        <v>C88B50-GDBK_5</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B257" t="s">
-        <v>97</v>
-      </c>
-      <c r="C257" t="s">
-        <v>4</v>
-      </c>
-      <c r="D257" t="s">
-        <v>100</v>
-      </c>
-      <c r="F257" t="str">
-        <v>C88B50-GDBK_6</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B258" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C258" t="s">
-        <v>4</v>
-      </c>
-      <c r="D258" t="s">
-        <v>78</v>
-      </c>
-      <c r="F258" t="str">
-        <v>C88B50-GDBK_7</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B259" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C259" t="s">
-        <v>4</v>
-      </c>
-      <c r="D259" t="s">
-        <v>78</v>
-      </c>
-      <c r="F259" t="str">
-        <v>C88B50-GDBK_8</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B260" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C260" t="s">
-        <v>4</v>
-      </c>
-      <c r="D260" t="s">
-        <v>78</v>
-      </c>
-      <c r="F260" t="str">
-        <v>C88B50-GDBK_9</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B261" t="s">
-        <v>8</v>
-      </c>
-      <c r="C261" t="s">
-        <v>4</v>
-      </c>
-      <c r="D261" t="s">
-        <v>78</v>
-      </c>
-      <c r="F261" t="str">
-        <v>C88B50-GST_1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B262" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C262" t="s">
-        <v>4</v>
-      </c>
-      <c r="D262" t="s">
-        <v>93</v>
-      </c>
-      <c r="F262" t="str">
-        <v>C88B50-GSTK_1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B263" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C263" t="s">
-        <v>4</v>
-      </c>
-      <c r="D263" t="s">
-        <v>93</v>
-      </c>
-      <c r="F263" t="str">
-        <v>C88B50-GSTK_10</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B264" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C264" t="s">
-        <v>4</v>
-      </c>
-      <c r="D264" t="s">
-        <v>93</v>
-      </c>
-      <c r="F264" t="str">
-        <v>C88B50-GSTK_2</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B265" t="s">
-        <v>8</v>
-      </c>
-      <c r="C265" t="s">
-        <v>4</v>
-      </c>
-      <c r="D265" t="s">
-        <v>93</v>
-      </c>
-      <c r="F265" t="str">
-        <v>C88B50-GSTK_3</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B266" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C266" t="s">
-        <v>4</v>
-      </c>
-      <c r="D266" t="s">
-        <v>88</v>
-      </c>
-      <c r="F266" t="str">
-        <v>C88B50-GSTK_4</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B267" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C267" t="s">
-        <v>4</v>
-      </c>
-      <c r="D267" t="s">
-        <v>88</v>
-      </c>
-      <c r="F267" t="str">
-        <v>C88B50-GSTK_5</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B268" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C268" t="s">
-        <v>4</v>
-      </c>
-      <c r="D268" t="s">
-        <v>88</v>
-      </c>
-      <c r="F268" t="str">
-        <v>C88B50-GSTK_6</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B269" t="s">
-        <v>8</v>
-      </c>
-      <c r="C269" t="s">
-        <v>4</v>
-      </c>
-      <c r="D269" t="s">
-        <v>88</v>
-      </c>
-      <c r="F269" t="str">
-        <v>C88B50-GSTK_7</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B270" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C270" t="s">
-        <v>4</v>
-      </c>
-      <c r="D270" t="s">
-        <v>78</v>
-      </c>
-      <c r="F270" t="str">
-        <v>C88B50-GSTK_8</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B271" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C271" t="s">
-        <v>4</v>
-      </c>
-      <c r="D271" t="s">
-        <v>78</v>
-      </c>
-      <c r="F271" t="str">
-        <v>C88B50-GSTK_9</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B272" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C272" t="s">
-        <v>4</v>
-      </c>
-      <c r="D272" t="s">
-        <v>78</v>
-      </c>
-      <c r="F272" t="str">
-        <v>C88B55-G_5</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B273" t="s">
-        <v>9</v>
-      </c>
-      <c r="C273" t="s">
-        <v>4</v>
-      </c>
-      <c r="D273" t="s">
-        <v>78</v>
-      </c>
-      <c r="F273" t="str">
-        <v>C88B55-G_6</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B274" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C274" t="s">
-        <v>4</v>
-      </c>
-      <c r="D274" t="s">
-        <v>93</v>
-      </c>
-      <c r="F274" t="str">
-        <v>C88B55-G_7</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B275" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C275" t="s">
-        <v>4</v>
-      </c>
-      <c r="D275" t="s">
-        <v>93</v>
-      </c>
-      <c r="F275" t="str">
-        <v>C88B55-G_8</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B276" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C276" t="s">
-        <v>4</v>
-      </c>
-      <c r="D276" t="s">
-        <v>93</v>
-      </c>
-      <c r="F276" t="str">
-        <v>C88B55-G_9</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B277" t="s">
-        <v>9</v>
-      </c>
-      <c r="C277" t="s">
-        <v>4</v>
-      </c>
-      <c r="D277" t="s">
-        <v>93</v>
-      </c>
-      <c r="F277" t="str">
-        <v>C88B55-GDB_1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B278" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C278" t="s">
-        <v>4</v>
-      </c>
-      <c r="D278" t="s">
-        <v>88</v>
-      </c>
-      <c r="F278" t="str">
-        <v>C88B55-GDBK_1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B279" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C279" t="s">
-        <v>4</v>
-      </c>
-      <c r="D279" t="s">
-        <v>88</v>
-      </c>
-      <c r="F279" t="str">
-        <v>C88B55-GDBK_10</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B280" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C280" t="s">
-        <v>4</v>
-      </c>
-      <c r="D280" t="s">
-        <v>88</v>
-      </c>
-      <c r="F280" t="str">
-        <v>C88B55-GDBK_2</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B281" t="s">
-        <v>9</v>
-      </c>
-      <c r="C281" t="s">
-        <v>4</v>
-      </c>
-      <c r="D281" t="s">
-        <v>88</v>
-      </c>
-      <c r="F281" t="str">
-        <v>C88B55-GDBK_3</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B282" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C282" t="s">
-        <v>4</v>
-      </c>
-      <c r="D282" t="s">
-        <v>78</v>
-      </c>
-      <c r="F282" t="str">
-        <v>C88B55-GDBK_4</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B283" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C283" t="s">
-        <v>4</v>
-      </c>
-      <c r="D283" t="s">
-        <v>78</v>
-      </c>
-      <c r="F283" t="str">
-        <v>C88B55-GDBK_5</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B284" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C284" t="s">
-        <v>4</v>
-      </c>
-      <c r="D284" t="s">
-        <v>78</v>
-      </c>
-      <c r="F284" t="str">
-        <v>C88B55-GDBK_6</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B285" t="s">
-        <v>10</v>
-      </c>
-      <c r="C285" t="s">
-        <v>4</v>
-      </c>
-      <c r="D285" t="s">
-        <v>78</v>
-      </c>
-      <c r="F285" t="str">
-        <v>C88B55-GDBK_7</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B286" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C286" t="s">
-        <v>4</v>
-      </c>
-      <c r="D286" t="s">
-        <v>93</v>
-      </c>
-      <c r="F286" t="str">
-        <v>C88B55-GDBK_8</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B287" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C287" t="s">
-        <v>4</v>
-      </c>
-      <c r="D287" t="s">
-        <v>93</v>
-      </c>
-      <c r="F287" t="str">
-        <v>C88B55-GDBK_9</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B288" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C288" t="s">
-        <v>4</v>
-      </c>
-      <c r="D288" t="s">
-        <v>93</v>
-      </c>
-      <c r="F288" t="str">
-        <v>C88B55-GST_1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B289" t="s">
-        <v>10</v>
-      </c>
-      <c r="C289" t="s">
-        <v>4</v>
-      </c>
-      <c r="D289" t="s">
-        <v>93</v>
-      </c>
-      <c r="F289" t="str">
-        <v>C88B55-GSTK_1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B290" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C290" t="s">
-        <v>4</v>
-      </c>
-      <c r="D290" t="s">
-        <v>88</v>
-      </c>
-      <c r="F290" t="str">
-        <v>C88B55-GSTK_10</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B291" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C291" t="s">
-        <v>4</v>
-      </c>
-      <c r="D291" t="s">
-        <v>88</v>
-      </c>
-      <c r="F291" t="str">
-        <v>C88B55-GSTK_2</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B292" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C292" t="s">
-        <v>4</v>
-      </c>
-      <c r="D292" t="s">
-        <v>88</v>
-      </c>
-      <c r="F292" t="str">
-        <v>C88B55-GSTK_3</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B293" t="s">
-        <v>10</v>
-      </c>
-      <c r="C293" t="s">
-        <v>4</v>
-      </c>
-      <c r="D293" t="s">
-        <v>88</v>
-      </c>
-      <c r="F293" t="str">
-        <v>C88B55-GSTK_4</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B294" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C294" t="s">
-        <v>4</v>
-      </c>
-      <c r="D294" t="s">
-        <v>93</v>
-      </c>
-      <c r="F294" t="str">
-        <v>C88B55-GSTK_5</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B295" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C295" t="s">
-        <v>4</v>
-      </c>
-      <c r="D295" t="s">
-        <v>93</v>
-      </c>
-      <c r="F295" t="str">
-        <v>C88B55-GSTK_6</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B296" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C296" t="s">
-        <v>4</v>
-      </c>
-      <c r="D296" t="s">
-        <v>93</v>
-      </c>
-      <c r="F296" t="str">
-        <v>C88B55-GSTK_7</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B297" t="s">
-        <v>97</v>
-      </c>
-      <c r="C297" t="s">
-        <v>4</v>
-      </c>
-      <c r="D297" t="s">
-        <v>93</v>
-      </c>
-      <c r="F297" t="str">
-        <v>C88B55-GSTK_8</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B298" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C298" t="s">
-        <v>4</v>
-      </c>
-      <c r="D298" t="s">
-        <v>88</v>
-      </c>
-      <c r="F298" t="str">
-        <v>C88B55-GSTK_9</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B299" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C299" t="s">
-        <v>4</v>
-      </c>
-      <c r="D299" t="s">
-        <v>88</v>
-      </c>
-      <c r="F299" t="str">
-        <v>C88B60-G_5</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B300" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C300" t="s">
-        <v>4</v>
-      </c>
-      <c r="D300" t="s">
-        <v>88</v>
-      </c>
-      <c r="F300" t="str">
-        <v>C88B60-G_6</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B301" t="s">
-        <v>97</v>
-      </c>
-      <c r="C301" t="s">
-        <v>4</v>
-      </c>
-      <c r="D301" t="s">
-        <v>88</v>
-      </c>
-      <c r="F301" t="str">
-        <v>C88B60-G_7</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>447</v>
-      </c>
-      <c r="B302" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C302" t="s">
-        <v>4</v>
-      </c>
-      <c r="D302" t="s">
-        <v>33</v>
-      </c>
-      <c r="F302" t="str">
-        <v>C88B60-G_8</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B303" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C303" t="s">
-        <v>4</v>
-      </c>
-      <c r="D303" t="s">
-        <v>33</v>
-      </c>
-      <c r="F303" t="str">
-        <v>C88B60-G_9</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B304" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C304" t="s">
-        <v>4</v>
-      </c>
-      <c r="D304" t="s">
-        <v>89</v>
-      </c>
-      <c r="F304" t="str">
-        <v>C88B60-GDB_1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B305" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C305" t="s">
-        <v>4</v>
-      </c>
-      <c r="D305" t="s">
-        <v>89</v>
-      </c>
-      <c r="F305" t="str">
-        <v>C88B60-GDBK_1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B306" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C306" t="s">
-        <v>4</v>
-      </c>
-      <c r="D306" t="s">
-        <v>89</v>
-      </c>
-      <c r="F306" t="str">
-        <v>C88B60-GDBK_10</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B307" t="s">
-        <v>859</v>
-      </c>
-      <c r="C307" t="s">
-        <v>4</v>
-      </c>
-      <c r="D307" t="s">
-        <v>89</v>
-      </c>
-      <c r="F307" t="str">
-        <v>C88B60-GDBK_2</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B308" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C308" t="s">
-        <v>4</v>
-      </c>
-      <c r="D308" t="s">
-        <v>89</v>
-      </c>
-      <c r="F308" t="str">
-        <v>C88B60-GDBK_3</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B309" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C309" t="s">
-        <v>4</v>
-      </c>
-      <c r="D309" t="s">
-        <v>89</v>
-      </c>
-      <c r="F309" t="str">
-        <v>C88B60-GDBK_4</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B310" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C310" t="s">
-        <v>4</v>
-      </c>
-      <c r="D310" t="s">
-        <v>89</v>
-      </c>
-      <c r="F310" t="str">
-        <v>C88B60-GDBK_5</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B311" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C311" t="s">
-        <v>4</v>
-      </c>
-      <c r="D311" t="s">
-        <v>89</v>
-      </c>
-      <c r="F311" t="str">
-        <v>C88B60-GDBK_6</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B312" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C312" t="s">
-        <v>4</v>
-      </c>
-      <c r="D312" t="s">
-        <v>89</v>
-      </c>
-      <c r="F312" t="str">
-        <v>C88B60-GDBK_7</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B313" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C313" t="s">
-        <v>4</v>
-      </c>
-      <c r="D313" t="s">
-        <v>33</v>
-      </c>
-      <c r="F313" t="str">
-        <v>C88B60-GDBK_8</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B314" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C314" t="s">
-        <v>4</v>
-      </c>
-      <c r="D314" t="s">
-        <v>89</v>
-      </c>
-      <c r="F314" t="str">
-        <v>C88B60-GDBK_9</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B315" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C315" t="s">
-        <v>4</v>
-      </c>
-      <c r="D315" t="s">
-        <v>89</v>
-      </c>
-      <c r="F315" t="str">
-        <v>C88B60-GSTK_1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B316" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C316" t="s">
-        <v>4</v>
-      </c>
-      <c r="D316" t="s">
-        <v>89</v>
-      </c>
-      <c r="F316" t="str">
-        <v>C88B60-GSTK_10</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B317" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C317" t="s">
-        <v>4</v>
-      </c>
-      <c r="D317" t="s">
-        <v>89</v>
-      </c>
-      <c r="F317" t="str">
-        <v>C88B60-GSTK_2</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B318" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C318" t="s">
-        <v>4</v>
-      </c>
-      <c r="D318" t="s">
-        <v>89</v>
-      </c>
-      <c r="F318" t="str">
-        <v>C88B60-GSTK_3</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B319" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C319" t="s">
-        <v>4</v>
-      </c>
-      <c r="D319" t="s">
-        <v>89</v>
-      </c>
-      <c r="F319" t="str">
-        <v>C88B60-GSTK_4</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B320" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C320" t="s">
-        <v>4</v>
-      </c>
-      <c r="D320" t="s">
-        <v>89</v>
-      </c>
-      <c r="F320" t="str">
-        <v>C88B60-GSTK_5</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B321" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C321" t="s">
-        <v>4</v>
-      </c>
-      <c r="D321" t="s">
-        <v>89</v>
-      </c>
-      <c r="F321" t="str">
-        <v>C88B60-GSTK_6</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B322" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C322" t="s">
-        <v>4</v>
-      </c>
-      <c r="D322" t="s">
-        <v>89</v>
-      </c>
-      <c r="F322" t="str">
-        <v>C88B60-GSTK_7</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B323" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C323" t="s">
-        <v>4</v>
-      </c>
-      <c r="D323" t="s">
-        <v>89</v>
-      </c>
-      <c r="F323" t="str">
-        <v>C88B60-GSTK_8</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B324" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C324" t="s">
-        <v>4</v>
-      </c>
-      <c r="D324" t="s">
-        <v>33</v>
-      </c>
-      <c r="F324" t="str">
-        <v>C88B60-GSTK_9</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B325" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C325" t="s">
-        <v>4</v>
-      </c>
-      <c r="D325" t="s">
-        <v>89</v>
-      </c>
-      <c r="F325" t="str">
-        <v>C97B45-G_5</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B326" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C326" t="s">
-        <v>4</v>
-      </c>
-      <c r="D326" t="s">
-        <v>89</v>
-      </c>
-      <c r="F326" t="str">
-        <v>C97B45-G_6</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B327" t="s">
-        <v>1305</v>
-      </c>
-      <c r="C327" t="s">
-        <v>4</v>
-      </c>
-      <c r="D327" t="s">
-        <v>89</v>
-      </c>
-      <c r="F327" t="str">
-        <v>C97B45-G_7</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B328" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C328" t="s">
-        <v>4</v>
-      </c>
-      <c r="D328" t="s">
-        <v>89</v>
-      </c>
-      <c r="F328" t="str">
-        <v>C97B45-G_8</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B329" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C329" t="s">
-        <v>4</v>
-      </c>
-      <c r="D329" t="s">
-        <v>89</v>
-      </c>
-      <c r="F329" t="str">
-        <v>C97B45-G_9</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B330" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C330" t="s">
-        <v>4</v>
-      </c>
-      <c r="D330" t="s">
-        <v>89</v>
-      </c>
-      <c r="F330" t="str">
-        <v>C97B45-GDB_1</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B331" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C331" t="s">
-        <v>4</v>
-      </c>
-      <c r="D331" t="s">
-        <v>89</v>
-      </c>
-      <c r="F331" t="str">
-        <v>C97B45-GDBK_1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B332" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C332" t="s">
-        <v>4</v>
-      </c>
-      <c r="D332" t="s">
-        <v>89</v>
-      </c>
-      <c r="F332" t="str">
-        <v>C97B45-GDBK_10</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B333" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C333" t="s">
-        <v>4</v>
-      </c>
-      <c r="D333" t="s">
-        <v>89</v>
-      </c>
-      <c r="F333" t="str">
-        <v>C97B45-GDBK_2</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B334" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C334" t="s">
-        <v>4</v>
-      </c>
-      <c r="D334" t="s">
-        <v>89</v>
-      </c>
-      <c r="F334" t="str">
-        <v>C97B45-GDBK_3</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B335" t="s">
-        <v>92</v>
-      </c>
-      <c r="C335" t="s">
-        <v>4</v>
-      </c>
-      <c r="D335" t="s">
-        <v>33</v>
-      </c>
-      <c r="F335" t="str">
-        <v>C97B45-GDBK_4</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B336" t="s">
-        <v>92</v>
-      </c>
-      <c r="C336" t="s">
-        <v>4</v>
-      </c>
-      <c r="D336" t="s">
-        <v>89</v>
-      </c>
-      <c r="F336" t="str">
-        <v>C97B45-GDBK_5</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B337" t="s">
-        <v>94</v>
-      </c>
-      <c r="C337" t="s">
-        <v>4</v>
-      </c>
-      <c r="D337" t="s">
-        <v>89</v>
-      </c>
-      <c r="F337" t="str">
-        <v>C97B45-GDBK_6</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B338" t="s">
-        <v>95</v>
-      </c>
-      <c r="C338" t="s">
-        <v>4</v>
-      </c>
-      <c r="D338" t="s">
-        <v>89</v>
-      </c>
-      <c r="F338" t="str">
-        <v>C97B45-GDBK_7</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B339" t="s">
-        <v>96</v>
-      </c>
-      <c r="C339" t="s">
-        <v>4</v>
-      </c>
-      <c r="D339" t="s">
-        <v>89</v>
-      </c>
-      <c r="F339" t="str">
-        <v>C97B45-GDBK_8</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B340" t="s">
-        <v>6</v>
-      </c>
-      <c r="C340" t="s">
-        <v>4</v>
-      </c>
-      <c r="D340" t="s">
-        <v>89</v>
-      </c>
-      <c r="F340" t="str">
-        <v>C97B45-GDBK_9</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B341" t="s">
-        <v>7</v>
-      </c>
-      <c r="C341" t="s">
-        <v>4</v>
-      </c>
-      <c r="D341" t="s">
-        <v>89</v>
-      </c>
-      <c r="F341" t="str">
-        <v>C97B45-GST_1</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B342" t="s">
-        <v>8</v>
-      </c>
-      <c r="C342" t="s">
-        <v>4</v>
-      </c>
-      <c r="D342" t="s">
-        <v>89</v>
-      </c>
-      <c r="F342" t="str">
-        <v>C97B45-GSTK_1</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B343" t="s">
-        <v>9</v>
-      </c>
-      <c r="C343" t="s">
-        <v>4</v>
-      </c>
-      <c r="D343" t="s">
-        <v>89</v>
-      </c>
-      <c r="F343" t="str">
-        <v>C97B45-GSTK_10</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B344" t="s">
-        <v>10</v>
-      </c>
-      <c r="C344" t="s">
-        <v>4</v>
-      </c>
-      <c r="D344" t="s">
-        <v>89</v>
-      </c>
-      <c r="F344" t="str">
-        <v>C97B45-GSTK_2</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B345" t="s">
-        <v>97</v>
-      </c>
-      <c r="C345" t="s">
-        <v>4</v>
-      </c>
-      <c r="D345" t="s">
-        <v>89</v>
-      </c>
-      <c r="F345" t="str">
-        <v>C97B45-GSTK_3</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
-        <v>457</v>
-      </c>
-      <c r="B346" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C346" t="s">
-        <v>4</v>
-      </c>
-      <c r="D346" t="s">
-        <v>34</v>
-      </c>
-      <c r="F346" t="str">
-        <v>C97B45-GSTK_4</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B347" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C347" t="s">
-        <v>4</v>
-      </c>
-      <c r="D347" t="s">
-        <v>34</v>
-      </c>
-      <c r="F347" t="str">
-        <v>C97B45-GSTK_5</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B348" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C348" t="s">
-        <v>4</v>
-      </c>
-      <c r="D348" t="s">
-        <v>90</v>
-      </c>
-      <c r="F348" t="str">
-        <v>C97B45-GSTK_6</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B349" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C349" t="s">
-        <v>4</v>
-      </c>
-      <c r="D349" t="s">
-        <v>90</v>
-      </c>
-      <c r="F349" t="str">
-        <v>C97B45-GSTK_7</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B350" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C350" t="s">
-        <v>4</v>
-      </c>
-      <c r="D350" t="s">
-        <v>90</v>
-      </c>
-      <c r="F350" t="str">
-        <v>C97B45-GSTK_8</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B351" t="s">
-        <v>859</v>
-      </c>
-      <c r="C351" t="s">
-        <v>4</v>
-      </c>
-      <c r="D351" t="s">
-        <v>90</v>
-      </c>
-      <c r="F351" t="str">
-        <v>C97B45-GSTK_9</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B352" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C352" t="s">
-        <v>4</v>
-      </c>
-      <c r="D352" t="s">
-        <v>90</v>
-      </c>
-      <c r="F352" t="str">
-        <v>C97B50-G_5</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B353" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C353" t="s">
-        <v>4</v>
-      </c>
-      <c r="D353" t="s">
-        <v>90</v>
-      </c>
-      <c r="F353" t="str">
-        <v>C97B50-G_6</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B354" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C354" t="s">
-        <v>4</v>
-      </c>
-      <c r="D354" t="s">
-        <v>90</v>
-      </c>
-      <c r="F354" t="str">
-        <v>C97B50-G_7</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B355" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C355" t="s">
-        <v>4</v>
-      </c>
-      <c r="D355" t="s">
-        <v>90</v>
-      </c>
-      <c r="F355" t="str">
-        <v>C97B50-G_8</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B356" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C356" t="s">
-        <v>4</v>
-      </c>
-      <c r="D356" t="s">
-        <v>90</v>
-      </c>
-      <c r="F356" t="str">
-        <v>C97B50-G_9</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B357" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C357" t="s">
-        <v>4</v>
-      </c>
-      <c r="D357" t="s">
-        <v>34</v>
-      </c>
-      <c r="F357" t="str">
-        <v>C97B50-GDB_1</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B358" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C358" t="s">
-        <v>4</v>
-      </c>
-      <c r="D358" t="s">
-        <v>90</v>
-      </c>
-      <c r="F358" t="str">
-        <v>C97B50-GDBK_1</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B359" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C359" t="s">
-        <v>4</v>
-      </c>
-      <c r="D359" t="s">
-        <v>90</v>
-      </c>
-      <c r="F359" t="str">
-        <v>C97B50-GDBK_10</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B360" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C360" t="s">
-        <v>4</v>
-      </c>
-      <c r="D360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F360" t="str">
-        <v>C97B50-GDBK_2</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B361" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C361" t="s">
-        <v>4</v>
-      </c>
-      <c r="D361" t="s">
-        <v>90</v>
-      </c>
-      <c r="F361" t="str">
-        <v>C97B50-GDBK_3</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B362" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C362" t="s">
-        <v>4</v>
-      </c>
-      <c r="D362" t="s">
-        <v>90</v>
-      </c>
-      <c r="F362" t="str">
-        <v>C97B50-GDBK_4</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>1213</v>
-      </c>
-      <c r="B363" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C363" t="s">
-        <v>4</v>
-      </c>
-      <c r="D363" t="s">
-        <v>90</v>
-      </c>
-      <c r="F363" t="str">
-        <v>C97B50-GDBK_5</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B364" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C364" t="s">
-        <v>4</v>
-      </c>
-      <c r="D364" t="s">
-        <v>90</v>
-      </c>
-      <c r="F364" t="str">
-        <v>C97B50-GDBK_6</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B365" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C365" t="s">
-        <v>4</v>
-      </c>
-      <c r="D365" t="s">
-        <v>90</v>
-      </c>
-      <c r="F365" t="str">
-        <v>C97B50-GDBK_7</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B366" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C366" t="s">
-        <v>4</v>
-      </c>
-      <c r="D366" t="s">
-        <v>90</v>
-      </c>
-      <c r="F366" t="str">
-        <v>C97B50-GDBK_8</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B367" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C367" t="s">
-        <v>4</v>
-      </c>
-      <c r="D367" t="s">
-        <v>90</v>
-      </c>
-      <c r="F367" t="str">
-        <v>C97B50-GDBK_9</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B368" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C368" t="s">
-        <v>4</v>
-      </c>
-      <c r="D368" t="s">
-        <v>34</v>
-      </c>
-      <c r="F368" t="str">
-        <v>C97B50-GST_1</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B369" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C369" t="s">
-        <v>4</v>
-      </c>
-      <c r="D369" t="s">
-        <v>90</v>
-      </c>
-      <c r="F369" t="str">
-        <v>C97B50-GSTK_1</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B370" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C370" t="s">
-        <v>4</v>
-      </c>
-      <c r="D370" t="s">
-        <v>90</v>
-      </c>
-      <c r="F370" t="str">
-        <v>C97B50-GSTK_10</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B371" t="s">
-        <v>1305</v>
-      </c>
-      <c r="C371" t="s">
-        <v>4</v>
-      </c>
-      <c r="D371" t="s">
-        <v>90</v>
-      </c>
-      <c r="F371" t="str">
-        <v>C97B50-GSTK_2</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B372" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C372" t="s">
-        <v>4</v>
-      </c>
-      <c r="D372" t="s">
-        <v>90</v>
-      </c>
-      <c r="F372" t="str">
-        <v>C97B50-GSTK_3</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B373" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C373" t="s">
-        <v>4</v>
-      </c>
-      <c r="D373" t="s">
-        <v>90</v>
-      </c>
-      <c r="F373" t="str">
-        <v>C97B50-GSTK_4</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B374" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C374" t="s">
-        <v>4</v>
-      </c>
-      <c r="D374" t="s">
-        <v>90</v>
-      </c>
-      <c r="F374" t="str">
-        <v>C97B50-GSTK_5</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B375" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C375" t="s">
-        <v>4</v>
-      </c>
-      <c r="D375" t="s">
-        <v>90</v>
-      </c>
-      <c r="F375" t="str">
-        <v>C97B50-GSTK_6</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B376" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C376" t="s">
-        <v>4</v>
-      </c>
-      <c r="D376" t="s">
-        <v>90</v>
-      </c>
-      <c r="F376" t="str">
-        <v>C97B50-GSTK_7</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B377" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C377" t="s">
-        <v>4</v>
-      </c>
-      <c r="D377" t="s">
-        <v>90</v>
-      </c>
-      <c r="F377" t="str">
-        <v>C97B50-GSTK_8</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B378" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C378" t="s">
-        <v>4</v>
-      </c>
-      <c r="D378" t="s">
-        <v>90</v>
-      </c>
-      <c r="F378" t="str">
-        <v>C97B50-GSTK_9</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B379" t="s">
-        <v>92</v>
-      </c>
-      <c r="C379" t="s">
-        <v>4</v>
-      </c>
-      <c r="D379" t="s">
-        <v>34</v>
-      </c>
-      <c r="F379" t="str">
-        <v>C97B55-G_5</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B380" t="s">
-        <v>92</v>
-      </c>
-      <c r="C380" t="s">
-        <v>4</v>
-      </c>
-      <c r="D380" t="s">
-        <v>90</v>
-      </c>
-      <c r="F380" t="str">
-        <v>C97B55-G_6</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B381" t="s">
-        <v>94</v>
-      </c>
-      <c r="C381" t="s">
-        <v>4</v>
-      </c>
-      <c r="D381" t="s">
-        <v>90</v>
-      </c>
-      <c r="F381" t="str">
-        <v>C97B55-G_7</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B382" t="s">
-        <v>95</v>
-      </c>
-      <c r="C382" t="s">
-        <v>4</v>
-      </c>
-      <c r="D382" t="s">
-        <v>90</v>
-      </c>
-      <c r="F382" t="str">
-        <v>C97B55-G_8</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B383" t="s">
-        <v>96</v>
-      </c>
-      <c r="C383" t="s">
-        <v>4</v>
-      </c>
-      <c r="D383" t="s">
-        <v>90</v>
-      </c>
-      <c r="F383" t="str">
-        <v>C97B55-G_9</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B384" t="s">
-        <v>6</v>
-      </c>
-      <c r="C384" t="s">
-        <v>4</v>
-      </c>
-      <c r="D384" t="s">
-        <v>90</v>
-      </c>
-      <c r="F384" t="str">
-        <v>C97B55-GDB_1</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B385" t="s">
-        <v>7</v>
-      </c>
-      <c r="C385" t="s">
-        <v>4</v>
-      </c>
-      <c r="D385" t="s">
-        <v>90</v>
-      </c>
-      <c r="F385" t="str">
-        <v>C97B55-GDBK_1</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B386" t="s">
-        <v>8</v>
-      </c>
-      <c r="C386" t="s">
-        <v>4</v>
-      </c>
-      <c r="D386" t="s">
-        <v>90</v>
-      </c>
-      <c r="F386" t="str">
-        <v>C97B55-GDBK_10</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B387" t="s">
-        <v>9</v>
-      </c>
-      <c r="C387" t="s">
-        <v>4</v>
-      </c>
-      <c r="D387" t="s">
-        <v>90</v>
-      </c>
-      <c r="F387" t="str">
-        <v>C97B55-GDBK_2</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B388" t="s">
-        <v>10</v>
-      </c>
-      <c r="C388" t="s">
-        <v>4</v>
-      </c>
-      <c r="D388" t="s">
-        <v>90</v>
-      </c>
-      <c r="F388" t="str">
-        <v>C97B55-GDBK_3</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B389" t="s">
-        <v>97</v>
-      </c>
-      <c r="C389" t="s">
-        <v>4</v>
-      </c>
-      <c r="D389" t="s">
-        <v>90</v>
-      </c>
-      <c r="F389" t="str">
-        <v>C97B55-GDBK_4</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
-        <v>467</v>
-      </c>
-      <c r="B390" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C390" t="s">
-        <v>4</v>
-      </c>
-      <c r="D390" t="s">
-        <v>35</v>
-      </c>
-      <c r="F390" t="str">
-        <v>C97B55-GDBK_5</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B391" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C391" t="s">
-        <v>4</v>
-      </c>
-      <c r="D391" t="s">
-        <v>35</v>
-      </c>
-      <c r="F391" t="str">
-        <v>C97B55-GDBK_6</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B392" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C392" t="s">
-        <v>4</v>
-      </c>
-      <c r="D392" t="s">
-        <v>91</v>
-      </c>
-      <c r="F392" t="str">
-        <v>C97B55-GDBK_7</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B393" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C393" t="s">
-        <v>4</v>
-      </c>
-      <c r="D393" t="s">
-        <v>91</v>
-      </c>
-      <c r="F393" t="str">
-        <v>C97B55-GDBK_8</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B394" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C394" t="s">
-        <v>4</v>
-      </c>
-      <c r="D394" t="s">
-        <v>91</v>
-      </c>
-      <c r="F394" t="str">
-        <v>C97B55-GDBK_9</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B395" t="s">
-        <v>859</v>
-      </c>
-      <c r="C395" t="s">
-        <v>4</v>
-      </c>
-      <c r="D395" t="s">
-        <v>91</v>
-      </c>
-      <c r="F395" t="str">
-        <v>C97B55-GST_1</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B396" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C396" t="s">
-        <v>4</v>
-      </c>
-      <c r="D396" t="s">
-        <v>91</v>
-      </c>
-      <c r="F396" t="str">
-        <v>C97B55-GSTK_1</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B397" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C397" t="s">
-        <v>4</v>
-      </c>
-      <c r="D397" t="s">
-        <v>91</v>
-      </c>
-      <c r="F397" t="str">
-        <v>C97B55-GSTK_10</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B398" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C398" t="s">
-        <v>4</v>
-      </c>
-      <c r="D398" t="s">
-        <v>91</v>
-      </c>
-      <c r="F398" t="str">
-        <v>C97B55-GSTK_2</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B399" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C399" t="s">
-        <v>4</v>
-      </c>
-      <c r="D399" t="s">
-        <v>91</v>
-      </c>
-      <c r="F399" t="str">
-        <v>C97B55-GSTK_3</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B400" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C400" t="s">
-        <v>4</v>
-      </c>
-      <c r="D400" t="s">
-        <v>91</v>
-      </c>
-      <c r="F400" t="str">
-        <v>C97B55-GSTK_4</v>
-      </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B401" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C401" t="s">
-        <v>4</v>
-      </c>
-      <c r="D401" t="s">
-        <v>35</v>
-      </c>
-      <c r="F401" t="str">
-        <v>C97B55-GSTK_5</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B402" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C402" t="s">
-        <v>4</v>
-      </c>
-      <c r="D402" t="s">
-        <v>91</v>
-      </c>
-      <c r="F402" t="str">
-        <v>C97B55-GSTK_6</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B403" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C403" t="s">
-        <v>4</v>
-      </c>
-      <c r="D403" t="s">
-        <v>91</v>
-      </c>
-      <c r="F403" t="str">
-        <v>C97B55-GSTK_7</v>
-      </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B404" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C404" t="s">
-        <v>4</v>
-      </c>
-      <c r="D404" t="s">
-        <v>91</v>
-      </c>
-      <c r="F404" t="str">
-        <v>C97B55-GSTK_8</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B405" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C405" t="s">
-        <v>4</v>
-      </c>
-      <c r="D405" t="s">
-        <v>91</v>
-      </c>
-      <c r="F405" t="str">
-        <v>C97B55-GSTK_9</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B406" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C406" t="s">
-        <v>4</v>
-      </c>
-      <c r="D406" t="s">
-        <v>91</v>
-      </c>
-      <c r="F406" t="str">
-        <v>C97B60-G_5</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B407" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C407" t="s">
-        <v>4</v>
-      </c>
-      <c r="D407" t="s">
-        <v>91</v>
-      </c>
-      <c r="F407" t="str">
-        <v>C97B60-G_6</v>
-      </c>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B408" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C408" t="s">
-        <v>4</v>
-      </c>
-      <c r="D408" t="s">
-        <v>91</v>
-      </c>
-      <c r="F408" t="str">
-        <v>C97B60-G_7</v>
-      </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B409" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C409" t="s">
-        <v>4</v>
-      </c>
-      <c r="D409" t="s">
-        <v>91</v>
-      </c>
-      <c r="F409" t="str">
-        <v>C97B60-G_8</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B410" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C410" t="s">
-        <v>4</v>
-      </c>
-      <c r="D410" t="s">
-        <v>91</v>
-      </c>
-      <c r="F410" t="str">
-        <v>C97B60-G_9</v>
-      </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B411" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C411" t="s">
-        <v>4</v>
-      </c>
-      <c r="D411" t="s">
-        <v>91</v>
-      </c>
-      <c r="F411" t="str">
-        <v>C97B60-GDB_1</v>
-      </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B412" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C412" t="s">
-        <v>4</v>
-      </c>
-      <c r="D412" t="s">
-        <v>35</v>
-      </c>
-      <c r="F412" t="str">
-        <v>C97B60-GDBK_1</v>
-      </c>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B413" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C413" t="s">
-        <v>4</v>
-      </c>
-      <c r="D413" t="s">
-        <v>91</v>
-      </c>
-      <c r="F413" t="str">
-        <v>C97B60-GDBK_10</v>
-      </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B414" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C414" t="s">
-        <v>4</v>
-      </c>
-      <c r="D414" t="s">
-        <v>91</v>
-      </c>
-      <c r="F414" t="str">
-        <v>C97B60-GDBK_2</v>
-      </c>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B415" t="s">
-        <v>1305</v>
-      </c>
-      <c r="C415" t="s">
-        <v>4</v>
-      </c>
-      <c r="D415" t="s">
-        <v>91</v>
-      </c>
-      <c r="F415" t="str">
-        <v>C97B60-GDBK_3</v>
-      </c>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B416" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C416" t="s">
-        <v>4</v>
-      </c>
-      <c r="D416" t="s">
-        <v>91</v>
-      </c>
-      <c r="F416" t="str">
-        <v>C97B60-GDBK_4</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B417" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C417" t="s">
-        <v>4</v>
-      </c>
-      <c r="D417" t="s">
-        <v>91</v>
-      </c>
-      <c r="F417" t="str">
-        <v>C97B60-GDBK_5</v>
-      </c>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B418" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C418" t="s">
-        <v>4</v>
-      </c>
-      <c r="D418" t="s">
-        <v>91</v>
-      </c>
-      <c r="F418" t="str">
-        <v>C97B60-GDBK_6</v>
-      </c>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B419" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C419" t="s">
-        <v>4</v>
-      </c>
-      <c r="D419" t="s">
-        <v>91</v>
-      </c>
-      <c r="F419" t="str">
-        <v>C97B60-GDBK_7</v>
-      </c>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B420" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C420" t="s">
-        <v>4</v>
-      </c>
-      <c r="D420" t="s">
-        <v>91</v>
-      </c>
-      <c r="F420" t="str">
-        <v>C97B60-GDBK_8</v>
-      </c>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B421" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C421" t="s">
-        <v>4</v>
-      </c>
-      <c r="D421" t="s">
-        <v>91</v>
-      </c>
-      <c r="F421" t="str">
-        <v>C97B60-GDBK_9</v>
-      </c>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B422" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C422" t="s">
-        <v>4</v>
-      </c>
-      <c r="D422" t="s">
-        <v>91</v>
-      </c>
-      <c r="F422" t="str">
-        <v>C97B60-GST_1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B423" t="s">
-        <v>92</v>
-      </c>
-      <c r="C423" t="s">
-        <v>4</v>
-      </c>
-      <c r="D423" t="s">
-        <v>35</v>
-      </c>
-      <c r="F423" t="str">
-        <v>C97B60-GSTK_1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B424" t="s">
-        <v>92</v>
-      </c>
-      <c r="C424" t="s">
-        <v>4</v>
-      </c>
-      <c r="D424" t="s">
-        <v>91</v>
-      </c>
-      <c r="F424" t="str">
-        <v>C97B60-GSTK_10</v>
-      </c>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B425" t="s">
-        <v>94</v>
-      </c>
-      <c r="C425" t="s">
-        <v>4</v>
-      </c>
-      <c r="D425" t="s">
-        <v>91</v>
-      </c>
-      <c r="F425" t="str">
-        <v>C97B60-GSTK_2</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B426" t="s">
-        <v>95</v>
-      </c>
-      <c r="C426" t="s">
-        <v>4</v>
-      </c>
-      <c r="D426" t="s">
-        <v>91</v>
-      </c>
-      <c r="F426" t="str">
-        <v>C97B60-GSTK_3</v>
-      </c>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B427" t="s">
-        <v>96</v>
-      </c>
-      <c r="C427" t="s">
-        <v>4</v>
-      </c>
-      <c r="D427" t="s">
-        <v>91</v>
-      </c>
-      <c r="F427" t="str">
-        <v>C97B60-GSTK_4</v>
-      </c>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B428" t="s">
-        <v>6</v>
-      </c>
-      <c r="C428" t="s">
-        <v>4</v>
-      </c>
-      <c r="D428" t="s">
-        <v>91</v>
-      </c>
-      <c r="F428" t="str">
-        <v>C97B60-GSTK_5</v>
-      </c>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B429" t="s">
-        <v>7</v>
-      </c>
-      <c r="C429" t="s">
-        <v>4</v>
-      </c>
-      <c r="D429" t="s">
-        <v>91</v>
-      </c>
-      <c r="F429" t="str">
-        <v>C97B60-GSTK_6</v>
-      </c>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B430" t="s">
-        <v>8</v>
-      </c>
-      <c r="C430" t="s">
-        <v>4</v>
-      </c>
-      <c r="D430" t="s">
-        <v>91</v>
-      </c>
-      <c r="F430" t="str">
-        <v>C97B60-GSTK_7</v>
-      </c>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B431" t="s">
-        <v>9</v>
-      </c>
-      <c r="C431" t="s">
-        <v>4</v>
-      </c>
-      <c r="D431" t="s">
-        <v>91</v>
-      </c>
-      <c r="F431" t="str">
-        <v>C97B60-GSTK_8</v>
-      </c>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B432" t="s">
-        <v>10</v>
-      </c>
-      <c r="C432" t="s">
-        <v>4</v>
-      </c>
-      <c r="D432" t="s">
-        <v>91</v>
-      </c>
-      <c r="F432" t="str">
-        <v>C97B60-GSTK_9</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
-        <v>1282</v>
-      </c>
-      <c r="B433" t="s">
-        <v>97</v>
-      </c>
-      <c r="C433" t="s">
-        <v>4</v>
-      </c>
-      <c r="D433" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Batch File/File - Tab - Cell - (start of recursive resolver) - New.xlsx
+++ b/Batch File/File - Tab - Cell - (start of recursive resolver) - New.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mordrel-my.sharepoint.com/personal/matthieu_mordrel_pro/Documents/Work/Projects/Kovera/Project 2/Scripts/Project/Batch File/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="536" documentId="8_{9249E20C-2A1A-4D5B-AF97-066FDAA15AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E005D1A2-28FD-493F-87C3-18D892F36ECF}"/>
+  <xr:revisionPtr revIDLastSave="537" documentId="8_{9249E20C-2A1A-4D5B-AF97-066FDAA15AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6147AF8D-2712-4C6A-A10F-4F3CF3986FC1}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="3510" windowWidth="29040" windowHeight="15840" xr2:uid="{FB1F73C2-3A7C-4D28-BF2A-BCBC768C2592}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="870">
   <si>
     <t>File</t>
   </si>
@@ -2642,9 +2642,6 @@
   </si>
   <si>
     <t>CO15_1</t>
-  </si>
-  <si>
-    <t>H61</t>
   </si>
   <si>
     <t>2022 - P1 Berekening Open Onderkasten 794-KLEUR.xlsx</t>
@@ -2712,7 +2709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2721,7 +2718,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2748,6 +2744,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3097,7 +3097,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3138,7 +3138,7 @@
       <c r="B2" t="s">
         <v>860</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>737</v>
       </c>
       <c r="D2" t="s">
@@ -3152,7 +3152,7 @@
       <c r="B3" t="s">
         <v>860</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>737</v>
       </c>
       <c r="D3" t="s">
@@ -3166,7 +3166,7 @@
       <c r="B4" t="s">
         <v>860</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>737</v>
       </c>
       <c r="D4" t="s">
@@ -3180,7 +3180,7 @@
       <c r="B5" t="s">
         <v>860</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>737</v>
       </c>
       <c r="D5" t="s">
@@ -3194,7 +3194,7 @@
       <c r="B6" t="s">
         <v>860</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>737</v>
       </c>
       <c r="D6" t="s">
@@ -3208,7 +3208,7 @@
       <c r="B7" t="s">
         <v>860</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>737</v>
       </c>
       <c r="D7" t="s">
@@ -3222,7 +3222,7 @@
       <c r="B8" t="s">
         <v>860</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>737</v>
       </c>
       <c r="D8" t="s">
@@ -3234,13 +3234,13 @@
         <v>867</v>
       </c>
       <c r="B9" t="s">
+        <v>868</v>
+      </c>
+      <c r="C9" t="s">
         <v>869</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>870</v>
-      </c>
       <c r="D9" t="s">
-        <v>868</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
